--- a/8. Planifikazioa Egunerokoa/ST EGUNEROKOA.xlsx
+++ b/8. Planifikazioa Egunerokoa/ST EGUNEROKOA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaltamirapaag2\Desktop\ST_Erronka2\8. Planifikazioa Egunerokoa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B878C644-E2F5-4D51-A5E8-118A08FD1624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188BA667-49CF-458C-948C-C34DC0DF1F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2580" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planifikazioa" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planifikazioa!$A$12:$J$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planifikazioa!$A$12:$J$66</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="53">
   <si>
     <t>ENTREGA</t>
   </si>
@@ -204,12 +204,27 @@
   <si>
     <t>APP: Proiektua sortu</t>
   </si>
+  <si>
+    <t>08/01/2024 - 09/02/2024</t>
+  </si>
+  <si>
+    <t>ERP: Odoo instalatu eta konfiguratu gure modulua jarriz</t>
+  </si>
+  <si>
+    <t>APP: Jokoa bukatu beraren segurtasun eta erabilgarritasun onarekin</t>
+  </si>
+  <si>
+    <t>INTERFAZ: Web Orri txukuna eta erabilgarritasun onarekin</t>
+  </si>
+  <si>
+    <t>TALDEA: EGUNEROKOA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -256,10 +271,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Poppins"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Poppins"/>
     </font>
     <font>
@@ -849,7 +860,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -888,52 +899,39 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -951,6 +949,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
@@ -982,42 +989,54 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -1116,216 +1135,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00778B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00778B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00778B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00778B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6E7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00778B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00778B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00778B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00778B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00778B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6E7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1356,9 +1165,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1848589</xdr:colOff>
+      <xdr:colOff>1844779</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>440616</xdr:rowOff>
+      <xdr:rowOff>436806</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1690,10 +1499,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y855"/>
+  <dimension ref="A1:Y860"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1707,18 +1516,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
       <c r="G1" s="10"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="33" t="s">
         <v>33</v>
       </c>
       <c r="K1" s="1"/>
@@ -1738,18 +1547,18 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="1.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="43"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1767,16 +1576,16 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="44"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="35"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1821,17 +1630,17 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1850,22 +1659,22 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63" t="s">
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="27" t="s">
+      <c r="H6" s="55"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="22" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="1"/>
@@ -1885,22 +1694,22 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="37" t="s">
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="37" t="s">
+      <c r="E7" s="65"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="71" t="s">
+      <c r="H7" s="65"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="30" t="s">
         <v>31</v>
       </c>
       <c r="K7" s="1"/>
@@ -1920,20 +1729,20 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="40" t="s">
+      <c r="B8" s="68"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="72" t="s">
+      <c r="H8" s="68"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="31" t="s">
         <v>32</v>
       </c>
       <c r="K8" s="1"/>
@@ -1953,20 +1762,20 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="28" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="73" t="s">
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="32" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="1"/>
@@ -1992,11 +1801,11 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="8"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -2042,30 +1851,30 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="54" t="s">
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="59" t="s">
+      <c r="H12" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="54" t="s">
+      <c r="I12" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="47" t="s">
+      <c r="J12" s="38" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="1"/>
@@ -2085,9 +1894,9 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A13" s="53"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="9" t="s">
         <v>4</v>
       </c>
@@ -2097,10 +1906,10 @@
       <c r="F13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="48"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2117,25 +1926,25 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A14" s="12" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>35</v>
+      <c r="B14" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="64"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="64" t="s">
+      <c r="H14" s="23" t="s">
         <v>30</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="1"/>
@@ -2154,25 +1963,25 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A15" s="12" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>36</v>
+      <c r="B15" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="64"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="64" t="s">
-        <v>30</v>
+      <c r="H15" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="1"/>
@@ -2191,25 +2000,25 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A16" s="12" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>37</v>
+      <c r="B16" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="64"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="13"/>
-      <c r="H16" s="64" t="s">
+      <c r="H16" s="23" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="1"/>
@@ -2228,22 +2037,22 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A17" s="12" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>38</v>
+      <c r="B17" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="66"/>
-      <c r="F17" s="64"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="64" t="s">
-        <v>30</v>
+      <c r="H17" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>28</v>
@@ -2265,62 +2074,52 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A18" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>39</v>
-      </c>
+    <row r="18" spans="1:25" s="78" customFormat="1" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A18" s="74"/>
+      <c r="B18" s="75"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="66"/>
-      <c r="F18" s="64"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="76"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="H18" s="76"/>
+      <c r="I18" s="75"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="77"/>
+      <c r="X18" s="77"/>
+      <c r="Y18" s="77"/>
     </row>
     <row r="19" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>42</v>
+      <c r="B19" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="64" t="s">
-        <v>27</v>
+      <c r="D19" s="23" t="s">
+        <v>30</v>
       </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="64" t="s">
-        <v>27</v>
+      <c r="H19" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="1"/>
@@ -2343,21 +2142,21 @@
       <c r="A20" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>43</v>
+      <c r="B20" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="64" t="s">
-        <v>27</v>
+      <c r="D20" s="23" t="s">
+        <v>30</v>
       </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="64" t="s">
-        <v>27</v>
+      <c r="H20" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="1"/>
@@ -2380,21 +2179,21 @@
       <c r="A21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>40</v>
+      <c r="B21" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="64" t="s">
-        <v>44</v>
+      <c r="D21" s="23" t="s">
+        <v>30</v>
       </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="64" t="s">
-        <v>44</v>
+      <c r="H21" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="1"/>
@@ -2417,23 +2216,23 @@
       <c r="A22" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>41</v>
+      <c r="B22" s="8" t="s">
+        <v>38</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="64" t="s">
-        <v>44</v>
+      <c r="C22" s="13"/>
+      <c r="D22" s="23" t="s">
+        <v>30</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="64" t="s">
-        <v>44</v>
+      <c r="E22" s="25"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
-      <c r="J22" s="16"/>
+      <c r="J22" s="13"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -2454,23 +2253,23 @@
       <c r="A23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>45</v>
+      <c r="B23" s="8" t="s">
+        <v>39</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="65" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="67"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="64" t="s">
+      <c r="E23" s="25"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="23" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
-      <c r="J23" s="16"/>
+      <c r="J23" s="13"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -2491,23 +2290,23 @@
       <c r="A24" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>46</v>
+      <c r="B24" s="8" t="s">
+        <v>42</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="65" t="s">
-        <v>30</v>
+      <c r="C24" s="13"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="23" t="s">
+        <v>27</v>
       </c>
-      <c r="E24" s="67"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="64" t="s">
-        <v>30</v>
+      <c r="G24" s="13"/>
+      <c r="H24" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="16"/>
+      <c r="J24" s="13"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -2528,23 +2327,23 @@
       <c r="A25" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="23" t="s">
-        <v>47</v>
+      <c r="B25" s="8" t="s">
+        <v>43</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="65" t="s">
-        <v>30</v>
+      <c r="C25" s="13"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="23" t="s">
+        <v>27</v>
       </c>
-      <c r="E25" s="67"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="64" t="s">
-        <v>30</v>
+      <c r="G25" s="13"/>
+      <c r="H25" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="16"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2562,16 +2361,26 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A26" s="15"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="16"/>
+      <c r="A26" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="13"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2589,15 +2398,25 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A27" s="14"/>
-      <c r="B27" s="23"/>
+      <c r="A27" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>41</v>
+      </c>
       <c r="C27" s="16"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="65"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="G27" s="16"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="8"/>
+      <c r="H27" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J27" s="16"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -2616,15 +2435,25 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A28" s="12"/>
-      <c r="B28" s="23"/>
+      <c r="A28" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>45</v>
+      </c>
       <c r="C28" s="16"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="65"/>
+      <c r="D28" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="24"/>
       <c r="G28" s="16"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="8"/>
+      <c r="H28" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J28" s="16"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2643,15 +2472,25 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A29" s="17"/>
-      <c r="B29" s="24"/>
+      <c r="A29" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>46</v>
+      </c>
       <c r="C29" s="16"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="65"/>
+      <c r="D29" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="24"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="8"/>
+      <c r="H29" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J29" s="16"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2670,15 +2509,25 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A30" s="17"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>47</v>
+      </c>
       <c r="C30" s="16"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="65"/>
+      <c r="D30" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="24"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="8"/>
+      <c r="H30" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J30" s="16"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2697,14 +2546,14 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A31" s="17"/>
-      <c r="B31" s="24"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="16"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="65"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="24"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="65"/>
+      <c r="H31" s="24"/>
       <c r="I31" s="8"/>
       <c r="J31" s="16"/>
       <c r="K31" s="1"/>
@@ -2724,14 +2573,14 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A32" s="17"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="16"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="65"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="16"/>
-      <c r="H32" s="65"/>
+      <c r="H32" s="24"/>
       <c r="I32" s="8"/>
       <c r="J32" s="16"/>
       <c r="K32" s="1"/>
@@ -2751,16 +2600,16 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A33" s="18"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="65"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="24"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="19"/>
+      <c r="J33" s="16"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2778,16 +2627,16 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A34" s="20"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="69"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="24"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="21"/>
+      <c r="J34" s="16"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2805,16 +2654,16 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A35" s="20"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="69"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="8"/>
-      <c r="J35" s="21"/>
+      <c r="J35" s="16"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2832,16 +2681,16 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A36" s="20"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="69"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="24"/>
       <c r="I36" s="8"/>
-      <c r="J36" s="21"/>
+      <c r="J36" s="16"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2859,16 +2708,16 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A37" s="20"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="69"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="24"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="21"/>
+      <c r="J37" s="16"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2886,16 +2735,16 @@
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A38" s="20"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="69"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="24"/>
       <c r="I38" s="8"/>
-      <c r="J38" s="21"/>
+      <c r="J38" s="19"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2914,13 +2763,13 @@
     </row>
     <row r="39" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A39" s="20"/>
-      <c r="B39" s="26"/>
+      <c r="B39" s="73"/>
       <c r="C39" s="21"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="69"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="28"/>
       <c r="G39" s="21"/>
-      <c r="H39" s="69"/>
+      <c r="H39" s="28"/>
       <c r="I39" s="8"/>
       <c r="J39" s="21"/>
       <c r="K39" s="1"/>
@@ -2941,13 +2790,13 @@
     </row>
     <row r="40" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A40" s="20"/>
-      <c r="B40" s="26"/>
+      <c r="B40" s="73"/>
       <c r="C40" s="21"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="69"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="28"/>
       <c r="G40" s="21"/>
-      <c r="H40" s="69"/>
+      <c r="H40" s="28"/>
       <c r="I40" s="8"/>
       <c r="J40" s="21"/>
       <c r="K40" s="1"/>
@@ -2968,13 +2817,13 @@
     </row>
     <row r="41" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A41" s="20"/>
-      <c r="B41" s="26"/>
+      <c r="B41" s="73"/>
       <c r="C41" s="21"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="69"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="28"/>
       <c r="G41" s="21"/>
-      <c r="H41" s="69"/>
+      <c r="H41" s="28"/>
       <c r="I41" s="8"/>
       <c r="J41" s="21"/>
       <c r="K41" s="1"/>
@@ -2995,13 +2844,13 @@
     </row>
     <row r="42" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A42" s="20"/>
-      <c r="B42" s="26"/>
+      <c r="B42" s="73"/>
       <c r="C42" s="21"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="69"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="28"/>
       <c r="G42" s="21"/>
-      <c r="H42" s="69"/>
+      <c r="H42" s="28"/>
       <c r="I42" s="8"/>
       <c r="J42" s="21"/>
       <c r="K42" s="1"/>
@@ -3022,13 +2871,13 @@
     </row>
     <row r="43" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A43" s="20"/>
-      <c r="B43" s="26"/>
+      <c r="B43" s="73"/>
       <c r="C43" s="21"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="69"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="28"/>
       <c r="G43" s="21"/>
-      <c r="H43" s="69"/>
+      <c r="H43" s="28"/>
       <c r="I43" s="8"/>
       <c r="J43" s="21"/>
       <c r="K43" s="1"/>
@@ -3049,13 +2898,13 @@
     </row>
     <row r="44" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A44" s="20"/>
-      <c r="B44" s="26"/>
+      <c r="B44" s="73"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="69"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="28"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="69"/>
+      <c r="H44" s="28"/>
       <c r="I44" s="8"/>
       <c r="J44" s="21"/>
       <c r="K44" s="1"/>
@@ -3076,13 +2925,13 @@
     </row>
     <row r="45" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A45" s="20"/>
-      <c r="B45" s="26"/>
+      <c r="B45" s="73"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="69"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="28"/>
       <c r="G45" s="21"/>
-      <c r="H45" s="69"/>
+      <c r="H45" s="28"/>
       <c r="I45" s="8"/>
       <c r="J45" s="21"/>
       <c r="K45" s="1"/>
@@ -3103,13 +2952,13 @@
     </row>
     <row r="46" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A46" s="20"/>
-      <c r="B46" s="26"/>
+      <c r="B46" s="73"/>
       <c r="C46" s="21"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="69"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="28"/>
       <c r="G46" s="21"/>
-      <c r="H46" s="69"/>
+      <c r="H46" s="28"/>
       <c r="I46" s="8"/>
       <c r="J46" s="21"/>
       <c r="K46" s="1"/>
@@ -3130,13 +2979,13 @@
     </row>
     <row r="47" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A47" s="20"/>
-      <c r="B47" s="26"/>
+      <c r="B47" s="73"/>
       <c r="C47" s="21"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="69"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="28"/>
       <c r="G47" s="21"/>
-      <c r="H47" s="69"/>
+      <c r="H47" s="28"/>
       <c r="I47" s="8"/>
       <c r="J47" s="21"/>
       <c r="K47" s="1"/>
@@ -3157,13 +3006,13 @@
     </row>
     <row r="48" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A48" s="20"/>
-      <c r="B48" s="26"/>
+      <c r="B48" s="73"/>
       <c r="C48" s="21"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="69"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="28"/>
       <c r="G48" s="21"/>
-      <c r="H48" s="69"/>
+      <c r="H48" s="28"/>
       <c r="I48" s="8"/>
       <c r="J48" s="21"/>
       <c r="K48" s="1"/>
@@ -3184,13 +3033,13 @@
     </row>
     <row r="49" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A49" s="20"/>
-      <c r="B49" s="26"/>
+      <c r="B49" s="73"/>
       <c r="C49" s="21"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="69"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="28"/>
       <c r="G49" s="21"/>
-      <c r="H49" s="69"/>
+      <c r="H49" s="28"/>
       <c r="I49" s="8"/>
       <c r="J49" s="21"/>
       <c r="K49" s="1"/>
@@ -3211,13 +3060,13 @@
     </row>
     <row r="50" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A50" s="20"/>
-      <c r="B50" s="26"/>
+      <c r="B50" s="73"/>
       <c r="C50" s="21"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="69"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="28"/>
       <c r="G50" s="21"/>
-      <c r="H50" s="69"/>
+      <c r="H50" s="28"/>
       <c r="I50" s="8"/>
       <c r="J50" s="21"/>
       <c r="K50" s="1"/>
@@ -3238,13 +3087,13 @@
     </row>
     <row r="51" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A51" s="20"/>
-      <c r="B51" s="26"/>
+      <c r="B51" s="73"/>
       <c r="C51" s="21"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="69"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="28"/>
       <c r="G51" s="21"/>
-      <c r="H51" s="69"/>
+      <c r="H51" s="28"/>
       <c r="I51" s="8"/>
       <c r="J51" s="21"/>
       <c r="K51" s="1"/>
@@ -3265,13 +3114,13 @@
     </row>
     <row r="52" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A52" s="20"/>
-      <c r="B52" s="26"/>
+      <c r="B52" s="73"/>
       <c r="C52" s="21"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="69"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="28"/>
       <c r="G52" s="21"/>
-      <c r="H52" s="69"/>
+      <c r="H52" s="28"/>
       <c r="I52" s="8"/>
       <c r="J52" s="21"/>
       <c r="K52" s="1"/>
@@ -3292,13 +3141,13 @@
     </row>
     <row r="53" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A53" s="20"/>
-      <c r="B53" s="26"/>
+      <c r="B53" s="73"/>
       <c r="C53" s="21"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="69"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="28"/>
       <c r="G53" s="21"/>
-      <c r="H53" s="69"/>
+      <c r="H53" s="28"/>
       <c r="I53" s="8"/>
       <c r="J53" s="21"/>
       <c r="K53" s="1"/>
@@ -3319,13 +3168,13 @@
     </row>
     <row r="54" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A54" s="20"/>
-      <c r="B54" s="26"/>
+      <c r="B54" s="73"/>
       <c r="C54" s="21"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="69"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="28"/>
       <c r="G54" s="21"/>
-      <c r="H54" s="69"/>
+      <c r="H54" s="28"/>
       <c r="I54" s="8"/>
       <c r="J54" s="21"/>
       <c r="K54" s="1"/>
@@ -3346,13 +3195,13 @@
     </row>
     <row r="55" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A55" s="20"/>
-      <c r="B55" s="26"/>
+      <c r="B55" s="73"/>
       <c r="C55" s="21"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="69"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="28"/>
       <c r="G55" s="21"/>
-      <c r="H55" s="69"/>
+      <c r="H55" s="28"/>
       <c r="I55" s="8"/>
       <c r="J55" s="21"/>
       <c r="K55" s="1"/>
@@ -3373,13 +3222,13 @@
     </row>
     <row r="56" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A56" s="20"/>
-      <c r="B56" s="26"/>
+      <c r="B56" s="73"/>
       <c r="C56" s="21"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="69"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="28"/>
       <c r="G56" s="21"/>
-      <c r="H56" s="69"/>
+      <c r="H56" s="28"/>
       <c r="I56" s="8"/>
       <c r="J56" s="21"/>
       <c r="K56" s="1"/>
@@ -3400,13 +3249,13 @@
     </row>
     <row r="57" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A57" s="20"/>
-      <c r="B57" s="26"/>
+      <c r="B57" s="73"/>
       <c r="C57" s="21"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="69"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="28"/>
       <c r="G57" s="21"/>
-      <c r="H57" s="69"/>
+      <c r="H57" s="28"/>
       <c r="I57" s="8"/>
       <c r="J57" s="21"/>
       <c r="K57" s="1"/>
@@ -3427,13 +3276,13 @@
     </row>
     <row r="58" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A58" s="20"/>
-      <c r="B58" s="26"/>
+      <c r="B58" s="73"/>
       <c r="C58" s="21"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="69"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="28"/>
       <c r="G58" s="21"/>
-      <c r="H58" s="69"/>
+      <c r="H58" s="28"/>
       <c r="I58" s="8"/>
       <c r="J58" s="21"/>
       <c r="K58" s="1"/>
@@ -3454,13 +3303,13 @@
     </row>
     <row r="59" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A59" s="20"/>
-      <c r="B59" s="26"/>
+      <c r="B59" s="73"/>
       <c r="C59" s="21"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="69"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="28"/>
       <c r="G59" s="21"/>
-      <c r="H59" s="69"/>
+      <c r="H59" s="28"/>
       <c r="I59" s="8"/>
       <c r="J59" s="21"/>
       <c r="K59" s="1"/>
@@ -3481,13 +3330,13 @@
     </row>
     <row r="60" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A60" s="20"/>
-      <c r="B60" s="26"/>
+      <c r="B60" s="73"/>
       <c r="C60" s="21"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="69"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="28"/>
       <c r="G60" s="21"/>
-      <c r="H60" s="69"/>
+      <c r="H60" s="28"/>
       <c r="I60" s="8"/>
       <c r="J60" s="21"/>
       <c r="K60" s="1"/>
@@ -3508,13 +3357,13 @@
     </row>
     <row r="61" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A61" s="20"/>
-      <c r="B61" s="26"/>
+      <c r="B61" s="73"/>
       <c r="C61" s="21"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="69"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="28"/>
       <c r="G61" s="21"/>
-      <c r="H61" s="69"/>
+      <c r="H61" s="28"/>
       <c r="I61" s="8"/>
       <c r="J61" s="21"/>
       <c r="K61" s="1"/>
@@ -3533,17 +3382,17 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+    <row r="62" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A62" s="20"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="21"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -3560,17 +3409,17 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+    <row r="63" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A63" s="20"/>
+      <c r="B63" s="73"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="21"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -3587,17 +3436,17 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+    <row r="64" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A64" s="20"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="21"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -3614,17 +3463,17 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+    <row r="65" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A65" s="20"/>
+      <c r="B65" s="73"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="21"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -3641,17 +3490,17 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+    <row r="66" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A66" s="20"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="21"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -24971,12 +24820,157 @@
       <c r="X855" s="1"/>
       <c r="Y855" s="1"/>
     </row>
+    <row r="856" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A856" s="1"/>
+      <c r="B856" s="1"/>
+      <c r="C856" s="1"/>
+      <c r="D856" s="1"/>
+      <c r="E856" s="1"/>
+      <c r="F856" s="1"/>
+      <c r="G856" s="1"/>
+      <c r="H856" s="1"/>
+      <c r="I856" s="1"/>
+      <c r="J856" s="1"/>
+      <c r="K856" s="1"/>
+      <c r="L856" s="1"/>
+      <c r="M856" s="1"/>
+      <c r="N856" s="1"/>
+      <c r="O856" s="1"/>
+      <c r="P856" s="1"/>
+      <c r="Q856" s="1"/>
+      <c r="R856" s="1"/>
+      <c r="S856" s="1"/>
+      <c r="T856" s="1"/>
+      <c r="U856" s="1"/>
+      <c r="V856" s="1"/>
+      <c r="W856" s="1"/>
+      <c r="X856" s="1"/>
+      <c r="Y856" s="1"/>
+    </row>
+    <row r="857" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A857" s="1"/>
+      <c r="B857" s="1"/>
+      <c r="C857" s="1"/>
+      <c r="D857" s="1"/>
+      <c r="E857" s="1"/>
+      <c r="F857" s="1"/>
+      <c r="G857" s="1"/>
+      <c r="H857" s="1"/>
+      <c r="I857" s="1"/>
+      <c r="J857" s="1"/>
+      <c r="K857" s="1"/>
+      <c r="L857" s="1"/>
+      <c r="M857" s="1"/>
+      <c r="N857" s="1"/>
+      <c r="O857" s="1"/>
+      <c r="P857" s="1"/>
+      <c r="Q857" s="1"/>
+      <c r="R857" s="1"/>
+      <c r="S857" s="1"/>
+      <c r="T857" s="1"/>
+      <c r="U857" s="1"/>
+      <c r="V857" s="1"/>
+      <c r="W857" s="1"/>
+      <c r="X857" s="1"/>
+      <c r="Y857" s="1"/>
+    </row>
+    <row r="858" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A858" s="1"/>
+      <c r="B858" s="1"/>
+      <c r="C858" s="1"/>
+      <c r="D858" s="1"/>
+      <c r="E858" s="1"/>
+      <c r="F858" s="1"/>
+      <c r="G858" s="1"/>
+      <c r="H858" s="1"/>
+      <c r="I858" s="1"/>
+      <c r="J858" s="1"/>
+      <c r="K858" s="1"/>
+      <c r="L858" s="1"/>
+      <c r="M858" s="1"/>
+      <c r="N858" s="1"/>
+      <c r="O858" s="1"/>
+      <c r="P858" s="1"/>
+      <c r="Q858" s="1"/>
+      <c r="R858" s="1"/>
+      <c r="S858" s="1"/>
+      <c r="T858" s="1"/>
+      <c r="U858" s="1"/>
+      <c r="V858" s="1"/>
+      <c r="W858" s="1"/>
+      <c r="X858" s="1"/>
+      <c r="Y858" s="1"/>
+    </row>
+    <row r="859" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A859" s="1"/>
+      <c r="B859" s="1"/>
+      <c r="C859" s="1"/>
+      <c r="D859" s="1"/>
+      <c r="E859" s="1"/>
+      <c r="F859" s="1"/>
+      <c r="G859" s="1"/>
+      <c r="H859" s="1"/>
+      <c r="I859" s="1"/>
+      <c r="J859" s="1"/>
+      <c r="K859" s="1"/>
+      <c r="L859" s="1"/>
+      <c r="M859" s="1"/>
+      <c r="N859" s="1"/>
+      <c r="O859" s="1"/>
+      <c r="P859" s="1"/>
+      <c r="Q859" s="1"/>
+      <c r="R859" s="1"/>
+      <c r="S859" s="1"/>
+      <c r="T859" s="1"/>
+      <c r="U859" s="1"/>
+      <c r="V859" s="1"/>
+      <c r="W859" s="1"/>
+      <c r="X859" s="1"/>
+      <c r="Y859" s="1"/>
+    </row>
+    <row r="860" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A860" s="1"/>
+      <c r="B860" s="1"/>
+      <c r="C860" s="1"/>
+      <c r="D860" s="1"/>
+      <c r="E860" s="1"/>
+      <c r="F860" s="1"/>
+      <c r="G860" s="1"/>
+      <c r="H860" s="1"/>
+      <c r="I860" s="1"/>
+      <c r="J860" s="1"/>
+      <c r="K860" s="1"/>
+      <c r="L860" s="1"/>
+      <c r="M860" s="1"/>
+      <c r="N860" s="1"/>
+      <c r="O860" s="1"/>
+      <c r="P860" s="1"/>
+      <c r="Q860" s="1"/>
+      <c r="R860" s="1"/>
+      <c r="S860" s="1"/>
+      <c r="T860" s="1"/>
+      <c r="U860" s="1"/>
+      <c r="V860" s="1"/>
+      <c r="W860" s="1"/>
+      <c r="X860" s="1"/>
+      <c r="Y860" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A12:J61" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A12:J66" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="J12:J13"/>
@@ -24993,19 +24987,9 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="B14:B61">
+  <phoneticPr fontId="12" type="noConversion"/>
+  <conditionalFormatting sqref="B14:B66">
     <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="ENPRESA:">
       <formula>NOT(ISERROR(SEARCH("ENPRESA:",B14)))</formula>
     </cfRule>
@@ -25028,12 +25012,12 @@
       <formula>LEFT(B14,LEN("TALDEA:"))="TALDEA:"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D61">
+  <conditionalFormatting sqref="D14:D66">
     <cfRule type="containsText" dxfId="6" priority="20" operator="containsText" text="ST">
       <formula>NOT(ISERROR(SEARCH("ST",D14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F61 H14:H61">
+  <conditionalFormatting sqref="F14:F66 H14:H66">
     <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="EBER">
       <formula>NOT(ISERROR(SEARCH("EBER",F14)))</formula>
     </cfRule>
@@ -25055,24 +25039,27 @@
       <formula>NOT(ISERROR(SEARCH("HASI GABE",I14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="6">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="HORI EZIN DA SARTU" error="Hemen bakarrik EGINDA, PROZESUAN edo HASI GABE, jarri dezakezu." sqref="I14:I1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"HASI GABE,PROZESUAN,EGINDA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A59:A61" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A64:A66" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"16/10/2023 - 20/10/2023,23/10/2023 - 27/10/2023,30/10/2023 - 03/11/2023,06/11/2023 - 10/11/2023,13/11/2023 - 17/11/2023"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="B12:B61" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" sqref="B12:B66" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"TALDEA:,APP:,ERP:,INTERFAZ:,DA:,ZERBITZU:,ENPRESA:,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A58" xr:uid="{B0690D4D-503A-445C-9423-8A1DE5F172F6}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D14:D67" xr:uid="{8B8C812F-662E-488B-9E89-740000F391CE}">
+      <formula1>"ST,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F14:F66 H14:H66" xr:uid="{7A60E001-9678-4D2C-9087-7576F2BE772C}">
+      <formula1>"ANDER,EBER,ST"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31:A63" xr:uid="{B0690D4D-503A-445C-9423-8A1DE5F172F6}">
       <formula1>"8/01/2024 - 12/01/2024,15/01/2024 - 19/01/2024,22/01/2024 - 26/01/2024,29/01/2024 - 2/02/2024,5/02/2024 - 09/02/2024"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D14:D62" xr:uid="{8B8C812F-662E-488B-9E89-740000F391CE}">
-      <formula1>"ST,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F14:F61 H14:H61" xr:uid="{7A60E001-9678-4D2C-9087-7576F2BE772C}">
-      <formula1>"ANDER,EBER,ST"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A30" xr:uid="{2FBF8B83-0318-40CA-A40D-DAA4B7B887A9}">
+      <formula1>"8/01/2024 - 12/01/2024,15/01/2024 - 19/01/2024,22/01/2024 - 26/01/2024,29/01/2024 - 2/02/2024,5/02/2024 - 09/02/2024,08/01/2024 - 09/02/2024"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/8. Planifikazioa Egunerokoa/ST EGUNEROKOA.xlsx
+++ b/8. Planifikazioa Egunerokoa/ST EGUNEROKOA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaltamirapaag2\Desktop\ST_Erronka2\8. Planifikazioa Egunerokoa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188BA667-49CF-458C-948C-C34DC0DF1F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2580" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2580" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Planifikazioa" sheetId="3" r:id="rId1"/>
@@ -23,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="I12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -223,8 +222,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -930,6 +929,58 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -949,15 +1000,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
@@ -989,49 +1031,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1210,9 +1209,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1250,9 +1249,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1287,7 +1286,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1322,7 +1321,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1495,17 +1494,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Y860"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.6640625" bestFit="1" customWidth="1"/>
@@ -1515,19 +1514,19 @@
     <col min="10" max="10" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:25" ht="34.799999999999997" customHeight="1">
+      <c r="A1" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
       <c r="G1" s="10"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="57" t="s">
         <v>33</v>
       </c>
       <c r="K1" s="1"/>
@@ -1546,19 +1545,19 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="1.2">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:25" ht="22.8">
+      <c r="A2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="34"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1575,17 +1574,17 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="35"/>
+    <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="59"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1602,7 +1601,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:25" ht="13.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1629,18 +1628,18 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A5" s="62" t="s">
+    <row r="5" spans="1:25" ht="18" thickBot="1">
+      <c r="A5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1658,22 +1657,22 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:25" ht="19.95" customHeight="1" thickBot="1">
+      <c r="A6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57" t="s">
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="57" t="s">
+      <c r="E6" s="76"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="56"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
       <c r="J6" s="22" t="s">
         <v>17</v>
       </c>
@@ -1693,22 +1692,22 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+    <row r="7" spans="1:25" ht="14.4" customHeight="1">
+      <c r="A7" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="64" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="64" t="s">
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="65"/>
-      <c r="I7" s="66"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="30" t="s">
         <v>31</v>
       </c>
@@ -1728,20 +1727,20 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+    <row r="8" spans="1:25" ht="13.95" customHeight="1">
+      <c r="A8" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="67" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="68"/>
-      <c r="I8" s="69"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="56"/>
       <c r="J8" s="31" t="s">
         <v>32</v>
       </c>
@@ -1761,20 +1760,20 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+    <row r="9" spans="1:25" ht="13.95" customHeight="1" thickBot="1">
+      <c r="A9" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="40" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
       <c r="J9" s="32" t="s">
         <v>23</v>
       </c>
@@ -1794,18 +1793,18 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:25" ht="13.8" thickBot="1">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="8"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1823,7 +1822,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="14.4" thickTop="1" thickBot="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1850,31 +1849,31 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
-      <c r="A12" s="46" t="s">
+    <row r="12" spans="1:25" ht="13.2">
+      <c r="A12" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="48" t="s">
+      <c r="E12" s="72"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="53" t="s">
+      <c r="H12" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="48" t="s">
+      <c r="I12" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="38" t="s">
+      <c r="J12" s="62" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="1"/>
@@ -1893,10 +1892,10 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A13" s="47"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
+    <row r="13" spans="1:25" ht="13.8" thickBot="1">
+      <c r="A13" s="68"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="9" t="s">
         <v>4</v>
       </c>
@@ -1906,10 +1905,10 @@
       <c r="F13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="39"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="63"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1926,7 +1925,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:25" ht="13.2">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
@@ -1963,7 +1962,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:25" ht="13.2">
       <c r="A15" s="12" t="s">
         <v>48</v>
       </c>
@@ -2000,7 +1999,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:25" ht="13.2">
       <c r="A16" s="12" t="s">
         <v>48</v>
       </c>
@@ -2037,7 +2036,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:25" ht="13.2">
       <c r="A17" s="12" t="s">
         <v>48</v>
       </c>
@@ -2074,34 +2073,34 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" s="78" customFormat="1" ht="19.8" x14ac:dyDescent="0.7">
-      <c r="A18" s="74"/>
-      <c r="B18" s="75"/>
+    <row r="18" spans="1:25" s="41" customFormat="1" ht="13.2">
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="76"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="25"/>
-      <c r="F18" s="76"/>
+      <c r="F18" s="39"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="75"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
-      <c r="V18" s="77"/>
-      <c r="W18" s="77"/>
-      <c r="X18" s="77"/>
-      <c r="Y18" s="77"/>
-    </row>
-    <row r="19" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+    </row>
+    <row r="19" spans="1:25" ht="19.2" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
@@ -2138,7 +2137,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:25" ht="19.2" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>34</v>
       </c>
@@ -2175,7 +2174,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:25" ht="19.2" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>34</v>
       </c>
@@ -2212,7 +2211,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:25" ht="19.2" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>34</v>
       </c>
@@ -2249,7 +2248,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:25" ht="19.2" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>34</v>
       </c>
@@ -2286,7 +2285,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:25" ht="19.2" customHeight="1">
       <c r="A24" s="12" t="s">
         <v>34</v>
       </c>
@@ -2323,7 +2322,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:25" ht="19.2" customHeight="1">
       <c r="A25" s="12" t="s">
         <v>34</v>
       </c>
@@ -2360,7 +2359,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:25" ht="19.2" customHeight="1">
       <c r="A26" s="12" t="s">
         <v>34</v>
       </c>
@@ -2378,7 +2377,7 @@
         <v>44</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="1"/>
@@ -2397,11 +2396,11 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:25" ht="19.2" customHeight="1">
       <c r="A27" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="33" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="16"/>
@@ -2415,7 +2414,7 @@
         <v>44</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J27" s="16"/>
       <c r="K27" s="1"/>
@@ -2434,11 +2433,11 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:25" ht="19.2" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="33" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="16"/>
@@ -2452,7 +2451,7 @@
         <v>30</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J28" s="16"/>
       <c r="K28" s="1"/>
@@ -2471,11 +2470,11 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:25" ht="19.2" customHeight="1">
       <c r="A29" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="33" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="16"/>
@@ -2508,11 +2507,11 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:25" ht="19.2" customHeight="1">
       <c r="A30" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="33" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="16"/>
@@ -2545,9 +2544,9 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:25" ht="19.2" customHeight="1">
       <c r="A31" s="15"/>
-      <c r="B31" s="70"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="16"/>
       <c r="D31" s="24"/>
       <c r="E31" s="26"/>
@@ -2572,9 +2571,9 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:25" ht="19.2" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="70"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="16"/>
       <c r="D32" s="24"/>
       <c r="E32" s="26"/>
@@ -2599,9 +2598,9 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:25" ht="19.2" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="70"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="16"/>
       <c r="D33" s="24"/>
       <c r="E33" s="26"/>
@@ -2626,9 +2625,9 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:25" ht="19.2" customHeight="1">
       <c r="A34" s="17"/>
-      <c r="B34" s="71"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="16"/>
       <c r="D34" s="24"/>
       <c r="E34" s="26"/>
@@ -2653,9 +2652,9 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:25" ht="19.2" customHeight="1">
       <c r="A35" s="17"/>
-      <c r="B35" s="71"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="16"/>
       <c r="D35" s="24"/>
       <c r="E35" s="26"/>
@@ -2680,9 +2679,9 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:25" ht="19.2" customHeight="1">
       <c r="A36" s="17"/>
-      <c r="B36" s="71"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="16"/>
       <c r="D36" s="24"/>
       <c r="E36" s="26"/>
@@ -2707,9 +2706,9 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:25" ht="19.2" customHeight="1">
       <c r="A37" s="17"/>
-      <c r="B37" s="71"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="16"/>
       <c r="D37" s="24"/>
       <c r="E37" s="26"/>
@@ -2734,9 +2733,9 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:25" ht="19.2" customHeight="1">
       <c r="A38" s="18"/>
-      <c r="B38" s="72"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="19"/>
       <c r="D38" s="24"/>
       <c r="E38" s="27"/>
@@ -2761,9 +2760,9 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:25" ht="19.2" customHeight="1">
       <c r="A39" s="20"/>
-      <c r="B39" s="73"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="21"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -2788,9 +2787,9 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:25" ht="19.2" customHeight="1">
       <c r="A40" s="20"/>
-      <c r="B40" s="73"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="21"/>
       <c r="D40" s="28"/>
       <c r="E40" s="29"/>
@@ -2815,9 +2814,9 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:25" ht="19.2" customHeight="1">
       <c r="A41" s="20"/>
-      <c r="B41" s="73"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="21"/>
       <c r="D41" s="28"/>
       <c r="E41" s="29"/>
@@ -2842,9 +2841,9 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:25" ht="19.2" customHeight="1">
       <c r="A42" s="20"/>
-      <c r="B42" s="73"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="21"/>
       <c r="D42" s="28"/>
       <c r="E42" s="29"/>
@@ -2869,9 +2868,9 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:25" ht="19.2" customHeight="1">
       <c r="A43" s="20"/>
-      <c r="B43" s="73"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="21"/>
       <c r="D43" s="28"/>
       <c r="E43" s="29"/>
@@ -2896,9 +2895,9 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:25" ht="19.2" customHeight="1">
       <c r="A44" s="20"/>
-      <c r="B44" s="73"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="21"/>
       <c r="D44" s="28"/>
       <c r="E44" s="29"/>
@@ -2923,9 +2922,9 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:25" ht="19.2" customHeight="1">
       <c r="A45" s="20"/>
-      <c r="B45" s="73"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="21"/>
       <c r="D45" s="28"/>
       <c r="E45" s="29"/>
@@ -2950,9 +2949,9 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:25" ht="19.2" customHeight="1">
       <c r="A46" s="20"/>
-      <c r="B46" s="73"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="21"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -2977,9 +2976,9 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:25" ht="19.2" customHeight="1">
       <c r="A47" s="20"/>
-      <c r="B47" s="73"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="21"/>
       <c r="D47" s="28"/>
       <c r="E47" s="29"/>
@@ -3004,9 +3003,9 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:25" ht="19.2" customHeight="1">
       <c r="A48" s="20"/>
-      <c r="B48" s="73"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="21"/>
       <c r="D48" s="28"/>
       <c r="E48" s="29"/>
@@ -3031,9 +3030,9 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:25" ht="19.2" customHeight="1">
       <c r="A49" s="20"/>
-      <c r="B49" s="73"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="21"/>
       <c r="D49" s="28"/>
       <c r="E49" s="29"/>
@@ -3058,9 +3057,9 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:25" ht="19.2" customHeight="1">
       <c r="A50" s="20"/>
-      <c r="B50" s="73"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="21"/>
       <c r="D50" s="28"/>
       <c r="E50" s="29"/>
@@ -3085,9 +3084,9 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:25" ht="19.2" customHeight="1">
       <c r="A51" s="20"/>
-      <c r="B51" s="73"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="21"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -3112,9 +3111,9 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:25" ht="19.2" customHeight="1">
       <c r="A52" s="20"/>
-      <c r="B52" s="73"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="21"/>
       <c r="D52" s="28"/>
       <c r="E52" s="29"/>
@@ -3139,9 +3138,9 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:25" ht="19.2" customHeight="1">
       <c r="A53" s="20"/>
-      <c r="B53" s="73"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="21"/>
       <c r="D53" s="28"/>
       <c r="E53" s="29"/>
@@ -3166,9 +3165,9 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:25" ht="19.2" customHeight="1">
       <c r="A54" s="20"/>
-      <c r="B54" s="73"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="21"/>
       <c r="D54" s="28"/>
       <c r="E54" s="29"/>
@@ -3193,9 +3192,9 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:25" ht="19.2" customHeight="1">
       <c r="A55" s="20"/>
-      <c r="B55" s="73"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="21"/>
       <c r="D55" s="28"/>
       <c r="E55" s="29"/>
@@ -3220,9 +3219,9 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:25" ht="19.2" customHeight="1">
       <c r="A56" s="20"/>
-      <c r="B56" s="73"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="21"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -3247,9 +3246,9 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:25" ht="19.2" customHeight="1">
       <c r="A57" s="20"/>
-      <c r="B57" s="73"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="21"/>
       <c r="D57" s="28"/>
       <c r="E57" s="29"/>
@@ -3274,9 +3273,9 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:25" ht="19.2" customHeight="1">
       <c r="A58" s="20"/>
-      <c r="B58" s="73"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="21"/>
       <c r="D58" s="28"/>
       <c r="E58" s="29"/>
@@ -3301,9 +3300,9 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:25" ht="19.2" customHeight="1">
       <c r="A59" s="20"/>
-      <c r="B59" s="73"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="21"/>
       <c r="D59" s="28"/>
       <c r="E59" s="29"/>
@@ -3328,9 +3327,9 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:25" ht="19.2" customHeight="1">
       <c r="A60" s="20"/>
-      <c r="B60" s="73"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="21"/>
       <c r="D60" s="28"/>
       <c r="E60" s="29"/>
@@ -3355,9 +3354,9 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:25" ht="19.2" customHeight="1">
       <c r="A61" s="20"/>
-      <c r="B61" s="73"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="21"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -3382,9 +3381,9 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:25" ht="19.2" customHeight="1">
       <c r="A62" s="20"/>
-      <c r="B62" s="73"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="21"/>
       <c r="D62" s="28"/>
       <c r="E62" s="29"/>
@@ -3409,9 +3408,9 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:25" ht="19.2" customHeight="1">
       <c r="A63" s="20"/>
-      <c r="B63" s="73"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="21"/>
       <c r="D63" s="28"/>
       <c r="E63" s="29"/>
@@ -3436,9 +3435,9 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:25" ht="19.2" customHeight="1">
       <c r="A64" s="20"/>
-      <c r="B64" s="73"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="21"/>
       <c r="D64" s="28"/>
       <c r="E64" s="29"/>
@@ -3463,9 +3462,9 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:25" ht="19.2" customHeight="1">
       <c r="A65" s="20"/>
-      <c r="B65" s="73"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="21"/>
       <c r="D65" s="28"/>
       <c r="E65" s="29"/>
@@ -3490,9 +3489,9 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:25" ht="19.2" customHeight="1">
       <c r="A66" s="20"/>
-      <c r="B66" s="73"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="21"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -3517,7 +3516,7 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" ht="13.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3544,7 +3543,7 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" ht="13.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3571,7 +3570,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" ht="13.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3598,7 +3597,7 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" ht="13.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3625,7 +3624,7 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" ht="13.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3652,7 +3651,7 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" ht="13.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3679,7 +3678,7 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" ht="13.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3706,7 +3705,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" ht="13.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3733,7 +3732,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" ht="13.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3760,7 +3759,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" ht="13.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3787,7 +3786,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" ht="13.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3814,7 +3813,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" ht="13.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3841,7 +3840,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" ht="13.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3868,7 +3867,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" ht="13.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3895,7 +3894,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" ht="13.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3922,7 +3921,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" ht="13.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3949,7 +3948,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" ht="13.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3976,7 +3975,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" ht="13.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4003,7 +4002,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" ht="13.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4030,7 +4029,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" ht="13.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4057,7 +4056,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" ht="13.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4084,7 +4083,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" ht="13.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4111,7 +4110,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" ht="13.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4138,7 +4137,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" ht="13.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4165,7 +4164,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" ht="13.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4192,7 +4191,7 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" ht="13.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4219,7 +4218,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" ht="13.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4246,7 +4245,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" ht="13.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4273,7 +4272,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" ht="13.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4300,7 +4299,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" ht="13.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4327,7 +4326,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" ht="13.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4354,7 +4353,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" ht="13.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4381,7 +4380,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" ht="13.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4408,7 +4407,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" ht="13.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4435,7 +4434,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" ht="13.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4462,7 +4461,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" ht="13.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4489,7 +4488,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" ht="13.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4516,7 +4515,7 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" ht="13.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4543,7 +4542,7 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" ht="13.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4570,7 +4569,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" ht="13.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4597,7 +4596,7 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" ht="13.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4624,7 +4623,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" ht="13.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4651,7 +4650,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" ht="13.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4678,7 +4677,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" ht="13.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4705,7 +4704,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" ht="13.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4732,7 +4731,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" ht="13.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4759,7 +4758,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" ht="13.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4786,7 +4785,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" ht="13.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4813,7 +4812,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" ht="13.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4840,7 +4839,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" ht="13.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4867,7 +4866,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" ht="13.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4894,7 +4893,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" ht="13.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4921,7 +4920,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" ht="13.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4948,7 +4947,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" ht="13.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4975,7 +4974,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" ht="13.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -5002,7 +5001,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" ht="13.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -5029,7 +5028,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" ht="13.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -5056,7 +5055,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" ht="13.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -5083,7 +5082,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" ht="13.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -5110,7 +5109,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" ht="13.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -5137,7 +5136,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" ht="13.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -5164,7 +5163,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" ht="13.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -5191,7 +5190,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" ht="13.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -5218,7 +5217,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" ht="13.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -5245,7 +5244,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" ht="13.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -5272,7 +5271,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" ht="13.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -5299,7 +5298,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" ht="13.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -5326,7 +5325,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" ht="13.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -5353,7 +5352,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" ht="13.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -5380,7 +5379,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" ht="13.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -5407,7 +5406,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" ht="13.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -5434,7 +5433,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" ht="13.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -5461,7 +5460,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" ht="13.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -5488,7 +5487,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" ht="13.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -5515,7 +5514,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" ht="13.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -5542,7 +5541,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" ht="13.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -5569,7 +5568,7 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" ht="13.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -5596,7 +5595,7 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" ht="13.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -5623,7 +5622,7 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" ht="13.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -5650,7 +5649,7 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" ht="13.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -5677,7 +5676,7 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" ht="13.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -5704,7 +5703,7 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" ht="13.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -5731,7 +5730,7 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" ht="13.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -5758,7 +5757,7 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" ht="13.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -5785,7 +5784,7 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" ht="13.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -5812,7 +5811,7 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" ht="13.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -5839,7 +5838,7 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" ht="13.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -5866,7 +5865,7 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" ht="13.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -5893,7 +5892,7 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" ht="13.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -5920,7 +5919,7 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" ht="13.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5947,7 +5946,7 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" ht="13.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5974,7 +5973,7 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" ht="13.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6001,7 +6000,7 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" ht="13.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6028,7 +6027,7 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" ht="13.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6055,7 +6054,7 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" ht="13.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6082,7 +6081,7 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" ht="13.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6109,7 +6108,7 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" ht="13.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6136,7 +6135,7 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" ht="13.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -6163,7 +6162,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" ht="13.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -6190,7 +6189,7 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" ht="13.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -6217,7 +6216,7 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" ht="13.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6244,7 +6243,7 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" ht="13.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6271,7 +6270,7 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" ht="13.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6298,7 +6297,7 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" ht="13.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6325,7 +6324,7 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" ht="13.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6352,7 +6351,7 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" ht="13.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6379,7 +6378,7 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" ht="13.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6406,7 +6405,7 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" ht="13.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6433,7 +6432,7 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" ht="13.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6460,7 +6459,7 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" ht="13.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6487,7 +6486,7 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" ht="13.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6514,7 +6513,7 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" ht="13.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6541,7 +6540,7 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" ht="13.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -6568,7 +6567,7 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" ht="13.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -6595,7 +6594,7 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" ht="13.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -6622,7 +6621,7 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" ht="13.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -6649,7 +6648,7 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" ht="13.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -6676,7 +6675,7 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" ht="13.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -6703,7 +6702,7 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" ht="13.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -6730,7 +6729,7 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" ht="13.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -6757,7 +6756,7 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" ht="13.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -6784,7 +6783,7 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
     </row>
-    <row r="188" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" ht="13.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -6811,7 +6810,7 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" ht="13.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -6838,7 +6837,7 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" ht="13.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -6865,7 +6864,7 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" ht="13.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -6892,7 +6891,7 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" ht="13.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -6919,7 +6918,7 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" ht="13.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -6946,7 +6945,7 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" ht="13.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -6973,7 +6972,7 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" ht="13.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -7000,7 +6999,7 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" ht="13.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -7027,7 +7026,7 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" ht="13.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -7054,7 +7053,7 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
     </row>
-    <row r="198" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" ht="13.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -7081,7 +7080,7 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" ht="13.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -7108,7 +7107,7 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" ht="13.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -7135,7 +7134,7 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" ht="13.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -7162,7 +7161,7 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" ht="13.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -7189,7 +7188,7 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
     </row>
-    <row r="203" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" ht="13.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -7216,7 +7215,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" ht="13.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -7243,7 +7242,7 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" ht="13.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -7270,7 +7269,7 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" ht="13.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -7297,7 +7296,7 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" ht="13.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -7324,7 +7323,7 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" ht="13.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -7351,7 +7350,7 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" ht="13.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -7378,7 +7377,7 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" ht="13.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -7405,7 +7404,7 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" ht="13.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -7432,7 +7431,7 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" ht="13.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -7459,7 +7458,7 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" ht="13.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -7486,7 +7485,7 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" ht="13.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -7513,7 +7512,7 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" ht="13.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -7540,7 +7539,7 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" ht="13.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -7567,7 +7566,7 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" ht="13.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -7594,7 +7593,7 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
     </row>
-    <row r="218" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" ht="13.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -7621,7 +7620,7 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" ht="13.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -7648,7 +7647,7 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
     </row>
-    <row r="220" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" ht="13.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -7675,7 +7674,7 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
     </row>
-    <row r="221" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25" ht="13.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -7702,7 +7701,7 @@
       <c r="X221" s="1"/>
       <c r="Y221" s="1"/>
     </row>
-    <row r="222" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25" ht="13.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -7729,7 +7728,7 @@
       <c r="X222" s="1"/>
       <c r="Y222" s="1"/>
     </row>
-    <row r="223" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:25" ht="13.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -7756,7 +7755,7 @@
       <c r="X223" s="1"/>
       <c r="Y223" s="1"/>
     </row>
-    <row r="224" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:25" ht="13.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -7783,7 +7782,7 @@
       <c r="X224" s="1"/>
       <c r="Y224" s="1"/>
     </row>
-    <row r="225" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:25" ht="13.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -7810,7 +7809,7 @@
       <c r="X225" s="1"/>
       <c r="Y225" s="1"/>
     </row>
-    <row r="226" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:25" ht="13.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -7837,7 +7836,7 @@
       <c r="X226" s="1"/>
       <c r="Y226" s="1"/>
     </row>
-    <row r="227" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:25" ht="13.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -7864,7 +7863,7 @@
       <c r="X227" s="1"/>
       <c r="Y227" s="1"/>
     </row>
-    <row r="228" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:25" ht="13.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -7891,7 +7890,7 @@
       <c r="X228" s="1"/>
       <c r="Y228" s="1"/>
     </row>
-    <row r="229" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:25" ht="13.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -7918,7 +7917,7 @@
       <c r="X229" s="1"/>
       <c r="Y229" s="1"/>
     </row>
-    <row r="230" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:25" ht="13.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -7945,7 +7944,7 @@
       <c r="X230" s="1"/>
       <c r="Y230" s="1"/>
     </row>
-    <row r="231" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:25" ht="13.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -7972,7 +7971,7 @@
       <c r="X231" s="1"/>
       <c r="Y231" s="1"/>
     </row>
-    <row r="232" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:25" ht="13.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -7999,7 +7998,7 @@
       <c r="X232" s="1"/>
       <c r="Y232" s="1"/>
     </row>
-    <row r="233" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:25" ht="13.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -8026,7 +8025,7 @@
       <c r="X233" s="1"/>
       <c r="Y233" s="1"/>
     </row>
-    <row r="234" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:25" ht="13.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -8053,7 +8052,7 @@
       <c r="X234" s="1"/>
       <c r="Y234" s="1"/>
     </row>
-    <row r="235" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:25" ht="13.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -8080,7 +8079,7 @@
       <c r="X235" s="1"/>
       <c r="Y235" s="1"/>
     </row>
-    <row r="236" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:25" ht="13.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -8107,7 +8106,7 @@
       <c r="X236" s="1"/>
       <c r="Y236" s="1"/>
     </row>
-    <row r="237" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:25" ht="13.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -8134,7 +8133,7 @@
       <c r="X237" s="1"/>
       <c r="Y237" s="1"/>
     </row>
-    <row r="238" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:25" ht="13.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -8161,7 +8160,7 @@
       <c r="X238" s="1"/>
       <c r="Y238" s="1"/>
     </row>
-    <row r="239" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:25" ht="13.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -8188,7 +8187,7 @@
       <c r="X239" s="1"/>
       <c r="Y239" s="1"/>
     </row>
-    <row r="240" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:25" ht="13.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -8215,7 +8214,7 @@
       <c r="X240" s="1"/>
       <c r="Y240" s="1"/>
     </row>
-    <row r="241" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:25" ht="13.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -8242,7 +8241,7 @@
       <c r="X241" s="1"/>
       <c r="Y241" s="1"/>
     </row>
-    <row r="242" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:25" ht="13.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -8269,7 +8268,7 @@
       <c r="X242" s="1"/>
       <c r="Y242" s="1"/>
     </row>
-    <row r="243" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:25" ht="13.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -8296,7 +8295,7 @@
       <c r="X243" s="1"/>
       <c r="Y243" s="1"/>
     </row>
-    <row r="244" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:25" ht="13.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -8323,7 +8322,7 @@
       <c r="X244" s="1"/>
       <c r="Y244" s="1"/>
     </row>
-    <row r="245" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:25" ht="13.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -8350,7 +8349,7 @@
       <c r="X245" s="1"/>
       <c r="Y245" s="1"/>
     </row>
-    <row r="246" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:25" ht="13.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -8377,7 +8376,7 @@
       <c r="X246" s="1"/>
       <c r="Y246" s="1"/>
     </row>
-    <row r="247" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:25" ht="13.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -8404,7 +8403,7 @@
       <c r="X247" s="1"/>
       <c r="Y247" s="1"/>
     </row>
-    <row r="248" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:25" ht="13.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -8431,7 +8430,7 @@
       <c r="X248" s="1"/>
       <c r="Y248" s="1"/>
     </row>
-    <row r="249" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:25" ht="13.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -8458,7 +8457,7 @@
       <c r="X249" s="1"/>
       <c r="Y249" s="1"/>
     </row>
-    <row r="250" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:25" ht="13.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -8485,7 +8484,7 @@
       <c r="X250" s="1"/>
       <c r="Y250" s="1"/>
     </row>
-    <row r="251" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:25" ht="13.2">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -8512,7 +8511,7 @@
       <c r="X251" s="1"/>
       <c r="Y251" s="1"/>
     </row>
-    <row r="252" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:25" ht="13.2">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -8539,7 +8538,7 @@
       <c r="X252" s="1"/>
       <c r="Y252" s="1"/>
     </row>
-    <row r="253" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:25" ht="13.2">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -8566,7 +8565,7 @@
       <c r="X253" s="1"/>
       <c r="Y253" s="1"/>
     </row>
-    <row r="254" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:25" ht="13.2">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -8593,7 +8592,7 @@
       <c r="X254" s="1"/>
       <c r="Y254" s="1"/>
     </row>
-    <row r="255" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:25" ht="13.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -8620,7 +8619,7 @@
       <c r="X255" s="1"/>
       <c r="Y255" s="1"/>
     </row>
-    <row r="256" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:25" ht="13.2">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -8647,7 +8646,7 @@
       <c r="X256" s="1"/>
       <c r="Y256" s="1"/>
     </row>
-    <row r="257" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:25" ht="13.2">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -8674,7 +8673,7 @@
       <c r="X257" s="1"/>
       <c r="Y257" s="1"/>
     </row>
-    <row r="258" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:25" ht="13.2">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -8701,7 +8700,7 @@
       <c r="X258" s="1"/>
       <c r="Y258" s="1"/>
     </row>
-    <row r="259" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:25" ht="13.2">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -8728,7 +8727,7 @@
       <c r="X259" s="1"/>
       <c r="Y259" s="1"/>
     </row>
-    <row r="260" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:25" ht="13.2">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -8755,7 +8754,7 @@
       <c r="X260" s="1"/>
       <c r="Y260" s="1"/>
     </row>
-    <row r="261" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:25" ht="13.2">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -8782,7 +8781,7 @@
       <c r="X261" s="1"/>
       <c r="Y261" s="1"/>
     </row>
-    <row r="262" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:25" ht="13.2">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -8809,7 +8808,7 @@
       <c r="X262" s="1"/>
       <c r="Y262" s="1"/>
     </row>
-    <row r="263" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:25" ht="13.2">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -8836,7 +8835,7 @@
       <c r="X263" s="1"/>
       <c r="Y263" s="1"/>
     </row>
-    <row r="264" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:25" ht="13.2">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -8863,7 +8862,7 @@
       <c r="X264" s="1"/>
       <c r="Y264" s="1"/>
     </row>
-    <row r="265" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:25" ht="13.2">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -8890,7 +8889,7 @@
       <c r="X265" s="1"/>
       <c r="Y265" s="1"/>
     </row>
-    <row r="266" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:25" ht="13.2">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -8917,7 +8916,7 @@
       <c r="X266" s="1"/>
       <c r="Y266" s="1"/>
     </row>
-    <row r="267" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:25" ht="13.2">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -8944,7 +8943,7 @@
       <c r="X267" s="1"/>
       <c r="Y267" s="1"/>
     </row>
-    <row r="268" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:25" ht="13.2">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -8971,7 +8970,7 @@
       <c r="X268" s="1"/>
       <c r="Y268" s="1"/>
     </row>
-    <row r="269" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:25" ht="13.2">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -8998,7 +8997,7 @@
       <c r="X269" s="1"/>
       <c r="Y269" s="1"/>
     </row>
-    <row r="270" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:25" ht="13.2">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -9025,7 +9024,7 @@
       <c r="X270" s="1"/>
       <c r="Y270" s="1"/>
     </row>
-    <row r="271" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:25" ht="13.2">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -9052,7 +9051,7 @@
       <c r="X271" s="1"/>
       <c r="Y271" s="1"/>
     </row>
-    <row r="272" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:25" ht="13.2">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -9079,7 +9078,7 @@
       <c r="X272" s="1"/>
       <c r="Y272" s="1"/>
     </row>
-    <row r="273" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:25" ht="13.2">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -9106,7 +9105,7 @@
       <c r="X273" s="1"/>
       <c r="Y273" s="1"/>
     </row>
-    <row r="274" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:25" ht="13.2">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -9133,7 +9132,7 @@
       <c r="X274" s="1"/>
       <c r="Y274" s="1"/>
     </row>
-    <row r="275" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:25" ht="13.2">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -9160,7 +9159,7 @@
       <c r="X275" s="1"/>
       <c r="Y275" s="1"/>
     </row>
-    <row r="276" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:25" ht="13.2">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -9187,7 +9186,7 @@
       <c r="X276" s="1"/>
       <c r="Y276" s="1"/>
     </row>
-    <row r="277" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:25" ht="13.2">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -9214,7 +9213,7 @@
       <c r="X277" s="1"/>
       <c r="Y277" s="1"/>
     </row>
-    <row r="278" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:25" ht="13.2">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -9241,7 +9240,7 @@
       <c r="X278" s="1"/>
       <c r="Y278" s="1"/>
     </row>
-    <row r="279" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:25" ht="13.2">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -9268,7 +9267,7 @@
       <c r="X279" s="1"/>
       <c r="Y279" s="1"/>
     </row>
-    <row r="280" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:25" ht="13.2">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -9295,7 +9294,7 @@
       <c r="X280" s="1"/>
       <c r="Y280" s="1"/>
     </row>
-    <row r="281" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:25" ht="13.2">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -9322,7 +9321,7 @@
       <c r="X281" s="1"/>
       <c r="Y281" s="1"/>
     </row>
-    <row r="282" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:25" ht="13.2">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -9349,7 +9348,7 @@
       <c r="X282" s="1"/>
       <c r="Y282" s="1"/>
     </row>
-    <row r="283" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:25" ht="13.2">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -9376,7 +9375,7 @@
       <c r="X283" s="1"/>
       <c r="Y283" s="1"/>
     </row>
-    <row r="284" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:25" ht="13.2">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -9403,7 +9402,7 @@
       <c r="X284" s="1"/>
       <c r="Y284" s="1"/>
     </row>
-    <row r="285" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:25" ht="13.2">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -9430,7 +9429,7 @@
       <c r="X285" s="1"/>
       <c r="Y285" s="1"/>
     </row>
-    <row r="286" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:25" ht="13.2">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -9457,7 +9456,7 @@
       <c r="X286" s="1"/>
       <c r="Y286" s="1"/>
     </row>
-    <row r="287" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:25" ht="13.2">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -9484,7 +9483,7 @@
       <c r="X287" s="1"/>
       <c r="Y287" s="1"/>
     </row>
-    <row r="288" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:25" ht="13.2">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -9511,7 +9510,7 @@
       <c r="X288" s="1"/>
       <c r="Y288" s="1"/>
     </row>
-    <row r="289" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:25" ht="13.2">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -9538,7 +9537,7 @@
       <c r="X289" s="1"/>
       <c r="Y289" s="1"/>
     </row>
-    <row r="290" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:25" ht="13.2">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -9565,7 +9564,7 @@
       <c r="X290" s="1"/>
       <c r="Y290" s="1"/>
     </row>
-    <row r="291" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:25" ht="13.2">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -9592,7 +9591,7 @@
       <c r="X291" s="1"/>
       <c r="Y291" s="1"/>
     </row>
-    <row r="292" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:25" ht="13.2">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -9619,7 +9618,7 @@
       <c r="X292" s="1"/>
       <c r="Y292" s="1"/>
     </row>
-    <row r="293" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:25" ht="13.2">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -9646,7 +9645,7 @@
       <c r="X293" s="1"/>
       <c r="Y293" s="1"/>
     </row>
-    <row r="294" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:25" ht="13.2">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -9673,7 +9672,7 @@
       <c r="X294" s="1"/>
       <c r="Y294" s="1"/>
     </row>
-    <row r="295" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:25" ht="13.2">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -9700,7 +9699,7 @@
       <c r="X295" s="1"/>
       <c r="Y295" s="1"/>
     </row>
-    <row r="296" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:25" ht="13.2">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -9727,7 +9726,7 @@
       <c r="X296" s="1"/>
       <c r="Y296" s="1"/>
     </row>
-    <row r="297" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:25" ht="13.2">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -9754,7 +9753,7 @@
       <c r="X297" s="1"/>
       <c r="Y297" s="1"/>
     </row>
-    <row r="298" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:25" ht="13.2">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -9781,7 +9780,7 @@
       <c r="X298" s="1"/>
       <c r="Y298" s="1"/>
     </row>
-    <row r="299" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:25" ht="13.2">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -9808,7 +9807,7 @@
       <c r="X299" s="1"/>
       <c r="Y299" s="1"/>
     </row>
-    <row r="300" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:25" ht="13.2">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -9835,7 +9834,7 @@
       <c r="X300" s="1"/>
       <c r="Y300" s="1"/>
     </row>
-    <row r="301" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:25" ht="13.2">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -9862,7 +9861,7 @@
       <c r="X301" s="1"/>
       <c r="Y301" s="1"/>
     </row>
-    <row r="302" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:25" ht="13.2">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -9889,7 +9888,7 @@
       <c r="X302" s="1"/>
       <c r="Y302" s="1"/>
     </row>
-    <row r="303" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:25" ht="13.2">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -9916,7 +9915,7 @@
       <c r="X303" s="1"/>
       <c r="Y303" s="1"/>
     </row>
-    <row r="304" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:25" ht="13.2">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -9943,7 +9942,7 @@
       <c r="X304" s="1"/>
       <c r="Y304" s="1"/>
     </row>
-    <row r="305" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:25" ht="13.2">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -9970,7 +9969,7 @@
       <c r="X305" s="1"/>
       <c r="Y305" s="1"/>
     </row>
-    <row r="306" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:25" ht="13.2">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -9997,7 +9996,7 @@
       <c r="X306" s="1"/>
       <c r="Y306" s="1"/>
     </row>
-    <row r="307" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:25" ht="13.2">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -10024,7 +10023,7 @@
       <c r="X307" s="1"/>
       <c r="Y307" s="1"/>
     </row>
-    <row r="308" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:25" ht="13.2">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -10051,7 +10050,7 @@
       <c r="X308" s="1"/>
       <c r="Y308" s="1"/>
     </row>
-    <row r="309" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:25" ht="13.2">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -10078,7 +10077,7 @@
       <c r="X309" s="1"/>
       <c r="Y309" s="1"/>
     </row>
-    <row r="310" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:25" ht="13.2">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -10105,7 +10104,7 @@
       <c r="X310" s="1"/>
       <c r="Y310" s="1"/>
     </row>
-    <row r="311" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:25" ht="13.2">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -10132,7 +10131,7 @@
       <c r="X311" s="1"/>
       <c r="Y311" s="1"/>
     </row>
-    <row r="312" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:25" ht="13.2">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -10159,7 +10158,7 @@
       <c r="X312" s="1"/>
       <c r="Y312" s="1"/>
     </row>
-    <row r="313" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:25" ht="13.2">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -10186,7 +10185,7 @@
       <c r="X313" s="1"/>
       <c r="Y313" s="1"/>
     </row>
-    <row r="314" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:25" ht="13.2">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -10213,7 +10212,7 @@
       <c r="X314" s="1"/>
       <c r="Y314" s="1"/>
     </row>
-    <row r="315" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:25" ht="13.2">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -10240,7 +10239,7 @@
       <c r="X315" s="1"/>
       <c r="Y315" s="1"/>
     </row>
-    <row r="316" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:25" ht="13.2">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -10267,7 +10266,7 @@
       <c r="X316" s="1"/>
       <c r="Y316" s="1"/>
     </row>
-    <row r="317" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:25" ht="13.2">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -10294,7 +10293,7 @@
       <c r="X317" s="1"/>
       <c r="Y317" s="1"/>
     </row>
-    <row r="318" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:25" ht="13.2">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -10321,7 +10320,7 @@
       <c r="X318" s="1"/>
       <c r="Y318" s="1"/>
     </row>
-    <row r="319" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:25" ht="13.2">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -10348,7 +10347,7 @@
       <c r="X319" s="1"/>
       <c r="Y319" s="1"/>
     </row>
-    <row r="320" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:25" ht="13.2">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -10375,7 +10374,7 @@
       <c r="X320" s="1"/>
       <c r="Y320" s="1"/>
     </row>
-    <row r="321" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:25" ht="13.2">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -10402,7 +10401,7 @@
       <c r="X321" s="1"/>
       <c r="Y321" s="1"/>
     </row>
-    <row r="322" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:25" ht="13.2">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -10429,7 +10428,7 @@
       <c r="X322" s="1"/>
       <c r="Y322" s="1"/>
     </row>
-    <row r="323" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:25" ht="13.2">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -10456,7 +10455,7 @@
       <c r="X323" s="1"/>
       <c r="Y323" s="1"/>
     </row>
-    <row r="324" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:25" ht="13.2">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -10483,7 +10482,7 @@
       <c r="X324" s="1"/>
       <c r="Y324" s="1"/>
     </row>
-    <row r="325" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:25" ht="13.2">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -10510,7 +10509,7 @@
       <c r="X325" s="1"/>
       <c r="Y325" s="1"/>
     </row>
-    <row r="326" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:25" ht="13.2">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -10537,7 +10536,7 @@
       <c r="X326" s="1"/>
       <c r="Y326" s="1"/>
     </row>
-    <row r="327" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:25" ht="13.2">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -10564,7 +10563,7 @@
       <c r="X327" s="1"/>
       <c r="Y327" s="1"/>
     </row>
-    <row r="328" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:25" ht="13.2">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -10591,7 +10590,7 @@
       <c r="X328" s="1"/>
       <c r="Y328" s="1"/>
     </row>
-    <row r="329" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:25" ht="13.2">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -10618,7 +10617,7 @@
       <c r="X329" s="1"/>
       <c r="Y329" s="1"/>
     </row>
-    <row r="330" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:25" ht="13.2">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -10645,7 +10644,7 @@
       <c r="X330" s="1"/>
       <c r="Y330" s="1"/>
     </row>
-    <row r="331" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:25" ht="13.2">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -10672,7 +10671,7 @@
       <c r="X331" s="1"/>
       <c r="Y331" s="1"/>
     </row>
-    <row r="332" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:25" ht="13.2">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -10699,7 +10698,7 @@
       <c r="X332" s="1"/>
       <c r="Y332" s="1"/>
     </row>
-    <row r="333" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:25" ht="13.2">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -10726,7 +10725,7 @@
       <c r="X333" s="1"/>
       <c r="Y333" s="1"/>
     </row>
-    <row r="334" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:25" ht="13.2">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -10753,7 +10752,7 @@
       <c r="X334" s="1"/>
       <c r="Y334" s="1"/>
     </row>
-    <row r="335" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:25" ht="13.2">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -10780,7 +10779,7 @@
       <c r="X335" s="1"/>
       <c r="Y335" s="1"/>
     </row>
-    <row r="336" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:25" ht="13.2">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -10807,7 +10806,7 @@
       <c r="X336" s="1"/>
       <c r="Y336" s="1"/>
     </row>
-    <row r="337" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:25" ht="13.2">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -10834,7 +10833,7 @@
       <c r="X337" s="1"/>
       <c r="Y337" s="1"/>
     </row>
-    <row r="338" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:25" ht="13.2">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -10861,7 +10860,7 @@
       <c r="X338" s="1"/>
       <c r="Y338" s="1"/>
     </row>
-    <row r="339" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:25" ht="13.2">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -10888,7 +10887,7 @@
       <c r="X339" s="1"/>
       <c r="Y339" s="1"/>
     </row>
-    <row r="340" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:25" ht="13.2">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -10915,7 +10914,7 @@
       <c r="X340" s="1"/>
       <c r="Y340" s="1"/>
     </row>
-    <row r="341" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:25" ht="13.2">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -10942,7 +10941,7 @@
       <c r="X341" s="1"/>
       <c r="Y341" s="1"/>
     </row>
-    <row r="342" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:25" ht="13.2">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -10969,7 +10968,7 @@
       <c r="X342" s="1"/>
       <c r="Y342" s="1"/>
     </row>
-    <row r="343" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:25" ht="13.2">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -10996,7 +10995,7 @@
       <c r="X343" s="1"/>
       <c r="Y343" s="1"/>
     </row>
-    <row r="344" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:25" ht="13.2">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -11023,7 +11022,7 @@
       <c r="X344" s="1"/>
       <c r="Y344" s="1"/>
     </row>
-    <row r="345" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:25" ht="13.2">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -11050,7 +11049,7 @@
       <c r="X345" s="1"/>
       <c r="Y345" s="1"/>
     </row>
-    <row r="346" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:25" ht="13.2">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -11077,7 +11076,7 @@
       <c r="X346" s="1"/>
       <c r="Y346" s="1"/>
     </row>
-    <row r="347" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:25" ht="13.2">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -11104,7 +11103,7 @@
       <c r="X347" s="1"/>
       <c r="Y347" s="1"/>
     </row>
-    <row r="348" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:25" ht="13.2">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -11131,7 +11130,7 @@
       <c r="X348" s="1"/>
       <c r="Y348" s="1"/>
     </row>
-    <row r="349" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:25" ht="13.2">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -11158,7 +11157,7 @@
       <c r="X349" s="1"/>
       <c r="Y349" s="1"/>
     </row>
-    <row r="350" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:25" ht="13.2">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -11185,7 +11184,7 @@
       <c r="X350" s="1"/>
       <c r="Y350" s="1"/>
     </row>
-    <row r="351" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:25" ht="13.2">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -11212,7 +11211,7 @@
       <c r="X351" s="1"/>
       <c r="Y351" s="1"/>
     </row>
-    <row r="352" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:25" ht="13.2">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -11239,7 +11238,7 @@
       <c r="X352" s="1"/>
       <c r="Y352" s="1"/>
     </row>
-    <row r="353" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:25" ht="13.2">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -11266,7 +11265,7 @@
       <c r="X353" s="1"/>
       <c r="Y353" s="1"/>
     </row>
-    <row r="354" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:25" ht="13.2">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -11293,7 +11292,7 @@
       <c r="X354" s="1"/>
       <c r="Y354" s="1"/>
     </row>
-    <row r="355" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:25" ht="13.2">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -11320,7 +11319,7 @@
       <c r="X355" s="1"/>
       <c r="Y355" s="1"/>
     </row>
-    <row r="356" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:25" ht="13.2">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -11347,7 +11346,7 @@
       <c r="X356" s="1"/>
       <c r="Y356" s="1"/>
     </row>
-    <row r="357" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:25" ht="13.2">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -11374,7 +11373,7 @@
       <c r="X357" s="1"/>
       <c r="Y357" s="1"/>
     </row>
-    <row r="358" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:25" ht="13.2">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -11401,7 +11400,7 @@
       <c r="X358" s="1"/>
       <c r="Y358" s="1"/>
     </row>
-    <row r="359" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:25" ht="13.2">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -11428,7 +11427,7 @@
       <c r="X359" s="1"/>
       <c r="Y359" s="1"/>
     </row>
-    <row r="360" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:25" ht="13.2">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -11455,7 +11454,7 @@
       <c r="X360" s="1"/>
       <c r="Y360" s="1"/>
     </row>
-    <row r="361" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:25" ht="13.2">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -11482,7 +11481,7 @@
       <c r="X361" s="1"/>
       <c r="Y361" s="1"/>
     </row>
-    <row r="362" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:25" ht="13.2">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -11509,7 +11508,7 @@
       <c r="X362" s="1"/>
       <c r="Y362" s="1"/>
     </row>
-    <row r="363" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:25" ht="13.2">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -11536,7 +11535,7 @@
       <c r="X363" s="1"/>
       <c r="Y363" s="1"/>
     </row>
-    <row r="364" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:25" ht="13.2">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -11563,7 +11562,7 @@
       <c r="X364" s="1"/>
       <c r="Y364" s="1"/>
     </row>
-    <row r="365" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:25" ht="13.2">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -11590,7 +11589,7 @@
       <c r="X365" s="1"/>
       <c r="Y365" s="1"/>
     </row>
-    <row r="366" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:25" ht="13.2">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -11617,7 +11616,7 @@
       <c r="X366" s="1"/>
       <c r="Y366" s="1"/>
     </row>
-    <row r="367" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:25" ht="13.2">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -11644,7 +11643,7 @@
       <c r="X367" s="1"/>
       <c r="Y367" s="1"/>
     </row>
-    <row r="368" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:25" ht="13.2">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -11671,7 +11670,7 @@
       <c r="X368" s="1"/>
       <c r="Y368" s="1"/>
     </row>
-    <row r="369" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:25" ht="13.2">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -11698,7 +11697,7 @@
       <c r="X369" s="1"/>
       <c r="Y369" s="1"/>
     </row>
-    <row r="370" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:25" ht="13.2">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -11725,7 +11724,7 @@
       <c r="X370" s="1"/>
       <c r="Y370" s="1"/>
     </row>
-    <row r="371" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:25" ht="13.2">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -11752,7 +11751,7 @@
       <c r="X371" s="1"/>
       <c r="Y371" s="1"/>
     </row>
-    <row r="372" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:25" ht="13.2">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -11779,7 +11778,7 @@
       <c r="X372" s="1"/>
       <c r="Y372" s="1"/>
     </row>
-    <row r="373" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:25" ht="13.2">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -11806,7 +11805,7 @@
       <c r="X373" s="1"/>
       <c r="Y373" s="1"/>
     </row>
-    <row r="374" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:25" ht="13.2">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -11833,7 +11832,7 @@
       <c r="X374" s="1"/>
       <c r="Y374" s="1"/>
     </row>
-    <row r="375" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:25" ht="13.2">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -11860,7 +11859,7 @@
       <c r="X375" s="1"/>
       <c r="Y375" s="1"/>
     </row>
-    <row r="376" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:25" ht="13.2">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -11887,7 +11886,7 @@
       <c r="X376" s="1"/>
       <c r="Y376" s="1"/>
     </row>
-    <row r="377" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:25" ht="13.2">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -11914,7 +11913,7 @@
       <c r="X377" s="1"/>
       <c r="Y377" s="1"/>
     </row>
-    <row r="378" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:25" ht="13.2">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -11941,7 +11940,7 @@
       <c r="X378" s="1"/>
       <c r="Y378" s="1"/>
     </row>
-    <row r="379" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:25" ht="13.2">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -11968,7 +11967,7 @@
       <c r="X379" s="1"/>
       <c r="Y379" s="1"/>
     </row>
-    <row r="380" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:25" ht="13.2">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -11995,7 +11994,7 @@
       <c r="X380" s="1"/>
       <c r="Y380" s="1"/>
     </row>
-    <row r="381" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:25" ht="13.2">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -12022,7 +12021,7 @@
       <c r="X381" s="1"/>
       <c r="Y381" s="1"/>
     </row>
-    <row r="382" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:25" ht="13.2">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -12049,7 +12048,7 @@
       <c r="X382" s="1"/>
       <c r="Y382" s="1"/>
     </row>
-    <row r="383" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:25" ht="13.2">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -12076,7 +12075,7 @@
       <c r="X383" s="1"/>
       <c r="Y383" s="1"/>
     </row>
-    <row r="384" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:25" ht="13.2">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -12103,7 +12102,7 @@
       <c r="X384" s="1"/>
       <c r="Y384" s="1"/>
     </row>
-    <row r="385" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:25" ht="13.2">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -12130,7 +12129,7 @@
       <c r="X385" s="1"/>
       <c r="Y385" s="1"/>
     </row>
-    <row r="386" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:25" ht="13.2">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -12157,7 +12156,7 @@
       <c r="X386" s="1"/>
       <c r="Y386" s="1"/>
     </row>
-    <row r="387" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:25" ht="13.2">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -12184,7 +12183,7 @@
       <c r="X387" s="1"/>
       <c r="Y387" s="1"/>
     </row>
-    <row r="388" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:25" ht="13.2">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -12211,7 +12210,7 @@
       <c r="X388" s="1"/>
       <c r="Y388" s="1"/>
     </row>
-    <row r="389" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:25" ht="13.2">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -12238,7 +12237,7 @@
       <c r="X389" s="1"/>
       <c r="Y389" s="1"/>
     </row>
-    <row r="390" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:25" ht="13.2">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -12265,7 +12264,7 @@
       <c r="X390" s="1"/>
       <c r="Y390" s="1"/>
     </row>
-    <row r="391" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:25" ht="13.2">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -12292,7 +12291,7 @@
       <c r="X391" s="1"/>
       <c r="Y391" s="1"/>
     </row>
-    <row r="392" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:25" ht="13.2">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -12319,7 +12318,7 @@
       <c r="X392" s="1"/>
       <c r="Y392" s="1"/>
     </row>
-    <row r="393" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:25" ht="13.2">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -12346,7 +12345,7 @@
       <c r="X393" s="1"/>
       <c r="Y393" s="1"/>
     </row>
-    <row r="394" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:25" ht="13.2">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -12373,7 +12372,7 @@
       <c r="X394" s="1"/>
       <c r="Y394" s="1"/>
     </row>
-    <row r="395" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:25" ht="13.2">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -12400,7 +12399,7 @@
       <c r="X395" s="1"/>
       <c r="Y395" s="1"/>
     </row>
-    <row r="396" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:25" ht="13.2">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -12427,7 +12426,7 @@
       <c r="X396" s="1"/>
       <c r="Y396" s="1"/>
     </row>
-    <row r="397" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:25" ht="13.2">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -12454,7 +12453,7 @@
       <c r="X397" s="1"/>
       <c r="Y397" s="1"/>
     </row>
-    <row r="398" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:25" ht="13.2">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -12481,7 +12480,7 @@
       <c r="X398" s="1"/>
       <c r="Y398" s="1"/>
     </row>
-    <row r="399" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:25" ht="13.2">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -12508,7 +12507,7 @@
       <c r="X399" s="1"/>
       <c r="Y399" s="1"/>
     </row>
-    <row r="400" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:25" ht="13.2">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -12535,7 +12534,7 @@
       <c r="X400" s="1"/>
       <c r="Y400" s="1"/>
     </row>
-    <row r="401" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:25" ht="13.2">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -12562,7 +12561,7 @@
       <c r="X401" s="1"/>
       <c r="Y401" s="1"/>
     </row>
-    <row r="402" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:25" ht="13.2">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -12589,7 +12588,7 @@
       <c r="X402" s="1"/>
       <c r="Y402" s="1"/>
     </row>
-    <row r="403" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:25" ht="13.2">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -12616,7 +12615,7 @@
       <c r="X403" s="1"/>
       <c r="Y403" s="1"/>
     </row>
-    <row r="404" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:25" ht="13.2">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -12643,7 +12642,7 @@
       <c r="X404" s="1"/>
       <c r="Y404" s="1"/>
     </row>
-    <row r="405" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:25" ht="13.2">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -12670,7 +12669,7 @@
       <c r="X405" s="1"/>
       <c r="Y405" s="1"/>
     </row>
-    <row r="406" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:25" ht="13.2">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -12697,7 +12696,7 @@
       <c r="X406" s="1"/>
       <c r="Y406" s="1"/>
     </row>
-    <row r="407" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:25" ht="13.2">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -12724,7 +12723,7 @@
       <c r="X407" s="1"/>
       <c r="Y407" s="1"/>
     </row>
-    <row r="408" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:25" ht="13.2">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -12751,7 +12750,7 @@
       <c r="X408" s="1"/>
       <c r="Y408" s="1"/>
     </row>
-    <row r="409" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:25" ht="13.2">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -12778,7 +12777,7 @@
       <c r="X409" s="1"/>
       <c r="Y409" s="1"/>
     </row>
-    <row r="410" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:25" ht="13.2">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -12805,7 +12804,7 @@
       <c r="X410" s="1"/>
       <c r="Y410" s="1"/>
     </row>
-    <row r="411" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:25" ht="13.2">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -12832,7 +12831,7 @@
       <c r="X411" s="1"/>
       <c r="Y411" s="1"/>
     </row>
-    <row r="412" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:25" ht="13.2">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -12859,7 +12858,7 @@
       <c r="X412" s="1"/>
       <c r="Y412" s="1"/>
     </row>
-    <row r="413" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:25" ht="13.2">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -12886,7 +12885,7 @@
       <c r="X413" s="1"/>
       <c r="Y413" s="1"/>
     </row>
-    <row r="414" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:25" ht="13.2">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -12913,7 +12912,7 @@
       <c r="X414" s="1"/>
       <c r="Y414" s="1"/>
     </row>
-    <row r="415" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:25" ht="13.2">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -12940,7 +12939,7 @@
       <c r="X415" s="1"/>
       <c r="Y415" s="1"/>
     </row>
-    <row r="416" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:25" ht="13.2">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -12967,7 +12966,7 @@
       <c r="X416" s="1"/>
       <c r="Y416" s="1"/>
     </row>
-    <row r="417" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:25" ht="13.2">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -12994,7 +12993,7 @@
       <c r="X417" s="1"/>
       <c r="Y417" s="1"/>
     </row>
-    <row r="418" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:25" ht="13.2">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -13021,7 +13020,7 @@
       <c r="X418" s="1"/>
       <c r="Y418" s="1"/>
     </row>
-    <row r="419" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:25" ht="13.2">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -13048,7 +13047,7 @@
       <c r="X419" s="1"/>
       <c r="Y419" s="1"/>
     </row>
-    <row r="420" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:25" ht="13.2">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -13075,7 +13074,7 @@
       <c r="X420" s="1"/>
       <c r="Y420" s="1"/>
     </row>
-    <row r="421" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:25" ht="13.2">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -13102,7 +13101,7 @@
       <c r="X421" s="1"/>
       <c r="Y421" s="1"/>
     </row>
-    <row r="422" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:25" ht="13.2">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -13129,7 +13128,7 @@
       <c r="X422" s="1"/>
       <c r="Y422" s="1"/>
     </row>
-    <row r="423" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:25" ht="13.2">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -13156,7 +13155,7 @@
       <c r="X423" s="1"/>
       <c r="Y423" s="1"/>
     </row>
-    <row r="424" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:25" ht="13.2">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -13183,7 +13182,7 @@
       <c r="X424" s="1"/>
       <c r="Y424" s="1"/>
     </row>
-    <row r="425" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:25" ht="13.2">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -13210,7 +13209,7 @@
       <c r="X425" s="1"/>
       <c r="Y425" s="1"/>
     </row>
-    <row r="426" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:25" ht="13.2">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -13237,7 +13236,7 @@
       <c r="X426" s="1"/>
       <c r="Y426" s="1"/>
     </row>
-    <row r="427" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:25" ht="13.2">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -13264,7 +13263,7 @@
       <c r="X427" s="1"/>
       <c r="Y427" s="1"/>
     </row>
-    <row r="428" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:25" ht="13.2">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -13291,7 +13290,7 @@
       <c r="X428" s="1"/>
       <c r="Y428" s="1"/>
     </row>
-    <row r="429" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:25" ht="13.2">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -13318,7 +13317,7 @@
       <c r="X429" s="1"/>
       <c r="Y429" s="1"/>
     </row>
-    <row r="430" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:25" ht="13.2">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -13345,7 +13344,7 @@
       <c r="X430" s="1"/>
       <c r="Y430" s="1"/>
     </row>
-    <row r="431" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:25" ht="13.2">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -13372,7 +13371,7 @@
       <c r="X431" s="1"/>
       <c r="Y431" s="1"/>
     </row>
-    <row r="432" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:25" ht="13.2">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -13399,7 +13398,7 @@
       <c r="X432" s="1"/>
       <c r="Y432" s="1"/>
     </row>
-    <row r="433" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:25" ht="13.2">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -13426,7 +13425,7 @@
       <c r="X433" s="1"/>
       <c r="Y433" s="1"/>
     </row>
-    <row r="434" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:25" ht="13.2">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -13453,7 +13452,7 @@
       <c r="X434" s="1"/>
       <c r="Y434" s="1"/>
     </row>
-    <row r="435" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:25" ht="13.2">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -13480,7 +13479,7 @@
       <c r="X435" s="1"/>
       <c r="Y435" s="1"/>
     </row>
-    <row r="436" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:25" ht="13.2">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -13507,7 +13506,7 @@
       <c r="X436" s="1"/>
       <c r="Y436" s="1"/>
     </row>
-    <row r="437" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:25" ht="13.2">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -13534,7 +13533,7 @@
       <c r="X437" s="1"/>
       <c r="Y437" s="1"/>
     </row>
-    <row r="438" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:25" ht="13.2">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -13561,7 +13560,7 @@
       <c r="X438" s="1"/>
       <c r="Y438" s="1"/>
     </row>
-    <row r="439" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:25" ht="13.2">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -13588,7 +13587,7 @@
       <c r="X439" s="1"/>
       <c r="Y439" s="1"/>
     </row>
-    <row r="440" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:25" ht="13.2">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -13615,7 +13614,7 @@
       <c r="X440" s="1"/>
       <c r="Y440" s="1"/>
     </row>
-    <row r="441" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:25" ht="13.2">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -13642,7 +13641,7 @@
       <c r="X441" s="1"/>
       <c r="Y441" s="1"/>
     </row>
-    <row r="442" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:25" ht="13.2">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -13669,7 +13668,7 @@
       <c r="X442" s="1"/>
       <c r="Y442" s="1"/>
     </row>
-    <row r="443" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:25" ht="13.2">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -13696,7 +13695,7 @@
       <c r="X443" s="1"/>
       <c r="Y443" s="1"/>
     </row>
-    <row r="444" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:25" ht="13.2">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -13723,7 +13722,7 @@
       <c r="X444" s="1"/>
       <c r="Y444" s="1"/>
     </row>
-    <row r="445" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:25" ht="13.2">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -13750,7 +13749,7 @@
       <c r="X445" s="1"/>
       <c r="Y445" s="1"/>
     </row>
-    <row r="446" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:25" ht="13.2">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -13777,7 +13776,7 @@
       <c r="X446" s="1"/>
       <c r="Y446" s="1"/>
     </row>
-    <row r="447" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:25" ht="13.2">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -13804,7 +13803,7 @@
       <c r="X447" s="1"/>
       <c r="Y447" s="1"/>
     </row>
-    <row r="448" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:25" ht="13.2">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -13831,7 +13830,7 @@
       <c r="X448" s="1"/>
       <c r="Y448" s="1"/>
     </row>
-    <row r="449" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:25" ht="13.2">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -13858,7 +13857,7 @@
       <c r="X449" s="1"/>
       <c r="Y449" s="1"/>
     </row>
-    <row r="450" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:25" ht="13.2">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -13885,7 +13884,7 @@
       <c r="X450" s="1"/>
       <c r="Y450" s="1"/>
     </row>
-    <row r="451" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:25" ht="13.2">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -13912,7 +13911,7 @@
       <c r="X451" s="1"/>
       <c r="Y451" s="1"/>
     </row>
-    <row r="452" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:25" ht="13.2">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -13939,7 +13938,7 @@
       <c r="X452" s="1"/>
       <c r="Y452" s="1"/>
     </row>
-    <row r="453" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:25" ht="13.2">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -13966,7 +13965,7 @@
       <c r="X453" s="1"/>
       <c r="Y453" s="1"/>
     </row>
-    <row r="454" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:25" ht="13.2">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -13993,7 +13992,7 @@
       <c r="X454" s="1"/>
       <c r="Y454" s="1"/>
     </row>
-    <row r="455" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:25" ht="13.2">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -14020,7 +14019,7 @@
       <c r="X455" s="1"/>
       <c r="Y455" s="1"/>
     </row>
-    <row r="456" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:25" ht="13.2">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -14047,7 +14046,7 @@
       <c r="X456" s="1"/>
       <c r="Y456" s="1"/>
     </row>
-    <row r="457" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:25" ht="13.2">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -14074,7 +14073,7 @@
       <c r="X457" s="1"/>
       <c r="Y457" s="1"/>
     </row>
-    <row r="458" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:25" ht="13.2">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -14101,7 +14100,7 @@
       <c r="X458" s="1"/>
       <c r="Y458" s="1"/>
     </row>
-    <row r="459" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:25" ht="13.2">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -14128,7 +14127,7 @@
       <c r="X459" s="1"/>
       <c r="Y459" s="1"/>
     </row>
-    <row r="460" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:25" ht="13.2">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -14155,7 +14154,7 @@
       <c r="X460" s="1"/>
       <c r="Y460" s="1"/>
     </row>
-    <row r="461" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:25" ht="13.2">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -14182,7 +14181,7 @@
       <c r="X461" s="1"/>
       <c r="Y461" s="1"/>
     </row>
-    <row r="462" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:25" ht="13.2">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -14209,7 +14208,7 @@
       <c r="X462" s="1"/>
       <c r="Y462" s="1"/>
     </row>
-    <row r="463" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:25" ht="13.2">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -14236,7 +14235,7 @@
       <c r="X463" s="1"/>
       <c r="Y463" s="1"/>
     </row>
-    <row r="464" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:25" ht="13.2">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -14263,7 +14262,7 @@
       <c r="X464" s="1"/>
       <c r="Y464" s="1"/>
     </row>
-    <row r="465" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:25" ht="13.2">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -14290,7 +14289,7 @@
       <c r="X465" s="1"/>
       <c r="Y465" s="1"/>
     </row>
-    <row r="466" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:25" ht="13.2">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -14317,7 +14316,7 @@
       <c r="X466" s="1"/>
       <c r="Y466" s="1"/>
     </row>
-    <row r="467" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:25" ht="13.2">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -14344,7 +14343,7 @@
       <c r="X467" s="1"/>
       <c r="Y467" s="1"/>
     </row>
-    <row r="468" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:25" ht="13.2">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -14371,7 +14370,7 @@
       <c r="X468" s="1"/>
       <c r="Y468" s="1"/>
     </row>
-    <row r="469" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:25" ht="13.2">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -14398,7 +14397,7 @@
       <c r="X469" s="1"/>
       <c r="Y469" s="1"/>
     </row>
-    <row r="470" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:25" ht="13.2">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -14425,7 +14424,7 @@
       <c r="X470" s="1"/>
       <c r="Y470" s="1"/>
     </row>
-    <row r="471" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:25" ht="13.2">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -14452,7 +14451,7 @@
       <c r="X471" s="1"/>
       <c r="Y471" s="1"/>
     </row>
-    <row r="472" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:25" ht="13.2">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -14479,7 +14478,7 @@
       <c r="X472" s="1"/>
       <c r="Y472" s="1"/>
     </row>
-    <row r="473" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:25" ht="13.2">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -14506,7 +14505,7 @@
       <c r="X473" s="1"/>
       <c r="Y473" s="1"/>
     </row>
-    <row r="474" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:25" ht="13.2">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -14533,7 +14532,7 @@
       <c r="X474" s="1"/>
       <c r="Y474" s="1"/>
     </row>
-    <row r="475" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:25" ht="13.2">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -14560,7 +14559,7 @@
       <c r="X475" s="1"/>
       <c r="Y475" s="1"/>
     </row>
-    <row r="476" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:25" ht="13.2">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -14587,7 +14586,7 @@
       <c r="X476" s="1"/>
       <c r="Y476" s="1"/>
     </row>
-    <row r="477" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:25" ht="13.2">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -14614,7 +14613,7 @@
       <c r="X477" s="1"/>
       <c r="Y477" s="1"/>
     </row>
-    <row r="478" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:25" ht="13.2">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -14641,7 +14640,7 @@
       <c r="X478" s="1"/>
       <c r="Y478" s="1"/>
     </row>
-    <row r="479" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:25" ht="13.2">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -14668,7 +14667,7 @@
       <c r="X479" s="1"/>
       <c r="Y479" s="1"/>
     </row>
-    <row r="480" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:25" ht="13.2">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -14695,7 +14694,7 @@
       <c r="X480" s="1"/>
       <c r="Y480" s="1"/>
     </row>
-    <row r="481" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:25" ht="13.2">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -14722,7 +14721,7 @@
       <c r="X481" s="1"/>
       <c r="Y481" s="1"/>
     </row>
-    <row r="482" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:25" ht="13.2">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -14749,7 +14748,7 @@
       <c r="X482" s="1"/>
       <c r="Y482" s="1"/>
     </row>
-    <row r="483" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:25" ht="13.2">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -14776,7 +14775,7 @@
       <c r="X483" s="1"/>
       <c r="Y483" s="1"/>
     </row>
-    <row r="484" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:25" ht="13.2">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -14803,7 +14802,7 @@
       <c r="X484" s="1"/>
       <c r="Y484" s="1"/>
     </row>
-    <row r="485" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:25" ht="13.2">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -14830,7 +14829,7 @@
       <c r="X485" s="1"/>
       <c r="Y485" s="1"/>
     </row>
-    <row r="486" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:25" ht="13.2">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -14857,7 +14856,7 @@
       <c r="X486" s="1"/>
       <c r="Y486" s="1"/>
     </row>
-    <row r="487" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:25" ht="13.2">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -14884,7 +14883,7 @@
       <c r="X487" s="1"/>
       <c r="Y487" s="1"/>
     </row>
-    <row r="488" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:25" ht="13.2">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -14911,7 +14910,7 @@
       <c r="X488" s="1"/>
       <c r="Y488" s="1"/>
     </row>
-    <row r="489" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:25" ht="13.2">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -14938,7 +14937,7 @@
       <c r="X489" s="1"/>
       <c r="Y489" s="1"/>
     </row>
-    <row r="490" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:25" ht="13.2">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -14965,7 +14964,7 @@
       <c r="X490" s="1"/>
       <c r="Y490" s="1"/>
     </row>
-    <row r="491" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:25" ht="13.2">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -14992,7 +14991,7 @@
       <c r="X491" s="1"/>
       <c r="Y491" s="1"/>
     </row>
-    <row r="492" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:25" ht="13.2">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -15019,7 +15018,7 @@
       <c r="X492" s="1"/>
       <c r="Y492" s="1"/>
     </row>
-    <row r="493" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:25" ht="13.2">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -15046,7 +15045,7 @@
       <c r="X493" s="1"/>
       <c r="Y493" s="1"/>
     </row>
-    <row r="494" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:25" ht="13.2">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -15073,7 +15072,7 @@
       <c r="X494" s="1"/>
       <c r="Y494" s="1"/>
     </row>
-    <row r="495" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:25" ht="13.2">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -15100,7 +15099,7 @@
       <c r="X495" s="1"/>
       <c r="Y495" s="1"/>
     </row>
-    <row r="496" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:25" ht="13.2">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -15127,7 +15126,7 @@
       <c r="X496" s="1"/>
       <c r="Y496" s="1"/>
     </row>
-    <row r="497" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:25" ht="13.2">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -15154,7 +15153,7 @@
       <c r="X497" s="1"/>
       <c r="Y497" s="1"/>
     </row>
-    <row r="498" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:25" ht="13.2">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -15181,7 +15180,7 @@
       <c r="X498" s="1"/>
       <c r="Y498" s="1"/>
     </row>
-    <row r="499" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:25" ht="13.2">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -15208,7 +15207,7 @@
       <c r="X499" s="1"/>
       <c r="Y499" s="1"/>
     </row>
-    <row r="500" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:25" ht="13.2">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -15235,7 +15234,7 @@
       <c r="X500" s="1"/>
       <c r="Y500" s="1"/>
     </row>
-    <row r="501" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:25" ht="13.2">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -15262,7 +15261,7 @@
       <c r="X501" s="1"/>
       <c r="Y501" s="1"/>
     </row>
-    <row r="502" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:25" ht="13.2">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -15289,7 +15288,7 @@
       <c r="X502" s="1"/>
       <c r="Y502" s="1"/>
     </row>
-    <row r="503" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:25" ht="13.2">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -15316,7 +15315,7 @@
       <c r="X503" s="1"/>
       <c r="Y503" s="1"/>
     </row>
-    <row r="504" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:25" ht="13.2">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -15343,7 +15342,7 @@
       <c r="X504" s="1"/>
       <c r="Y504" s="1"/>
     </row>
-    <row r="505" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:25" ht="13.2">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -15370,7 +15369,7 @@
       <c r="X505" s="1"/>
       <c r="Y505" s="1"/>
     </row>
-    <row r="506" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:25" ht="13.2">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -15397,7 +15396,7 @@
       <c r="X506" s="1"/>
       <c r="Y506" s="1"/>
     </row>
-    <row r="507" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:25" ht="13.2">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -15424,7 +15423,7 @@
       <c r="X507" s="1"/>
       <c r="Y507" s="1"/>
     </row>
-    <row r="508" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:25" ht="13.2">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -15451,7 +15450,7 @@
       <c r="X508" s="1"/>
       <c r="Y508" s="1"/>
     </row>
-    <row r="509" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:25" ht="13.2">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -15478,7 +15477,7 @@
       <c r="X509" s="1"/>
       <c r="Y509" s="1"/>
     </row>
-    <row r="510" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:25" ht="13.2">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -15505,7 +15504,7 @@
       <c r="X510" s="1"/>
       <c r="Y510" s="1"/>
     </row>
-    <row r="511" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:25" ht="13.2">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -15532,7 +15531,7 @@
       <c r="X511" s="1"/>
       <c r="Y511" s="1"/>
     </row>
-    <row r="512" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:25" ht="13.2">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -15559,7 +15558,7 @@
       <c r="X512" s="1"/>
       <c r="Y512" s="1"/>
     </row>
-    <row r="513" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:25" ht="13.2">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -15586,7 +15585,7 @@
       <c r="X513" s="1"/>
       <c r="Y513" s="1"/>
     </row>
-    <row r="514" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:25" ht="13.2">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -15613,7 +15612,7 @@
       <c r="X514" s="1"/>
       <c r="Y514" s="1"/>
     </row>
-    <row r="515" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:25" ht="13.2">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -15640,7 +15639,7 @@
       <c r="X515" s="1"/>
       <c r="Y515" s="1"/>
     </row>
-    <row r="516" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:25" ht="13.2">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -15667,7 +15666,7 @@
       <c r="X516" s="1"/>
       <c r="Y516" s="1"/>
     </row>
-    <row r="517" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:25" ht="13.2">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -15694,7 +15693,7 @@
       <c r="X517" s="1"/>
       <c r="Y517" s="1"/>
     </row>
-    <row r="518" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:25" ht="13.2">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -15721,7 +15720,7 @@
       <c r="X518" s="1"/>
       <c r="Y518" s="1"/>
     </row>
-    <row r="519" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:25" ht="13.2">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -15748,7 +15747,7 @@
       <c r="X519" s="1"/>
       <c r="Y519" s="1"/>
     </row>
-    <row r="520" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:25" ht="13.2">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -15775,7 +15774,7 @@
       <c r="X520" s="1"/>
       <c r="Y520" s="1"/>
     </row>
-    <row r="521" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:25" ht="13.2">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -15802,7 +15801,7 @@
       <c r="X521" s="1"/>
       <c r="Y521" s="1"/>
     </row>
-    <row r="522" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:25" ht="13.2">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -15829,7 +15828,7 @@
       <c r="X522" s="1"/>
       <c r="Y522" s="1"/>
     </row>
-    <row r="523" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:25" ht="13.2">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -15856,7 +15855,7 @@
       <c r="X523" s="1"/>
       <c r="Y523" s="1"/>
     </row>
-    <row r="524" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:25" ht="13.2">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -15883,7 +15882,7 @@
       <c r="X524" s="1"/>
       <c r="Y524" s="1"/>
     </row>
-    <row r="525" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:25" ht="13.2">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -15910,7 +15909,7 @@
       <c r="X525" s="1"/>
       <c r="Y525" s="1"/>
     </row>
-    <row r="526" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:25" ht="13.2">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -15937,7 +15936,7 @@
       <c r="X526" s="1"/>
       <c r="Y526" s="1"/>
     </row>
-    <row r="527" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:25" ht="13.2">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -15964,7 +15963,7 @@
       <c r="X527" s="1"/>
       <c r="Y527" s="1"/>
     </row>
-    <row r="528" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:25" ht="13.2">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -15991,7 +15990,7 @@
       <c r="X528" s="1"/>
       <c r="Y528" s="1"/>
     </row>
-    <row r="529" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:25" ht="13.2">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -16018,7 +16017,7 @@
       <c r="X529" s="1"/>
       <c r="Y529" s="1"/>
     </row>
-    <row r="530" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:25" ht="13.2">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -16045,7 +16044,7 @@
       <c r="X530" s="1"/>
       <c r="Y530" s="1"/>
     </row>
-    <row r="531" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:25" ht="13.2">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -16072,7 +16071,7 @@
       <c r="X531" s="1"/>
       <c r="Y531" s="1"/>
     </row>
-    <row r="532" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:25" ht="13.2">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -16099,7 +16098,7 @@
       <c r="X532" s="1"/>
       <c r="Y532" s="1"/>
     </row>
-    <row r="533" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:25" ht="13.2">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -16126,7 +16125,7 @@
       <c r="X533" s="1"/>
       <c r="Y533" s="1"/>
     </row>
-    <row r="534" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:25" ht="13.2">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -16153,7 +16152,7 @@
       <c r="X534" s="1"/>
       <c r="Y534" s="1"/>
     </row>
-    <row r="535" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:25" ht="13.2">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -16180,7 +16179,7 @@
       <c r="X535" s="1"/>
       <c r="Y535" s="1"/>
     </row>
-    <row r="536" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:25" ht="13.2">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -16207,7 +16206,7 @@
       <c r="X536" s="1"/>
       <c r="Y536" s="1"/>
     </row>
-    <row r="537" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:25" ht="13.2">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -16234,7 +16233,7 @@
       <c r="X537" s="1"/>
       <c r="Y537" s="1"/>
     </row>
-    <row r="538" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:25" ht="13.2">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -16261,7 +16260,7 @@
       <c r="X538" s="1"/>
       <c r="Y538" s="1"/>
     </row>
-    <row r="539" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:25" ht="13.2">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -16288,7 +16287,7 @@
       <c r="X539" s="1"/>
       <c r="Y539" s="1"/>
     </row>
-    <row r="540" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:25" ht="13.2">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -16315,7 +16314,7 @@
       <c r="X540" s="1"/>
       <c r="Y540" s="1"/>
     </row>
-    <row r="541" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:25" ht="13.2">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -16342,7 +16341,7 @@
       <c r="X541" s="1"/>
       <c r="Y541" s="1"/>
     </row>
-    <row r="542" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:25" ht="13.2">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -16369,7 +16368,7 @@
       <c r="X542" s="1"/>
       <c r="Y542" s="1"/>
     </row>
-    <row r="543" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:25" ht="13.2">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -16396,7 +16395,7 @@
       <c r="X543" s="1"/>
       <c r="Y543" s="1"/>
     </row>
-    <row r="544" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:25" ht="13.2">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -16423,7 +16422,7 @@
       <c r="X544" s="1"/>
       <c r="Y544" s="1"/>
     </row>
-    <row r="545" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:25" ht="13.2">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -16450,7 +16449,7 @@
       <c r="X545" s="1"/>
       <c r="Y545" s="1"/>
     </row>
-    <row r="546" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:25" ht="13.2">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -16477,7 +16476,7 @@
       <c r="X546" s="1"/>
       <c r="Y546" s="1"/>
     </row>
-    <row r="547" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:25" ht="13.2">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -16504,7 +16503,7 @@
       <c r="X547" s="1"/>
       <c r="Y547" s="1"/>
     </row>
-    <row r="548" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:25" ht="13.2">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -16531,7 +16530,7 @@
       <c r="X548" s="1"/>
       <c r="Y548" s="1"/>
     </row>
-    <row r="549" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:25" ht="13.2">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -16558,7 +16557,7 @@
       <c r="X549" s="1"/>
       <c r="Y549" s="1"/>
     </row>
-    <row r="550" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:25" ht="13.2">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -16585,7 +16584,7 @@
       <c r="X550" s="1"/>
       <c r="Y550" s="1"/>
     </row>
-    <row r="551" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:25" ht="13.2">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -16612,7 +16611,7 @@
       <c r="X551" s="1"/>
       <c r="Y551" s="1"/>
     </row>
-    <row r="552" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:25" ht="13.2">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -16639,7 +16638,7 @@
       <c r="X552" s="1"/>
       <c r="Y552" s="1"/>
     </row>
-    <row r="553" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:25" ht="13.2">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -16666,7 +16665,7 @@
       <c r="X553" s="1"/>
       <c r="Y553" s="1"/>
     </row>
-    <row r="554" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:25" ht="13.2">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -16693,7 +16692,7 @@
       <c r="X554" s="1"/>
       <c r="Y554" s="1"/>
     </row>
-    <row r="555" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:25" ht="13.2">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -16720,7 +16719,7 @@
       <c r="X555" s="1"/>
       <c r="Y555" s="1"/>
     </row>
-    <row r="556" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:25" ht="13.2">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -16747,7 +16746,7 @@
       <c r="X556" s="1"/>
       <c r="Y556" s="1"/>
     </row>
-    <row r="557" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:25" ht="13.2">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -16774,7 +16773,7 @@
       <c r="X557" s="1"/>
       <c r="Y557" s="1"/>
     </row>
-    <row r="558" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:25" ht="13.2">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -16801,7 +16800,7 @@
       <c r="X558" s="1"/>
       <c r="Y558" s="1"/>
     </row>
-    <row r="559" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:25" ht="13.2">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -16828,7 +16827,7 @@
       <c r="X559" s="1"/>
       <c r="Y559" s="1"/>
     </row>
-    <row r="560" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:25" ht="13.2">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -16855,7 +16854,7 @@
       <c r="X560" s="1"/>
       <c r="Y560" s="1"/>
     </row>
-    <row r="561" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:25" ht="13.2">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -16882,7 +16881,7 @@
       <c r="X561" s="1"/>
       <c r="Y561" s="1"/>
     </row>
-    <row r="562" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:25" ht="13.2">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -16909,7 +16908,7 @@
       <c r="X562" s="1"/>
       <c r="Y562" s="1"/>
     </row>
-    <row r="563" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:25" ht="13.2">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -16936,7 +16935,7 @@
       <c r="X563" s="1"/>
       <c r="Y563" s="1"/>
     </row>
-    <row r="564" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:25" ht="13.2">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -16963,7 +16962,7 @@
       <c r="X564" s="1"/>
       <c r="Y564" s="1"/>
     </row>
-    <row r="565" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:25" ht="13.2">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -16990,7 +16989,7 @@
       <c r="X565" s="1"/>
       <c r="Y565" s="1"/>
     </row>
-    <row r="566" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:25" ht="13.2">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -17017,7 +17016,7 @@
       <c r="X566" s="1"/>
       <c r="Y566" s="1"/>
     </row>
-    <row r="567" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:25" ht="13.2">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -17044,7 +17043,7 @@
       <c r="X567" s="1"/>
       <c r="Y567" s="1"/>
     </row>
-    <row r="568" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:25" ht="13.2">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -17071,7 +17070,7 @@
       <c r="X568" s="1"/>
       <c r="Y568" s="1"/>
     </row>
-    <row r="569" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:25" ht="13.2">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -17098,7 +17097,7 @@
       <c r="X569" s="1"/>
       <c r="Y569" s="1"/>
     </row>
-    <row r="570" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:25" ht="13.2">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -17125,7 +17124,7 @@
       <c r="X570" s="1"/>
       <c r="Y570" s="1"/>
     </row>
-    <row r="571" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:25" ht="13.2">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -17152,7 +17151,7 @@
       <c r="X571" s="1"/>
       <c r="Y571" s="1"/>
     </row>
-    <row r="572" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:25" ht="13.2">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -17179,7 +17178,7 @@
       <c r="X572" s="1"/>
       <c r="Y572" s="1"/>
     </row>
-    <row r="573" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:25" ht="13.2">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -17206,7 +17205,7 @@
       <c r="X573" s="1"/>
       <c r="Y573" s="1"/>
     </row>
-    <row r="574" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:25" ht="13.2">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -17233,7 +17232,7 @@
       <c r="X574" s="1"/>
       <c r="Y574" s="1"/>
     </row>
-    <row r="575" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:25" ht="13.2">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -17260,7 +17259,7 @@
       <c r="X575" s="1"/>
       <c r="Y575" s="1"/>
     </row>
-    <row r="576" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:25" ht="13.2">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -17287,7 +17286,7 @@
       <c r="X576" s="1"/>
       <c r="Y576" s="1"/>
     </row>
-    <row r="577" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:25" ht="13.2">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -17314,7 +17313,7 @@
       <c r="X577" s="1"/>
       <c r="Y577" s="1"/>
     </row>
-    <row r="578" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:25" ht="13.2">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -17341,7 +17340,7 @@
       <c r="X578" s="1"/>
       <c r="Y578" s="1"/>
     </row>
-    <row r="579" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:25" ht="13.2">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -17368,7 +17367,7 @@
       <c r="X579" s="1"/>
       <c r="Y579" s="1"/>
     </row>
-    <row r="580" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:25" ht="13.2">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -17395,7 +17394,7 @@
       <c r="X580" s="1"/>
       <c r="Y580" s="1"/>
     </row>
-    <row r="581" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:25" ht="13.2">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -17422,7 +17421,7 @@
       <c r="X581" s="1"/>
       <c r="Y581" s="1"/>
     </row>
-    <row r="582" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:25" ht="13.2">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -17449,7 +17448,7 @@
       <c r="X582" s="1"/>
       <c r="Y582" s="1"/>
     </row>
-    <row r="583" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:25" ht="13.2">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -17476,7 +17475,7 @@
       <c r="X583" s="1"/>
       <c r="Y583" s="1"/>
     </row>
-    <row r="584" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:25" ht="13.2">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -17503,7 +17502,7 @@
       <c r="X584" s="1"/>
       <c r="Y584" s="1"/>
     </row>
-    <row r="585" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:25" ht="13.2">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -17530,7 +17529,7 @@
       <c r="X585" s="1"/>
       <c r="Y585" s="1"/>
     </row>
-    <row r="586" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:25" ht="13.2">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -17557,7 +17556,7 @@
       <c r="X586" s="1"/>
       <c r="Y586" s="1"/>
     </row>
-    <row r="587" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:25" ht="13.2">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -17584,7 +17583,7 @@
       <c r="X587" s="1"/>
       <c r="Y587" s="1"/>
     </row>
-    <row r="588" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:25" ht="13.2">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -17611,7 +17610,7 @@
       <c r="X588" s="1"/>
       <c r="Y588" s="1"/>
     </row>
-    <row r="589" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:25" ht="13.2">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -17638,7 +17637,7 @@
       <c r="X589" s="1"/>
       <c r="Y589" s="1"/>
     </row>
-    <row r="590" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:25" ht="13.2">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -17665,7 +17664,7 @@
       <c r="X590" s="1"/>
       <c r="Y590" s="1"/>
     </row>
-    <row r="591" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:25" ht="13.2">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -17692,7 +17691,7 @@
       <c r="X591" s="1"/>
       <c r="Y591" s="1"/>
     </row>
-    <row r="592" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:25" ht="13.2">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -17719,7 +17718,7 @@
       <c r="X592" s="1"/>
       <c r="Y592" s="1"/>
     </row>
-    <row r="593" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:25" ht="13.2">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -17746,7 +17745,7 @@
       <c r="X593" s="1"/>
       <c r="Y593" s="1"/>
     </row>
-    <row r="594" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:25" ht="13.2">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -17773,7 +17772,7 @@
       <c r="X594" s="1"/>
       <c r="Y594" s="1"/>
     </row>
-    <row r="595" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:25" ht="13.2">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -17800,7 +17799,7 @@
       <c r="X595" s="1"/>
       <c r="Y595" s="1"/>
     </row>
-    <row r="596" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:25" ht="13.2">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -17827,7 +17826,7 @@
       <c r="X596" s="1"/>
       <c r="Y596" s="1"/>
     </row>
-    <row r="597" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:25" ht="13.2">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -17854,7 +17853,7 @@
       <c r="X597" s="1"/>
       <c r="Y597" s="1"/>
     </row>
-    <row r="598" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:25" ht="13.2">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -17881,7 +17880,7 @@
       <c r="X598" s="1"/>
       <c r="Y598" s="1"/>
     </row>
-    <row r="599" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:25" ht="13.2">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -17908,7 +17907,7 @@
       <c r="X599" s="1"/>
       <c r="Y599" s="1"/>
     </row>
-    <row r="600" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:25" ht="13.2">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -17935,7 +17934,7 @@
       <c r="X600" s="1"/>
       <c r="Y600" s="1"/>
     </row>
-    <row r="601" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:25" ht="13.2">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -17962,7 +17961,7 @@
       <c r="X601" s="1"/>
       <c r="Y601" s="1"/>
     </row>
-    <row r="602" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:25" ht="13.2">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -17989,7 +17988,7 @@
       <c r="X602" s="1"/>
       <c r="Y602" s="1"/>
     </row>
-    <row r="603" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:25" ht="13.2">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -18016,7 +18015,7 @@
       <c r="X603" s="1"/>
       <c r="Y603" s="1"/>
     </row>
-    <row r="604" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:25" ht="13.2">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -18043,7 +18042,7 @@
       <c r="X604" s="1"/>
       <c r="Y604" s="1"/>
     </row>
-    <row r="605" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:25" ht="13.2">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -18070,7 +18069,7 @@
       <c r="X605" s="1"/>
       <c r="Y605" s="1"/>
     </row>
-    <row r="606" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:25" ht="13.2">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -18097,7 +18096,7 @@
       <c r="X606" s="1"/>
       <c r="Y606" s="1"/>
     </row>
-    <row r="607" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:25" ht="13.2">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -18124,7 +18123,7 @@
       <c r="X607" s="1"/>
       <c r="Y607" s="1"/>
     </row>
-    <row r="608" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:25" ht="13.2">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -18151,7 +18150,7 @@
       <c r="X608" s="1"/>
       <c r="Y608" s="1"/>
     </row>
-    <row r="609" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:25" ht="13.2">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -18178,7 +18177,7 @@
       <c r="X609" s="1"/>
       <c r="Y609" s="1"/>
     </row>
-    <row r="610" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:25" ht="13.2">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -18205,7 +18204,7 @@
       <c r="X610" s="1"/>
       <c r="Y610" s="1"/>
     </row>
-    <row r="611" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:25" ht="13.2">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -18232,7 +18231,7 @@
       <c r="X611" s="1"/>
       <c r="Y611" s="1"/>
     </row>
-    <row r="612" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:25" ht="13.2">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -18259,7 +18258,7 @@
       <c r="X612" s="1"/>
       <c r="Y612" s="1"/>
     </row>
-    <row r="613" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:25" ht="13.2">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -18286,7 +18285,7 @@
       <c r="X613" s="1"/>
       <c r="Y613" s="1"/>
     </row>
-    <row r="614" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:25" ht="13.2">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -18313,7 +18312,7 @@
       <c r="X614" s="1"/>
       <c r="Y614" s="1"/>
     </row>
-    <row r="615" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:25" ht="13.2">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -18340,7 +18339,7 @@
       <c r="X615" s="1"/>
       <c r="Y615" s="1"/>
     </row>
-    <row r="616" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:25" ht="13.2">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -18367,7 +18366,7 @@
       <c r="X616" s="1"/>
       <c r="Y616" s="1"/>
     </row>
-    <row r="617" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:25" ht="13.2">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -18394,7 +18393,7 @@
       <c r="X617" s="1"/>
       <c r="Y617" s="1"/>
     </row>
-    <row r="618" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:25" ht="13.2">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -18421,7 +18420,7 @@
       <c r="X618" s="1"/>
       <c r="Y618" s="1"/>
     </row>
-    <row r="619" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:25" ht="13.2">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -18448,7 +18447,7 @@
       <c r="X619" s="1"/>
       <c r="Y619" s="1"/>
     </row>
-    <row r="620" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:25" ht="13.2">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -18475,7 +18474,7 @@
       <c r="X620" s="1"/>
       <c r="Y620" s="1"/>
     </row>
-    <row r="621" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:25" ht="13.2">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -18502,7 +18501,7 @@
       <c r="X621" s="1"/>
       <c r="Y621" s="1"/>
     </row>
-    <row r="622" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:25" ht="13.2">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -18529,7 +18528,7 @@
       <c r="X622" s="1"/>
       <c r="Y622" s="1"/>
     </row>
-    <row r="623" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:25" ht="13.2">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -18556,7 +18555,7 @@
       <c r="X623" s="1"/>
       <c r="Y623" s="1"/>
     </row>
-    <row r="624" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:25" ht="13.2">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -18583,7 +18582,7 @@
       <c r="X624" s="1"/>
       <c r="Y624" s="1"/>
     </row>
-    <row r="625" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:25" ht="13.2">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -18610,7 +18609,7 @@
       <c r="X625" s="1"/>
       <c r="Y625" s="1"/>
     </row>
-    <row r="626" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:25" ht="13.2">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -18637,7 +18636,7 @@
       <c r="X626" s="1"/>
       <c r="Y626" s="1"/>
     </row>
-    <row r="627" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:25" ht="13.2">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -18664,7 +18663,7 @@
       <c r="X627" s="1"/>
       <c r="Y627" s="1"/>
     </row>
-    <row r="628" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:25" ht="13.2">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -18691,7 +18690,7 @@
       <c r="X628" s="1"/>
       <c r="Y628" s="1"/>
     </row>
-    <row r="629" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:25" ht="13.2">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -18718,7 +18717,7 @@
       <c r="X629" s="1"/>
       <c r="Y629" s="1"/>
     </row>
-    <row r="630" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:25" ht="13.2">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -18745,7 +18744,7 @@
       <c r="X630" s="1"/>
       <c r="Y630" s="1"/>
     </row>
-    <row r="631" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:25" ht="13.2">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -18772,7 +18771,7 @@
       <c r="X631" s="1"/>
       <c r="Y631" s="1"/>
     </row>
-    <row r="632" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:25" ht="13.2">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -18799,7 +18798,7 @@
       <c r="X632" s="1"/>
       <c r="Y632" s="1"/>
     </row>
-    <row r="633" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:25" ht="13.2">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -18826,7 +18825,7 @@
       <c r="X633" s="1"/>
       <c r="Y633" s="1"/>
     </row>
-    <row r="634" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:25" ht="13.2">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -18853,7 +18852,7 @@
       <c r="X634" s="1"/>
       <c r="Y634" s="1"/>
     </row>
-    <row r="635" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:25" ht="13.2">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -18880,7 +18879,7 @@
       <c r="X635" s="1"/>
       <c r="Y635" s="1"/>
     </row>
-    <row r="636" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:25" ht="13.2">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -18907,7 +18906,7 @@
       <c r="X636" s="1"/>
       <c r="Y636" s="1"/>
     </row>
-    <row r="637" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:25" ht="13.2">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -18934,7 +18933,7 @@
       <c r="X637" s="1"/>
       <c r="Y637" s="1"/>
     </row>
-    <row r="638" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:25" ht="13.2">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -18961,7 +18960,7 @@
       <c r="X638" s="1"/>
       <c r="Y638" s="1"/>
     </row>
-    <row r="639" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:25" ht="13.2">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -18988,7 +18987,7 @@
       <c r="X639" s="1"/>
       <c r="Y639" s="1"/>
     </row>
-    <row r="640" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:25" ht="13.2">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -19015,7 +19014,7 @@
       <c r="X640" s="1"/>
       <c r="Y640" s="1"/>
     </row>
-    <row r="641" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:25" ht="13.2">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -19042,7 +19041,7 @@
       <c r="X641" s="1"/>
       <c r="Y641" s="1"/>
     </row>
-    <row r="642" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:25" ht="13.2">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -19069,7 +19068,7 @@
       <c r="X642" s="1"/>
       <c r="Y642" s="1"/>
     </row>
-    <row r="643" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:25" ht="13.2">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -19096,7 +19095,7 @@
       <c r="X643" s="1"/>
       <c r="Y643" s="1"/>
     </row>
-    <row r="644" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:25" ht="13.2">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -19123,7 +19122,7 @@
       <c r="X644" s="1"/>
       <c r="Y644" s="1"/>
     </row>
-    <row r="645" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:25" ht="13.2">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -19150,7 +19149,7 @@
       <c r="X645" s="1"/>
       <c r="Y645" s="1"/>
     </row>
-    <row r="646" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:25" ht="13.2">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -19177,7 +19176,7 @@
       <c r="X646" s="1"/>
       <c r="Y646" s="1"/>
     </row>
-    <row r="647" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:25" ht="13.2">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -19204,7 +19203,7 @@
       <c r="X647" s="1"/>
       <c r="Y647" s="1"/>
     </row>
-    <row r="648" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:25" ht="13.2">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -19231,7 +19230,7 @@
       <c r="X648" s="1"/>
       <c r="Y648" s="1"/>
     </row>
-    <row r="649" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:25" ht="13.2">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -19258,7 +19257,7 @@
       <c r="X649" s="1"/>
       <c r="Y649" s="1"/>
     </row>
-    <row r="650" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:25" ht="13.2">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -19285,7 +19284,7 @@
       <c r="X650" s="1"/>
       <c r="Y650" s="1"/>
     </row>
-    <row r="651" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:25" ht="13.2">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -19312,7 +19311,7 @@
       <c r="X651" s="1"/>
       <c r="Y651" s="1"/>
     </row>
-    <row r="652" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:25" ht="13.2">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -19339,7 +19338,7 @@
       <c r="X652" s="1"/>
       <c r="Y652" s="1"/>
     </row>
-    <row r="653" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:25" ht="13.2">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -19366,7 +19365,7 @@
       <c r="X653" s="1"/>
       <c r="Y653" s="1"/>
     </row>
-    <row r="654" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:25" ht="13.2">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -19393,7 +19392,7 @@
       <c r="X654" s="1"/>
       <c r="Y654" s="1"/>
     </row>
-    <row r="655" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:25" ht="13.2">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -19420,7 +19419,7 @@
       <c r="X655" s="1"/>
       <c r="Y655" s="1"/>
     </row>
-    <row r="656" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:25" ht="13.2">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -19447,7 +19446,7 @@
       <c r="X656" s="1"/>
       <c r="Y656" s="1"/>
     </row>
-    <row r="657" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:25" ht="13.2">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -19474,7 +19473,7 @@
       <c r="X657" s="1"/>
       <c r="Y657" s="1"/>
     </row>
-    <row r="658" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:25" ht="13.2">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -19501,7 +19500,7 @@
       <c r="X658" s="1"/>
       <c r="Y658" s="1"/>
     </row>
-    <row r="659" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:25" ht="13.2">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -19528,7 +19527,7 @@
       <c r="X659" s="1"/>
       <c r="Y659" s="1"/>
     </row>
-    <row r="660" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:25" ht="13.2">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -19555,7 +19554,7 @@
       <c r="X660" s="1"/>
       <c r="Y660" s="1"/>
     </row>
-    <row r="661" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:25" ht="13.2">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -19582,7 +19581,7 @@
       <c r="X661" s="1"/>
       <c r="Y661" s="1"/>
     </row>
-    <row r="662" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:25" ht="13.2">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -19609,7 +19608,7 @@
       <c r="X662" s="1"/>
       <c r="Y662" s="1"/>
     </row>
-    <row r="663" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:25" ht="13.2">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -19636,7 +19635,7 @@
       <c r="X663" s="1"/>
       <c r="Y663" s="1"/>
     </row>
-    <row r="664" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:25" ht="13.2">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -19663,7 +19662,7 @@
       <c r="X664" s="1"/>
       <c r="Y664" s="1"/>
     </row>
-    <row r="665" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:25" ht="13.2">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -19690,7 +19689,7 @@
       <c r="X665" s="1"/>
       <c r="Y665" s="1"/>
     </row>
-    <row r="666" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:25" ht="13.2">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -19717,7 +19716,7 @@
       <c r="X666" s="1"/>
       <c r="Y666" s="1"/>
     </row>
-    <row r="667" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:25" ht="13.2">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -19744,7 +19743,7 @@
       <c r="X667" s="1"/>
       <c r="Y667" s="1"/>
     </row>
-    <row r="668" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:25" ht="13.2">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -19771,7 +19770,7 @@
       <c r="X668" s="1"/>
       <c r="Y668" s="1"/>
     </row>
-    <row r="669" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:25" ht="13.2">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -19798,7 +19797,7 @@
       <c r="X669" s="1"/>
       <c r="Y669" s="1"/>
     </row>
-    <row r="670" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:25" ht="13.2">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -19825,7 +19824,7 @@
       <c r="X670" s="1"/>
       <c r="Y670" s="1"/>
     </row>
-    <row r="671" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:25" ht="13.2">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -19852,7 +19851,7 @@
       <c r="X671" s="1"/>
       <c r="Y671" s="1"/>
     </row>
-    <row r="672" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:25" ht="13.2">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -19879,7 +19878,7 @@
       <c r="X672" s="1"/>
       <c r="Y672" s="1"/>
     </row>
-    <row r="673" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:25" ht="13.2">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -19906,7 +19905,7 @@
       <c r="X673" s="1"/>
       <c r="Y673" s="1"/>
     </row>
-    <row r="674" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:25" ht="13.2">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -19933,7 +19932,7 @@
       <c r="X674" s="1"/>
       <c r="Y674" s="1"/>
     </row>
-    <row r="675" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:25" ht="13.2">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -19960,7 +19959,7 @@
       <c r="X675" s="1"/>
       <c r="Y675" s="1"/>
     </row>
-    <row r="676" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:25" ht="13.2">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -19987,7 +19986,7 @@
       <c r="X676" s="1"/>
       <c r="Y676" s="1"/>
     </row>
-    <row r="677" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:25" ht="13.2">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -20014,7 +20013,7 @@
       <c r="X677" s="1"/>
       <c r="Y677" s="1"/>
     </row>
-    <row r="678" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:25" ht="13.2">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -20041,7 +20040,7 @@
       <c r="X678" s="1"/>
       <c r="Y678" s="1"/>
     </row>
-    <row r="679" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:25" ht="13.2">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -20068,7 +20067,7 @@
       <c r="X679" s="1"/>
       <c r="Y679" s="1"/>
     </row>
-    <row r="680" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:25" ht="13.2">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -20095,7 +20094,7 @@
       <c r="X680" s="1"/>
       <c r="Y680" s="1"/>
     </row>
-    <row r="681" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:25" ht="13.2">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -20122,7 +20121,7 @@
       <c r="X681" s="1"/>
       <c r="Y681" s="1"/>
     </row>
-    <row r="682" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:25" ht="13.2">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -20149,7 +20148,7 @@
       <c r="X682" s="1"/>
       <c r="Y682" s="1"/>
     </row>
-    <row r="683" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:25" ht="13.2">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -20176,7 +20175,7 @@
       <c r="X683" s="1"/>
       <c r="Y683" s="1"/>
     </row>
-    <row r="684" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:25" ht="13.2">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -20203,7 +20202,7 @@
       <c r="X684" s="1"/>
       <c r="Y684" s="1"/>
     </row>
-    <row r="685" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:25" ht="13.2">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -20230,7 +20229,7 @@
       <c r="X685" s="1"/>
       <c r="Y685" s="1"/>
     </row>
-    <row r="686" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:25" ht="13.2">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -20257,7 +20256,7 @@
       <c r="X686" s="1"/>
       <c r="Y686" s="1"/>
     </row>
-    <row r="687" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:25" ht="13.2">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -20284,7 +20283,7 @@
       <c r="X687" s="1"/>
       <c r="Y687" s="1"/>
     </row>
-    <row r="688" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:25" ht="13.2">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -20311,7 +20310,7 @@
       <c r="X688" s="1"/>
       <c r="Y688" s="1"/>
     </row>
-    <row r="689" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:25" ht="13.2">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -20338,7 +20337,7 @@
       <c r="X689" s="1"/>
       <c r="Y689" s="1"/>
     </row>
-    <row r="690" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:25" ht="13.2">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -20365,7 +20364,7 @@
       <c r="X690" s="1"/>
       <c r="Y690" s="1"/>
     </row>
-    <row r="691" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:25" ht="13.2">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -20392,7 +20391,7 @@
       <c r="X691" s="1"/>
       <c r="Y691" s="1"/>
     </row>
-    <row r="692" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:25" ht="13.2">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -20419,7 +20418,7 @@
       <c r="X692" s="1"/>
       <c r="Y692" s="1"/>
     </row>
-    <row r="693" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:25" ht="13.2">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -20446,7 +20445,7 @@
       <c r="X693" s="1"/>
       <c r="Y693" s="1"/>
     </row>
-    <row r="694" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:25" ht="13.2">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -20473,7 +20472,7 @@
       <c r="X694" s="1"/>
       <c r="Y694" s="1"/>
     </row>
-    <row r="695" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:25" ht="13.2">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -20500,7 +20499,7 @@
       <c r="X695" s="1"/>
       <c r="Y695" s="1"/>
     </row>
-    <row r="696" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:25" ht="13.2">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -20527,7 +20526,7 @@
       <c r="X696" s="1"/>
       <c r="Y696" s="1"/>
     </row>
-    <row r="697" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:25" ht="13.2">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -20554,7 +20553,7 @@
       <c r="X697" s="1"/>
       <c r="Y697" s="1"/>
     </row>
-    <row r="698" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:25" ht="13.2">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -20581,7 +20580,7 @@
       <c r="X698" s="1"/>
       <c r="Y698" s="1"/>
     </row>
-    <row r="699" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:25" ht="13.2">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -20608,7 +20607,7 @@
       <c r="X699" s="1"/>
       <c r="Y699" s="1"/>
     </row>
-    <row r="700" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:25" ht="13.2">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -20635,7 +20634,7 @@
       <c r="X700" s="1"/>
       <c r="Y700" s="1"/>
     </row>
-    <row r="701" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:25" ht="13.2">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -20662,7 +20661,7 @@
       <c r="X701" s="1"/>
       <c r="Y701" s="1"/>
     </row>
-    <row r="702" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:25" ht="13.2">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -20689,7 +20688,7 @@
       <c r="X702" s="1"/>
       <c r="Y702" s="1"/>
     </row>
-    <row r="703" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:25" ht="13.2">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -20716,7 +20715,7 @@
       <c r="X703" s="1"/>
       <c r="Y703" s="1"/>
     </row>
-    <row r="704" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:25" ht="13.2">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -20743,7 +20742,7 @@
       <c r="X704" s="1"/>
       <c r="Y704" s="1"/>
     </row>
-    <row r="705" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:25" ht="13.2">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -20770,7 +20769,7 @@
       <c r="X705" s="1"/>
       <c r="Y705" s="1"/>
     </row>
-    <row r="706" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:25" ht="13.2">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -20797,7 +20796,7 @@
       <c r="X706" s="1"/>
       <c r="Y706" s="1"/>
     </row>
-    <row r="707" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:25" ht="13.2">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -20824,7 +20823,7 @@
       <c r="X707" s="1"/>
       <c r="Y707" s="1"/>
     </row>
-    <row r="708" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:25" ht="13.2">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -20851,7 +20850,7 @@
       <c r="X708" s="1"/>
       <c r="Y708" s="1"/>
     </row>
-    <row r="709" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:25" ht="13.2">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -20878,7 +20877,7 @@
       <c r="X709" s="1"/>
       <c r="Y709" s="1"/>
     </row>
-    <row r="710" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:25" ht="13.2">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -20905,7 +20904,7 @@
       <c r="X710" s="1"/>
       <c r="Y710" s="1"/>
     </row>
-    <row r="711" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:25" ht="13.2">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -20932,7 +20931,7 @@
       <c r="X711" s="1"/>
       <c r="Y711" s="1"/>
     </row>
-    <row r="712" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:25" ht="13.2">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -20959,7 +20958,7 @@
       <c r="X712" s="1"/>
       <c r="Y712" s="1"/>
     </row>
-    <row r="713" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:25" ht="13.2">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -20986,7 +20985,7 @@
       <c r="X713" s="1"/>
       <c r="Y713" s="1"/>
     </row>
-    <row r="714" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:25" ht="13.2">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -21013,7 +21012,7 @@
       <c r="X714" s="1"/>
       <c r="Y714" s="1"/>
     </row>
-    <row r="715" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:25" ht="13.2">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -21040,7 +21039,7 @@
       <c r="X715" s="1"/>
       <c r="Y715" s="1"/>
     </row>
-    <row r="716" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:25" ht="13.2">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -21067,7 +21066,7 @@
       <c r="X716" s="1"/>
       <c r="Y716" s="1"/>
     </row>
-    <row r="717" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:25" ht="13.2">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -21094,7 +21093,7 @@
       <c r="X717" s="1"/>
       <c r="Y717" s="1"/>
     </row>
-    <row r="718" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:25" ht="13.2">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -21121,7 +21120,7 @@
       <c r="X718" s="1"/>
       <c r="Y718" s="1"/>
     </row>
-    <row r="719" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:25" ht="13.2">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -21148,7 +21147,7 @@
       <c r="X719" s="1"/>
       <c r="Y719" s="1"/>
     </row>
-    <row r="720" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:25" ht="13.2">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -21175,7 +21174,7 @@
       <c r="X720" s="1"/>
       <c r="Y720" s="1"/>
     </row>
-    <row r="721" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:25" ht="13.2">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -21202,7 +21201,7 @@
       <c r="X721" s="1"/>
       <c r="Y721" s="1"/>
     </row>
-    <row r="722" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:25" ht="13.2">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -21229,7 +21228,7 @@
       <c r="X722" s="1"/>
       <c r="Y722" s="1"/>
     </row>
-    <row r="723" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:25" ht="13.2">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -21256,7 +21255,7 @@
       <c r="X723" s="1"/>
       <c r="Y723" s="1"/>
     </row>
-    <row r="724" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:25" ht="13.2">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -21283,7 +21282,7 @@
       <c r="X724" s="1"/>
       <c r="Y724" s="1"/>
     </row>
-    <row r="725" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:25" ht="13.2">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -21310,7 +21309,7 @@
       <c r="X725" s="1"/>
       <c r="Y725" s="1"/>
     </row>
-    <row r="726" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:25" ht="13.2">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -21337,7 +21336,7 @@
       <c r="X726" s="1"/>
       <c r="Y726" s="1"/>
     </row>
-    <row r="727" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:25" ht="13.2">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -21364,7 +21363,7 @@
       <c r="X727" s="1"/>
       <c r="Y727" s="1"/>
     </row>
-    <row r="728" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:25" ht="13.2">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -21391,7 +21390,7 @@
       <c r="X728" s="1"/>
       <c r="Y728" s="1"/>
     </row>
-    <row r="729" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:25" ht="13.2">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -21418,7 +21417,7 @@
       <c r="X729" s="1"/>
       <c r="Y729" s="1"/>
     </row>
-    <row r="730" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:25" ht="13.2">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -21445,7 +21444,7 @@
       <c r="X730" s="1"/>
       <c r="Y730" s="1"/>
     </row>
-    <row r="731" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:25" ht="13.2">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -21472,7 +21471,7 @@
       <c r="X731" s="1"/>
       <c r="Y731" s="1"/>
     </row>
-    <row r="732" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:25" ht="13.2">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -21499,7 +21498,7 @@
       <c r="X732" s="1"/>
       <c r="Y732" s="1"/>
     </row>
-    <row r="733" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:25" ht="13.2">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -21526,7 +21525,7 @@
       <c r="X733" s="1"/>
       <c r="Y733" s="1"/>
     </row>
-    <row r="734" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:25" ht="13.2">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -21553,7 +21552,7 @@
       <c r="X734" s="1"/>
       <c r="Y734" s="1"/>
     </row>
-    <row r="735" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:25" ht="13.2">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -21580,7 +21579,7 @@
       <c r="X735" s="1"/>
       <c r="Y735" s="1"/>
     </row>
-    <row r="736" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:25" ht="13.2">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -21607,7 +21606,7 @@
       <c r="X736" s="1"/>
       <c r="Y736" s="1"/>
     </row>
-    <row r="737" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:25" ht="13.2">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -21634,7 +21633,7 @@
       <c r="X737" s="1"/>
       <c r="Y737" s="1"/>
     </row>
-    <row r="738" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:25" ht="13.2">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -21661,7 +21660,7 @@
       <c r="X738" s="1"/>
       <c r="Y738" s="1"/>
     </row>
-    <row r="739" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:25" ht="13.2">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -21688,7 +21687,7 @@
       <c r="X739" s="1"/>
       <c r="Y739" s="1"/>
     </row>
-    <row r="740" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:25" ht="13.2">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -21715,7 +21714,7 @@
       <c r="X740" s="1"/>
       <c r="Y740" s="1"/>
     </row>
-    <row r="741" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:25" ht="13.2">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -21742,7 +21741,7 @@
       <c r="X741" s="1"/>
       <c r="Y741" s="1"/>
     </row>
-    <row r="742" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:25" ht="13.2">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -21769,7 +21768,7 @@
       <c r="X742" s="1"/>
       <c r="Y742" s="1"/>
     </row>
-    <row r="743" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:25" ht="13.2">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -21796,7 +21795,7 @@
       <c r="X743" s="1"/>
       <c r="Y743" s="1"/>
     </row>
-    <row r="744" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:25" ht="13.2">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -21823,7 +21822,7 @@
       <c r="X744" s="1"/>
       <c r="Y744" s="1"/>
     </row>
-    <row r="745" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:25" ht="13.2">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -21850,7 +21849,7 @@
       <c r="X745" s="1"/>
       <c r="Y745" s="1"/>
     </row>
-    <row r="746" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:25" ht="13.2">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -21877,7 +21876,7 @@
       <c r="X746" s="1"/>
       <c r="Y746" s="1"/>
     </row>
-    <row r="747" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:25" ht="13.2">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -21904,7 +21903,7 @@
       <c r="X747" s="1"/>
       <c r="Y747" s="1"/>
     </row>
-    <row r="748" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:25" ht="13.2">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -21931,7 +21930,7 @@
       <c r="X748" s="1"/>
       <c r="Y748" s="1"/>
     </row>
-    <row r="749" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:25" ht="13.2">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -21958,7 +21957,7 @@
       <c r="X749" s="1"/>
       <c r="Y749" s="1"/>
     </row>
-    <row r="750" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:25" ht="13.2">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -21985,7 +21984,7 @@
       <c r="X750" s="1"/>
       <c r="Y750" s="1"/>
     </row>
-    <row r="751" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:25" ht="13.2">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -22012,7 +22011,7 @@
       <c r="X751" s="1"/>
       <c r="Y751" s="1"/>
     </row>
-    <row r="752" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:25" ht="13.2">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -22039,7 +22038,7 @@
       <c r="X752" s="1"/>
       <c r="Y752" s="1"/>
     </row>
-    <row r="753" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:25" ht="13.2">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -22066,7 +22065,7 @@
       <c r="X753" s="1"/>
       <c r="Y753" s="1"/>
     </row>
-    <row r="754" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:25" ht="13.2">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -22093,7 +22092,7 @@
       <c r="X754" s="1"/>
       <c r="Y754" s="1"/>
     </row>
-    <row r="755" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:25" ht="13.2">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -22120,7 +22119,7 @@
       <c r="X755" s="1"/>
       <c r="Y755" s="1"/>
     </row>
-    <row r="756" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:25" ht="13.2">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -22147,7 +22146,7 @@
       <c r="X756" s="1"/>
       <c r="Y756" s="1"/>
     </row>
-    <row r="757" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:25" ht="13.2">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -22174,7 +22173,7 @@
       <c r="X757" s="1"/>
       <c r="Y757" s="1"/>
     </row>
-    <row r="758" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:25" ht="13.2">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -22201,7 +22200,7 @@
       <c r="X758" s="1"/>
       <c r="Y758" s="1"/>
     </row>
-    <row r="759" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:25" ht="13.2">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -22228,7 +22227,7 @@
       <c r="X759" s="1"/>
       <c r="Y759" s="1"/>
     </row>
-    <row r="760" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:25" ht="13.2">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -22255,7 +22254,7 @@
       <c r="X760" s="1"/>
       <c r="Y760" s="1"/>
     </row>
-    <row r="761" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:25" ht="13.2">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -22282,7 +22281,7 @@
       <c r="X761" s="1"/>
       <c r="Y761" s="1"/>
     </row>
-    <row r="762" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:25" ht="13.2">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -22309,7 +22308,7 @@
       <c r="X762" s="1"/>
       <c r="Y762" s="1"/>
     </row>
-    <row r="763" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:25" ht="13.2">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -22336,7 +22335,7 @@
       <c r="X763" s="1"/>
       <c r="Y763" s="1"/>
     </row>
-    <row r="764" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:25" ht="13.2">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -22363,7 +22362,7 @@
       <c r="X764" s="1"/>
       <c r="Y764" s="1"/>
     </row>
-    <row r="765" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:25" ht="13.2">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -22390,7 +22389,7 @@
       <c r="X765" s="1"/>
       <c r="Y765" s="1"/>
     </row>
-    <row r="766" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:25" ht="13.2">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -22417,7 +22416,7 @@
       <c r="X766" s="1"/>
       <c r="Y766" s="1"/>
     </row>
-    <row r="767" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:25" ht="13.2">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -22444,7 +22443,7 @@
       <c r="X767" s="1"/>
       <c r="Y767" s="1"/>
     </row>
-    <row r="768" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:25" ht="13.2">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -22471,7 +22470,7 @@
       <c r="X768" s="1"/>
       <c r="Y768" s="1"/>
     </row>
-    <row r="769" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:25" ht="13.2">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -22498,7 +22497,7 @@
       <c r="X769" s="1"/>
       <c r="Y769" s="1"/>
     </row>
-    <row r="770" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:25" ht="13.2">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -22525,7 +22524,7 @@
       <c r="X770" s="1"/>
       <c r="Y770" s="1"/>
     </row>
-    <row r="771" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:25" ht="13.2">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -22552,7 +22551,7 @@
       <c r="X771" s="1"/>
       <c r="Y771" s="1"/>
     </row>
-    <row r="772" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:25" ht="13.2">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -22579,7 +22578,7 @@
       <c r="X772" s="1"/>
       <c r="Y772" s="1"/>
     </row>
-    <row r="773" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:25" ht="13.2">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -22606,7 +22605,7 @@
       <c r="X773" s="1"/>
       <c r="Y773" s="1"/>
     </row>
-    <row r="774" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:25" ht="13.2">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -22633,7 +22632,7 @@
       <c r="X774" s="1"/>
       <c r="Y774" s="1"/>
     </row>
-    <row r="775" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:25" ht="13.2">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -22660,7 +22659,7 @@
       <c r="X775" s="1"/>
       <c r="Y775" s="1"/>
     </row>
-    <row r="776" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:25" ht="13.2">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -22687,7 +22686,7 @@
       <c r="X776" s="1"/>
       <c r="Y776" s="1"/>
     </row>
-    <row r="777" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:25" ht="13.2">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -22714,7 +22713,7 @@
       <c r="X777" s="1"/>
       <c r="Y777" s="1"/>
     </row>
-    <row r="778" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:25" ht="13.2">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -22741,7 +22740,7 @@
       <c r="X778" s="1"/>
       <c r="Y778" s="1"/>
     </row>
-    <row r="779" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:25" ht="13.2">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -22768,7 +22767,7 @@
       <c r="X779" s="1"/>
       <c r="Y779" s="1"/>
     </row>
-    <row r="780" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:25" ht="13.2">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -22795,7 +22794,7 @@
       <c r="X780" s="1"/>
       <c r="Y780" s="1"/>
     </row>
-    <row r="781" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:25" ht="13.2">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -22822,7 +22821,7 @@
       <c r="X781" s="1"/>
       <c r="Y781" s="1"/>
     </row>
-    <row r="782" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:25" ht="13.2">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -22849,7 +22848,7 @@
       <c r="X782" s="1"/>
       <c r="Y782" s="1"/>
     </row>
-    <row r="783" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:25" ht="13.2">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -22876,7 +22875,7 @@
       <c r="X783" s="1"/>
       <c r="Y783" s="1"/>
     </row>
-    <row r="784" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:25" ht="13.2">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -22903,7 +22902,7 @@
       <c r="X784" s="1"/>
       <c r="Y784" s="1"/>
     </row>
-    <row r="785" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:25" ht="13.2">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -22930,7 +22929,7 @@
       <c r="X785" s="1"/>
       <c r="Y785" s="1"/>
     </row>
-    <row r="786" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:25" ht="13.2">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -22957,7 +22956,7 @@
       <c r="X786" s="1"/>
       <c r="Y786" s="1"/>
     </row>
-    <row r="787" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:25" ht="13.2">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -22984,7 +22983,7 @@
       <c r="X787" s="1"/>
       <c r="Y787" s="1"/>
     </row>
-    <row r="788" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:25" ht="13.2">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -23011,7 +23010,7 @@
       <c r="X788" s="1"/>
       <c r="Y788" s="1"/>
     </row>
-    <row r="789" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:25" ht="13.2">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -23038,7 +23037,7 @@
       <c r="X789" s="1"/>
       <c r="Y789" s="1"/>
     </row>
-    <row r="790" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:25" ht="13.2">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -23065,7 +23064,7 @@
       <c r="X790" s="1"/>
       <c r="Y790" s="1"/>
     </row>
-    <row r="791" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:25" ht="13.2">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -23092,7 +23091,7 @@
       <c r="X791" s="1"/>
       <c r="Y791" s="1"/>
     </row>
-    <row r="792" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:25" ht="13.2">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -23119,7 +23118,7 @@
       <c r="X792" s="1"/>
       <c r="Y792" s="1"/>
     </row>
-    <row r="793" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:25" ht="13.2">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -23146,7 +23145,7 @@
       <c r="X793" s="1"/>
       <c r="Y793" s="1"/>
     </row>
-    <row r="794" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:25" ht="13.2">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -23173,7 +23172,7 @@
       <c r="X794" s="1"/>
       <c r="Y794" s="1"/>
     </row>
-    <row r="795" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:25" ht="13.2">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -23200,7 +23199,7 @@
       <c r="X795" s="1"/>
       <c r="Y795" s="1"/>
     </row>
-    <row r="796" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:25" ht="13.2">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -23227,7 +23226,7 @@
       <c r="X796" s="1"/>
       <c r="Y796" s="1"/>
     </row>
-    <row r="797" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:25" ht="13.2">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -23254,7 +23253,7 @@
       <c r="X797" s="1"/>
       <c r="Y797" s="1"/>
     </row>
-    <row r="798" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:25" ht="13.2">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -23281,7 +23280,7 @@
       <c r="X798" s="1"/>
       <c r="Y798" s="1"/>
     </row>
-    <row r="799" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:25" ht="13.2">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -23308,7 +23307,7 @@
       <c r="X799" s="1"/>
       <c r="Y799" s="1"/>
     </row>
-    <row r="800" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:25" ht="13.2">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -23335,7 +23334,7 @@
       <c r="X800" s="1"/>
       <c r="Y800" s="1"/>
     </row>
-    <row r="801" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:25" ht="13.2">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -23362,7 +23361,7 @@
       <c r="X801" s="1"/>
       <c r="Y801" s="1"/>
     </row>
-    <row r="802" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:25" ht="13.2">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -23389,7 +23388,7 @@
       <c r="X802" s="1"/>
       <c r="Y802" s="1"/>
     </row>
-    <row r="803" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:25" ht="13.2">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -23416,7 +23415,7 @@
       <c r="X803" s="1"/>
       <c r="Y803" s="1"/>
     </row>
-    <row r="804" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:25" ht="13.2">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -23443,7 +23442,7 @@
       <c r="X804" s="1"/>
       <c r="Y804" s="1"/>
     </row>
-    <row r="805" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:25" ht="13.2">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -23470,7 +23469,7 @@
       <c r="X805" s="1"/>
       <c r="Y805" s="1"/>
     </row>
-    <row r="806" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:25" ht="13.2">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -23497,7 +23496,7 @@
       <c r="X806" s="1"/>
       <c r="Y806" s="1"/>
     </row>
-    <row r="807" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:25" ht="13.2">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -23524,7 +23523,7 @@
       <c r="X807" s="1"/>
       <c r="Y807" s="1"/>
     </row>
-    <row r="808" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:25" ht="13.2">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -23551,7 +23550,7 @@
       <c r="X808" s="1"/>
       <c r="Y808" s="1"/>
     </row>
-    <row r="809" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:25" ht="13.2">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -23578,7 +23577,7 @@
       <c r="X809" s="1"/>
       <c r="Y809" s="1"/>
     </row>
-    <row r="810" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:25" ht="13.2">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -23605,7 +23604,7 @@
       <c r="X810" s="1"/>
       <c r="Y810" s="1"/>
     </row>
-    <row r="811" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:25" ht="13.2">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -23632,7 +23631,7 @@
       <c r="X811" s="1"/>
       <c r="Y811" s="1"/>
     </row>
-    <row r="812" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:25" ht="13.2">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -23659,7 +23658,7 @@
       <c r="X812" s="1"/>
       <c r="Y812" s="1"/>
     </row>
-    <row r="813" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:25" ht="13.2">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -23686,7 +23685,7 @@
       <c r="X813" s="1"/>
       <c r="Y813" s="1"/>
     </row>
-    <row r="814" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:25" ht="13.2">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -23713,7 +23712,7 @@
       <c r="X814" s="1"/>
       <c r="Y814" s="1"/>
     </row>
-    <row r="815" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:25" ht="13.2">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -23740,7 +23739,7 @@
       <c r="X815" s="1"/>
       <c r="Y815" s="1"/>
     </row>
-    <row r="816" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:25" ht="13.2">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -23767,7 +23766,7 @@
       <c r="X816" s="1"/>
       <c r="Y816" s="1"/>
     </row>
-    <row r="817" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:25" ht="13.2">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -23794,7 +23793,7 @@
       <c r="X817" s="1"/>
       <c r="Y817" s="1"/>
     </row>
-    <row r="818" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:25" ht="13.2">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -23821,7 +23820,7 @@
       <c r="X818" s="1"/>
       <c r="Y818" s="1"/>
     </row>
-    <row r="819" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:25" ht="13.2">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -23848,7 +23847,7 @@
       <c r="X819" s="1"/>
       <c r="Y819" s="1"/>
     </row>
-    <row r="820" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:25" ht="13.2">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -23875,7 +23874,7 @@
       <c r="X820" s="1"/>
       <c r="Y820" s="1"/>
     </row>
-    <row r="821" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:25" ht="13.2">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -23902,7 +23901,7 @@
       <c r="X821" s="1"/>
       <c r="Y821" s="1"/>
     </row>
-    <row r="822" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:25" ht="13.2">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -23929,7 +23928,7 @@
       <c r="X822" s="1"/>
       <c r="Y822" s="1"/>
     </row>
-    <row r="823" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:25" ht="13.2">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -23956,7 +23955,7 @@
       <c r="X823" s="1"/>
       <c r="Y823" s="1"/>
     </row>
-    <row r="824" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:25" ht="13.2">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -23983,7 +23982,7 @@
       <c r="X824" s="1"/>
       <c r="Y824" s="1"/>
     </row>
-    <row r="825" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:25" ht="13.2">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -24010,7 +24009,7 @@
       <c r="X825" s="1"/>
       <c r="Y825" s="1"/>
     </row>
-    <row r="826" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:25" ht="13.2">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -24037,7 +24036,7 @@
       <c r="X826" s="1"/>
       <c r="Y826" s="1"/>
     </row>
-    <row r="827" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:25" ht="13.2">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -24064,7 +24063,7 @@
       <c r="X827" s="1"/>
       <c r="Y827" s="1"/>
     </row>
-    <row r="828" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:25" ht="13.2">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -24091,7 +24090,7 @@
       <c r="X828" s="1"/>
       <c r="Y828" s="1"/>
     </row>
-    <row r="829" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:25" ht="13.2">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -24118,7 +24117,7 @@
       <c r="X829" s="1"/>
       <c r="Y829" s="1"/>
     </row>
-    <row r="830" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:25" ht="13.2">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -24145,7 +24144,7 @@
       <c r="X830" s="1"/>
       <c r="Y830" s="1"/>
     </row>
-    <row r="831" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:25" ht="13.2">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -24172,7 +24171,7 @@
       <c r="X831" s="1"/>
       <c r="Y831" s="1"/>
     </row>
-    <row r="832" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:25" ht="13.2">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -24199,7 +24198,7 @@
       <c r="X832" s="1"/>
       <c r="Y832" s="1"/>
     </row>
-    <row r="833" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:25" ht="13.2">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -24226,7 +24225,7 @@
       <c r="X833" s="1"/>
       <c r="Y833" s="1"/>
     </row>
-    <row r="834" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:25" ht="13.2">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -24253,7 +24252,7 @@
       <c r="X834" s="1"/>
       <c r="Y834" s="1"/>
     </row>
-    <row r="835" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:25" ht="13.2">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -24280,7 +24279,7 @@
       <c r="X835" s="1"/>
       <c r="Y835" s="1"/>
     </row>
-    <row r="836" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:25" ht="13.2">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -24307,7 +24306,7 @@
       <c r="X836" s="1"/>
       <c r="Y836" s="1"/>
     </row>
-    <row r="837" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:25" ht="13.2">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -24334,7 +24333,7 @@
       <c r="X837" s="1"/>
       <c r="Y837" s="1"/>
     </row>
-    <row r="838" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:25" ht="13.2">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -24361,7 +24360,7 @@
       <c r="X838" s="1"/>
       <c r="Y838" s="1"/>
     </row>
-    <row r="839" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:25" ht="13.2">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -24388,7 +24387,7 @@
       <c r="X839" s="1"/>
       <c r="Y839" s="1"/>
     </row>
-    <row r="840" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:25" ht="13.2">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -24415,7 +24414,7 @@
       <c r="X840" s="1"/>
       <c r="Y840" s="1"/>
     </row>
-    <row r="841" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:25" ht="13.2">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -24442,7 +24441,7 @@
       <c r="X841" s="1"/>
       <c r="Y841" s="1"/>
     </row>
-    <row r="842" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:25" ht="13.2">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -24469,7 +24468,7 @@
       <c r="X842" s="1"/>
       <c r="Y842" s="1"/>
     </row>
-    <row r="843" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:25" ht="13.2">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -24496,7 +24495,7 @@
       <c r="X843" s="1"/>
       <c r="Y843" s="1"/>
     </row>
-    <row r="844" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:25" ht="13.2">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -24523,7 +24522,7 @@
       <c r="X844" s="1"/>
       <c r="Y844" s="1"/>
     </row>
-    <row r="845" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:25" ht="13.2">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -24550,7 +24549,7 @@
       <c r="X845" s="1"/>
       <c r="Y845" s="1"/>
     </row>
-    <row r="846" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:25" ht="13.2">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -24577,7 +24576,7 @@
       <c r="X846" s="1"/>
       <c r="Y846" s="1"/>
     </row>
-    <row r="847" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:25" ht="13.2">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -24604,7 +24603,7 @@
       <c r="X847" s="1"/>
       <c r="Y847" s="1"/>
     </row>
-    <row r="848" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:25" ht="13.2">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -24631,7 +24630,7 @@
       <c r="X848" s="1"/>
       <c r="Y848" s="1"/>
     </row>
-    <row r="849" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:25" ht="13.2">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -24658,7 +24657,7 @@
       <c r="X849" s="1"/>
       <c r="Y849" s="1"/>
     </row>
-    <row r="850" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:25" ht="13.2">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -24685,7 +24684,7 @@
       <c r="X850" s="1"/>
       <c r="Y850" s="1"/>
     </row>
-    <row r="851" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:25" ht="13.2">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -24712,7 +24711,7 @@
       <c r="X851" s="1"/>
       <c r="Y851" s="1"/>
     </row>
-    <row r="852" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:25" ht="13.2">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -24739,7 +24738,7 @@
       <c r="X852" s="1"/>
       <c r="Y852" s="1"/>
     </row>
-    <row r="853" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:25" ht="13.2">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -24766,7 +24765,7 @@
       <c r="X853" s="1"/>
       <c r="Y853" s="1"/>
     </row>
-    <row r="854" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:25" ht="13.2">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -24793,7 +24792,7 @@
       <c r="X854" s="1"/>
       <c r="Y854" s="1"/>
     </row>
-    <row r="855" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:25" ht="13.2">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -24820,7 +24819,7 @@
       <c r="X855" s="1"/>
       <c r="Y855" s="1"/>
     </row>
-    <row r="856" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:25" ht="13.2">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -24847,7 +24846,7 @@
       <c r="X856" s="1"/>
       <c r="Y856" s="1"/>
     </row>
-    <row r="857" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:25" ht="13.2">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -24874,7 +24873,7 @@
       <c r="X857" s="1"/>
       <c r="Y857" s="1"/>
     </row>
-    <row r="858" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:25" ht="13.2">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -24901,7 +24900,7 @@
       <c r="X858" s="1"/>
       <c r="Y858" s="1"/>
     </row>
-    <row r="859" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:25" ht="13.2">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -24928,7 +24927,7 @@
       <c r="X859" s="1"/>
       <c r="Y859" s="1"/>
     </row>
-    <row r="860" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:25" ht="13.2">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -24956,21 +24955,11 @@
       <c r="Y860" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A12:J66" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A12:J66">
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="J12:J13"/>
@@ -24987,6 +24976,16 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="B14:B66">
@@ -25040,25 +25039,25 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="HORI EZIN DA SARTU" error="Hemen bakarrik EGINDA, PROZESUAN edo HASI GABE, jarri dezakezu." sqref="I14:I1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="HORI EZIN DA SARTU" error="Hemen bakarrik EGINDA, PROZESUAN edo HASI GABE, jarri dezakezu." sqref="I14:I1048576">
       <formula1>"HASI GABE,PROZESUAN,EGINDA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A64:A66" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A64:A66">
       <formula1>"16/10/2023 - 20/10/2023,23/10/2023 - 27/10/2023,30/10/2023 - 03/11/2023,06/11/2023 - 10/11/2023,13/11/2023 - 17/11/2023"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="B12:B66" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" sqref="B12:B66">
       <formula1>"TALDEA:,APP:,ERP:,INTERFAZ:,DA:,ZERBITZU:,ENPRESA:,"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D14:D67" xr:uid="{8B8C812F-662E-488B-9E89-740000F391CE}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D14:D67">
       <formula1>"ST,"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F14:F66 H14:H66" xr:uid="{7A60E001-9678-4D2C-9087-7576F2BE772C}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F14:F66 H14:H66">
       <formula1>"ANDER,EBER,ST"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31:A63" xr:uid="{B0690D4D-503A-445C-9423-8A1DE5F172F6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31:A63">
       <formula1>"8/01/2024 - 12/01/2024,15/01/2024 - 19/01/2024,22/01/2024 - 26/01/2024,29/01/2024 - 2/02/2024,5/02/2024 - 09/02/2024"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A30" xr:uid="{2FBF8B83-0318-40CA-A40D-DAA4B7B887A9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A30">
       <formula1>"8/01/2024 - 12/01/2024,15/01/2024 - 19/01/2024,22/01/2024 - 26/01/2024,29/01/2024 - 2/02/2024,5/02/2024 - 09/02/2024,08/01/2024 - 09/02/2024"</formula1>
     </dataValidation>
   </dataValidations>

--- a/8. Planifikazioa Egunerokoa/ST EGUNEROKOA.xlsx
+++ b/8. Planifikazioa Egunerokoa/ST EGUNEROKOA.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaltamirapaag2\Desktop\ST_Erronka2\8. Planifikazioa Egunerokoa\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59AA4CA-8568-4E84-BEFF-86CC98591D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2580" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-28920" yWindow="-2580" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planifikazioa" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planifikazioa!$A$12:$J$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planifikazioa!$A$12:$J$65</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="60">
   <si>
     <t>ENTREGA</t>
   </si>
@@ -174,9 +175,6 @@
     <t>TALDEA: Proposamenak aurkeztu</t>
   </si>
   <si>
-    <t>TALDEA: Egunerokoa</t>
-  </si>
-  <si>
     <t>TALDEA: Talde kontratua zehaztu eta sinatu</t>
   </si>
   <si>
@@ -218,12 +216,36 @@
   <si>
     <t>TALDEA: EGUNEROKOA</t>
   </si>
+  <si>
+    <t>15/01/2024 - 19/01/2024</t>
+  </si>
+  <si>
+    <t>ZERBITZU: FastApi-arekin hasi</t>
+  </si>
+  <si>
+    <t>ZERBITZU: Informazioa bilatu, fastApi hori nola egin jakiteko</t>
+  </si>
+  <si>
+    <t>ZERBITZU: Konexioa Egin</t>
+  </si>
+  <si>
+    <t>INTERFAZ: Jokalari klaseak sortu</t>
+  </si>
+  <si>
+    <t>ENPRESA: Balantza egin</t>
+  </si>
+  <si>
+    <t>ERP: Jokalari moduluak datu baseko datuak hartzea (zein taula den bistaratzea)</t>
+  </si>
+  <si>
+    <t>APP: Jokoaren hasiera pantalla diseinatu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -883,15 +905,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -946,41 +961,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1000,6 +980,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1030,6 +1019,37 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1164,9 +1184,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1844779</xdr:colOff>
+      <xdr:colOff>1848589</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>436806</xdr:rowOff>
+      <xdr:rowOff>440616</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1209,9 +1229,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1249,9 +1269,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1286,7 +1306,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1321,7 +1341,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1494,17 +1514,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y860"/>
+  <dimension ref="A1:Y859"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.6640625" bestFit="1" customWidth="1"/>
@@ -1514,19 +1534,19 @@
     <col min="10" max="10" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="34.799999999999997" customHeight="1">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:25" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="10"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="39" t="s">
         <v>33</v>
       </c>
       <c r="K1" s="1"/>
@@ -1545,19 +1565,19 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="22.8">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="1.2">
+      <c r="A2" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="58"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1574,17 +1594,17 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="59"/>
+    <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="41"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1601,7 +1621,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="13.2">
+    <row r="4" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1628,18 +1648,18 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="18" thickBot="1">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A5" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1657,23 +1677,23 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="19.95" customHeight="1" thickBot="1">
-      <c r="A6" s="75" t="s">
+    <row r="6" spans="1:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78" t="s">
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="22" t="s">
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="19" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="1"/>
@@ -1692,23 +1712,23 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="14.4" customHeight="1">
-      <c r="A7" s="51" t="s">
+    <row r="7" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="51" t="s">
+      <c r="B7" s="71"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="51" t="s">
+      <c r="E7" s="71"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="30" t="s">
+      <c r="H7" s="71"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="27" t="s">
         <v>31</v>
       </c>
       <c r="K7" s="1"/>
@@ -1727,21 +1747,21 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="13.95" customHeight="1">
-      <c r="A8" s="54" t="s">
+    <row r="8" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="54" t="s">
+      <c r="B8" s="74"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="31" t="s">
+      <c r="H8" s="74"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="28" t="s">
         <v>32</v>
       </c>
       <c r="K8" s="1"/>
@@ -1760,21 +1780,21 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="13.95" customHeight="1" thickBot="1">
-      <c r="A9" s="42" t="s">
+    <row r="9" spans="1:25" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="42" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="32" t="s">
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="29" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="1"/>
@@ -1793,18 +1813,18 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="13.8" thickBot="1">
+    <row r="10" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="66"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
       <c r="J10" s="8"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1822,7 +1842,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="14.4" thickTop="1" thickBot="1">
+    <row r="11" spans="1:25" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1849,31 +1869,31 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="13.2">
-      <c r="A12" s="67" t="s">
+    <row r="12" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A12" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="69" t="s">
+      <c r="E12" s="57"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="74" t="s">
+      <c r="H12" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="69" t="s">
+      <c r="I12" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="62" t="s">
+      <c r="J12" s="44" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="1"/>
@@ -1892,10 +1912,10 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="13.8" thickBot="1">
-      <c r="A13" s="68"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
+    <row r="13" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A13" s="53"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="9" t="s">
         <v>4</v>
       </c>
@@ -1905,10 +1925,10 @@
       <c r="F13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="63"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="45"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1925,21 +1945,21 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="13.2">
+    <row r="14" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A14" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="23"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="20" t="s">
         <v>30</v>
       </c>
       <c r="I14" s="8" t="s">
@@ -1962,22 +1982,22 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="13.2">
+    <row r="15" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A15" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="23"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="23" t="s">
-        <v>27</v>
+      <c r="H15" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>28</v>
@@ -1999,21 +2019,21 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="13.2">
+    <row r="16" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A16" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="23"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="13"/>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="20" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="8" t="s">
@@ -2036,22 +2056,22 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="13.2">
+    <row r="17" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="23"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="23" t="s">
-        <v>44</v>
+      <c r="H17" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>28</v>
@@ -2073,34 +2093,34 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" s="41" customFormat="1" ht="13.2">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
+    <row r="18" spans="1:25" s="38" customFormat="1" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="39"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="38"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="35"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-    </row>
-    <row r="19" spans="1:25" ht="19.2" customHeight="1">
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+    </row>
+    <row r="19" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
@@ -2108,13 +2128,13 @@
         <v>35</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="23"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="20" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="8" t="s">
@@ -2137,7 +2157,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="19.2" customHeight="1">
+    <row r="20" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A20" s="12" t="s">
         <v>34</v>
       </c>
@@ -2145,13 +2165,13 @@
         <v>36</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="23"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="20" t="s">
         <v>30</v>
       </c>
       <c r="I20" s="8" t="s">
@@ -2174,7 +2194,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="19.2" customHeight="1">
+    <row r="21" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="12" t="s">
         <v>34</v>
       </c>
@@ -2182,13 +2202,13 @@
         <v>37</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="23"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="20" t="s">
         <v>30</v>
       </c>
       <c r="I21" s="8" t="s">
@@ -2211,7 +2231,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="19.2" customHeight="1">
+    <row r="22" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="12" t="s">
         <v>34</v>
       </c>
@@ -2219,17 +2239,17 @@
         <v>38</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="23"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="20" t="s">
         <v>30</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="1"/>
@@ -2248,22 +2268,22 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="19.2" customHeight="1">
+    <row r="23" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="23" t="s">
-        <v>30</v>
+      <c r="D23" s="20"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="20" t="s">
+        <v>27</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="23"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="23" t="s">
-        <v>30</v>
+      <c r="H23" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>25</v>
@@ -2285,7 +2305,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="19.2" customHeight="1">
+    <row r="24" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="12" t="s">
         <v>34</v>
       </c>
@@ -2293,17 +2313,17 @@
         <v>42</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="23" t="s">
+      <c r="D24" s="20"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G24" s="13"/>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="20" t="s">
         <v>27</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="1"/>
@@ -2322,25 +2342,25 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="19.2" customHeight="1">
+    <row r="25" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="23" t="s">
-        <v>27</v>
-      </c>
       <c r="G25" s="13"/>
-      <c r="H25" s="23" t="s">
-        <v>27</v>
+      <c r="H25" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="1"/>
@@ -2359,27 +2379,27 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="19.2" customHeight="1">
+    <row r="26" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="23" t="s">
-        <v>44</v>
+      <c r="C26" s="15"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="20" t="s">
+        <v>43</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="23" t="s">
-        <v>44</v>
+      <c r="G26" s="15"/>
+      <c r="H26" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
-      <c r="J26" s="13"/>
+      <c r="J26" s="15"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2396,27 +2416,27 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="19.2" customHeight="1">
+    <row r="27" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="23" t="s">
+      <c r="B27" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="23" t="s">
-        <v>44</v>
+      <c r="C27" s="15"/>
+      <c r="D27" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
-      <c r="J27" s="16"/>
+      <c r="J27" s="15"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2433,27 +2453,27 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="19.2" customHeight="1">
+    <row r="28" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="24" t="s">
-        <v>30</v>
+      <c r="C28" s="15"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="20" t="s">
+        <v>27</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="23" t="s">
-        <v>30</v>
+      <c r="G28" s="15"/>
+      <c r="H28" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
-      <c r="J28" s="16"/>
+      <c r="J28" s="15"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -2470,27 +2490,27 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="19.2" customHeight="1">
+    <row r="29" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="24" t="s">
-        <v>30</v>
+      <c r="C29" s="15"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="20" t="s">
+        <v>27</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="23" t="s">
-        <v>30</v>
+      <c r="G29" s="15"/>
+      <c r="H29" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
-      <c r="J29" s="16"/>
+      <c r="J29" s="15"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -2507,27 +2527,17 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A30" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="16"/>
+    <row r="30" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A30" s="76"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="15"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2544,17 +2554,27 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A31" s="15"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="16"/>
+    <row r="31" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A31" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="15"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -2571,17 +2591,27 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A32" s="14"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="16"/>
+    <row r="32" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A32" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" s="15"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2598,17 +2628,27 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="16"/>
+    <row r="33" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A33" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="15"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2625,17 +2665,27 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A34" s="17"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="16"/>
+    <row r="34" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A34" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" s="15"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2652,17 +2702,27 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A35" s="17"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="16"/>
+    <row r="35" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A35" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J35" s="15"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2679,17 +2739,27 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A36" s="17"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="16"/>
+    <row r="36" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A36" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="23"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="15"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2706,16 +2776,26 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A37" s="17"/>
-      <c r="B37" s="34"/>
+    <row r="37" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A37" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>58</v>
+      </c>
       <c r="C37" s="16"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="24"/>
+      <c r="D37" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="24"/>
+      <c r="F37" s="21"/>
       <c r="G37" s="16"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="8"/>
+      <c r="H37" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J37" s="16"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2733,17 +2813,19 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A38" s="18"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="24"/>
+    <row r="38" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A38" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="33"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="25"/>
       <c r="I38" s="8"/>
-      <c r="J38" s="19"/>
+      <c r="J38" s="18"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2760,17 +2842,17 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A39" s="20"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="28"/>
+    <row r="39" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A39" s="17"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="25"/>
       <c r="I39" s="8"/>
-      <c r="J39" s="21"/>
+      <c r="J39" s="18"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -2787,17 +2869,17 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A40" s="20"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="28"/>
+    <row r="40" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A40" s="17"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="25"/>
       <c r="I40" s="8"/>
-      <c r="J40" s="21"/>
+      <c r="J40" s="18"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -2814,17 +2896,17 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A41" s="20"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="28"/>
+    <row r="41" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A41" s="17"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="25"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="21"/>
+      <c r="J41" s="18"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -2841,17 +2923,17 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A42" s="20"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="28"/>
+    <row r="42" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A42" s="17"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="8"/>
-      <c r="J42" s="21"/>
+      <c r="J42" s="18"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -2868,17 +2950,17 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A43" s="20"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="28"/>
+    <row r="43" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A43" s="17"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="25"/>
       <c r="I43" s="8"/>
-      <c r="J43" s="21"/>
+      <c r="J43" s="18"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -2895,17 +2977,17 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A44" s="20"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="28"/>
+    <row r="44" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A44" s="17"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="21"/>
+      <c r="J44" s="18"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -2922,17 +3004,17 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A45" s="20"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="28"/>
+    <row r="45" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A45" s="17"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="21"/>
+      <c r="J45" s="18"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -2949,17 +3031,17 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A46" s="20"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="28"/>
+    <row r="46" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A46" s="17"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="25"/>
       <c r="I46" s="8"/>
-      <c r="J46" s="21"/>
+      <c r="J46" s="18"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -2976,17 +3058,17 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A47" s="20"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="28"/>
+    <row r="47" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A47" s="17"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="25"/>
       <c r="I47" s="8"/>
-      <c r="J47" s="21"/>
+      <c r="J47" s="18"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -3003,17 +3085,17 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A48" s="20"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="28"/>
+    <row r="48" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A48" s="17"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="25"/>
       <c r="I48" s="8"/>
-      <c r="J48" s="21"/>
+      <c r="J48" s="18"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -3030,17 +3112,17 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A49" s="20"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="28"/>
+    <row r="49" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A49" s="17"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="25"/>
       <c r="I49" s="8"/>
-      <c r="J49" s="21"/>
+      <c r="J49" s="18"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -3057,17 +3139,17 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A50" s="20"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="28"/>
+    <row r="50" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A50" s="17"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="25"/>
       <c r="I50" s="8"/>
-      <c r="J50" s="21"/>
+      <c r="J50" s="18"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -3084,17 +3166,17 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A51" s="20"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="28"/>
+    <row r="51" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A51" s="17"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="25"/>
       <c r="I51" s="8"/>
-      <c r="J51" s="21"/>
+      <c r="J51" s="18"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -3111,17 +3193,17 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A52" s="20"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="28"/>
+    <row r="52" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A52" s="17"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="25"/>
       <c r="I52" s="8"/>
-      <c r="J52" s="21"/>
+      <c r="J52" s="18"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -3138,17 +3220,17 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A53" s="20"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="28"/>
+    <row r="53" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A53" s="17"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="25"/>
       <c r="I53" s="8"/>
-      <c r="J53" s="21"/>
+      <c r="J53" s="18"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -3165,17 +3247,17 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A54" s="20"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="28"/>
+    <row r="54" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A54" s="17"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="25"/>
       <c r="I54" s="8"/>
-      <c r="J54" s="21"/>
+      <c r="J54" s="18"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -3192,17 +3274,17 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A55" s="20"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="28"/>
+    <row r="55" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A55" s="17"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="25"/>
       <c r="I55" s="8"/>
-      <c r="J55" s="21"/>
+      <c r="J55" s="18"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -3219,17 +3301,17 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A56" s="20"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="28"/>
+    <row r="56" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A56" s="17"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="25"/>
       <c r="I56" s="8"/>
-      <c r="J56" s="21"/>
+      <c r="J56" s="18"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -3246,17 +3328,17 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A57" s="20"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="28"/>
+    <row r="57" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A57" s="17"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="25"/>
       <c r="I57" s="8"/>
-      <c r="J57" s="21"/>
+      <c r="J57" s="18"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -3273,17 +3355,17 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A58" s="20"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="28"/>
+    <row r="58" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A58" s="17"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="25"/>
       <c r="I58" s="8"/>
-      <c r="J58" s="21"/>
+      <c r="J58" s="18"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -3300,17 +3382,17 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A59" s="20"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="28"/>
+    <row r="59" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A59" s="17"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="25"/>
       <c r="I59" s="8"/>
-      <c r="J59" s="21"/>
+      <c r="J59" s="18"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -3327,17 +3409,17 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A60" s="20"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="28"/>
+    <row r="60" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A60" s="17"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="25"/>
       <c r="I60" s="8"/>
-      <c r="J60" s="21"/>
+      <c r="J60" s="18"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -3354,17 +3436,17 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A61" s="20"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="28"/>
+    <row r="61" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A61" s="17"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="25"/>
       <c r="I61" s="8"/>
-      <c r="J61" s="21"/>
+      <c r="J61" s="18"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -3381,17 +3463,17 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A62" s="20"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="28"/>
+    <row r="62" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A62" s="17"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="25"/>
       <c r="I62" s="8"/>
-      <c r="J62" s="21"/>
+      <c r="J62" s="18"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -3408,17 +3490,17 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A63" s="20"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="28"/>
+    <row r="63" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A63" s="17"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="25"/>
       <c r="I63" s="8"/>
-      <c r="J63" s="21"/>
+      <c r="J63" s="18"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -3435,17 +3517,17 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A64" s="20"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="28"/>
+    <row r="64" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A64" s="17"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="25"/>
       <c r="I64" s="8"/>
-      <c r="J64" s="21"/>
+      <c r="J64" s="18"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -3462,17 +3544,17 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A65" s="20"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="28"/>
+    <row r="65" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A65" s="17"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="25"/>
       <c r="I65" s="8"/>
-      <c r="J65" s="21"/>
+      <c r="J65" s="18"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -3489,17 +3571,17 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A66" s="20"/>
-      <c r="B66" s="36"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="21"/>
+    <row r="66" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -3516,7 +3598,7 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="13.2">
+    <row r="67" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3543,7 +3625,7 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="1:25" ht="13.2">
+    <row r="68" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3570,7 +3652,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69" spans="1:25" ht="13.2">
+    <row r="69" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3597,7 +3679,7 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70" spans="1:25" ht="13.2">
+    <row r="70" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3624,7 +3706,7 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" ht="13.2">
+    <row r="71" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3651,7 +3733,7 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="13.2">
+    <row r="72" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3678,7 +3760,7 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73" spans="1:25" ht="13.2">
+    <row r="73" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3705,7 +3787,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" spans="1:25" ht="13.2">
+    <row r="74" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3732,7 +3814,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:25" ht="13.2">
+    <row r="75" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3759,7 +3841,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="13.2">
+    <row r="76" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3786,7 +3868,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="13.2">
+    <row r="77" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3813,7 +3895,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="13.2">
+    <row r="78" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3840,7 +3922,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="13.2">
+    <row r="79" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3867,7 +3949,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:25" ht="13.2">
+    <row r="80" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3894,7 +3976,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="1:25" ht="13.2">
+    <row r="81" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3921,7 +4003,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:25" ht="13.2">
+    <row r="82" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3948,7 +4030,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" ht="13.2">
+    <row r="83" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3975,7 +4057,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:25" ht="13.2">
+    <row r="84" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4002,7 +4084,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" ht="13.2">
+    <row r="85" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4029,7 +4111,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" ht="13.2">
+    <row r="86" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4056,7 +4138,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" ht="13.2">
+    <row r="87" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4083,7 +4165,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88" spans="1:25" ht="13.2">
+    <row r="88" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4110,7 +4192,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:25" ht="13.2">
+    <row r="89" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4137,7 +4219,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90" spans="1:25" ht="13.2">
+    <row r="90" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4164,7 +4246,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" spans="1:25" ht="13.2">
+    <row r="91" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4191,7 +4273,7 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" spans="1:25" ht="13.2">
+    <row r="92" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4218,7 +4300,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" spans="1:25" ht="13.2">
+    <row r="93" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4245,7 +4327,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:25" ht="13.2">
+    <row r="94" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4272,7 +4354,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:25" ht="13.2">
+    <row r="95" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4299,7 +4381,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:25" ht="13.2">
+    <row r="96" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4326,7 +4408,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97" spans="1:25" ht="13.2">
+    <row r="97" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4353,7 +4435,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="13.2">
+    <row r="98" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4380,7 +4462,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:25" ht="13.2">
+    <row r="99" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4407,7 +4489,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:25" ht="13.2">
+    <row r="100" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4434,7 +4516,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" spans="1:25" ht="13.2">
+    <row r="101" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4461,7 +4543,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" spans="1:25" ht="13.2">
+    <row r="102" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4488,7 +4570,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" spans="1:25" ht="13.2">
+    <row r="103" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4515,7 +4597,7 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104" spans="1:25" ht="13.2">
+    <row r="104" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4542,7 +4624,7 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105" spans="1:25" ht="13.2">
+    <row r="105" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4569,7 +4651,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:25" ht="13.2">
+    <row r="106" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4596,7 +4678,7 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" ht="13.2">
+    <row r="107" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4623,7 +4705,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" spans="1:25" ht="13.2">
+    <row r="108" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4650,7 +4732,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25" ht="13.2">
+    <row r="109" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4677,7 +4759,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" spans="1:25" ht="13.2">
+    <row r="110" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4704,7 +4786,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" ht="13.2">
+    <row r="111" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4731,7 +4813,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" ht="13.2">
+    <row r="112" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4758,7 +4840,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113" spans="1:25" ht="13.2">
+    <row r="113" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4785,7 +4867,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114" spans="1:25" ht="13.2">
+    <row r="114" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4812,7 +4894,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" ht="13.2">
+    <row r="115" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4839,7 +4921,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="13.2">
+    <row r="116" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4866,7 +4948,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="13.2">
+    <row r="117" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4893,7 +4975,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" spans="1:25" ht="13.2">
+    <row r="118" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4920,7 +5002,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119" spans="1:25" ht="13.2">
+    <row r="119" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4947,7 +5029,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25" ht="13.2">
+    <row r="120" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4974,7 +5056,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:25" ht="13.2">
+    <row r="121" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -5001,7 +5083,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" spans="1:25" ht="13.2">
+    <row r="122" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -5028,7 +5110,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123" spans="1:25" ht="13.2">
+    <row r="123" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -5055,7 +5137,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124" spans="1:25" ht="13.2">
+    <row r="124" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -5082,7 +5164,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" spans="1:25" ht="13.2">
+    <row r="125" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -5109,7 +5191,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126" spans="1:25" ht="13.2">
+    <row r="126" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -5136,7 +5218,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127" spans="1:25" ht="13.2">
+    <row r="127" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -5163,7 +5245,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" ht="13.2">
+    <row r="128" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -5190,7 +5272,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" ht="13.2">
+    <row r="129" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -5217,7 +5299,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" spans="1:25" ht="13.2">
+    <row r="130" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -5244,7 +5326,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" spans="1:25" ht="13.2">
+    <row r="131" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -5271,7 +5353,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132" spans="1:25" ht="13.2">
+    <row r="132" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -5298,7 +5380,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" spans="1:25" ht="13.2">
+    <row r="133" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -5325,7 +5407,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134" spans="1:25" ht="13.2">
+    <row r="134" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -5352,7 +5434,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" ht="13.2">
+    <row r="135" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -5379,7 +5461,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="13.2">
+    <row r="136" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -5406,7 +5488,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="13.2">
+    <row r="137" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -5433,7 +5515,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="13.2">
+    <row r="138" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -5460,7 +5542,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" ht="13.2">
+    <row r="139" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -5487,7 +5569,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:25" ht="13.2">
+    <row r="140" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -5514,7 +5596,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="13.2">
+    <row r="141" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -5541,7 +5623,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="13.2">
+    <row r="142" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -5568,7 +5650,7 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="13.2">
+    <row r="143" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -5595,7 +5677,7 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="13.2">
+    <row r="144" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -5622,7 +5704,7 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" ht="13.2">
+    <row r="145" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -5649,7 +5731,7 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" ht="13.2">
+    <row r="146" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -5676,7 +5758,7 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" ht="13.2">
+    <row r="147" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -5703,7 +5785,7 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="13.2">
+    <row r="148" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -5730,7 +5812,7 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="13.2">
+    <row r="149" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -5757,7 +5839,7 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" ht="13.2">
+    <row r="150" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -5784,7 +5866,7 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="13.2">
+    <row r="151" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -5811,7 +5893,7 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" ht="13.2">
+    <row r="152" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -5838,7 +5920,7 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="13.2">
+    <row r="153" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -5865,7 +5947,7 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" ht="13.2">
+    <row r="154" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -5892,7 +5974,7 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" ht="13.2">
+    <row r="155" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -5919,7 +6001,7 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="13.2">
+    <row r="156" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5946,7 +6028,7 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="13.2">
+    <row r="157" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5973,7 +6055,7 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="13.2">
+    <row r="158" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6000,7 +6082,7 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="13.2">
+    <row r="159" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6027,7 +6109,7 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" ht="13.2">
+    <row r="160" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6054,7 +6136,7 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="13.2">
+    <row r="161" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6081,7 +6163,7 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="13.2">
+    <row r="162" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6108,7 +6190,7 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="13.2">
+    <row r="163" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6135,7 +6217,7 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="13.2">
+    <row r="164" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -6162,7 +6244,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="13.2">
+    <row r="165" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -6189,7 +6271,7 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="13.2">
+    <row r="166" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -6216,7 +6298,7 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" spans="1:25" ht="13.2">
+    <row r="167" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6243,7 +6325,7 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="13.2">
+    <row r="168" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6270,7 +6352,7 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="13.2">
+    <row r="169" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6297,7 +6379,7 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" ht="13.2">
+    <row r="170" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6324,7 +6406,7 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="1:25" ht="13.2">
+    <row r="171" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6351,7 +6433,7 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" spans="1:25" ht="13.2">
+    <row r="172" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6378,7 +6460,7 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" ht="13.2">
+    <row r="173" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6405,7 +6487,7 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" spans="1:25" ht="13.2">
+    <row r="174" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6432,7 +6514,7 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="13.2">
+    <row r="175" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6459,7 +6541,7 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="13.2">
+    <row r="176" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6486,7 +6568,7 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="13.2">
+    <row r="177" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6513,7 +6595,7 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" ht="13.2">
+    <row r="178" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6540,7 +6622,7 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" ht="13.2">
+    <row r="179" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -6567,7 +6649,7 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" spans="1:25" ht="13.2">
+    <row r="180" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -6594,7 +6676,7 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" spans="1:25" ht="13.2">
+    <row r="181" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -6621,7 +6703,7 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182" spans="1:25" ht="13.2">
+    <row r="182" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -6648,7 +6730,7 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="1:25" ht="13.2">
+    <row r="183" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -6675,7 +6757,7 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" spans="1:25" ht="13.2">
+    <row r="184" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -6702,7 +6784,7 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="1:25" ht="13.2">
+    <row r="185" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -6729,7 +6811,7 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="13.2">
+    <row r="186" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -6756,7 +6838,7 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="1:25" ht="13.2">
+    <row r="187" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -6783,7 +6865,7 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
     </row>
-    <row r="188" spans="1:25" ht="13.2">
+    <row r="188" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -6810,7 +6892,7 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" spans="1:25" ht="13.2">
+    <row r="189" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -6837,7 +6919,7 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190" spans="1:25" ht="13.2">
+    <row r="190" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -6864,7 +6946,7 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="13.2">
+    <row r="191" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -6891,7 +6973,7 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="13.2">
+    <row r="192" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -6918,7 +7000,7 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193" spans="1:25" ht="13.2">
+    <row r="193" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -6945,7 +7027,7 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="13.2">
+    <row r="194" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -6972,7 +7054,7 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="13.2">
+    <row r="195" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -6999,7 +7081,7 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="13.2">
+    <row r="196" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -7026,7 +7108,7 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="13.2">
+    <row r="197" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -7053,7 +7135,7 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
     </row>
-    <row r="198" spans="1:25" ht="13.2">
+    <row r="198" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -7080,7 +7162,7 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="13.2">
+    <row r="199" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -7107,7 +7189,7 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" spans="1:25" ht="13.2">
+    <row r="200" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -7134,7 +7216,7 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" spans="1:25" ht="13.2">
+    <row r="201" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -7161,7 +7243,7 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="13.2">
+    <row r="202" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -7188,7 +7270,7 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
     </row>
-    <row r="203" spans="1:25" ht="13.2">
+    <row r="203" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -7215,7 +7297,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="13.2">
+    <row r="204" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -7242,7 +7324,7 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="13.2">
+    <row r="205" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -7269,7 +7351,7 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="13.2">
+    <row r="206" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -7296,7 +7378,7 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="13.2">
+    <row r="207" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -7323,7 +7405,7 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="13.2">
+    <row r="208" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -7350,7 +7432,7 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="13.2">
+    <row r="209" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -7377,7 +7459,7 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="13.2">
+    <row r="210" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -7404,7 +7486,7 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="13.2">
+    <row r="211" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -7431,7 +7513,7 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="13.2">
+    <row r="212" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -7458,7 +7540,7 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" spans="1:25" ht="13.2">
+    <row r="213" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -7485,7 +7567,7 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="13.2">
+    <row r="214" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -7512,7 +7594,7 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="13.2">
+    <row r="215" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -7539,7 +7621,7 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="13.2">
+    <row r="216" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -7566,7 +7648,7 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="13.2">
+    <row r="217" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -7593,7 +7675,7 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
     </row>
-    <row r="218" spans="1:25" ht="13.2">
+    <row r="218" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -7620,7 +7702,7 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="13.2">
+    <row r="219" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -7647,7 +7729,7 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
     </row>
-    <row r="220" spans="1:25" ht="13.2">
+    <row r="220" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -7674,7 +7756,7 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
     </row>
-    <row r="221" spans="1:25" ht="13.2">
+    <row r="221" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -7701,7 +7783,7 @@
       <c r="X221" s="1"/>
       <c r="Y221" s="1"/>
     </row>
-    <row r="222" spans="1:25" ht="13.2">
+    <row r="222" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -7728,7 +7810,7 @@
       <c r="X222" s="1"/>
       <c r="Y222" s="1"/>
     </row>
-    <row r="223" spans="1:25" ht="13.2">
+    <row r="223" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -7755,7 +7837,7 @@
       <c r="X223" s="1"/>
       <c r="Y223" s="1"/>
     </row>
-    <row r="224" spans="1:25" ht="13.2">
+    <row r="224" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -7782,7 +7864,7 @@
       <c r="X224" s="1"/>
       <c r="Y224" s="1"/>
     </row>
-    <row r="225" spans="1:25" ht="13.2">
+    <row r="225" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -7809,7 +7891,7 @@
       <c r="X225" s="1"/>
       <c r="Y225" s="1"/>
     </row>
-    <row r="226" spans="1:25" ht="13.2">
+    <row r="226" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -7836,7 +7918,7 @@
       <c r="X226" s="1"/>
       <c r="Y226" s="1"/>
     </row>
-    <row r="227" spans="1:25" ht="13.2">
+    <row r="227" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -7863,7 +7945,7 @@
       <c r="X227" s="1"/>
       <c r="Y227" s="1"/>
     </row>
-    <row r="228" spans="1:25" ht="13.2">
+    <row r="228" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -7890,7 +7972,7 @@
       <c r="X228" s="1"/>
       <c r="Y228" s="1"/>
     </row>
-    <row r="229" spans="1:25" ht="13.2">
+    <row r="229" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -7917,7 +7999,7 @@
       <c r="X229" s="1"/>
       <c r="Y229" s="1"/>
     </row>
-    <row r="230" spans="1:25" ht="13.2">
+    <row r="230" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -7944,7 +8026,7 @@
       <c r="X230" s="1"/>
       <c r="Y230" s="1"/>
     </row>
-    <row r="231" spans="1:25" ht="13.2">
+    <row r="231" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -7971,7 +8053,7 @@
       <c r="X231" s="1"/>
       <c r="Y231" s="1"/>
     </row>
-    <row r="232" spans="1:25" ht="13.2">
+    <row r="232" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -7998,7 +8080,7 @@
       <c r="X232" s="1"/>
       <c r="Y232" s="1"/>
     </row>
-    <row r="233" spans="1:25" ht="13.2">
+    <row r="233" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -8025,7 +8107,7 @@
       <c r="X233" s="1"/>
       <c r="Y233" s="1"/>
     </row>
-    <row r="234" spans="1:25" ht="13.2">
+    <row r="234" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -8052,7 +8134,7 @@
       <c r="X234" s="1"/>
       <c r="Y234" s="1"/>
     </row>
-    <row r="235" spans="1:25" ht="13.2">
+    <row r="235" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -8079,7 +8161,7 @@
       <c r="X235" s="1"/>
       <c r="Y235" s="1"/>
     </row>
-    <row r="236" spans="1:25" ht="13.2">
+    <row r="236" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -8106,7 +8188,7 @@
       <c r="X236" s="1"/>
       <c r="Y236" s="1"/>
     </row>
-    <row r="237" spans="1:25" ht="13.2">
+    <row r="237" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -8133,7 +8215,7 @@
       <c r="X237" s="1"/>
       <c r="Y237" s="1"/>
     </row>
-    <row r="238" spans="1:25" ht="13.2">
+    <row r="238" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -8160,7 +8242,7 @@
       <c r="X238" s="1"/>
       <c r="Y238" s="1"/>
     </row>
-    <row r="239" spans="1:25" ht="13.2">
+    <row r="239" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -8187,7 +8269,7 @@
       <c r="X239" s="1"/>
       <c r="Y239" s="1"/>
     </row>
-    <row r="240" spans="1:25" ht="13.2">
+    <row r="240" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -8214,7 +8296,7 @@
       <c r="X240" s="1"/>
       <c r="Y240" s="1"/>
     </row>
-    <row r="241" spans="1:25" ht="13.2">
+    <row r="241" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -8241,7 +8323,7 @@
       <c r="X241" s="1"/>
       <c r="Y241" s="1"/>
     </row>
-    <row r="242" spans="1:25" ht="13.2">
+    <row r="242" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -8268,7 +8350,7 @@
       <c r="X242" s="1"/>
       <c r="Y242" s="1"/>
     </row>
-    <row r="243" spans="1:25" ht="13.2">
+    <row r="243" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -8295,7 +8377,7 @@
       <c r="X243" s="1"/>
       <c r="Y243" s="1"/>
     </row>
-    <row r="244" spans="1:25" ht="13.2">
+    <row r="244" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -8322,7 +8404,7 @@
       <c r="X244" s="1"/>
       <c r="Y244" s="1"/>
     </row>
-    <row r="245" spans="1:25" ht="13.2">
+    <row r="245" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -8349,7 +8431,7 @@
       <c r="X245" s="1"/>
       <c r="Y245" s="1"/>
     </row>
-    <row r="246" spans="1:25" ht="13.2">
+    <row r="246" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -8376,7 +8458,7 @@
       <c r="X246" s="1"/>
       <c r="Y246" s="1"/>
     </row>
-    <row r="247" spans="1:25" ht="13.2">
+    <row r="247" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -8403,7 +8485,7 @@
       <c r="X247" s="1"/>
       <c r="Y247" s="1"/>
     </row>
-    <row r="248" spans="1:25" ht="13.2">
+    <row r="248" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -8430,7 +8512,7 @@
       <c r="X248" s="1"/>
       <c r="Y248" s="1"/>
     </row>
-    <row r="249" spans="1:25" ht="13.2">
+    <row r="249" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -8457,7 +8539,7 @@
       <c r="X249" s="1"/>
       <c r="Y249" s="1"/>
     </row>
-    <row r="250" spans="1:25" ht="13.2">
+    <row r="250" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -8484,7 +8566,7 @@
       <c r="X250" s="1"/>
       <c r="Y250" s="1"/>
     </row>
-    <row r="251" spans="1:25" ht="13.2">
+    <row r="251" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -8511,7 +8593,7 @@
       <c r="X251" s="1"/>
       <c r="Y251" s="1"/>
     </row>
-    <row r="252" spans="1:25" ht="13.2">
+    <row r="252" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -8538,7 +8620,7 @@
       <c r="X252" s="1"/>
       <c r="Y252" s="1"/>
     </row>
-    <row r="253" spans="1:25" ht="13.2">
+    <row r="253" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -8565,7 +8647,7 @@
       <c r="X253" s="1"/>
       <c r="Y253" s="1"/>
     </row>
-    <row r="254" spans="1:25" ht="13.2">
+    <row r="254" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -8592,7 +8674,7 @@
       <c r="X254" s="1"/>
       <c r="Y254" s="1"/>
     </row>
-    <row r="255" spans="1:25" ht="13.2">
+    <row r="255" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -8619,7 +8701,7 @@
       <c r="X255" s="1"/>
       <c r="Y255" s="1"/>
     </row>
-    <row r="256" spans="1:25" ht="13.2">
+    <row r="256" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -8646,7 +8728,7 @@
       <c r="X256" s="1"/>
       <c r="Y256" s="1"/>
     </row>
-    <row r="257" spans="1:25" ht="13.2">
+    <row r="257" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -8673,7 +8755,7 @@
       <c r="X257" s="1"/>
       <c r="Y257" s="1"/>
     </row>
-    <row r="258" spans="1:25" ht="13.2">
+    <row r="258" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -8700,7 +8782,7 @@
       <c r="X258" s="1"/>
       <c r="Y258" s="1"/>
     </row>
-    <row r="259" spans="1:25" ht="13.2">
+    <row r="259" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -8727,7 +8809,7 @@
       <c r="X259" s="1"/>
       <c r="Y259" s="1"/>
     </row>
-    <row r="260" spans="1:25" ht="13.2">
+    <row r="260" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -8754,7 +8836,7 @@
       <c r="X260" s="1"/>
       <c r="Y260" s="1"/>
     </row>
-    <row r="261" spans="1:25" ht="13.2">
+    <row r="261" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -8781,7 +8863,7 @@
       <c r="X261" s="1"/>
       <c r="Y261" s="1"/>
     </row>
-    <row r="262" spans="1:25" ht="13.2">
+    <row r="262" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -8808,7 +8890,7 @@
       <c r="X262" s="1"/>
       <c r="Y262" s="1"/>
     </row>
-    <row r="263" spans="1:25" ht="13.2">
+    <row r="263" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -8835,7 +8917,7 @@
       <c r="X263" s="1"/>
       <c r="Y263" s="1"/>
     </row>
-    <row r="264" spans="1:25" ht="13.2">
+    <row r="264" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -8862,7 +8944,7 @@
       <c r="X264" s="1"/>
       <c r="Y264" s="1"/>
     </row>
-    <row r="265" spans="1:25" ht="13.2">
+    <row r="265" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -8889,7 +8971,7 @@
       <c r="X265" s="1"/>
       <c r="Y265" s="1"/>
     </row>
-    <row r="266" spans="1:25" ht="13.2">
+    <row r="266" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -8916,7 +8998,7 @@
       <c r="X266" s="1"/>
       <c r="Y266" s="1"/>
     </row>
-    <row r="267" spans="1:25" ht="13.2">
+    <row r="267" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -8943,7 +9025,7 @@
       <c r="X267" s="1"/>
       <c r="Y267" s="1"/>
     </row>
-    <row r="268" spans="1:25" ht="13.2">
+    <row r="268" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -8970,7 +9052,7 @@
       <c r="X268" s="1"/>
       <c r="Y268" s="1"/>
     </row>
-    <row r="269" spans="1:25" ht="13.2">
+    <row r="269" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -8997,7 +9079,7 @@
       <c r="X269" s="1"/>
       <c r="Y269" s="1"/>
     </row>
-    <row r="270" spans="1:25" ht="13.2">
+    <row r="270" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -9024,7 +9106,7 @@
       <c r="X270" s="1"/>
       <c r="Y270" s="1"/>
     </row>
-    <row r="271" spans="1:25" ht="13.2">
+    <row r="271" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -9051,7 +9133,7 @@
       <c r="X271" s="1"/>
       <c r="Y271" s="1"/>
     </row>
-    <row r="272" spans="1:25" ht="13.2">
+    <row r="272" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -9078,7 +9160,7 @@
       <c r="X272" s="1"/>
       <c r="Y272" s="1"/>
     </row>
-    <row r="273" spans="1:25" ht="13.2">
+    <row r="273" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -9105,7 +9187,7 @@
       <c r="X273" s="1"/>
       <c r="Y273" s="1"/>
     </row>
-    <row r="274" spans="1:25" ht="13.2">
+    <row r="274" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -9132,7 +9214,7 @@
       <c r="X274" s="1"/>
       <c r="Y274" s="1"/>
     </row>
-    <row r="275" spans="1:25" ht="13.2">
+    <row r="275" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -9159,7 +9241,7 @@
       <c r="X275" s="1"/>
       <c r="Y275" s="1"/>
     </row>
-    <row r="276" spans="1:25" ht="13.2">
+    <row r="276" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -9186,7 +9268,7 @@
       <c r="X276" s="1"/>
       <c r="Y276" s="1"/>
     </row>
-    <row r="277" spans="1:25" ht="13.2">
+    <row r="277" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -9213,7 +9295,7 @@
       <c r="X277" s="1"/>
       <c r="Y277" s="1"/>
     </row>
-    <row r="278" spans="1:25" ht="13.2">
+    <row r="278" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -9240,7 +9322,7 @@
       <c r="X278" s="1"/>
       <c r="Y278" s="1"/>
     </row>
-    <row r="279" spans="1:25" ht="13.2">
+    <row r="279" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -9267,7 +9349,7 @@
       <c r="X279" s="1"/>
       <c r="Y279" s="1"/>
     </row>
-    <row r="280" spans="1:25" ht="13.2">
+    <row r="280" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -9294,7 +9376,7 @@
       <c r="X280" s="1"/>
       <c r="Y280" s="1"/>
     </row>
-    <row r="281" spans="1:25" ht="13.2">
+    <row r="281" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -9321,7 +9403,7 @@
       <c r="X281" s="1"/>
       <c r="Y281" s="1"/>
     </row>
-    <row r="282" spans="1:25" ht="13.2">
+    <row r="282" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -9348,7 +9430,7 @@
       <c r="X282" s="1"/>
       <c r="Y282" s="1"/>
     </row>
-    <row r="283" spans="1:25" ht="13.2">
+    <row r="283" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -9375,7 +9457,7 @@
       <c r="X283" s="1"/>
       <c r="Y283" s="1"/>
     </row>
-    <row r="284" spans="1:25" ht="13.2">
+    <row r="284" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -9402,7 +9484,7 @@
       <c r="X284" s="1"/>
       <c r="Y284" s="1"/>
     </row>
-    <row r="285" spans="1:25" ht="13.2">
+    <row r="285" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -9429,7 +9511,7 @@
       <c r="X285" s="1"/>
       <c r="Y285" s="1"/>
     </row>
-    <row r="286" spans="1:25" ht="13.2">
+    <row r="286" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -9456,7 +9538,7 @@
       <c r="X286" s="1"/>
       <c r="Y286" s="1"/>
     </row>
-    <row r="287" spans="1:25" ht="13.2">
+    <row r="287" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -9483,7 +9565,7 @@
       <c r="X287" s="1"/>
       <c r="Y287" s="1"/>
     </row>
-    <row r="288" spans="1:25" ht="13.2">
+    <row r="288" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -9510,7 +9592,7 @@
       <c r="X288" s="1"/>
       <c r="Y288" s="1"/>
     </row>
-    <row r="289" spans="1:25" ht="13.2">
+    <row r="289" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -9537,7 +9619,7 @@
       <c r="X289" s="1"/>
       <c r="Y289" s="1"/>
     </row>
-    <row r="290" spans="1:25" ht="13.2">
+    <row r="290" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -9564,7 +9646,7 @@
       <c r="X290" s="1"/>
       <c r="Y290" s="1"/>
     </row>
-    <row r="291" spans="1:25" ht="13.2">
+    <row r="291" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -9591,7 +9673,7 @@
       <c r="X291" s="1"/>
       <c r="Y291" s="1"/>
     </row>
-    <row r="292" spans="1:25" ht="13.2">
+    <row r="292" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -9618,7 +9700,7 @@
       <c r="X292" s="1"/>
       <c r="Y292" s="1"/>
     </row>
-    <row r="293" spans="1:25" ht="13.2">
+    <row r="293" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -9645,7 +9727,7 @@
       <c r="X293" s="1"/>
       <c r="Y293" s="1"/>
     </row>
-    <row r="294" spans="1:25" ht="13.2">
+    <row r="294" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -9672,7 +9754,7 @@
       <c r="X294" s="1"/>
       <c r="Y294" s="1"/>
     </row>
-    <row r="295" spans="1:25" ht="13.2">
+    <row r="295" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -9699,7 +9781,7 @@
       <c r="X295" s="1"/>
       <c r="Y295" s="1"/>
     </row>
-    <row r="296" spans="1:25" ht="13.2">
+    <row r="296" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -9726,7 +9808,7 @@
       <c r="X296" s="1"/>
       <c r="Y296" s="1"/>
     </row>
-    <row r="297" spans="1:25" ht="13.2">
+    <row r="297" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -9753,7 +9835,7 @@
       <c r="X297" s="1"/>
       <c r="Y297" s="1"/>
     </row>
-    <row r="298" spans="1:25" ht="13.2">
+    <row r="298" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -9780,7 +9862,7 @@
       <c r="X298" s="1"/>
       <c r="Y298" s="1"/>
     </row>
-    <row r="299" spans="1:25" ht="13.2">
+    <row r="299" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -9807,7 +9889,7 @@
       <c r="X299" s="1"/>
       <c r="Y299" s="1"/>
     </row>
-    <row r="300" spans="1:25" ht="13.2">
+    <row r="300" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -9834,7 +9916,7 @@
       <c r="X300" s="1"/>
       <c r="Y300" s="1"/>
     </row>
-    <row r="301" spans="1:25" ht="13.2">
+    <row r="301" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -9861,7 +9943,7 @@
       <c r="X301" s="1"/>
       <c r="Y301" s="1"/>
     </row>
-    <row r="302" spans="1:25" ht="13.2">
+    <row r="302" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -9888,7 +9970,7 @@
       <c r="X302" s="1"/>
       <c r="Y302" s="1"/>
     </row>
-    <row r="303" spans="1:25" ht="13.2">
+    <row r="303" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -9915,7 +9997,7 @@
       <c r="X303" s="1"/>
       <c r="Y303" s="1"/>
     </row>
-    <row r="304" spans="1:25" ht="13.2">
+    <row r="304" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -9942,7 +10024,7 @@
       <c r="X304" s="1"/>
       <c r="Y304" s="1"/>
     </row>
-    <row r="305" spans="1:25" ht="13.2">
+    <row r="305" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -9969,7 +10051,7 @@
       <c r="X305" s="1"/>
       <c r="Y305" s="1"/>
     </row>
-    <row r="306" spans="1:25" ht="13.2">
+    <row r="306" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -9996,7 +10078,7 @@
       <c r="X306" s="1"/>
       <c r="Y306" s="1"/>
     </row>
-    <row r="307" spans="1:25" ht="13.2">
+    <row r="307" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -10023,7 +10105,7 @@
       <c r="X307" s="1"/>
       <c r="Y307" s="1"/>
     </row>
-    <row r="308" spans="1:25" ht="13.2">
+    <row r="308" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -10050,7 +10132,7 @@
       <c r="X308" s="1"/>
       <c r="Y308" s="1"/>
     </row>
-    <row r="309" spans="1:25" ht="13.2">
+    <row r="309" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -10077,7 +10159,7 @@
       <c r="X309" s="1"/>
       <c r="Y309" s="1"/>
     </row>
-    <row r="310" spans="1:25" ht="13.2">
+    <row r="310" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -10104,7 +10186,7 @@
       <c r="X310" s="1"/>
       <c r="Y310" s="1"/>
     </row>
-    <row r="311" spans="1:25" ht="13.2">
+    <row r="311" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -10131,7 +10213,7 @@
       <c r="X311" s="1"/>
       <c r="Y311" s="1"/>
     </row>
-    <row r="312" spans="1:25" ht="13.2">
+    <row r="312" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -10158,7 +10240,7 @@
       <c r="X312" s="1"/>
       <c r="Y312" s="1"/>
     </row>
-    <row r="313" spans="1:25" ht="13.2">
+    <row r="313" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -10185,7 +10267,7 @@
       <c r="X313" s="1"/>
       <c r="Y313" s="1"/>
     </row>
-    <row r="314" spans="1:25" ht="13.2">
+    <row r="314" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -10212,7 +10294,7 @@
       <c r="X314" s="1"/>
       <c r="Y314" s="1"/>
     </row>
-    <row r="315" spans="1:25" ht="13.2">
+    <row r="315" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -10239,7 +10321,7 @@
       <c r="X315" s="1"/>
       <c r="Y315" s="1"/>
     </row>
-    <row r="316" spans="1:25" ht="13.2">
+    <row r="316" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -10266,7 +10348,7 @@
       <c r="X316" s="1"/>
       <c r="Y316" s="1"/>
     </row>
-    <row r="317" spans="1:25" ht="13.2">
+    <row r="317" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -10293,7 +10375,7 @@
       <c r="X317" s="1"/>
       <c r="Y317" s="1"/>
     </row>
-    <row r="318" spans="1:25" ht="13.2">
+    <row r="318" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -10320,7 +10402,7 @@
       <c r="X318" s="1"/>
       <c r="Y318" s="1"/>
     </row>
-    <row r="319" spans="1:25" ht="13.2">
+    <row r="319" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -10347,7 +10429,7 @@
       <c r="X319" s="1"/>
       <c r="Y319" s="1"/>
     </row>
-    <row r="320" spans="1:25" ht="13.2">
+    <row r="320" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -10374,7 +10456,7 @@
       <c r="X320" s="1"/>
       <c r="Y320" s="1"/>
     </row>
-    <row r="321" spans="1:25" ht="13.2">
+    <row r="321" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -10401,7 +10483,7 @@
       <c r="X321" s="1"/>
       <c r="Y321" s="1"/>
     </row>
-    <row r="322" spans="1:25" ht="13.2">
+    <row r="322" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -10428,7 +10510,7 @@
       <c r="X322" s="1"/>
       <c r="Y322" s="1"/>
     </row>
-    <row r="323" spans="1:25" ht="13.2">
+    <row r="323" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -10455,7 +10537,7 @@
       <c r="X323" s="1"/>
       <c r="Y323" s="1"/>
     </row>
-    <row r="324" spans="1:25" ht="13.2">
+    <row r="324" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -10482,7 +10564,7 @@
       <c r="X324" s="1"/>
       <c r="Y324" s="1"/>
     </row>
-    <row r="325" spans="1:25" ht="13.2">
+    <row r="325" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -10509,7 +10591,7 @@
       <c r="X325" s="1"/>
       <c r="Y325" s="1"/>
     </row>
-    <row r="326" spans="1:25" ht="13.2">
+    <row r="326" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -10536,7 +10618,7 @@
       <c r="X326" s="1"/>
       <c r="Y326" s="1"/>
     </row>
-    <row r="327" spans="1:25" ht="13.2">
+    <row r="327" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -10563,7 +10645,7 @@
       <c r="X327" s="1"/>
       <c r="Y327" s="1"/>
     </row>
-    <row r="328" spans="1:25" ht="13.2">
+    <row r="328" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -10590,7 +10672,7 @@
       <c r="X328" s="1"/>
       <c r="Y328" s="1"/>
     </row>
-    <row r="329" spans="1:25" ht="13.2">
+    <row r="329" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -10617,7 +10699,7 @@
       <c r="X329" s="1"/>
       <c r="Y329" s="1"/>
     </row>
-    <row r="330" spans="1:25" ht="13.2">
+    <row r="330" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -10644,7 +10726,7 @@
       <c r="X330" s="1"/>
       <c r="Y330" s="1"/>
     </row>
-    <row r="331" spans="1:25" ht="13.2">
+    <row r="331" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -10671,7 +10753,7 @@
       <c r="X331" s="1"/>
       <c r="Y331" s="1"/>
     </row>
-    <row r="332" spans="1:25" ht="13.2">
+    <row r="332" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -10698,7 +10780,7 @@
       <c r="X332" s="1"/>
       <c r="Y332" s="1"/>
     </row>
-    <row r="333" spans="1:25" ht="13.2">
+    <row r="333" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -10725,7 +10807,7 @@
       <c r="X333" s="1"/>
       <c r="Y333" s="1"/>
     </row>
-    <row r="334" spans="1:25" ht="13.2">
+    <row r="334" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -10752,7 +10834,7 @@
       <c r="X334" s="1"/>
       <c r="Y334" s="1"/>
     </row>
-    <row r="335" spans="1:25" ht="13.2">
+    <row r="335" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -10779,7 +10861,7 @@
       <c r="X335" s="1"/>
       <c r="Y335" s="1"/>
     </row>
-    <row r="336" spans="1:25" ht="13.2">
+    <row r="336" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -10806,7 +10888,7 @@
       <c r="X336" s="1"/>
       <c r="Y336" s="1"/>
     </row>
-    <row r="337" spans="1:25" ht="13.2">
+    <row r="337" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -10833,7 +10915,7 @@
       <c r="X337" s="1"/>
       <c r="Y337" s="1"/>
     </row>
-    <row r="338" spans="1:25" ht="13.2">
+    <row r="338" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -10860,7 +10942,7 @@
       <c r="X338" s="1"/>
       <c r="Y338" s="1"/>
     </row>
-    <row r="339" spans="1:25" ht="13.2">
+    <row r="339" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -10887,7 +10969,7 @@
       <c r="X339" s="1"/>
       <c r="Y339" s="1"/>
     </row>
-    <row r="340" spans="1:25" ht="13.2">
+    <row r="340" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -10914,7 +10996,7 @@
       <c r="X340" s="1"/>
       <c r="Y340" s="1"/>
     </row>
-    <row r="341" spans="1:25" ht="13.2">
+    <row r="341" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -10941,7 +11023,7 @@
       <c r="X341" s="1"/>
       <c r="Y341" s="1"/>
     </row>
-    <row r="342" spans="1:25" ht="13.2">
+    <row r="342" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -10968,7 +11050,7 @@
       <c r="X342" s="1"/>
       <c r="Y342" s="1"/>
     </row>
-    <row r="343" spans="1:25" ht="13.2">
+    <row r="343" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -10995,7 +11077,7 @@
       <c r="X343" s="1"/>
       <c r="Y343" s="1"/>
     </row>
-    <row r="344" spans="1:25" ht="13.2">
+    <row r="344" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -11022,7 +11104,7 @@
       <c r="X344" s="1"/>
       <c r="Y344" s="1"/>
     </row>
-    <row r="345" spans="1:25" ht="13.2">
+    <row r="345" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -11049,7 +11131,7 @@
       <c r="X345" s="1"/>
       <c r="Y345" s="1"/>
     </row>
-    <row r="346" spans="1:25" ht="13.2">
+    <row r="346" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -11076,7 +11158,7 @@
       <c r="X346" s="1"/>
       <c r="Y346" s="1"/>
     </row>
-    <row r="347" spans="1:25" ht="13.2">
+    <row r="347" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -11103,7 +11185,7 @@
       <c r="X347" s="1"/>
       <c r="Y347" s="1"/>
     </row>
-    <row r="348" spans="1:25" ht="13.2">
+    <row r="348" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -11130,7 +11212,7 @@
       <c r="X348" s="1"/>
       <c r="Y348" s="1"/>
     </row>
-    <row r="349" spans="1:25" ht="13.2">
+    <row r="349" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -11157,7 +11239,7 @@
       <c r="X349" s="1"/>
       <c r="Y349" s="1"/>
     </row>
-    <row r="350" spans="1:25" ht="13.2">
+    <row r="350" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -11184,7 +11266,7 @@
       <c r="X350" s="1"/>
       <c r="Y350" s="1"/>
     </row>
-    <row r="351" spans="1:25" ht="13.2">
+    <row r="351" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -11211,7 +11293,7 @@
       <c r="X351" s="1"/>
       <c r="Y351" s="1"/>
     </row>
-    <row r="352" spans="1:25" ht="13.2">
+    <row r="352" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -11238,7 +11320,7 @@
       <c r="X352" s="1"/>
       <c r="Y352" s="1"/>
     </row>
-    <row r="353" spans="1:25" ht="13.2">
+    <row r="353" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -11265,7 +11347,7 @@
       <c r="X353" s="1"/>
       <c r="Y353" s="1"/>
     </row>
-    <row r="354" spans="1:25" ht="13.2">
+    <row r="354" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -11292,7 +11374,7 @@
       <c r="X354" s="1"/>
       <c r="Y354" s="1"/>
     </row>
-    <row r="355" spans="1:25" ht="13.2">
+    <row r="355" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -11319,7 +11401,7 @@
       <c r="X355" s="1"/>
       <c r="Y355" s="1"/>
     </row>
-    <row r="356" spans="1:25" ht="13.2">
+    <row r="356" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -11346,7 +11428,7 @@
       <c r="X356" s="1"/>
       <c r="Y356" s="1"/>
     </row>
-    <row r="357" spans="1:25" ht="13.2">
+    <row r="357" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -11373,7 +11455,7 @@
       <c r="X357" s="1"/>
       <c r="Y357" s="1"/>
     </row>
-    <row r="358" spans="1:25" ht="13.2">
+    <row r="358" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -11400,7 +11482,7 @@
       <c r="X358" s="1"/>
       <c r="Y358" s="1"/>
     </row>
-    <row r="359" spans="1:25" ht="13.2">
+    <row r="359" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -11427,7 +11509,7 @@
       <c r="X359" s="1"/>
       <c r="Y359" s="1"/>
     </row>
-    <row r="360" spans="1:25" ht="13.2">
+    <row r="360" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -11454,7 +11536,7 @@
       <c r="X360" s="1"/>
       <c r="Y360" s="1"/>
     </row>
-    <row r="361" spans="1:25" ht="13.2">
+    <row r="361" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -11481,7 +11563,7 @@
       <c r="X361" s="1"/>
       <c r="Y361" s="1"/>
     </row>
-    <row r="362" spans="1:25" ht="13.2">
+    <row r="362" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -11508,7 +11590,7 @@
       <c r="X362" s="1"/>
       <c r="Y362" s="1"/>
     </row>
-    <row r="363" spans="1:25" ht="13.2">
+    <row r="363" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -11535,7 +11617,7 @@
       <c r="X363" s="1"/>
       <c r="Y363" s="1"/>
     </row>
-    <row r="364" spans="1:25" ht="13.2">
+    <row r="364" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -11562,7 +11644,7 @@
       <c r="X364" s="1"/>
       <c r="Y364" s="1"/>
     </row>
-    <row r="365" spans="1:25" ht="13.2">
+    <row r="365" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -11589,7 +11671,7 @@
       <c r="X365" s="1"/>
       <c r="Y365" s="1"/>
     </row>
-    <row r="366" spans="1:25" ht="13.2">
+    <row r="366" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -11616,7 +11698,7 @@
       <c r="X366" s="1"/>
       <c r="Y366" s="1"/>
     </row>
-    <row r="367" spans="1:25" ht="13.2">
+    <row r="367" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -11643,7 +11725,7 @@
       <c r="X367" s="1"/>
       <c r="Y367" s="1"/>
     </row>
-    <row r="368" spans="1:25" ht="13.2">
+    <row r="368" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -11670,7 +11752,7 @@
       <c r="X368" s="1"/>
       <c r="Y368" s="1"/>
     </row>
-    <row r="369" spans="1:25" ht="13.2">
+    <row r="369" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -11697,7 +11779,7 @@
       <c r="X369" s="1"/>
       <c r="Y369" s="1"/>
     </row>
-    <row r="370" spans="1:25" ht="13.2">
+    <row r="370" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -11724,7 +11806,7 @@
       <c r="X370" s="1"/>
       <c r="Y370" s="1"/>
     </row>
-    <row r="371" spans="1:25" ht="13.2">
+    <row r="371" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -11751,7 +11833,7 @@
       <c r="X371" s="1"/>
       <c r="Y371" s="1"/>
     </row>
-    <row r="372" spans="1:25" ht="13.2">
+    <row r="372" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -11778,7 +11860,7 @@
       <c r="X372" s="1"/>
       <c r="Y372" s="1"/>
     </row>
-    <row r="373" spans="1:25" ht="13.2">
+    <row r="373" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -11805,7 +11887,7 @@
       <c r="X373" s="1"/>
       <c r="Y373" s="1"/>
     </row>
-    <row r="374" spans="1:25" ht="13.2">
+    <row r="374" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -11832,7 +11914,7 @@
       <c r="X374" s="1"/>
       <c r="Y374" s="1"/>
     </row>
-    <row r="375" spans="1:25" ht="13.2">
+    <row r="375" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -11859,7 +11941,7 @@
       <c r="X375" s="1"/>
       <c r="Y375" s="1"/>
     </row>
-    <row r="376" spans="1:25" ht="13.2">
+    <row r="376" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -11886,7 +11968,7 @@
       <c r="X376" s="1"/>
       <c r="Y376" s="1"/>
     </row>
-    <row r="377" spans="1:25" ht="13.2">
+    <row r="377" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -11913,7 +11995,7 @@
       <c r="X377" s="1"/>
       <c r="Y377" s="1"/>
     </row>
-    <row r="378" spans="1:25" ht="13.2">
+    <row r="378" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -11940,7 +12022,7 @@
       <c r="X378" s="1"/>
       <c r="Y378" s="1"/>
     </row>
-    <row r="379" spans="1:25" ht="13.2">
+    <row r="379" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -11967,7 +12049,7 @@
       <c r="X379" s="1"/>
       <c r="Y379" s="1"/>
     </row>
-    <row r="380" spans="1:25" ht="13.2">
+    <row r="380" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -11994,7 +12076,7 @@
       <c r="X380" s="1"/>
       <c r="Y380" s="1"/>
     </row>
-    <row r="381" spans="1:25" ht="13.2">
+    <row r="381" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -12021,7 +12103,7 @@
       <c r="X381" s="1"/>
       <c r="Y381" s="1"/>
     </row>
-    <row r="382" spans="1:25" ht="13.2">
+    <row r="382" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -12048,7 +12130,7 @@
       <c r="X382" s="1"/>
       <c r="Y382" s="1"/>
     </row>
-    <row r="383" spans="1:25" ht="13.2">
+    <row r="383" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -12075,7 +12157,7 @@
       <c r="X383" s="1"/>
       <c r="Y383" s="1"/>
     </row>
-    <row r="384" spans="1:25" ht="13.2">
+    <row r="384" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -12102,7 +12184,7 @@
       <c r="X384" s="1"/>
       <c r="Y384" s="1"/>
     </row>
-    <row r="385" spans="1:25" ht="13.2">
+    <row r="385" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -12129,7 +12211,7 @@
       <c r="X385" s="1"/>
       <c r="Y385" s="1"/>
     </row>
-    <row r="386" spans="1:25" ht="13.2">
+    <row r="386" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -12156,7 +12238,7 @@
       <c r="X386" s="1"/>
       <c r="Y386" s="1"/>
     </row>
-    <row r="387" spans="1:25" ht="13.2">
+    <row r="387" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -12183,7 +12265,7 @@
       <c r="X387" s="1"/>
       <c r="Y387" s="1"/>
     </row>
-    <row r="388" spans="1:25" ht="13.2">
+    <row r="388" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -12210,7 +12292,7 @@
       <c r="X388" s="1"/>
       <c r="Y388" s="1"/>
     </row>
-    <row r="389" spans="1:25" ht="13.2">
+    <row r="389" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -12237,7 +12319,7 @@
       <c r="X389" s="1"/>
       <c r="Y389" s="1"/>
     </row>
-    <row r="390" spans="1:25" ht="13.2">
+    <row r="390" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -12264,7 +12346,7 @@
       <c r="X390" s="1"/>
       <c r="Y390" s="1"/>
     </row>
-    <row r="391" spans="1:25" ht="13.2">
+    <row r="391" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -12291,7 +12373,7 @@
       <c r="X391" s="1"/>
       <c r="Y391" s="1"/>
     </row>
-    <row r="392" spans="1:25" ht="13.2">
+    <row r="392" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -12318,7 +12400,7 @@
       <c r="X392" s="1"/>
       <c r="Y392" s="1"/>
     </row>
-    <row r="393" spans="1:25" ht="13.2">
+    <row r="393" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -12345,7 +12427,7 @@
       <c r="X393" s="1"/>
       <c r="Y393" s="1"/>
     </row>
-    <row r="394" spans="1:25" ht="13.2">
+    <row r="394" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -12372,7 +12454,7 @@
       <c r="X394" s="1"/>
       <c r="Y394" s="1"/>
     </row>
-    <row r="395" spans="1:25" ht="13.2">
+    <row r="395" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -12399,7 +12481,7 @@
       <c r="X395" s="1"/>
       <c r="Y395" s="1"/>
     </row>
-    <row r="396" spans="1:25" ht="13.2">
+    <row r="396" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -12426,7 +12508,7 @@
       <c r="X396" s="1"/>
       <c r="Y396" s="1"/>
     </row>
-    <row r="397" spans="1:25" ht="13.2">
+    <row r="397" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -12453,7 +12535,7 @@
       <c r="X397" s="1"/>
       <c r="Y397" s="1"/>
     </row>
-    <row r="398" spans="1:25" ht="13.2">
+    <row r="398" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -12480,7 +12562,7 @@
       <c r="X398" s="1"/>
       <c r="Y398" s="1"/>
     </row>
-    <row r="399" spans="1:25" ht="13.2">
+    <row r="399" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -12507,7 +12589,7 @@
       <c r="X399" s="1"/>
       <c r="Y399" s="1"/>
     </row>
-    <row r="400" spans="1:25" ht="13.2">
+    <row r="400" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -12534,7 +12616,7 @@
       <c r="X400" s="1"/>
       <c r="Y400" s="1"/>
     </row>
-    <row r="401" spans="1:25" ht="13.2">
+    <row r="401" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -12561,7 +12643,7 @@
       <c r="X401" s="1"/>
       <c r="Y401" s="1"/>
     </row>
-    <row r="402" spans="1:25" ht="13.2">
+    <row r="402" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -12588,7 +12670,7 @@
       <c r="X402" s="1"/>
       <c r="Y402" s="1"/>
     </row>
-    <row r="403" spans="1:25" ht="13.2">
+    <row r="403" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -12615,7 +12697,7 @@
       <c r="X403" s="1"/>
       <c r="Y403" s="1"/>
     </row>
-    <row r="404" spans="1:25" ht="13.2">
+    <row r="404" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -12642,7 +12724,7 @@
       <c r="X404" s="1"/>
       <c r="Y404" s="1"/>
     </row>
-    <row r="405" spans="1:25" ht="13.2">
+    <row r="405" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -12669,7 +12751,7 @@
       <c r="X405" s="1"/>
       <c r="Y405" s="1"/>
     </row>
-    <row r="406" spans="1:25" ht="13.2">
+    <row r="406" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -12696,7 +12778,7 @@
       <c r="X406" s="1"/>
       <c r="Y406" s="1"/>
     </row>
-    <row r="407" spans="1:25" ht="13.2">
+    <row r="407" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -12723,7 +12805,7 @@
       <c r="X407" s="1"/>
       <c r="Y407" s="1"/>
     </row>
-    <row r="408" spans="1:25" ht="13.2">
+    <row r="408" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -12750,7 +12832,7 @@
       <c r="X408" s="1"/>
       <c r="Y408" s="1"/>
     </row>
-    <row r="409" spans="1:25" ht="13.2">
+    <row r="409" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -12777,7 +12859,7 @@
       <c r="X409" s="1"/>
       <c r="Y409" s="1"/>
     </row>
-    <row r="410" spans="1:25" ht="13.2">
+    <row r="410" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -12804,7 +12886,7 @@
       <c r="X410" s="1"/>
       <c r="Y410" s="1"/>
     </row>
-    <row r="411" spans="1:25" ht="13.2">
+    <row r="411" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -12831,7 +12913,7 @@
       <c r="X411" s="1"/>
       <c r="Y411" s="1"/>
     </row>
-    <row r="412" spans="1:25" ht="13.2">
+    <row r="412" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -12858,7 +12940,7 @@
       <c r="X412" s="1"/>
       <c r="Y412" s="1"/>
     </row>
-    <row r="413" spans="1:25" ht="13.2">
+    <row r="413" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -12885,7 +12967,7 @@
       <c r="X413" s="1"/>
       <c r="Y413" s="1"/>
     </row>
-    <row r="414" spans="1:25" ht="13.2">
+    <row r="414" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -12912,7 +12994,7 @@
       <c r="X414" s="1"/>
       <c r="Y414" s="1"/>
     </row>
-    <row r="415" spans="1:25" ht="13.2">
+    <row r="415" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -12939,7 +13021,7 @@
       <c r="X415" s="1"/>
       <c r="Y415" s="1"/>
     </row>
-    <row r="416" spans="1:25" ht="13.2">
+    <row r="416" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -12966,7 +13048,7 @@
       <c r="X416" s="1"/>
       <c r="Y416" s="1"/>
     </row>
-    <row r="417" spans="1:25" ht="13.2">
+    <row r="417" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -12993,7 +13075,7 @@
       <c r="X417" s="1"/>
       <c r="Y417" s="1"/>
     </row>
-    <row r="418" spans="1:25" ht="13.2">
+    <row r="418" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -13020,7 +13102,7 @@
       <c r="X418" s="1"/>
       <c r="Y418" s="1"/>
     </row>
-    <row r="419" spans="1:25" ht="13.2">
+    <row r="419" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -13047,7 +13129,7 @@
       <c r="X419" s="1"/>
       <c r="Y419" s="1"/>
     </row>
-    <row r="420" spans="1:25" ht="13.2">
+    <row r="420" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -13074,7 +13156,7 @@
       <c r="X420" s="1"/>
       <c r="Y420" s="1"/>
     </row>
-    <row r="421" spans="1:25" ht="13.2">
+    <row r="421" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -13101,7 +13183,7 @@
       <c r="X421" s="1"/>
       <c r="Y421" s="1"/>
     </row>
-    <row r="422" spans="1:25" ht="13.2">
+    <row r="422" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -13128,7 +13210,7 @@
       <c r="X422" s="1"/>
       <c r="Y422" s="1"/>
     </row>
-    <row r="423" spans="1:25" ht="13.2">
+    <row r="423" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -13155,7 +13237,7 @@
       <c r="X423" s="1"/>
       <c r="Y423" s="1"/>
     </row>
-    <row r="424" spans="1:25" ht="13.2">
+    <row r="424" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -13182,7 +13264,7 @@
       <c r="X424" s="1"/>
       <c r="Y424" s="1"/>
     </row>
-    <row r="425" spans="1:25" ht="13.2">
+    <row r="425" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -13209,7 +13291,7 @@
       <c r="X425" s="1"/>
       <c r="Y425" s="1"/>
     </row>
-    <row r="426" spans="1:25" ht="13.2">
+    <row r="426" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -13236,7 +13318,7 @@
       <c r="X426" s="1"/>
       <c r="Y426" s="1"/>
     </row>
-    <row r="427" spans="1:25" ht="13.2">
+    <row r="427" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -13263,7 +13345,7 @@
       <c r="X427" s="1"/>
       <c r="Y427" s="1"/>
     </row>
-    <row r="428" spans="1:25" ht="13.2">
+    <row r="428" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -13290,7 +13372,7 @@
       <c r="X428" s="1"/>
       <c r="Y428" s="1"/>
     </row>
-    <row r="429" spans="1:25" ht="13.2">
+    <row r="429" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -13317,7 +13399,7 @@
       <c r="X429" s="1"/>
       <c r="Y429" s="1"/>
     </row>
-    <row r="430" spans="1:25" ht="13.2">
+    <row r="430" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -13344,7 +13426,7 @@
       <c r="X430" s="1"/>
       <c r="Y430" s="1"/>
     </row>
-    <row r="431" spans="1:25" ht="13.2">
+    <row r="431" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -13371,7 +13453,7 @@
       <c r="X431" s="1"/>
       <c r="Y431" s="1"/>
     </row>
-    <row r="432" spans="1:25" ht="13.2">
+    <row r="432" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -13398,7 +13480,7 @@
       <c r="X432" s="1"/>
       <c r="Y432" s="1"/>
     </row>
-    <row r="433" spans="1:25" ht="13.2">
+    <row r="433" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -13425,7 +13507,7 @@
       <c r="X433" s="1"/>
       <c r="Y433" s="1"/>
     </row>
-    <row r="434" spans="1:25" ht="13.2">
+    <row r="434" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -13452,7 +13534,7 @@
       <c r="X434" s="1"/>
       <c r="Y434" s="1"/>
     </row>
-    <row r="435" spans="1:25" ht="13.2">
+    <row r="435" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -13479,7 +13561,7 @@
       <c r="X435" s="1"/>
       <c r="Y435" s="1"/>
     </row>
-    <row r="436" spans="1:25" ht="13.2">
+    <row r="436" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -13506,7 +13588,7 @@
       <c r="X436" s="1"/>
       <c r="Y436" s="1"/>
     </row>
-    <row r="437" spans="1:25" ht="13.2">
+    <row r="437" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -13533,7 +13615,7 @@
       <c r="X437" s="1"/>
       <c r="Y437" s="1"/>
     </row>
-    <row r="438" spans="1:25" ht="13.2">
+    <row r="438" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -13560,7 +13642,7 @@
       <c r="X438" s="1"/>
       <c r="Y438" s="1"/>
     </row>
-    <row r="439" spans="1:25" ht="13.2">
+    <row r="439" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -13587,7 +13669,7 @@
       <c r="X439" s="1"/>
       <c r="Y439" s="1"/>
     </row>
-    <row r="440" spans="1:25" ht="13.2">
+    <row r="440" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -13614,7 +13696,7 @@
       <c r="X440" s="1"/>
       <c r="Y440" s="1"/>
     </row>
-    <row r="441" spans="1:25" ht="13.2">
+    <row r="441" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -13641,7 +13723,7 @@
       <c r="X441" s="1"/>
       <c r="Y441" s="1"/>
     </row>
-    <row r="442" spans="1:25" ht="13.2">
+    <row r="442" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -13668,7 +13750,7 @@
       <c r="X442" s="1"/>
       <c r="Y442" s="1"/>
     </row>
-    <row r="443" spans="1:25" ht="13.2">
+    <row r="443" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -13695,7 +13777,7 @@
       <c r="X443" s="1"/>
       <c r="Y443" s="1"/>
     </row>
-    <row r="444" spans="1:25" ht="13.2">
+    <row r="444" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -13722,7 +13804,7 @@
       <c r="X444" s="1"/>
       <c r="Y444" s="1"/>
     </row>
-    <row r="445" spans="1:25" ht="13.2">
+    <row r="445" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -13749,7 +13831,7 @@
       <c r="X445" s="1"/>
       <c r="Y445" s="1"/>
     </row>
-    <row r="446" spans="1:25" ht="13.2">
+    <row r="446" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -13776,7 +13858,7 @@
       <c r="X446" s="1"/>
       <c r="Y446" s="1"/>
     </row>
-    <row r="447" spans="1:25" ht="13.2">
+    <row r="447" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -13803,7 +13885,7 @@
       <c r="X447" s="1"/>
       <c r="Y447" s="1"/>
     </row>
-    <row r="448" spans="1:25" ht="13.2">
+    <row r="448" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -13830,7 +13912,7 @@
       <c r="X448" s="1"/>
       <c r="Y448" s="1"/>
     </row>
-    <row r="449" spans="1:25" ht="13.2">
+    <row r="449" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -13857,7 +13939,7 @@
       <c r="X449" s="1"/>
       <c r="Y449" s="1"/>
     </row>
-    <row r="450" spans="1:25" ht="13.2">
+    <row r="450" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -13884,7 +13966,7 @@
       <c r="X450" s="1"/>
       <c r="Y450" s="1"/>
     </row>
-    <row r="451" spans="1:25" ht="13.2">
+    <row r="451" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -13911,7 +13993,7 @@
       <c r="X451" s="1"/>
       <c r="Y451" s="1"/>
     </row>
-    <row r="452" spans="1:25" ht="13.2">
+    <row r="452" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -13938,7 +14020,7 @@
       <c r="X452" s="1"/>
       <c r="Y452" s="1"/>
     </row>
-    <row r="453" spans="1:25" ht="13.2">
+    <row r="453" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -13965,7 +14047,7 @@
       <c r="X453" s="1"/>
       <c r="Y453" s="1"/>
     </row>
-    <row r="454" spans="1:25" ht="13.2">
+    <row r="454" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -13992,7 +14074,7 @@
       <c r="X454" s="1"/>
       <c r="Y454" s="1"/>
     </row>
-    <row r="455" spans="1:25" ht="13.2">
+    <row r="455" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -14019,7 +14101,7 @@
       <c r="X455" s="1"/>
       <c r="Y455" s="1"/>
     </row>
-    <row r="456" spans="1:25" ht="13.2">
+    <row r="456" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -14046,7 +14128,7 @@
       <c r="X456" s="1"/>
       <c r="Y456" s="1"/>
     </row>
-    <row r="457" spans="1:25" ht="13.2">
+    <row r="457" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -14073,7 +14155,7 @@
       <c r="X457" s="1"/>
       <c r="Y457" s="1"/>
     </row>
-    <row r="458" spans="1:25" ht="13.2">
+    <row r="458" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -14100,7 +14182,7 @@
       <c r="X458" s="1"/>
       <c r="Y458" s="1"/>
     </row>
-    <row r="459" spans="1:25" ht="13.2">
+    <row r="459" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -14127,7 +14209,7 @@
       <c r="X459" s="1"/>
       <c r="Y459" s="1"/>
     </row>
-    <row r="460" spans="1:25" ht="13.2">
+    <row r="460" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -14154,7 +14236,7 @@
       <c r="X460" s="1"/>
       <c r="Y460" s="1"/>
     </row>
-    <row r="461" spans="1:25" ht="13.2">
+    <row r="461" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -14181,7 +14263,7 @@
       <c r="X461" s="1"/>
       <c r="Y461" s="1"/>
     </row>
-    <row r="462" spans="1:25" ht="13.2">
+    <row r="462" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -14208,7 +14290,7 @@
       <c r="X462" s="1"/>
       <c r="Y462" s="1"/>
     </row>
-    <row r="463" spans="1:25" ht="13.2">
+    <row r="463" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -14235,7 +14317,7 @@
       <c r="X463" s="1"/>
       <c r="Y463" s="1"/>
     </row>
-    <row r="464" spans="1:25" ht="13.2">
+    <row r="464" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -14262,7 +14344,7 @@
       <c r="X464" s="1"/>
       <c r="Y464" s="1"/>
     </row>
-    <row r="465" spans="1:25" ht="13.2">
+    <row r="465" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -14289,7 +14371,7 @@
       <c r="X465" s="1"/>
       <c r="Y465" s="1"/>
     </row>
-    <row r="466" spans="1:25" ht="13.2">
+    <row r="466" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -14316,7 +14398,7 @@
       <c r="X466" s="1"/>
       <c r="Y466" s="1"/>
     </row>
-    <row r="467" spans="1:25" ht="13.2">
+    <row r="467" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -14343,7 +14425,7 @@
       <c r="X467" s="1"/>
       <c r="Y467" s="1"/>
     </row>
-    <row r="468" spans="1:25" ht="13.2">
+    <row r="468" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -14370,7 +14452,7 @@
       <c r="X468" s="1"/>
       <c r="Y468" s="1"/>
     </row>
-    <row r="469" spans="1:25" ht="13.2">
+    <row r="469" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -14397,7 +14479,7 @@
       <c r="X469" s="1"/>
       <c r="Y469" s="1"/>
     </row>
-    <row r="470" spans="1:25" ht="13.2">
+    <row r="470" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -14424,7 +14506,7 @@
       <c r="X470" s="1"/>
       <c r="Y470" s="1"/>
     </row>
-    <row r="471" spans="1:25" ht="13.2">
+    <row r="471" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -14451,7 +14533,7 @@
       <c r="X471" s="1"/>
       <c r="Y471" s="1"/>
     </row>
-    <row r="472" spans="1:25" ht="13.2">
+    <row r="472" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -14478,7 +14560,7 @@
       <c r="X472" s="1"/>
       <c r="Y472" s="1"/>
     </row>
-    <row r="473" spans="1:25" ht="13.2">
+    <row r="473" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -14505,7 +14587,7 @@
       <c r="X473" s="1"/>
       <c r="Y473" s="1"/>
     </row>
-    <row r="474" spans="1:25" ht="13.2">
+    <row r="474" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -14532,7 +14614,7 @@
       <c r="X474" s="1"/>
       <c r="Y474" s="1"/>
     </row>
-    <row r="475" spans="1:25" ht="13.2">
+    <row r="475" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -14559,7 +14641,7 @@
       <c r="X475" s="1"/>
       <c r="Y475" s="1"/>
     </row>
-    <row r="476" spans="1:25" ht="13.2">
+    <row r="476" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -14586,7 +14668,7 @@
       <c r="X476" s="1"/>
       <c r="Y476" s="1"/>
     </row>
-    <row r="477" spans="1:25" ht="13.2">
+    <row r="477" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -14613,7 +14695,7 @@
       <c r="X477" s="1"/>
       <c r="Y477" s="1"/>
     </row>
-    <row r="478" spans="1:25" ht="13.2">
+    <row r="478" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -14640,7 +14722,7 @@
       <c r="X478" s="1"/>
       <c r="Y478" s="1"/>
     </row>
-    <row r="479" spans="1:25" ht="13.2">
+    <row r="479" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -14667,7 +14749,7 @@
       <c r="X479" s="1"/>
       <c r="Y479" s="1"/>
     </row>
-    <row r="480" spans="1:25" ht="13.2">
+    <row r="480" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -14694,7 +14776,7 @@
       <c r="X480" s="1"/>
       <c r="Y480" s="1"/>
     </row>
-    <row r="481" spans="1:25" ht="13.2">
+    <row r="481" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -14721,7 +14803,7 @@
       <c r="X481" s="1"/>
       <c r="Y481" s="1"/>
     </row>
-    <row r="482" spans="1:25" ht="13.2">
+    <row r="482" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -14748,7 +14830,7 @@
       <c r="X482" s="1"/>
       <c r="Y482" s="1"/>
     </row>
-    <row r="483" spans="1:25" ht="13.2">
+    <row r="483" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -14775,7 +14857,7 @@
       <c r="X483" s="1"/>
       <c r="Y483" s="1"/>
     </row>
-    <row r="484" spans="1:25" ht="13.2">
+    <row r="484" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -14802,7 +14884,7 @@
       <c r="X484" s="1"/>
       <c r="Y484" s="1"/>
     </row>
-    <row r="485" spans="1:25" ht="13.2">
+    <row r="485" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -14829,7 +14911,7 @@
       <c r="X485" s="1"/>
       <c r="Y485" s="1"/>
     </row>
-    <row r="486" spans="1:25" ht="13.2">
+    <row r="486" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -14856,7 +14938,7 @@
       <c r="X486" s="1"/>
       <c r="Y486" s="1"/>
     </row>
-    <row r="487" spans="1:25" ht="13.2">
+    <row r="487" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -14883,7 +14965,7 @@
       <c r="X487" s="1"/>
       <c r="Y487" s="1"/>
     </row>
-    <row r="488" spans="1:25" ht="13.2">
+    <row r="488" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -14910,7 +14992,7 @@
       <c r="X488" s="1"/>
       <c r="Y488" s="1"/>
     </row>
-    <row r="489" spans="1:25" ht="13.2">
+    <row r="489" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -14937,7 +15019,7 @@
       <c r="X489" s="1"/>
       <c r="Y489" s="1"/>
     </row>
-    <row r="490" spans="1:25" ht="13.2">
+    <row r="490" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -14964,7 +15046,7 @@
       <c r="X490" s="1"/>
       <c r="Y490" s="1"/>
     </row>
-    <row r="491" spans="1:25" ht="13.2">
+    <row r="491" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -14991,7 +15073,7 @@
       <c r="X491" s="1"/>
       <c r="Y491" s="1"/>
     </row>
-    <row r="492" spans="1:25" ht="13.2">
+    <row r="492" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -15018,7 +15100,7 @@
       <c r="X492" s="1"/>
       <c r="Y492" s="1"/>
     </row>
-    <row r="493" spans="1:25" ht="13.2">
+    <row r="493" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -15045,7 +15127,7 @@
       <c r="X493" s="1"/>
       <c r="Y493" s="1"/>
     </row>
-    <row r="494" spans="1:25" ht="13.2">
+    <row r="494" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -15072,7 +15154,7 @@
       <c r="X494" s="1"/>
       <c r="Y494" s="1"/>
     </row>
-    <row r="495" spans="1:25" ht="13.2">
+    <row r="495" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -15099,7 +15181,7 @@
       <c r="X495" s="1"/>
       <c r="Y495" s="1"/>
     </row>
-    <row r="496" spans="1:25" ht="13.2">
+    <row r="496" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -15126,7 +15208,7 @@
       <c r="X496" s="1"/>
       <c r="Y496" s="1"/>
     </row>
-    <row r="497" spans="1:25" ht="13.2">
+    <row r="497" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -15153,7 +15235,7 @@
       <c r="X497" s="1"/>
       <c r="Y497" s="1"/>
     </row>
-    <row r="498" spans="1:25" ht="13.2">
+    <row r="498" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -15180,7 +15262,7 @@
       <c r="X498" s="1"/>
       <c r="Y498" s="1"/>
     </row>
-    <row r="499" spans="1:25" ht="13.2">
+    <row r="499" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -15207,7 +15289,7 @@
       <c r="X499" s="1"/>
       <c r="Y499" s="1"/>
     </row>
-    <row r="500" spans="1:25" ht="13.2">
+    <row r="500" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -15234,7 +15316,7 @@
       <c r="X500" s="1"/>
       <c r="Y500" s="1"/>
     </row>
-    <row r="501" spans="1:25" ht="13.2">
+    <row r="501" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -15261,7 +15343,7 @@
       <c r="X501" s="1"/>
       <c r="Y501" s="1"/>
     </row>
-    <row r="502" spans="1:25" ht="13.2">
+    <row r="502" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -15288,7 +15370,7 @@
       <c r="X502" s="1"/>
       <c r="Y502" s="1"/>
     </row>
-    <row r="503" spans="1:25" ht="13.2">
+    <row r="503" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -15315,7 +15397,7 @@
       <c r="X503" s="1"/>
       <c r="Y503" s="1"/>
     </row>
-    <row r="504" spans="1:25" ht="13.2">
+    <row r="504" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -15342,7 +15424,7 @@
       <c r="X504" s="1"/>
       <c r="Y504" s="1"/>
     </row>
-    <row r="505" spans="1:25" ht="13.2">
+    <row r="505" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -15369,7 +15451,7 @@
       <c r="X505" s="1"/>
       <c r="Y505" s="1"/>
     </row>
-    <row r="506" spans="1:25" ht="13.2">
+    <row r="506" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -15396,7 +15478,7 @@
       <c r="X506" s="1"/>
       <c r="Y506" s="1"/>
     </row>
-    <row r="507" spans="1:25" ht="13.2">
+    <row r="507" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -15423,7 +15505,7 @@
       <c r="X507" s="1"/>
       <c r="Y507" s="1"/>
     </row>
-    <row r="508" spans="1:25" ht="13.2">
+    <row r="508" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -15450,7 +15532,7 @@
       <c r="X508" s="1"/>
       <c r="Y508" s="1"/>
     </row>
-    <row r="509" spans="1:25" ht="13.2">
+    <row r="509" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -15477,7 +15559,7 @@
       <c r="X509" s="1"/>
       <c r="Y509" s="1"/>
     </row>
-    <row r="510" spans="1:25" ht="13.2">
+    <row r="510" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -15504,7 +15586,7 @@
       <c r="X510" s="1"/>
       <c r="Y510" s="1"/>
     </row>
-    <row r="511" spans="1:25" ht="13.2">
+    <row r="511" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -15531,7 +15613,7 @@
       <c r="X511" s="1"/>
       <c r="Y511" s="1"/>
     </row>
-    <row r="512" spans="1:25" ht="13.2">
+    <row r="512" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -15558,7 +15640,7 @@
       <c r="X512" s="1"/>
       <c r="Y512" s="1"/>
     </row>
-    <row r="513" spans="1:25" ht="13.2">
+    <row r="513" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -15585,7 +15667,7 @@
       <c r="X513" s="1"/>
       <c r="Y513" s="1"/>
     </row>
-    <row r="514" spans="1:25" ht="13.2">
+    <row r="514" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -15612,7 +15694,7 @@
       <c r="X514" s="1"/>
       <c r="Y514" s="1"/>
     </row>
-    <row r="515" spans="1:25" ht="13.2">
+    <row r="515" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -15639,7 +15721,7 @@
       <c r="X515" s="1"/>
       <c r="Y515" s="1"/>
     </row>
-    <row r="516" spans="1:25" ht="13.2">
+    <row r="516" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -15666,7 +15748,7 @@
       <c r="X516" s="1"/>
       <c r="Y516" s="1"/>
     </row>
-    <row r="517" spans="1:25" ht="13.2">
+    <row r="517" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -15693,7 +15775,7 @@
       <c r="X517" s="1"/>
       <c r="Y517" s="1"/>
     </row>
-    <row r="518" spans="1:25" ht="13.2">
+    <row r="518" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -15720,7 +15802,7 @@
       <c r="X518" s="1"/>
       <c r="Y518" s="1"/>
     </row>
-    <row r="519" spans="1:25" ht="13.2">
+    <row r="519" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -15747,7 +15829,7 @@
       <c r="X519" s="1"/>
       <c r="Y519" s="1"/>
     </row>
-    <row r="520" spans="1:25" ht="13.2">
+    <row r="520" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -15774,7 +15856,7 @@
       <c r="X520" s="1"/>
       <c r="Y520" s="1"/>
     </row>
-    <row r="521" spans="1:25" ht="13.2">
+    <row r="521" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -15801,7 +15883,7 @@
       <c r="X521" s="1"/>
       <c r="Y521" s="1"/>
     </row>
-    <row r="522" spans="1:25" ht="13.2">
+    <row r="522" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -15828,7 +15910,7 @@
       <c r="X522" s="1"/>
       <c r="Y522" s="1"/>
     </row>
-    <row r="523" spans="1:25" ht="13.2">
+    <row r="523" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -15855,7 +15937,7 @@
       <c r="X523" s="1"/>
       <c r="Y523" s="1"/>
     </row>
-    <row r="524" spans="1:25" ht="13.2">
+    <row r="524" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -15882,7 +15964,7 @@
       <c r="X524" s="1"/>
       <c r="Y524" s="1"/>
     </row>
-    <row r="525" spans="1:25" ht="13.2">
+    <row r="525" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -15909,7 +15991,7 @@
       <c r="X525" s="1"/>
       <c r="Y525" s="1"/>
     </row>
-    <row r="526" spans="1:25" ht="13.2">
+    <row r="526" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -15936,7 +16018,7 @@
       <c r="X526" s="1"/>
       <c r="Y526" s="1"/>
     </row>
-    <row r="527" spans="1:25" ht="13.2">
+    <row r="527" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -15963,7 +16045,7 @@
       <c r="X527" s="1"/>
       <c r="Y527" s="1"/>
     </row>
-    <row r="528" spans="1:25" ht="13.2">
+    <row r="528" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -15990,7 +16072,7 @@
       <c r="X528" s="1"/>
       <c r="Y528" s="1"/>
     </row>
-    <row r="529" spans="1:25" ht="13.2">
+    <row r="529" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -16017,7 +16099,7 @@
       <c r="X529" s="1"/>
       <c r="Y529" s="1"/>
     </row>
-    <row r="530" spans="1:25" ht="13.2">
+    <row r="530" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -16044,7 +16126,7 @@
       <c r="X530" s="1"/>
       <c r="Y530" s="1"/>
     </row>
-    <row r="531" spans="1:25" ht="13.2">
+    <row r="531" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -16071,7 +16153,7 @@
       <c r="X531" s="1"/>
       <c r="Y531" s="1"/>
     </row>
-    <row r="532" spans="1:25" ht="13.2">
+    <row r="532" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -16098,7 +16180,7 @@
       <c r="X532" s="1"/>
       <c r="Y532" s="1"/>
     </row>
-    <row r="533" spans="1:25" ht="13.2">
+    <row r="533" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -16125,7 +16207,7 @@
       <c r="X533" s="1"/>
       <c r="Y533" s="1"/>
     </row>
-    <row r="534" spans="1:25" ht="13.2">
+    <row r="534" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -16152,7 +16234,7 @@
       <c r="X534" s="1"/>
       <c r="Y534" s="1"/>
     </row>
-    <row r="535" spans="1:25" ht="13.2">
+    <row r="535" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -16179,7 +16261,7 @@
       <c r="X535" s="1"/>
       <c r="Y535" s="1"/>
     </row>
-    <row r="536" spans="1:25" ht="13.2">
+    <row r="536" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -16206,7 +16288,7 @@
       <c r="X536" s="1"/>
       <c r="Y536" s="1"/>
     </row>
-    <row r="537" spans="1:25" ht="13.2">
+    <row r="537" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -16233,7 +16315,7 @@
       <c r="X537" s="1"/>
       <c r="Y537" s="1"/>
     </row>
-    <row r="538" spans="1:25" ht="13.2">
+    <row r="538" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -16260,7 +16342,7 @@
       <c r="X538" s="1"/>
       <c r="Y538" s="1"/>
     </row>
-    <row r="539" spans="1:25" ht="13.2">
+    <row r="539" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -16287,7 +16369,7 @@
       <c r="X539" s="1"/>
       <c r="Y539" s="1"/>
     </row>
-    <row r="540" spans="1:25" ht="13.2">
+    <row r="540" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -16314,7 +16396,7 @@
       <c r="X540" s="1"/>
       <c r="Y540" s="1"/>
     </row>
-    <row r="541" spans="1:25" ht="13.2">
+    <row r="541" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -16341,7 +16423,7 @@
       <c r="X541" s="1"/>
       <c r="Y541" s="1"/>
     </row>
-    <row r="542" spans="1:25" ht="13.2">
+    <row r="542" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -16368,7 +16450,7 @@
       <c r="X542" s="1"/>
       <c r="Y542" s="1"/>
     </row>
-    <row r="543" spans="1:25" ht="13.2">
+    <row r="543" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -16395,7 +16477,7 @@
       <c r="X543" s="1"/>
       <c r="Y543" s="1"/>
     </row>
-    <row r="544" spans="1:25" ht="13.2">
+    <row r="544" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -16422,7 +16504,7 @@
       <c r="X544" s="1"/>
       <c r="Y544" s="1"/>
     </row>
-    <row r="545" spans="1:25" ht="13.2">
+    <row r="545" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -16449,7 +16531,7 @@
       <c r="X545" s="1"/>
       <c r="Y545" s="1"/>
     </row>
-    <row r="546" spans="1:25" ht="13.2">
+    <row r="546" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -16476,7 +16558,7 @@
       <c r="X546" s="1"/>
       <c r="Y546" s="1"/>
     </row>
-    <row r="547" spans="1:25" ht="13.2">
+    <row r="547" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -16503,7 +16585,7 @@
       <c r="X547" s="1"/>
       <c r="Y547" s="1"/>
     </row>
-    <row r="548" spans="1:25" ht="13.2">
+    <row r="548" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -16530,7 +16612,7 @@
       <c r="X548" s="1"/>
       <c r="Y548" s="1"/>
     </row>
-    <row r="549" spans="1:25" ht="13.2">
+    <row r="549" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -16557,7 +16639,7 @@
       <c r="X549" s="1"/>
       <c r="Y549" s="1"/>
     </row>
-    <row r="550" spans="1:25" ht="13.2">
+    <row r="550" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -16584,7 +16666,7 @@
       <c r="X550" s="1"/>
       <c r="Y550" s="1"/>
     </row>
-    <row r="551" spans="1:25" ht="13.2">
+    <row r="551" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -16611,7 +16693,7 @@
       <c r="X551" s="1"/>
       <c r="Y551" s="1"/>
     </row>
-    <row r="552" spans="1:25" ht="13.2">
+    <row r="552" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -16638,7 +16720,7 @@
       <c r="X552" s="1"/>
       <c r="Y552" s="1"/>
     </row>
-    <row r="553" spans="1:25" ht="13.2">
+    <row r="553" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -16665,7 +16747,7 @@
       <c r="X553" s="1"/>
       <c r="Y553" s="1"/>
     </row>
-    <row r="554" spans="1:25" ht="13.2">
+    <row r="554" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -16692,7 +16774,7 @@
       <c r="X554" s="1"/>
       <c r="Y554" s="1"/>
     </row>
-    <row r="555" spans="1:25" ht="13.2">
+    <row r="555" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -16719,7 +16801,7 @@
       <c r="X555" s="1"/>
       <c r="Y555" s="1"/>
     </row>
-    <row r="556" spans="1:25" ht="13.2">
+    <row r="556" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -16746,7 +16828,7 @@
       <c r="X556" s="1"/>
       <c r="Y556" s="1"/>
     </row>
-    <row r="557" spans="1:25" ht="13.2">
+    <row r="557" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -16773,7 +16855,7 @@
       <c r="X557" s="1"/>
       <c r="Y557" s="1"/>
     </row>
-    <row r="558" spans="1:25" ht="13.2">
+    <row r="558" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -16800,7 +16882,7 @@
       <c r="X558" s="1"/>
       <c r="Y558" s="1"/>
     </row>
-    <row r="559" spans="1:25" ht="13.2">
+    <row r="559" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -16827,7 +16909,7 @@
       <c r="X559" s="1"/>
       <c r="Y559" s="1"/>
     </row>
-    <row r="560" spans="1:25" ht="13.2">
+    <row r="560" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -16854,7 +16936,7 @@
       <c r="X560" s="1"/>
       <c r="Y560" s="1"/>
     </row>
-    <row r="561" spans="1:25" ht="13.2">
+    <row r="561" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -16881,7 +16963,7 @@
       <c r="X561" s="1"/>
       <c r="Y561" s="1"/>
     </row>
-    <row r="562" spans="1:25" ht="13.2">
+    <row r="562" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -16908,7 +16990,7 @@
       <c r="X562" s="1"/>
       <c r="Y562" s="1"/>
     </row>
-    <row r="563" spans="1:25" ht="13.2">
+    <row r="563" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -16935,7 +17017,7 @@
       <c r="X563" s="1"/>
       <c r="Y563" s="1"/>
     </row>
-    <row r="564" spans="1:25" ht="13.2">
+    <row r="564" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -16962,7 +17044,7 @@
       <c r="X564" s="1"/>
       <c r="Y564" s="1"/>
     </row>
-    <row r="565" spans="1:25" ht="13.2">
+    <row r="565" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -16989,7 +17071,7 @@
       <c r="X565" s="1"/>
       <c r="Y565" s="1"/>
     </row>
-    <row r="566" spans="1:25" ht="13.2">
+    <row r="566" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -17016,7 +17098,7 @@
       <c r="X566" s="1"/>
       <c r="Y566" s="1"/>
     </row>
-    <row r="567" spans="1:25" ht="13.2">
+    <row r="567" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -17043,7 +17125,7 @@
       <c r="X567" s="1"/>
       <c r="Y567" s="1"/>
     </row>
-    <row r="568" spans="1:25" ht="13.2">
+    <row r="568" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -17070,7 +17152,7 @@
       <c r="X568" s="1"/>
       <c r="Y568" s="1"/>
     </row>
-    <row r="569" spans="1:25" ht="13.2">
+    <row r="569" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -17097,7 +17179,7 @@
       <c r="X569" s="1"/>
       <c r="Y569" s="1"/>
     </row>
-    <row r="570" spans="1:25" ht="13.2">
+    <row r="570" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -17124,7 +17206,7 @@
       <c r="X570" s="1"/>
       <c r="Y570" s="1"/>
     </row>
-    <row r="571" spans="1:25" ht="13.2">
+    <row r="571" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -17151,7 +17233,7 @@
       <c r="X571" s="1"/>
       <c r="Y571" s="1"/>
     </row>
-    <row r="572" spans="1:25" ht="13.2">
+    <row r="572" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -17178,7 +17260,7 @@
       <c r="X572" s="1"/>
       <c r="Y572" s="1"/>
     </row>
-    <row r="573" spans="1:25" ht="13.2">
+    <row r="573" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -17205,7 +17287,7 @@
       <c r="X573" s="1"/>
       <c r="Y573" s="1"/>
     </row>
-    <row r="574" spans="1:25" ht="13.2">
+    <row r="574" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -17232,7 +17314,7 @@
       <c r="X574" s="1"/>
       <c r="Y574" s="1"/>
     </row>
-    <row r="575" spans="1:25" ht="13.2">
+    <row r="575" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -17259,7 +17341,7 @@
       <c r="X575" s="1"/>
       <c r="Y575" s="1"/>
     </row>
-    <row r="576" spans="1:25" ht="13.2">
+    <row r="576" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -17286,7 +17368,7 @@
       <c r="X576" s="1"/>
       <c r="Y576" s="1"/>
     </row>
-    <row r="577" spans="1:25" ht="13.2">
+    <row r="577" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -17313,7 +17395,7 @@
       <c r="X577" s="1"/>
       <c r="Y577" s="1"/>
     </row>
-    <row r="578" spans="1:25" ht="13.2">
+    <row r="578" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -17340,7 +17422,7 @@
       <c r="X578" s="1"/>
       <c r="Y578" s="1"/>
     </row>
-    <row r="579" spans="1:25" ht="13.2">
+    <row r="579" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -17367,7 +17449,7 @@
       <c r="X579" s="1"/>
       <c r="Y579" s="1"/>
     </row>
-    <row r="580" spans="1:25" ht="13.2">
+    <row r="580" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -17394,7 +17476,7 @@
       <c r="X580" s="1"/>
       <c r="Y580" s="1"/>
     </row>
-    <row r="581" spans="1:25" ht="13.2">
+    <row r="581" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -17421,7 +17503,7 @@
       <c r="X581" s="1"/>
       <c r="Y581" s="1"/>
     </row>
-    <row r="582" spans="1:25" ht="13.2">
+    <row r="582" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -17448,7 +17530,7 @@
       <c r="X582" s="1"/>
       <c r="Y582" s="1"/>
     </row>
-    <row r="583" spans="1:25" ht="13.2">
+    <row r="583" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -17475,7 +17557,7 @@
       <c r="X583" s="1"/>
       <c r="Y583" s="1"/>
     </row>
-    <row r="584" spans="1:25" ht="13.2">
+    <row r="584" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -17502,7 +17584,7 @@
       <c r="X584" s="1"/>
       <c r="Y584" s="1"/>
     </row>
-    <row r="585" spans="1:25" ht="13.2">
+    <row r="585" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -17529,7 +17611,7 @@
       <c r="X585" s="1"/>
       <c r="Y585" s="1"/>
     </row>
-    <row r="586" spans="1:25" ht="13.2">
+    <row r="586" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -17556,7 +17638,7 @@
       <c r="X586" s="1"/>
       <c r="Y586" s="1"/>
     </row>
-    <row r="587" spans="1:25" ht="13.2">
+    <row r="587" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -17583,7 +17665,7 @@
       <c r="X587" s="1"/>
       <c r="Y587" s="1"/>
     </row>
-    <row r="588" spans="1:25" ht="13.2">
+    <row r="588" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -17610,7 +17692,7 @@
       <c r="X588" s="1"/>
       <c r="Y588" s="1"/>
     </row>
-    <row r="589" spans="1:25" ht="13.2">
+    <row r="589" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -17637,7 +17719,7 @@
       <c r="X589" s="1"/>
       <c r="Y589" s="1"/>
     </row>
-    <row r="590" spans="1:25" ht="13.2">
+    <row r="590" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -17664,7 +17746,7 @@
       <c r="X590" s="1"/>
       <c r="Y590" s="1"/>
     </row>
-    <row r="591" spans="1:25" ht="13.2">
+    <row r="591" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -17691,7 +17773,7 @@
       <c r="X591" s="1"/>
       <c r="Y591" s="1"/>
     </row>
-    <row r="592" spans="1:25" ht="13.2">
+    <row r="592" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -17718,7 +17800,7 @@
       <c r="X592" s="1"/>
       <c r="Y592" s="1"/>
     </row>
-    <row r="593" spans="1:25" ht="13.2">
+    <row r="593" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -17745,7 +17827,7 @@
       <c r="X593" s="1"/>
       <c r="Y593" s="1"/>
     </row>
-    <row r="594" spans="1:25" ht="13.2">
+    <row r="594" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -17772,7 +17854,7 @@
       <c r="X594" s="1"/>
       <c r="Y594" s="1"/>
     </row>
-    <row r="595" spans="1:25" ht="13.2">
+    <row r="595" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -17799,7 +17881,7 @@
       <c r="X595" s="1"/>
       <c r="Y595" s="1"/>
     </row>
-    <row r="596" spans="1:25" ht="13.2">
+    <row r="596" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -17826,7 +17908,7 @@
       <c r="X596" s="1"/>
       <c r="Y596" s="1"/>
     </row>
-    <row r="597" spans="1:25" ht="13.2">
+    <row r="597" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -17853,7 +17935,7 @@
       <c r="X597" s="1"/>
       <c r="Y597" s="1"/>
     </row>
-    <row r="598" spans="1:25" ht="13.2">
+    <row r="598" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -17880,7 +17962,7 @@
       <c r="X598" s="1"/>
       <c r="Y598" s="1"/>
     </row>
-    <row r="599" spans="1:25" ht="13.2">
+    <row r="599" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -17907,7 +17989,7 @@
       <c r="X599" s="1"/>
       <c r="Y599" s="1"/>
     </row>
-    <row r="600" spans="1:25" ht="13.2">
+    <row r="600" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -17934,7 +18016,7 @@
       <c r="X600" s="1"/>
       <c r="Y600" s="1"/>
     </row>
-    <row r="601" spans="1:25" ht="13.2">
+    <row r="601" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -17961,7 +18043,7 @@
       <c r="X601" s="1"/>
       <c r="Y601" s="1"/>
     </row>
-    <row r="602" spans="1:25" ht="13.2">
+    <row r="602" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -17988,7 +18070,7 @@
       <c r="X602" s="1"/>
       <c r="Y602" s="1"/>
     </row>
-    <row r="603" spans="1:25" ht="13.2">
+    <row r="603" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -18015,7 +18097,7 @@
       <c r="X603" s="1"/>
       <c r="Y603" s="1"/>
     </row>
-    <row r="604" spans="1:25" ht="13.2">
+    <row r="604" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -18042,7 +18124,7 @@
       <c r="X604" s="1"/>
       <c r="Y604" s="1"/>
     </row>
-    <row r="605" spans="1:25" ht="13.2">
+    <row r="605" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -18069,7 +18151,7 @@
       <c r="X605" s="1"/>
       <c r="Y605" s="1"/>
     </row>
-    <row r="606" spans="1:25" ht="13.2">
+    <row r="606" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -18096,7 +18178,7 @@
       <c r="X606" s="1"/>
       <c r="Y606" s="1"/>
     </row>
-    <row r="607" spans="1:25" ht="13.2">
+    <row r="607" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -18123,7 +18205,7 @@
       <c r="X607" s="1"/>
       <c r="Y607" s="1"/>
     </row>
-    <row r="608" spans="1:25" ht="13.2">
+    <row r="608" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -18150,7 +18232,7 @@
       <c r="X608" s="1"/>
       <c r="Y608" s="1"/>
     </row>
-    <row r="609" spans="1:25" ht="13.2">
+    <row r="609" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -18177,7 +18259,7 @@
       <c r="X609" s="1"/>
       <c r="Y609" s="1"/>
     </row>
-    <row r="610" spans="1:25" ht="13.2">
+    <row r="610" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -18204,7 +18286,7 @@
       <c r="X610" s="1"/>
       <c r="Y610" s="1"/>
     </row>
-    <row r="611" spans="1:25" ht="13.2">
+    <row r="611" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -18231,7 +18313,7 @@
       <c r="X611" s="1"/>
       <c r="Y611" s="1"/>
     </row>
-    <row r="612" spans="1:25" ht="13.2">
+    <row r="612" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -18258,7 +18340,7 @@
       <c r="X612" s="1"/>
       <c r="Y612" s="1"/>
     </row>
-    <row r="613" spans="1:25" ht="13.2">
+    <row r="613" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -18285,7 +18367,7 @@
       <c r="X613" s="1"/>
       <c r="Y613" s="1"/>
     </row>
-    <row r="614" spans="1:25" ht="13.2">
+    <row r="614" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -18312,7 +18394,7 @@
       <c r="X614" s="1"/>
       <c r="Y614" s="1"/>
     </row>
-    <row r="615" spans="1:25" ht="13.2">
+    <row r="615" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -18339,7 +18421,7 @@
       <c r="X615" s="1"/>
       <c r="Y615" s="1"/>
     </row>
-    <row r="616" spans="1:25" ht="13.2">
+    <row r="616" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -18366,7 +18448,7 @@
       <c r="X616" s="1"/>
       <c r="Y616" s="1"/>
     </row>
-    <row r="617" spans="1:25" ht="13.2">
+    <row r="617" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -18393,7 +18475,7 @@
       <c r="X617" s="1"/>
       <c r="Y617" s="1"/>
     </row>
-    <row r="618" spans="1:25" ht="13.2">
+    <row r="618" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -18420,7 +18502,7 @@
       <c r="X618" s="1"/>
       <c r="Y618" s="1"/>
     </row>
-    <row r="619" spans="1:25" ht="13.2">
+    <row r="619" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -18447,7 +18529,7 @@
       <c r="X619" s="1"/>
       <c r="Y619" s="1"/>
     </row>
-    <row r="620" spans="1:25" ht="13.2">
+    <row r="620" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -18474,7 +18556,7 @@
       <c r="X620" s="1"/>
       <c r="Y620" s="1"/>
     </row>
-    <row r="621" spans="1:25" ht="13.2">
+    <row r="621" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -18501,7 +18583,7 @@
       <c r="X621" s="1"/>
       <c r="Y621" s="1"/>
     </row>
-    <row r="622" spans="1:25" ht="13.2">
+    <row r="622" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -18528,7 +18610,7 @@
       <c r="X622" s="1"/>
       <c r="Y622" s="1"/>
     </row>
-    <row r="623" spans="1:25" ht="13.2">
+    <row r="623" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -18555,7 +18637,7 @@
       <c r="X623" s="1"/>
       <c r="Y623" s="1"/>
     </row>
-    <row r="624" spans="1:25" ht="13.2">
+    <row r="624" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -18582,7 +18664,7 @@
       <c r="X624" s="1"/>
       <c r="Y624" s="1"/>
     </row>
-    <row r="625" spans="1:25" ht="13.2">
+    <row r="625" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -18609,7 +18691,7 @@
       <c r="X625" s="1"/>
       <c r="Y625" s="1"/>
     </row>
-    <row r="626" spans="1:25" ht="13.2">
+    <row r="626" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -18636,7 +18718,7 @@
       <c r="X626" s="1"/>
       <c r="Y626" s="1"/>
     </row>
-    <row r="627" spans="1:25" ht="13.2">
+    <row r="627" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -18663,7 +18745,7 @@
       <c r="X627" s="1"/>
       <c r="Y627" s="1"/>
     </row>
-    <row r="628" spans="1:25" ht="13.2">
+    <row r="628" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -18690,7 +18772,7 @@
       <c r="X628" s="1"/>
       <c r="Y628" s="1"/>
     </row>
-    <row r="629" spans="1:25" ht="13.2">
+    <row r="629" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -18717,7 +18799,7 @@
       <c r="X629" s="1"/>
       <c r="Y629" s="1"/>
     </row>
-    <row r="630" spans="1:25" ht="13.2">
+    <row r="630" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -18744,7 +18826,7 @@
       <c r="X630" s="1"/>
       <c r="Y630" s="1"/>
     </row>
-    <row r="631" spans="1:25" ht="13.2">
+    <row r="631" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -18771,7 +18853,7 @@
       <c r="X631" s="1"/>
       <c r="Y631" s="1"/>
     </row>
-    <row r="632" spans="1:25" ht="13.2">
+    <row r="632" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -18798,7 +18880,7 @@
       <c r="X632" s="1"/>
       <c r="Y632" s="1"/>
     </row>
-    <row r="633" spans="1:25" ht="13.2">
+    <row r="633" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -18825,7 +18907,7 @@
       <c r="X633" s="1"/>
       <c r="Y633" s="1"/>
     </row>
-    <row r="634" spans="1:25" ht="13.2">
+    <row r="634" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -18852,7 +18934,7 @@
       <c r="X634" s="1"/>
       <c r="Y634" s="1"/>
     </row>
-    <row r="635" spans="1:25" ht="13.2">
+    <row r="635" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -18879,7 +18961,7 @@
       <c r="X635" s="1"/>
       <c r="Y635" s="1"/>
     </row>
-    <row r="636" spans="1:25" ht="13.2">
+    <row r="636" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -18906,7 +18988,7 @@
       <c r="X636" s="1"/>
       <c r="Y636" s="1"/>
     </row>
-    <row r="637" spans="1:25" ht="13.2">
+    <row r="637" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -18933,7 +19015,7 @@
       <c r="X637" s="1"/>
       <c r="Y637" s="1"/>
     </row>
-    <row r="638" spans="1:25" ht="13.2">
+    <row r="638" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -18960,7 +19042,7 @@
       <c r="X638" s="1"/>
       <c r="Y638" s="1"/>
     </row>
-    <row r="639" spans="1:25" ht="13.2">
+    <row r="639" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -18987,7 +19069,7 @@
       <c r="X639" s="1"/>
       <c r="Y639" s="1"/>
     </row>
-    <row r="640" spans="1:25" ht="13.2">
+    <row r="640" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -19014,7 +19096,7 @@
       <c r="X640" s="1"/>
       <c r="Y640" s="1"/>
     </row>
-    <row r="641" spans="1:25" ht="13.2">
+    <row r="641" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -19041,7 +19123,7 @@
       <c r="X641" s="1"/>
       <c r="Y641" s="1"/>
     </row>
-    <row r="642" spans="1:25" ht="13.2">
+    <row r="642" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -19068,7 +19150,7 @@
       <c r="X642" s="1"/>
       <c r="Y642" s="1"/>
     </row>
-    <row r="643" spans="1:25" ht="13.2">
+    <row r="643" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -19095,7 +19177,7 @@
       <c r="X643" s="1"/>
       <c r="Y643" s="1"/>
     </row>
-    <row r="644" spans="1:25" ht="13.2">
+    <row r="644" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -19122,7 +19204,7 @@
       <c r="X644" s="1"/>
       <c r="Y644" s="1"/>
     </row>
-    <row r="645" spans="1:25" ht="13.2">
+    <row r="645" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -19149,7 +19231,7 @@
       <c r="X645" s="1"/>
       <c r="Y645" s="1"/>
     </row>
-    <row r="646" spans="1:25" ht="13.2">
+    <row r="646" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -19176,7 +19258,7 @@
       <c r="X646" s="1"/>
       <c r="Y646" s="1"/>
     </row>
-    <row r="647" spans="1:25" ht="13.2">
+    <row r="647" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -19203,7 +19285,7 @@
       <c r="X647" s="1"/>
       <c r="Y647" s="1"/>
     </row>
-    <row r="648" spans="1:25" ht="13.2">
+    <row r="648" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -19230,7 +19312,7 @@
       <c r="X648" s="1"/>
       <c r="Y648" s="1"/>
     </row>
-    <row r="649" spans="1:25" ht="13.2">
+    <row r="649" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -19257,7 +19339,7 @@
       <c r="X649" s="1"/>
       <c r="Y649" s="1"/>
     </row>
-    <row r="650" spans="1:25" ht="13.2">
+    <row r="650" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -19284,7 +19366,7 @@
       <c r="X650" s="1"/>
       <c r="Y650" s="1"/>
     </row>
-    <row r="651" spans="1:25" ht="13.2">
+    <row r="651" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -19311,7 +19393,7 @@
       <c r="X651" s="1"/>
       <c r="Y651" s="1"/>
     </row>
-    <row r="652" spans="1:25" ht="13.2">
+    <row r="652" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -19338,7 +19420,7 @@
       <c r="X652" s="1"/>
       <c r="Y652" s="1"/>
     </row>
-    <row r="653" spans="1:25" ht="13.2">
+    <row r="653" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -19365,7 +19447,7 @@
       <c r="X653" s="1"/>
       <c r="Y653" s="1"/>
     </row>
-    <row r="654" spans="1:25" ht="13.2">
+    <row r="654" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -19392,7 +19474,7 @@
       <c r="X654" s="1"/>
       <c r="Y654" s="1"/>
     </row>
-    <row r="655" spans="1:25" ht="13.2">
+    <row r="655" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -19419,7 +19501,7 @@
       <c r="X655" s="1"/>
       <c r="Y655" s="1"/>
     </row>
-    <row r="656" spans="1:25" ht="13.2">
+    <row r="656" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -19446,7 +19528,7 @@
       <c r="X656" s="1"/>
       <c r="Y656" s="1"/>
     </row>
-    <row r="657" spans="1:25" ht="13.2">
+    <row r="657" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -19473,7 +19555,7 @@
       <c r="X657" s="1"/>
       <c r="Y657" s="1"/>
     </row>
-    <row r="658" spans="1:25" ht="13.2">
+    <row r="658" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -19500,7 +19582,7 @@
       <c r="X658" s="1"/>
       <c r="Y658" s="1"/>
     </row>
-    <row r="659" spans="1:25" ht="13.2">
+    <row r="659" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -19527,7 +19609,7 @@
       <c r="X659" s="1"/>
       <c r="Y659" s="1"/>
     </row>
-    <row r="660" spans="1:25" ht="13.2">
+    <row r="660" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -19554,7 +19636,7 @@
       <c r="X660" s="1"/>
       <c r="Y660" s="1"/>
     </row>
-    <row r="661" spans="1:25" ht="13.2">
+    <row r="661" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -19581,7 +19663,7 @@
       <c r="X661" s="1"/>
       <c r="Y661" s="1"/>
     </row>
-    <row r="662" spans="1:25" ht="13.2">
+    <row r="662" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -19608,7 +19690,7 @@
       <c r="X662" s="1"/>
       <c r="Y662" s="1"/>
     </row>
-    <row r="663" spans="1:25" ht="13.2">
+    <row r="663" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -19635,7 +19717,7 @@
       <c r="X663" s="1"/>
       <c r="Y663" s="1"/>
     </row>
-    <row r="664" spans="1:25" ht="13.2">
+    <row r="664" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -19662,7 +19744,7 @@
       <c r="X664" s="1"/>
       <c r="Y664" s="1"/>
     </row>
-    <row r="665" spans="1:25" ht="13.2">
+    <row r="665" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -19689,7 +19771,7 @@
       <c r="X665" s="1"/>
       <c r="Y665" s="1"/>
     </row>
-    <row r="666" spans="1:25" ht="13.2">
+    <row r="666" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -19716,7 +19798,7 @@
       <c r="X666" s="1"/>
       <c r="Y666" s="1"/>
     </row>
-    <row r="667" spans="1:25" ht="13.2">
+    <row r="667" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -19743,7 +19825,7 @@
       <c r="X667" s="1"/>
       <c r="Y667" s="1"/>
     </row>
-    <row r="668" spans="1:25" ht="13.2">
+    <row r="668" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -19770,7 +19852,7 @@
       <c r="X668" s="1"/>
       <c r="Y668" s="1"/>
     </row>
-    <row r="669" spans="1:25" ht="13.2">
+    <row r="669" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -19797,7 +19879,7 @@
       <c r="X669" s="1"/>
       <c r="Y669" s="1"/>
     </row>
-    <row r="670" spans="1:25" ht="13.2">
+    <row r="670" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -19824,7 +19906,7 @@
       <c r="X670" s="1"/>
       <c r="Y670" s="1"/>
     </row>
-    <row r="671" spans="1:25" ht="13.2">
+    <row r="671" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -19851,7 +19933,7 @@
       <c r="X671" s="1"/>
       <c r="Y671" s="1"/>
     </row>
-    <row r="672" spans="1:25" ht="13.2">
+    <row r="672" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -19878,7 +19960,7 @@
       <c r="X672" s="1"/>
       <c r="Y672" s="1"/>
     </row>
-    <row r="673" spans="1:25" ht="13.2">
+    <row r="673" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -19905,7 +19987,7 @@
       <c r="X673" s="1"/>
       <c r="Y673" s="1"/>
     </row>
-    <row r="674" spans="1:25" ht="13.2">
+    <row r="674" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -19932,7 +20014,7 @@
       <c r="X674" s="1"/>
       <c r="Y674" s="1"/>
     </row>
-    <row r="675" spans="1:25" ht="13.2">
+    <row r="675" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -19959,7 +20041,7 @@
       <c r="X675" s="1"/>
       <c r="Y675" s="1"/>
     </row>
-    <row r="676" spans="1:25" ht="13.2">
+    <row r="676" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -19986,7 +20068,7 @@
       <c r="X676" s="1"/>
       <c r="Y676" s="1"/>
     </row>
-    <row r="677" spans="1:25" ht="13.2">
+    <row r="677" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -20013,7 +20095,7 @@
       <c r="X677" s="1"/>
       <c r="Y677" s="1"/>
     </row>
-    <row r="678" spans="1:25" ht="13.2">
+    <row r="678" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -20040,7 +20122,7 @@
       <c r="X678" s="1"/>
       <c r="Y678" s="1"/>
     </row>
-    <row r="679" spans="1:25" ht="13.2">
+    <row r="679" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -20067,7 +20149,7 @@
       <c r="X679" s="1"/>
       <c r="Y679" s="1"/>
     </row>
-    <row r="680" spans="1:25" ht="13.2">
+    <row r="680" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -20094,7 +20176,7 @@
       <c r="X680" s="1"/>
       <c r="Y680" s="1"/>
     </row>
-    <row r="681" spans="1:25" ht="13.2">
+    <row r="681" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -20121,7 +20203,7 @@
       <c r="X681" s="1"/>
       <c r="Y681" s="1"/>
     </row>
-    <row r="682" spans="1:25" ht="13.2">
+    <row r="682" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -20148,7 +20230,7 @@
       <c r="X682" s="1"/>
       <c r="Y682" s="1"/>
     </row>
-    <row r="683" spans="1:25" ht="13.2">
+    <row r="683" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -20175,7 +20257,7 @@
       <c r="X683" s="1"/>
       <c r="Y683" s="1"/>
     </row>
-    <row r="684" spans="1:25" ht="13.2">
+    <row r="684" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -20202,7 +20284,7 @@
       <c r="X684" s="1"/>
       <c r="Y684" s="1"/>
     </row>
-    <row r="685" spans="1:25" ht="13.2">
+    <row r="685" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -20229,7 +20311,7 @@
       <c r="X685" s="1"/>
       <c r="Y685" s="1"/>
     </row>
-    <row r="686" spans="1:25" ht="13.2">
+    <row r="686" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -20256,7 +20338,7 @@
       <c r="X686" s="1"/>
       <c r="Y686" s="1"/>
     </row>
-    <row r="687" spans="1:25" ht="13.2">
+    <row r="687" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -20283,7 +20365,7 @@
       <c r="X687" s="1"/>
       <c r="Y687" s="1"/>
     </row>
-    <row r="688" spans="1:25" ht="13.2">
+    <row r="688" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -20310,7 +20392,7 @@
       <c r="X688" s="1"/>
       <c r="Y688" s="1"/>
     </row>
-    <row r="689" spans="1:25" ht="13.2">
+    <row r="689" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -20337,7 +20419,7 @@
       <c r="X689" s="1"/>
       <c r="Y689" s="1"/>
     </row>
-    <row r="690" spans="1:25" ht="13.2">
+    <row r="690" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -20364,7 +20446,7 @@
       <c r="X690" s="1"/>
       <c r="Y690" s="1"/>
     </row>
-    <row r="691" spans="1:25" ht="13.2">
+    <row r="691" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -20391,7 +20473,7 @@
       <c r="X691" s="1"/>
       <c r="Y691" s="1"/>
     </row>
-    <row r="692" spans="1:25" ht="13.2">
+    <row r="692" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -20418,7 +20500,7 @@
       <c r="X692" s="1"/>
       <c r="Y692" s="1"/>
     </row>
-    <row r="693" spans="1:25" ht="13.2">
+    <row r="693" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -20445,7 +20527,7 @@
       <c r="X693" s="1"/>
       <c r="Y693" s="1"/>
     </row>
-    <row r="694" spans="1:25" ht="13.2">
+    <row r="694" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -20472,7 +20554,7 @@
       <c r="X694" s="1"/>
       <c r="Y694" s="1"/>
     </row>
-    <row r="695" spans="1:25" ht="13.2">
+    <row r="695" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -20499,7 +20581,7 @@
       <c r="X695" s="1"/>
       <c r="Y695" s="1"/>
     </row>
-    <row r="696" spans="1:25" ht="13.2">
+    <row r="696" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -20526,7 +20608,7 @@
       <c r="X696" s="1"/>
       <c r="Y696" s="1"/>
     </row>
-    <row r="697" spans="1:25" ht="13.2">
+    <row r="697" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -20553,7 +20635,7 @@
       <c r="X697" s="1"/>
       <c r="Y697" s="1"/>
     </row>
-    <row r="698" spans="1:25" ht="13.2">
+    <row r="698" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -20580,7 +20662,7 @@
       <c r="X698" s="1"/>
       <c r="Y698" s="1"/>
     </row>
-    <row r="699" spans="1:25" ht="13.2">
+    <row r="699" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -20607,7 +20689,7 @@
       <c r="X699" s="1"/>
       <c r="Y699" s="1"/>
     </row>
-    <row r="700" spans="1:25" ht="13.2">
+    <row r="700" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -20634,7 +20716,7 @@
       <c r="X700" s="1"/>
       <c r="Y700" s="1"/>
     </row>
-    <row r="701" spans="1:25" ht="13.2">
+    <row r="701" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -20661,7 +20743,7 @@
       <c r="X701" s="1"/>
       <c r="Y701" s="1"/>
     </row>
-    <row r="702" spans="1:25" ht="13.2">
+    <row r="702" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -20688,7 +20770,7 @@
       <c r="X702" s="1"/>
       <c r="Y702" s="1"/>
     </row>
-    <row r="703" spans="1:25" ht="13.2">
+    <row r="703" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -20715,7 +20797,7 @@
       <c r="X703" s="1"/>
       <c r="Y703" s="1"/>
     </row>
-    <row r="704" spans="1:25" ht="13.2">
+    <row r="704" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -20742,7 +20824,7 @@
       <c r="X704" s="1"/>
       <c r="Y704" s="1"/>
     </row>
-    <row r="705" spans="1:25" ht="13.2">
+    <row r="705" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -20769,7 +20851,7 @@
       <c r="X705" s="1"/>
       <c r="Y705" s="1"/>
     </row>
-    <row r="706" spans="1:25" ht="13.2">
+    <row r="706" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -20796,7 +20878,7 @@
       <c r="X706" s="1"/>
       <c r="Y706" s="1"/>
     </row>
-    <row r="707" spans="1:25" ht="13.2">
+    <row r="707" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -20823,7 +20905,7 @@
       <c r="X707" s="1"/>
       <c r="Y707" s="1"/>
     </row>
-    <row r="708" spans="1:25" ht="13.2">
+    <row r="708" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -20850,7 +20932,7 @@
       <c r="X708" s="1"/>
       <c r="Y708" s="1"/>
     </row>
-    <row r="709" spans="1:25" ht="13.2">
+    <row r="709" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -20877,7 +20959,7 @@
       <c r="X709" s="1"/>
       <c r="Y709" s="1"/>
     </row>
-    <row r="710" spans="1:25" ht="13.2">
+    <row r="710" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -20904,7 +20986,7 @@
       <c r="X710" s="1"/>
       <c r="Y710" s="1"/>
     </row>
-    <row r="711" spans="1:25" ht="13.2">
+    <row r="711" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -20931,7 +21013,7 @@
       <c r="X711" s="1"/>
       <c r="Y711" s="1"/>
     </row>
-    <row r="712" spans="1:25" ht="13.2">
+    <row r="712" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -20958,7 +21040,7 @@
       <c r="X712" s="1"/>
       <c r="Y712" s="1"/>
     </row>
-    <row r="713" spans="1:25" ht="13.2">
+    <row r="713" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -20985,7 +21067,7 @@
       <c r="X713" s="1"/>
       <c r="Y713" s="1"/>
     </row>
-    <row r="714" spans="1:25" ht="13.2">
+    <row r="714" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -21012,7 +21094,7 @@
       <c r="X714" s="1"/>
       <c r="Y714" s="1"/>
     </row>
-    <row r="715" spans="1:25" ht="13.2">
+    <row r="715" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -21039,7 +21121,7 @@
       <c r="X715" s="1"/>
       <c r="Y715" s="1"/>
     </row>
-    <row r="716" spans="1:25" ht="13.2">
+    <row r="716" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -21066,7 +21148,7 @@
       <c r="X716" s="1"/>
       <c r="Y716" s="1"/>
     </row>
-    <row r="717" spans="1:25" ht="13.2">
+    <row r="717" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -21093,7 +21175,7 @@
       <c r="X717" s="1"/>
       <c r="Y717" s="1"/>
     </row>
-    <row r="718" spans="1:25" ht="13.2">
+    <row r="718" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -21120,7 +21202,7 @@
       <c r="X718" s="1"/>
       <c r="Y718" s="1"/>
     </row>
-    <row r="719" spans="1:25" ht="13.2">
+    <row r="719" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -21147,7 +21229,7 @@
       <c r="X719" s="1"/>
       <c r="Y719" s="1"/>
     </row>
-    <row r="720" spans="1:25" ht="13.2">
+    <row r="720" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -21174,7 +21256,7 @@
       <c r="X720" s="1"/>
       <c r="Y720" s="1"/>
     </row>
-    <row r="721" spans="1:25" ht="13.2">
+    <row r="721" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -21201,7 +21283,7 @@
       <c r="X721" s="1"/>
       <c r="Y721" s="1"/>
     </row>
-    <row r="722" spans="1:25" ht="13.2">
+    <row r="722" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -21228,7 +21310,7 @@
       <c r="X722" s="1"/>
       <c r="Y722" s="1"/>
     </row>
-    <row r="723" spans="1:25" ht="13.2">
+    <row r="723" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -21255,7 +21337,7 @@
       <c r="X723" s="1"/>
       <c r="Y723" s="1"/>
     </row>
-    <row r="724" spans="1:25" ht="13.2">
+    <row r="724" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -21282,7 +21364,7 @@
       <c r="X724" s="1"/>
       <c r="Y724" s="1"/>
     </row>
-    <row r="725" spans="1:25" ht="13.2">
+    <row r="725" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -21309,7 +21391,7 @@
       <c r="X725" s="1"/>
       <c r="Y725" s="1"/>
     </row>
-    <row r="726" spans="1:25" ht="13.2">
+    <row r="726" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -21336,7 +21418,7 @@
       <c r="X726" s="1"/>
       <c r="Y726" s="1"/>
     </row>
-    <row r="727" spans="1:25" ht="13.2">
+    <row r="727" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -21363,7 +21445,7 @@
       <c r="X727" s="1"/>
       <c r="Y727" s="1"/>
     </row>
-    <row r="728" spans="1:25" ht="13.2">
+    <row r="728" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -21390,7 +21472,7 @@
       <c r="X728" s="1"/>
       <c r="Y728" s="1"/>
     </row>
-    <row r="729" spans="1:25" ht="13.2">
+    <row r="729" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -21417,7 +21499,7 @@
       <c r="X729" s="1"/>
       <c r="Y729" s="1"/>
     </row>
-    <row r="730" spans="1:25" ht="13.2">
+    <row r="730" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -21444,7 +21526,7 @@
       <c r="X730" s="1"/>
       <c r="Y730" s="1"/>
     </row>
-    <row r="731" spans="1:25" ht="13.2">
+    <row r="731" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -21471,7 +21553,7 @@
       <c r="X731" s="1"/>
       <c r="Y731" s="1"/>
     </row>
-    <row r="732" spans="1:25" ht="13.2">
+    <row r="732" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -21498,7 +21580,7 @@
       <c r="X732" s="1"/>
       <c r="Y732" s="1"/>
     </row>
-    <row r="733" spans="1:25" ht="13.2">
+    <row r="733" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -21525,7 +21607,7 @@
       <c r="X733" s="1"/>
       <c r="Y733" s="1"/>
     </row>
-    <row r="734" spans="1:25" ht="13.2">
+    <row r="734" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -21552,7 +21634,7 @@
       <c r="X734" s="1"/>
       <c r="Y734" s="1"/>
     </row>
-    <row r="735" spans="1:25" ht="13.2">
+    <row r="735" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -21579,7 +21661,7 @@
       <c r="X735" s="1"/>
       <c r="Y735" s="1"/>
     </row>
-    <row r="736" spans="1:25" ht="13.2">
+    <row r="736" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -21606,7 +21688,7 @@
       <c r="X736" s="1"/>
       <c r="Y736" s="1"/>
     </row>
-    <row r="737" spans="1:25" ht="13.2">
+    <row r="737" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -21633,7 +21715,7 @@
       <c r="X737" s="1"/>
       <c r="Y737" s="1"/>
     </row>
-    <row r="738" spans="1:25" ht="13.2">
+    <row r="738" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -21660,7 +21742,7 @@
       <c r="X738" s="1"/>
       <c r="Y738" s="1"/>
     </row>
-    <row r="739" spans="1:25" ht="13.2">
+    <row r="739" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -21687,7 +21769,7 @@
       <c r="X739" s="1"/>
       <c r="Y739" s="1"/>
     </row>
-    <row r="740" spans="1:25" ht="13.2">
+    <row r="740" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -21714,7 +21796,7 @@
       <c r="X740" s="1"/>
       <c r="Y740" s="1"/>
     </row>
-    <row r="741" spans="1:25" ht="13.2">
+    <row r="741" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -21741,7 +21823,7 @@
       <c r="X741" s="1"/>
       <c r="Y741" s="1"/>
     </row>
-    <row r="742" spans="1:25" ht="13.2">
+    <row r="742" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -21768,7 +21850,7 @@
       <c r="X742" s="1"/>
       <c r="Y742" s="1"/>
     </row>
-    <row r="743" spans="1:25" ht="13.2">
+    <row r="743" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -21795,7 +21877,7 @@
       <c r="X743" s="1"/>
       <c r="Y743" s="1"/>
     </row>
-    <row r="744" spans="1:25" ht="13.2">
+    <row r="744" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -21822,7 +21904,7 @@
       <c r="X744" s="1"/>
       <c r="Y744" s="1"/>
     </row>
-    <row r="745" spans="1:25" ht="13.2">
+    <row r="745" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -21849,7 +21931,7 @@
       <c r="X745" s="1"/>
       <c r="Y745" s="1"/>
     </row>
-    <row r="746" spans="1:25" ht="13.2">
+    <row r="746" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -21876,7 +21958,7 @@
       <c r="X746" s="1"/>
       <c r="Y746" s="1"/>
     </row>
-    <row r="747" spans="1:25" ht="13.2">
+    <row r="747" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -21903,7 +21985,7 @@
       <c r="X747" s="1"/>
       <c r="Y747" s="1"/>
     </row>
-    <row r="748" spans="1:25" ht="13.2">
+    <row r="748" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -21930,7 +22012,7 @@
       <c r="X748" s="1"/>
       <c r="Y748" s="1"/>
     </row>
-    <row r="749" spans="1:25" ht="13.2">
+    <row r="749" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -21957,7 +22039,7 @@
       <c r="X749" s="1"/>
       <c r="Y749" s="1"/>
     </row>
-    <row r="750" spans="1:25" ht="13.2">
+    <row r="750" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -21984,7 +22066,7 @@
       <c r="X750" s="1"/>
       <c r="Y750" s="1"/>
     </row>
-    <row r="751" spans="1:25" ht="13.2">
+    <row r="751" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -22011,7 +22093,7 @@
       <c r="X751" s="1"/>
       <c r="Y751" s="1"/>
     </row>
-    <row r="752" spans="1:25" ht="13.2">
+    <row r="752" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -22038,7 +22120,7 @@
       <c r="X752" s="1"/>
       <c r="Y752" s="1"/>
     </row>
-    <row r="753" spans="1:25" ht="13.2">
+    <row r="753" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -22065,7 +22147,7 @@
       <c r="X753" s="1"/>
       <c r="Y753" s="1"/>
     </row>
-    <row r="754" spans="1:25" ht="13.2">
+    <row r="754" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -22092,7 +22174,7 @@
       <c r="X754" s="1"/>
       <c r="Y754" s="1"/>
     </row>
-    <row r="755" spans="1:25" ht="13.2">
+    <row r="755" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -22119,7 +22201,7 @@
       <c r="X755" s="1"/>
       <c r="Y755" s="1"/>
     </row>
-    <row r="756" spans="1:25" ht="13.2">
+    <row r="756" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -22146,7 +22228,7 @@
       <c r="X756" s="1"/>
       <c r="Y756" s="1"/>
     </row>
-    <row r="757" spans="1:25" ht="13.2">
+    <row r="757" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -22173,7 +22255,7 @@
       <c r="X757" s="1"/>
       <c r="Y757" s="1"/>
     </row>
-    <row r="758" spans="1:25" ht="13.2">
+    <row r="758" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -22200,7 +22282,7 @@
       <c r="X758" s="1"/>
       <c r="Y758" s="1"/>
     </row>
-    <row r="759" spans="1:25" ht="13.2">
+    <row r="759" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -22227,7 +22309,7 @@
       <c r="X759" s="1"/>
       <c r="Y759" s="1"/>
     </row>
-    <row r="760" spans="1:25" ht="13.2">
+    <row r="760" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -22254,7 +22336,7 @@
       <c r="X760" s="1"/>
       <c r="Y760" s="1"/>
     </row>
-    <row r="761" spans="1:25" ht="13.2">
+    <row r="761" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -22281,7 +22363,7 @@
       <c r="X761" s="1"/>
       <c r="Y761" s="1"/>
     </row>
-    <row r="762" spans="1:25" ht="13.2">
+    <row r="762" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -22308,7 +22390,7 @@
       <c r="X762" s="1"/>
       <c r="Y762" s="1"/>
     </row>
-    <row r="763" spans="1:25" ht="13.2">
+    <row r="763" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -22335,7 +22417,7 @@
       <c r="X763" s="1"/>
       <c r="Y763" s="1"/>
     </row>
-    <row r="764" spans="1:25" ht="13.2">
+    <row r="764" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -22362,7 +22444,7 @@
       <c r="X764" s="1"/>
       <c r="Y764" s="1"/>
     </row>
-    <row r="765" spans="1:25" ht="13.2">
+    <row r="765" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -22389,7 +22471,7 @@
       <c r="X765" s="1"/>
       <c r="Y765" s="1"/>
     </row>
-    <row r="766" spans="1:25" ht="13.2">
+    <row r="766" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -22416,7 +22498,7 @@
       <c r="X766" s="1"/>
       <c r="Y766" s="1"/>
     </row>
-    <row r="767" spans="1:25" ht="13.2">
+    <row r="767" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -22443,7 +22525,7 @@
       <c r="X767" s="1"/>
       <c r="Y767" s="1"/>
     </row>
-    <row r="768" spans="1:25" ht="13.2">
+    <row r="768" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -22470,7 +22552,7 @@
       <c r="X768" s="1"/>
       <c r="Y768" s="1"/>
     </row>
-    <row r="769" spans="1:25" ht="13.2">
+    <row r="769" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -22497,7 +22579,7 @@
       <c r="X769" s="1"/>
       <c r="Y769" s="1"/>
     </row>
-    <row r="770" spans="1:25" ht="13.2">
+    <row r="770" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -22524,7 +22606,7 @@
       <c r="X770" s="1"/>
       <c r="Y770" s="1"/>
     </row>
-    <row r="771" spans="1:25" ht="13.2">
+    <row r="771" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -22551,7 +22633,7 @@
       <c r="X771" s="1"/>
       <c r="Y771" s="1"/>
     </row>
-    <row r="772" spans="1:25" ht="13.2">
+    <row r="772" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -22578,7 +22660,7 @@
       <c r="X772" s="1"/>
       <c r="Y772" s="1"/>
     </row>
-    <row r="773" spans="1:25" ht="13.2">
+    <row r="773" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -22605,7 +22687,7 @@
       <c r="X773" s="1"/>
       <c r="Y773" s="1"/>
     </row>
-    <row r="774" spans="1:25" ht="13.2">
+    <row r="774" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -22632,7 +22714,7 @@
       <c r="X774" s="1"/>
       <c r="Y774" s="1"/>
     </row>
-    <row r="775" spans="1:25" ht="13.2">
+    <row r="775" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -22659,7 +22741,7 @@
       <c r="X775" s="1"/>
       <c r="Y775" s="1"/>
     </row>
-    <row r="776" spans="1:25" ht="13.2">
+    <row r="776" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -22686,7 +22768,7 @@
       <c r="X776" s="1"/>
       <c r="Y776" s="1"/>
     </row>
-    <row r="777" spans="1:25" ht="13.2">
+    <row r="777" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -22713,7 +22795,7 @@
       <c r="X777" s="1"/>
       <c r="Y777" s="1"/>
     </row>
-    <row r="778" spans="1:25" ht="13.2">
+    <row r="778" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -22740,7 +22822,7 @@
       <c r="X778" s="1"/>
       <c r="Y778" s="1"/>
     </row>
-    <row r="779" spans="1:25" ht="13.2">
+    <row r="779" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -22767,7 +22849,7 @@
       <c r="X779" s="1"/>
       <c r="Y779" s="1"/>
     </row>
-    <row r="780" spans="1:25" ht="13.2">
+    <row r="780" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -22794,7 +22876,7 @@
       <c r="X780" s="1"/>
       <c r="Y780" s="1"/>
     </row>
-    <row r="781" spans="1:25" ht="13.2">
+    <row r="781" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -22821,7 +22903,7 @@
       <c r="X781" s="1"/>
       <c r="Y781" s="1"/>
     </row>
-    <row r="782" spans="1:25" ht="13.2">
+    <row r="782" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -22848,7 +22930,7 @@
       <c r="X782" s="1"/>
       <c r="Y782" s="1"/>
     </row>
-    <row r="783" spans="1:25" ht="13.2">
+    <row r="783" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -22875,7 +22957,7 @@
       <c r="X783" s="1"/>
       <c r="Y783" s="1"/>
     </row>
-    <row r="784" spans="1:25" ht="13.2">
+    <row r="784" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -22902,7 +22984,7 @@
       <c r="X784" s="1"/>
       <c r="Y784" s="1"/>
     </row>
-    <row r="785" spans="1:25" ht="13.2">
+    <row r="785" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -22929,7 +23011,7 @@
       <c r="X785" s="1"/>
       <c r="Y785" s="1"/>
     </row>
-    <row r="786" spans="1:25" ht="13.2">
+    <row r="786" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -22956,7 +23038,7 @@
       <c r="X786" s="1"/>
       <c r="Y786" s="1"/>
     </row>
-    <row r="787" spans="1:25" ht="13.2">
+    <row r="787" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -22983,7 +23065,7 @@
       <c r="X787" s="1"/>
       <c r="Y787" s="1"/>
     </row>
-    <row r="788" spans="1:25" ht="13.2">
+    <row r="788" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -23010,7 +23092,7 @@
       <c r="X788" s="1"/>
       <c r="Y788" s="1"/>
     </row>
-    <row r="789" spans="1:25" ht="13.2">
+    <row r="789" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -23037,7 +23119,7 @@
       <c r="X789" s="1"/>
       <c r="Y789" s="1"/>
     </row>
-    <row r="790" spans="1:25" ht="13.2">
+    <row r="790" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -23064,7 +23146,7 @@
       <c r="X790" s="1"/>
       <c r="Y790" s="1"/>
     </row>
-    <row r="791" spans="1:25" ht="13.2">
+    <row r="791" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -23091,7 +23173,7 @@
       <c r="X791" s="1"/>
       <c r="Y791" s="1"/>
     </row>
-    <row r="792" spans="1:25" ht="13.2">
+    <row r="792" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -23118,7 +23200,7 @@
       <c r="X792" s="1"/>
       <c r="Y792" s="1"/>
     </row>
-    <row r="793" spans="1:25" ht="13.2">
+    <row r="793" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -23145,7 +23227,7 @@
       <c r="X793" s="1"/>
       <c r="Y793" s="1"/>
     </row>
-    <row r="794" spans="1:25" ht="13.2">
+    <row r="794" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -23172,7 +23254,7 @@
       <c r="X794" s="1"/>
       <c r="Y794" s="1"/>
     </row>
-    <row r="795" spans="1:25" ht="13.2">
+    <row r="795" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -23199,7 +23281,7 @@
       <c r="X795" s="1"/>
       <c r="Y795" s="1"/>
     </row>
-    <row r="796" spans="1:25" ht="13.2">
+    <row r="796" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -23226,7 +23308,7 @@
       <c r="X796" s="1"/>
       <c r="Y796" s="1"/>
     </row>
-    <row r="797" spans="1:25" ht="13.2">
+    <row r="797" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -23253,7 +23335,7 @@
       <c r="X797" s="1"/>
       <c r="Y797" s="1"/>
     </row>
-    <row r="798" spans="1:25" ht="13.2">
+    <row r="798" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -23280,7 +23362,7 @@
       <c r="X798" s="1"/>
       <c r="Y798" s="1"/>
     </row>
-    <row r="799" spans="1:25" ht="13.2">
+    <row r="799" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -23307,7 +23389,7 @@
       <c r="X799" s="1"/>
       <c r="Y799" s="1"/>
     </row>
-    <row r="800" spans="1:25" ht="13.2">
+    <row r="800" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -23334,7 +23416,7 @@
       <c r="X800" s="1"/>
       <c r="Y800" s="1"/>
     </row>
-    <row r="801" spans="1:25" ht="13.2">
+    <row r="801" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -23361,7 +23443,7 @@
       <c r="X801" s="1"/>
       <c r="Y801" s="1"/>
     </row>
-    <row r="802" spans="1:25" ht="13.2">
+    <row r="802" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -23388,7 +23470,7 @@
       <c r="X802" s="1"/>
       <c r="Y802" s="1"/>
     </row>
-    <row r="803" spans="1:25" ht="13.2">
+    <row r="803" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -23415,7 +23497,7 @@
       <c r="X803" s="1"/>
       <c r="Y803" s="1"/>
     </row>
-    <row r="804" spans="1:25" ht="13.2">
+    <row r="804" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -23442,7 +23524,7 @@
       <c r="X804" s="1"/>
       <c r="Y804" s="1"/>
     </row>
-    <row r="805" spans="1:25" ht="13.2">
+    <row r="805" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -23469,7 +23551,7 @@
       <c r="X805" s="1"/>
       <c r="Y805" s="1"/>
     </row>
-    <row r="806" spans="1:25" ht="13.2">
+    <row r="806" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -23496,7 +23578,7 @@
       <c r="X806" s="1"/>
       <c r="Y806" s="1"/>
     </row>
-    <row r="807" spans="1:25" ht="13.2">
+    <row r="807" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -23523,7 +23605,7 @@
       <c r="X807" s="1"/>
       <c r="Y807" s="1"/>
     </row>
-    <row r="808" spans="1:25" ht="13.2">
+    <row r="808" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -23550,7 +23632,7 @@
       <c r="X808" s="1"/>
       <c r="Y808" s="1"/>
     </row>
-    <row r="809" spans="1:25" ht="13.2">
+    <row r="809" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -23577,7 +23659,7 @@
       <c r="X809" s="1"/>
       <c r="Y809" s="1"/>
     </row>
-    <row r="810" spans="1:25" ht="13.2">
+    <row r="810" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -23604,7 +23686,7 @@
       <c r="X810" s="1"/>
       <c r="Y810" s="1"/>
     </row>
-    <row r="811" spans="1:25" ht="13.2">
+    <row r="811" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -23631,7 +23713,7 @@
       <c r="X811" s="1"/>
       <c r="Y811" s="1"/>
     </row>
-    <row r="812" spans="1:25" ht="13.2">
+    <row r="812" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -23658,7 +23740,7 @@
       <c r="X812" s="1"/>
       <c r="Y812" s="1"/>
     </row>
-    <row r="813" spans="1:25" ht="13.2">
+    <row r="813" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -23685,7 +23767,7 @@
       <c r="X813" s="1"/>
       <c r="Y813" s="1"/>
     </row>
-    <row r="814" spans="1:25" ht="13.2">
+    <row r="814" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -23712,7 +23794,7 @@
       <c r="X814" s="1"/>
       <c r="Y814" s="1"/>
     </row>
-    <row r="815" spans="1:25" ht="13.2">
+    <row r="815" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -23739,7 +23821,7 @@
       <c r="X815" s="1"/>
       <c r="Y815" s="1"/>
     </row>
-    <row r="816" spans="1:25" ht="13.2">
+    <row r="816" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -23766,7 +23848,7 @@
       <c r="X816" s="1"/>
       <c r="Y816" s="1"/>
     </row>
-    <row r="817" spans="1:25" ht="13.2">
+    <row r="817" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -23793,7 +23875,7 @@
       <c r="X817" s="1"/>
       <c r="Y817" s="1"/>
     </row>
-    <row r="818" spans="1:25" ht="13.2">
+    <row r="818" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -23820,7 +23902,7 @@
       <c r="X818" s="1"/>
       <c r="Y818" s="1"/>
     </row>
-    <row r="819" spans="1:25" ht="13.2">
+    <row r="819" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -23847,7 +23929,7 @@
       <c r="X819" s="1"/>
       <c r="Y819" s="1"/>
     </row>
-    <row r="820" spans="1:25" ht="13.2">
+    <row r="820" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -23874,7 +23956,7 @@
       <c r="X820" s="1"/>
       <c r="Y820" s="1"/>
     </row>
-    <row r="821" spans="1:25" ht="13.2">
+    <row r="821" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -23901,7 +23983,7 @@
       <c r="X821" s="1"/>
       <c r="Y821" s="1"/>
     </row>
-    <row r="822" spans="1:25" ht="13.2">
+    <row r="822" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -23928,7 +24010,7 @@
       <c r="X822" s="1"/>
       <c r="Y822" s="1"/>
     </row>
-    <row r="823" spans="1:25" ht="13.2">
+    <row r="823" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -23955,7 +24037,7 @@
       <c r="X823" s="1"/>
       <c r="Y823" s="1"/>
     </row>
-    <row r="824" spans="1:25" ht="13.2">
+    <row r="824" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -23982,7 +24064,7 @@
       <c r="X824" s="1"/>
       <c r="Y824" s="1"/>
     </row>
-    <row r="825" spans="1:25" ht="13.2">
+    <row r="825" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -24009,7 +24091,7 @@
       <c r="X825" s="1"/>
       <c r="Y825" s="1"/>
     </row>
-    <row r="826" spans="1:25" ht="13.2">
+    <row r="826" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -24036,7 +24118,7 @@
       <c r="X826" s="1"/>
       <c r="Y826" s="1"/>
     </row>
-    <row r="827" spans="1:25" ht="13.2">
+    <row r="827" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -24063,7 +24145,7 @@
       <c r="X827" s="1"/>
       <c r="Y827" s="1"/>
     </row>
-    <row r="828" spans="1:25" ht="13.2">
+    <row r="828" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -24090,7 +24172,7 @@
       <c r="X828" s="1"/>
       <c r="Y828" s="1"/>
     </row>
-    <row r="829" spans="1:25" ht="13.2">
+    <row r="829" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -24117,7 +24199,7 @@
       <c r="X829" s="1"/>
       <c r="Y829" s="1"/>
     </row>
-    <row r="830" spans="1:25" ht="13.2">
+    <row r="830" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -24144,7 +24226,7 @@
       <c r="X830" s="1"/>
       <c r="Y830" s="1"/>
     </row>
-    <row r="831" spans="1:25" ht="13.2">
+    <row r="831" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -24171,7 +24253,7 @@
       <c r="X831" s="1"/>
       <c r="Y831" s="1"/>
     </row>
-    <row r="832" spans="1:25" ht="13.2">
+    <row r="832" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -24198,7 +24280,7 @@
       <c r="X832" s="1"/>
       <c r="Y832" s="1"/>
     </row>
-    <row r="833" spans="1:25" ht="13.2">
+    <row r="833" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -24225,7 +24307,7 @@
       <c r="X833" s="1"/>
       <c r="Y833" s="1"/>
     </row>
-    <row r="834" spans="1:25" ht="13.2">
+    <row r="834" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -24252,7 +24334,7 @@
       <c r="X834" s="1"/>
       <c r="Y834" s="1"/>
     </row>
-    <row r="835" spans="1:25" ht="13.2">
+    <row r="835" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -24279,7 +24361,7 @@
       <c r="X835" s="1"/>
       <c r="Y835" s="1"/>
     </row>
-    <row r="836" spans="1:25" ht="13.2">
+    <row r="836" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -24306,7 +24388,7 @@
       <c r="X836" s="1"/>
       <c r="Y836" s="1"/>
     </row>
-    <row r="837" spans="1:25" ht="13.2">
+    <row r="837" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -24333,7 +24415,7 @@
       <c r="X837" s="1"/>
       <c r="Y837" s="1"/>
     </row>
-    <row r="838" spans="1:25" ht="13.2">
+    <row r="838" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -24360,7 +24442,7 @@
       <c r="X838" s="1"/>
       <c r="Y838" s="1"/>
     </row>
-    <row r="839" spans="1:25" ht="13.2">
+    <row r="839" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -24387,7 +24469,7 @@
       <c r="X839" s="1"/>
       <c r="Y839" s="1"/>
     </row>
-    <row r="840" spans="1:25" ht="13.2">
+    <row r="840" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -24414,7 +24496,7 @@
       <c r="X840" s="1"/>
       <c r="Y840" s="1"/>
     </row>
-    <row r="841" spans="1:25" ht="13.2">
+    <row r="841" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -24441,7 +24523,7 @@
       <c r="X841" s="1"/>
       <c r="Y841" s="1"/>
     </row>
-    <row r="842" spans="1:25" ht="13.2">
+    <row r="842" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -24468,7 +24550,7 @@
       <c r="X842" s="1"/>
       <c r="Y842" s="1"/>
     </row>
-    <row r="843" spans="1:25" ht="13.2">
+    <row r="843" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -24495,7 +24577,7 @@
       <c r="X843" s="1"/>
       <c r="Y843" s="1"/>
     </row>
-    <row r="844" spans="1:25" ht="13.2">
+    <row r="844" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -24522,7 +24604,7 @@
       <c r="X844" s="1"/>
       <c r="Y844" s="1"/>
     </row>
-    <row r="845" spans="1:25" ht="13.2">
+    <row r="845" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -24549,7 +24631,7 @@
       <c r="X845" s="1"/>
       <c r="Y845" s="1"/>
     </row>
-    <row r="846" spans="1:25" ht="13.2">
+    <row r="846" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -24576,7 +24658,7 @@
       <c r="X846" s="1"/>
       <c r="Y846" s="1"/>
     </row>
-    <row r="847" spans="1:25" ht="13.2">
+    <row r="847" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -24603,7 +24685,7 @@
       <c r="X847" s="1"/>
       <c r="Y847" s="1"/>
     </row>
-    <row r="848" spans="1:25" ht="13.2">
+    <row r="848" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -24630,7 +24712,7 @@
       <c r="X848" s="1"/>
       <c r="Y848" s="1"/>
     </row>
-    <row r="849" spans="1:25" ht="13.2">
+    <row r="849" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -24657,7 +24739,7 @@
       <c r="X849" s="1"/>
       <c r="Y849" s="1"/>
     </row>
-    <row r="850" spans="1:25" ht="13.2">
+    <row r="850" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -24684,7 +24766,7 @@
       <c r="X850" s="1"/>
       <c r="Y850" s="1"/>
     </row>
-    <row r="851" spans="1:25" ht="13.2">
+    <row r="851" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -24711,7 +24793,7 @@
       <c r="X851" s="1"/>
       <c r="Y851" s="1"/>
     </row>
-    <row r="852" spans="1:25" ht="13.2">
+    <row r="852" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -24738,7 +24820,7 @@
       <c r="X852" s="1"/>
       <c r="Y852" s="1"/>
     </row>
-    <row r="853" spans="1:25" ht="13.2">
+    <row r="853" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -24765,7 +24847,7 @@
       <c r="X853" s="1"/>
       <c r="Y853" s="1"/>
     </row>
-    <row r="854" spans="1:25" ht="13.2">
+    <row r="854" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -24792,7 +24874,7 @@
       <c r="X854" s="1"/>
       <c r="Y854" s="1"/>
     </row>
-    <row r="855" spans="1:25" ht="13.2">
+    <row r="855" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -24819,7 +24901,7 @@
       <c r="X855" s="1"/>
       <c r="Y855" s="1"/>
     </row>
-    <row r="856" spans="1:25" ht="13.2">
+    <row r="856" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -24846,7 +24928,7 @@
       <c r="X856" s="1"/>
       <c r="Y856" s="1"/>
     </row>
-    <row r="857" spans="1:25" ht="13.2">
+    <row r="857" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -24873,7 +24955,7 @@
       <c r="X857" s="1"/>
       <c r="Y857" s="1"/>
     </row>
-    <row r="858" spans="1:25" ht="13.2">
+    <row r="858" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -24900,7 +24982,7 @@
       <c r="X858" s="1"/>
       <c r="Y858" s="1"/>
     </row>
-    <row r="859" spans="1:25" ht="13.2">
+    <row r="859" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -24927,39 +25009,22 @@
       <c r="X859" s="1"/>
       <c r="Y859" s="1"/>
     </row>
-    <row r="860" spans="1:25" ht="13.2">
-      <c r="A860" s="1"/>
-      <c r="B860" s="1"/>
-      <c r="C860" s="1"/>
-      <c r="D860" s="1"/>
-      <c r="E860" s="1"/>
-      <c r="F860" s="1"/>
-      <c r="G860" s="1"/>
-      <c r="H860" s="1"/>
-      <c r="I860" s="1"/>
-      <c r="J860" s="1"/>
-      <c r="K860" s="1"/>
-      <c r="L860" s="1"/>
-      <c r="M860" s="1"/>
-      <c r="N860" s="1"/>
-      <c r="O860" s="1"/>
-      <c r="P860" s="1"/>
-      <c r="Q860" s="1"/>
-      <c r="R860" s="1"/>
-      <c r="S860" s="1"/>
-      <c r="T860" s="1"/>
-      <c r="U860" s="1"/>
-      <c r="V860" s="1"/>
-      <c r="W860" s="1"/>
-      <c r="X860" s="1"/>
-      <c r="Y860" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A12:J66">
+  <autoFilter ref="A12:J65" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="J12:J13"/>
@@ -24976,19 +25041,9 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="B14:B66">
+  <conditionalFormatting sqref="B14:B65">
     <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="ENPRESA:">
       <formula>NOT(ISERROR(SEARCH("ENPRESA:",B14)))</formula>
     </cfRule>
@@ -25011,12 +25066,12 @@
       <formula>LEFT(B14,LEN("TALDEA:"))="TALDEA:"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D66">
+  <conditionalFormatting sqref="D14:D65">
     <cfRule type="containsText" dxfId="6" priority="20" operator="containsText" text="ST">
       <formula>NOT(ISERROR(SEARCH("ST",D14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F66 H14:H66">
+  <conditionalFormatting sqref="F14:F65 H14:H65">
     <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="EBER">
       <formula>NOT(ISERROR(SEARCH("EBER",F14)))</formula>
     </cfRule>
@@ -25039,25 +25094,25 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="HORI EZIN DA SARTU" error="Hemen bakarrik EGINDA, PROZESUAN edo HASI GABE, jarri dezakezu." sqref="I14:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A63:A65" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>"16/10/2023 - 20/10/2023,23/10/2023 - 27/10/2023,30/10/2023 - 03/11/2023,06/11/2023 - 10/11/2023,13/11/2023 - 17/11/2023"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A30:A62" xr:uid="{00000000-0002-0000-0000-000005000000}">
+      <formula1>"8/01/2024 - 12/01/2024,15/01/2024 - 19/01/2024,22/01/2024 - 26/01/2024,29/01/2024 - 2/02/2024,5/02/2024 - 09/02/2024"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="HORI EZIN DA SARTU" error="Hemen bakarrik EGINDA, PROZESUAN edo HASI GABE, jarri dezakezu." sqref="I14:I1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"HASI GABE,PROZESUAN,EGINDA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A64:A66">
-      <formula1>"16/10/2023 - 20/10/2023,23/10/2023 - 27/10/2023,30/10/2023 - 03/11/2023,06/11/2023 - 10/11/2023,13/11/2023 - 17/11/2023"</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="B12:B66">
+    <dataValidation type="list" sqref="B12:B65" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"TALDEA:,APP:,ERP:,INTERFAZ:,DA:,ZERBITZU:,ENPRESA:,"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D14:D67">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D14:D66" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"ST,"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F14:F66 H14:H66">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F14:F65 H14:H65" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"ANDER,EBER,ST"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31:A63">
-      <formula1>"8/01/2024 - 12/01/2024,15/01/2024 - 19/01/2024,22/01/2024 - 26/01/2024,29/01/2024 - 2/02/2024,5/02/2024 - 09/02/2024"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A29" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"8/01/2024 - 12/01/2024,15/01/2024 - 19/01/2024,22/01/2024 - 26/01/2024,29/01/2024 - 2/02/2024,5/02/2024 - 09/02/2024,08/01/2024 - 09/02/2024"</formula1>
     </dataValidation>
   </dataValidations>

--- a/8. Planifikazioa Egunerokoa/ST EGUNEROKOA.xlsx
+++ b/8. Planifikazioa Egunerokoa/ST EGUNEROKOA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaltamirapaag2\Desktop\ST_Erronka2\8. Planifikazioa Egunerokoa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59AA4CA-8568-4E84-BEFF-86CC98591D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427154BF-6EE8-458B-AAFC-7563B98F3F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2580" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -961,6 +961,46 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -980,15 +1020,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1019,37 +1050,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1520,8 +1520,8 @@
   </sheetPr>
   <dimension ref="A1:Y859"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I33" sqref="B33:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1535,18 +1535,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
       <c r="G1" s="10"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="57" t="s">
         <v>33</v>
       </c>
       <c r="K1" s="1"/>
@@ -1566,18 +1566,18 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="1.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="40"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1595,16 +1595,16 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="66"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="41"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="59"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1649,17 +1649,17 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1678,21 +1678,21 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63" t="s">
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63" t="s">
+      <c r="E6" s="76"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="77"/>
       <c r="J6" s="19" t="s">
         <v>17</v>
       </c>
@@ -1713,21 +1713,21 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="70" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="70" t="s">
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="72"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="27" t="s">
         <v>31</v>
       </c>
@@ -1748,19 +1748,19 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="73" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="74"/>
-      <c r="I8" s="75"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="56"/>
       <c r="J8" s="28" t="s">
         <v>32</v>
       </c>
@@ -1781,19 +1781,19 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="46" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="48"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
       <c r="J9" s="29" t="s">
         <v>23</v>
       </c>
@@ -1820,11 +1820,11 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="8"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1870,30 +1870,30 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="54" t="s">
+      <c r="E12" s="72"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="59" t="s">
+      <c r="H12" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="54" t="s">
+      <c r="I12" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="44" t="s">
+      <c r="J12" s="62" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="1"/>
@@ -1913,9 +1913,9 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A13" s="53"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="9" t="s">
         <v>4</v>
       </c>
@@ -1925,10 +1925,10 @@
       <c r="F13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="45"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="63"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2313,11 +2313,11 @@
         <v>42</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="20"/>
+      <c r="D24" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="E24" s="22"/>
-      <c r="F24" s="20" t="s">
-        <v>27</v>
-      </c>
+      <c r="F24" s="20"/>
       <c r="G24" s="13"/>
       <c r="H24" s="20" t="s">
         <v>27</v>
@@ -2498,11 +2498,11 @@
         <v>46</v>
       </c>
       <c r="C29" s="15"/>
-      <c r="D29" s="21"/>
+      <c r="D29" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="E29" s="23"/>
-      <c r="F29" s="20" t="s">
-        <v>27</v>
-      </c>
+      <c r="F29" s="20"/>
       <c r="G29" s="15"/>
       <c r="H29" s="20" t="s">
         <v>27</v>
@@ -2528,14 +2528,14 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A30" s="76"/>
-      <c r="B30" s="77"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="78"/>
+      <c r="D30" s="41"/>
       <c r="E30" s="23"/>
-      <c r="F30" s="78"/>
+      <c r="F30" s="41"/>
       <c r="G30" s="15"/>
-      <c r="H30" s="78"/>
+      <c r="H30" s="41"/>
       <c r="I30" s="35"/>
       <c r="J30" s="15"/>
       <c r="K30" s="1"/>
@@ -2609,7 +2609,7 @@
         <v>27</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J32" s="15"/>
       <c r="K32" s="1"/>
@@ -2646,7 +2646,7 @@
         <v>27</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J33" s="15"/>
       <c r="K33" s="1"/>
@@ -2683,7 +2683,7 @@
         <v>43</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J34" s="15"/>
       <c r="K34" s="1"/>
@@ -25015,16 +25015,6 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="J12:J13"/>
@@ -25041,6 +25031,16 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="B14:B65">

--- a/8. Planifikazioa Egunerokoa/ST EGUNEROKOA.xlsx
+++ b/8. Planifikazioa Egunerokoa/ST EGUNEROKOA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaltamirapaag2\Desktop\ST_Erronka2\8. Planifikazioa Egunerokoa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427154BF-6EE8-458B-AAFC-7563B98F3F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2580" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2580" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Planifikazioa" sheetId="3" r:id="rId1"/>
@@ -23,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="I12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="65">
   <si>
     <t>ENTREGA</t>
   </si>
@@ -119,9 +118,6 @@
   </si>
   <si>
     <t>Ander Ibañez</t>
-  </si>
-  <si>
-    <t>HASI GABE</t>
   </si>
   <si>
     <t>EGINDA</t>
@@ -240,12 +236,30 @@
   <si>
     <t>APP: Jokoaren hasiera pantalla diseinatu</t>
   </si>
+  <si>
+    <t>ENPRESA: Altxortegi plana bete</t>
+  </si>
+  <si>
+    <t>APP: SQLiten datuen kudeaketa egin eta beharrezko insertak egin</t>
+  </si>
+  <si>
+    <t>APP: SQLiteko klaseak sortu</t>
+  </si>
+  <si>
+    <t>APP: API-aren inplementazioa egin</t>
+  </si>
+  <si>
+    <t>INTERFAZ: Web orria diseñuaren bukaera ematea</t>
+  </si>
+  <si>
+    <t>INTERFAZ: API-aren inplementazioa egitea</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -881,7 +895,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -966,41 +980,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1020,6 +999,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1050,6 +1038,35 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1229,9 +1246,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1269,9 +1286,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1306,7 +1323,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1341,7 +1358,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1514,17 +1531,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Y859"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I33" sqref="B33:I33"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.6640625" bestFit="1" customWidth="1"/>
@@ -1534,20 +1551,20 @@
     <col min="10" max="10" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="60" t="s">
-        <v>29</v>
+    <row r="1" spans="1:25" ht="34.799999999999997" customHeight="1">
+      <c r="A1" s="45" t="s">
+        <v>28</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
       <c r="G1" s="10"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
-      <c r="J1" s="57" t="s">
-        <v>33</v>
+      <c r="J1" s="42" t="s">
+        <v>32</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1565,19 +1582,19 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="1.2">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:25" ht="22.8">
+      <c r="A2" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="58"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="43"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1594,17 +1611,17 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="59"/>
+    <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1">
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1621,7 +1638,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:25" ht="13.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1648,18 +1665,18 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:25" ht="18" thickBot="1">
+      <c r="A5" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1677,22 +1694,22 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="75" t="s">
+    <row r="6" spans="1:25" ht="19.95" customHeight="1" thickBot="1">
+      <c r="A6" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78" t="s">
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78" t="s">
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="65"/>
       <c r="J6" s="19" t="s">
         <v>17</v>
       </c>
@@ -1712,24 +1729,24 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+    <row r="7" spans="1:25" ht="14.4" customHeight="1">
+      <c r="A7" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="51" t="s">
+      <c r="B7" s="74"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="51" t="s">
+      <c r="E7" s="74"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
       <c r="J7" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1747,22 +1764,22 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+    <row r="8" spans="1:25" ht="13.95" customHeight="1">
+      <c r="A8" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="54" t="s">
+      <c r="B8" s="77"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="56"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="78"/>
       <c r="J8" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1780,20 +1797,20 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+    <row r="9" spans="1:25" ht="13.95" customHeight="1" thickBot="1">
+      <c r="A9" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="42" t="s">
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="44"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
       <c r="J9" s="29" t="s">
         <v>23</v>
       </c>
@@ -1813,18 +1830,18 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:25" ht="13.8" thickBot="1">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="66"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
       <c r="J10" s="8"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1842,7 +1859,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="14.4" thickTop="1" thickBot="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1869,31 +1886,31 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
-      <c r="A12" s="67" t="s">
+    <row r="12" spans="1:25" ht="13.2">
+      <c r="A12" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="69" t="s">
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="74" t="s">
+      <c r="H12" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="69" t="s">
+      <c r="I12" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="62" t="s">
+      <c r="J12" s="47" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="1"/>
@@ -1912,10 +1929,10 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A13" s="68"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
+    <row r="13" spans="1:25" ht="13.8" thickBot="1">
+      <c r="A13" s="56"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="9" t="s">
         <v>4</v>
       </c>
@@ -1923,12 +1940,12 @@
         <v>5</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="63"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="48"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1945,25 +1962,25 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:25" ht="13.2">
       <c r="A14" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="20"/>
       <c r="G14" s="13"/>
       <c r="H14" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="1"/>
@@ -1982,25 +1999,25 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:25" ht="13.2">
       <c r="A15" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="20"/>
       <c r="G15" s="13"/>
       <c r="H15" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="1"/>
@@ -2019,25 +2036,25 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:25" ht="13.2">
       <c r="A16" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="20"/>
       <c r="G16" s="13"/>
       <c r="H16" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="1"/>
@@ -2056,25 +2073,25 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:25" ht="13.2">
       <c r="A17" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="20"/>
       <c r="G17" s="13"/>
       <c r="H17" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="1"/>
@@ -2093,7 +2110,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" s="38" customFormat="1" ht="19.8" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:25" s="38" customFormat="1" ht="13.2">
       <c r="A18" s="34"/>
       <c r="B18" s="35"/>
       <c r="C18" s="13"/>
@@ -2120,25 +2137,25 @@
       <c r="X18" s="37"/>
       <c r="Y18" s="37"/>
     </row>
-    <row r="19" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:25" ht="19.2" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="20"/>
       <c r="G19" s="13"/>
       <c r="H19" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="1"/>
@@ -2157,25 +2174,25 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:25" ht="19.2" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="20"/>
       <c r="G20" s="13"/>
       <c r="H20" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="1"/>
@@ -2194,25 +2211,25 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:25" ht="19.2" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="20"/>
       <c r="G21" s="13"/>
       <c r="H21" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="1"/>
@@ -2231,25 +2248,25 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:25" ht="19.2" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="20"/>
       <c r="G22" s="13"/>
       <c r="H22" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="1"/>
@@ -2268,25 +2285,25 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:25" ht="19.2" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="20"/>
       <c r="E23" s="22"/>
       <c r="F23" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J23" s="13"/>
       <c r="K23" s="1"/>
@@ -2305,25 +2322,25 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:25" ht="19.2" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="20"/>
       <c r="G24" s="13"/>
       <c r="H24" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="1"/>
@@ -2342,25 +2359,25 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:25" ht="19.2" customHeight="1">
       <c r="A25" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="20"/>
       <c r="E25" s="22"/>
       <c r="F25" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="1"/>
@@ -2379,25 +2396,25 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:25" ht="19.2" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="20"/>
       <c r="E26" s="23"/>
       <c r="F26" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J26" s="15"/>
       <c r="K26" s="1"/>
@@ -2416,25 +2433,25 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:25" ht="19.2" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="21"/>
       <c r="G27" s="15"/>
       <c r="H27" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J27" s="15"/>
       <c r="K27" s="1"/>
@@ -2453,25 +2470,25 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:25" ht="19.2" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="20"/>
       <c r="E28" s="23"/>
       <c r="F28" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J28" s="15"/>
       <c r="K28" s="1"/>
@@ -2490,25 +2507,25 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:25" ht="19.2" customHeight="1">
       <c r="A29" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="20"/>
       <c r="G29" s="15"/>
       <c r="H29" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J29" s="15"/>
       <c r="K29" s="1"/>
@@ -2527,7 +2544,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:25" ht="19.2" customHeight="1">
       <c r="A30" s="39"/>
       <c r="B30" s="40"/>
       <c r="C30" s="15"/>
@@ -2554,25 +2571,25 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:25" ht="19.2" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="21"/>
       <c r="E31" s="23"/>
       <c r="F31" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="1"/>
@@ -2591,25 +2608,25 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:25" ht="19.2" customHeight="1">
       <c r="A32" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="21"/>
       <c r="G32" s="15"/>
       <c r="H32" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J32" s="15"/>
       <c r="K32" s="1"/>
@@ -2628,25 +2645,25 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:25" ht="19.2" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="21"/>
       <c r="E33" s="23"/>
       <c r="F33" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J33" s="15"/>
       <c r="K33" s="1"/>
@@ -2665,25 +2682,25 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:25" ht="19.2" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="21"/>
       <c r="E34" s="23"/>
       <c r="F34" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J34" s="15"/>
       <c r="K34" s="1"/>
@@ -2702,25 +2719,25 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:25" ht="19.2" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="21"/>
       <c r="E35" s="23"/>
       <c r="F35" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J35" s="15"/>
       <c r="K35" s="1"/>
@@ -2739,25 +2756,25 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:25" ht="19.2" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="21"/>
       <c r="G36" s="15"/>
       <c r="H36" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J36" s="15"/>
       <c r="K36" s="1"/>
@@ -2776,22 +2793,22 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:25" ht="19.2" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="21"/>
       <c r="G37" s="16"/>
       <c r="H37" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>24</v>
@@ -2813,18 +2830,26 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:25" ht="19.2" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
-      <c r="B38" s="33"/>
+      <c r="B38" s="33" t="s">
+        <v>59</v>
+      </c>
       <c r="C38" s="18"/>
       <c r="D38" s="25"/>
       <c r="E38" s="26"/>
-      <c r="F38" s="25"/>
+      <c r="F38" s="79" t="s">
+        <v>26</v>
+      </c>
       <c r="G38" s="18"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="8"/>
+      <c r="H38" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J38" s="18"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2842,16 +2867,26 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A39" s="17"/>
-      <c r="B39" s="33"/>
+    <row r="39" spans="1:25" ht="19.2" customHeight="1">
+      <c r="A39" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>61</v>
+      </c>
       <c r="C39" s="18"/>
       <c r="D39" s="25"/>
       <c r="E39" s="26"/>
-      <c r="F39" s="25"/>
+      <c r="F39" s="79" t="s">
+        <v>42</v>
+      </c>
       <c r="G39" s="18"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="8"/>
+      <c r="H39" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J39" s="18"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2869,16 +2904,26 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A40" s="17"/>
-      <c r="B40" s="33"/>
+    <row r="40" spans="1:25" ht="19.2" customHeight="1">
+      <c r="A40" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>60</v>
+      </c>
       <c r="C40" s="18"/>
       <c r="D40" s="25"/>
       <c r="E40" s="26"/>
-      <c r="F40" s="25"/>
+      <c r="F40" s="79" t="s">
+        <v>42</v>
+      </c>
       <c r="G40" s="18"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="8"/>
+      <c r="H40" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J40" s="18"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2896,16 +2941,26 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A41" s="17"/>
-      <c r="B41" s="33"/>
+    <row r="41" spans="1:25" ht="19.2" customHeight="1">
+      <c r="A41" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>62</v>
+      </c>
       <c r="C41" s="18"/>
       <c r="D41" s="25"/>
       <c r="E41" s="26"/>
-      <c r="F41" s="25"/>
+      <c r="F41" s="79" t="s">
+        <v>26</v>
+      </c>
       <c r="G41" s="18"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="8"/>
+      <c r="H41" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J41" s="18"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2923,16 +2978,26 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A42" s="17"/>
-      <c r="B42" s="33"/>
+    <row r="42" spans="1:25" ht="19.2" customHeight="1">
+      <c r="A42" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>63</v>
+      </c>
       <c r="C42" s="18"/>
       <c r="D42" s="25"/>
       <c r="E42" s="26"/>
-      <c r="F42" s="25"/>
+      <c r="F42" s="79" t="s">
+        <v>26</v>
+      </c>
       <c r="G42" s="18"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="8"/>
+      <c r="H42" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J42" s="18"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2950,16 +3015,26 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A43" s="17"/>
-      <c r="B43" s="33"/>
+    <row r="43" spans="1:25" ht="19.2" customHeight="1">
+      <c r="A43" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>64</v>
+      </c>
       <c r="C43" s="18"/>
       <c r="D43" s="25"/>
       <c r="E43" s="26"/>
-      <c r="F43" s="25"/>
+      <c r="F43" s="79" t="s">
+        <v>26</v>
+      </c>
       <c r="G43" s="18"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="8"/>
+      <c r="H43" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="J43" s="18"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2977,7 +3052,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:25" ht="19.2" customHeight="1">
       <c r="A44" s="17"/>
       <c r="B44" s="33"/>
       <c r="C44" s="18"/>
@@ -3004,7 +3079,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:25" ht="19.2" customHeight="1">
       <c r="A45" s="17"/>
       <c r="B45" s="33"/>
       <c r="C45" s="18"/>
@@ -3031,7 +3106,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:25" ht="19.2" customHeight="1">
       <c r="A46" s="17"/>
       <c r="B46" s="33"/>
       <c r="C46" s="18"/>
@@ -3058,7 +3133,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:25" ht="19.2" customHeight="1">
       <c r="A47" s="17"/>
       <c r="B47" s="33"/>
       <c r="C47" s="18"/>
@@ -3085,7 +3160,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:25" ht="19.2" customHeight="1">
       <c r="A48" s="17"/>
       <c r="B48" s="33"/>
       <c r="C48" s="18"/>
@@ -3112,7 +3187,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:25" ht="19.2" customHeight="1">
       <c r="A49" s="17"/>
       <c r="B49" s="33"/>
       <c r="C49" s="18"/>
@@ -3139,7 +3214,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:25" ht="19.2" customHeight="1">
       <c r="A50" s="17"/>
       <c r="B50" s="33"/>
       <c r="C50" s="18"/>
@@ -3166,7 +3241,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:25" ht="19.2" customHeight="1">
       <c r="A51" s="17"/>
       <c r="B51" s="33"/>
       <c r="C51" s="18"/>
@@ -3193,7 +3268,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:25" ht="19.2" customHeight="1">
       <c r="A52" s="17"/>
       <c r="B52" s="33"/>
       <c r="C52" s="18"/>
@@ -3220,7 +3295,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:25" ht="19.2" customHeight="1">
       <c r="A53" s="17"/>
       <c r="B53" s="33"/>
       <c r="C53" s="18"/>
@@ -3247,7 +3322,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:25" ht="19.2" customHeight="1">
       <c r="A54" s="17"/>
       <c r="B54" s="33"/>
       <c r="C54" s="18"/>
@@ -3274,7 +3349,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:25" ht="19.2" customHeight="1">
       <c r="A55" s="17"/>
       <c r="B55" s="33"/>
       <c r="C55" s="18"/>
@@ -3301,7 +3376,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:25" ht="19.2" customHeight="1">
       <c r="A56" s="17"/>
       <c r="B56" s="33"/>
       <c r="C56" s="18"/>
@@ -3328,7 +3403,7 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:25" ht="19.2" customHeight="1">
       <c r="A57" s="17"/>
       <c r="B57" s="33"/>
       <c r="C57" s="18"/>
@@ -3355,7 +3430,7 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:25" ht="19.2" customHeight="1">
       <c r="A58" s="17"/>
       <c r="B58" s="33"/>
       <c r="C58" s="18"/>
@@ -3382,7 +3457,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:25" ht="19.2" customHeight="1">
       <c r="A59" s="17"/>
       <c r="B59" s="33"/>
       <c r="C59" s="18"/>
@@ -3409,7 +3484,7 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:25" ht="19.2" customHeight="1">
       <c r="A60" s="17"/>
       <c r="B60" s="33"/>
       <c r="C60" s="18"/>
@@ -3436,7 +3511,7 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:25" ht="19.2" customHeight="1">
       <c r="A61" s="17"/>
       <c r="B61" s="33"/>
       <c r="C61" s="18"/>
@@ -3463,7 +3538,7 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:25" ht="19.2" customHeight="1">
       <c r="A62" s="17"/>
       <c r="B62" s="33"/>
       <c r="C62" s="18"/>
@@ -3490,7 +3565,7 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:25" ht="19.2" customHeight="1">
       <c r="A63" s="17"/>
       <c r="B63" s="33"/>
       <c r="C63" s="18"/>
@@ -3517,7 +3592,7 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:25" ht="19.2" customHeight="1">
       <c r="A64" s="17"/>
       <c r="B64" s="33"/>
       <c r="C64" s="18"/>
@@ -3544,7 +3619,7 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:25" ht="19.2" customHeight="1">
       <c r="A65" s="17"/>
       <c r="B65" s="33"/>
       <c r="C65" s="18"/>
@@ -3571,7 +3646,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" ht="13.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3598,7 +3673,7 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" ht="13.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3625,7 +3700,7 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" ht="13.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3652,7 +3727,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" ht="13.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3679,7 +3754,7 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" ht="13.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3706,7 +3781,7 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" ht="13.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3733,7 +3808,7 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" ht="13.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3760,7 +3835,7 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" ht="13.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3787,7 +3862,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" ht="13.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3814,7 +3889,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" ht="13.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3841,7 +3916,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" ht="13.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3868,7 +3943,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" ht="13.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3895,7 +3970,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" ht="13.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3922,7 +3997,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" ht="13.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3949,7 +4024,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" ht="13.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3976,7 +4051,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" ht="13.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4003,7 +4078,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" ht="13.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4030,7 +4105,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" ht="13.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4057,7 +4132,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" ht="13.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4084,7 +4159,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" ht="13.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4111,7 +4186,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" ht="13.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4138,7 +4213,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" ht="13.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4165,7 +4240,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" ht="13.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4192,7 +4267,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" ht="13.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4219,7 +4294,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" ht="13.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4246,7 +4321,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" ht="13.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4273,7 +4348,7 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" ht="13.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4300,7 +4375,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" ht="13.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4327,7 +4402,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" ht="13.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4354,7 +4429,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" ht="13.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4381,7 +4456,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" ht="13.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4408,7 +4483,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" ht="13.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4435,7 +4510,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" ht="13.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4462,7 +4537,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" ht="13.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4489,7 +4564,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" ht="13.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4516,7 +4591,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" ht="13.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4543,7 +4618,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" ht="13.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4570,7 +4645,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" ht="13.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4597,7 +4672,7 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" ht="13.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4624,7 +4699,7 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" ht="13.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4651,7 +4726,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" ht="13.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4678,7 +4753,7 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" ht="13.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4705,7 +4780,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" ht="13.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4732,7 +4807,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" ht="13.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4759,7 +4834,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" ht="13.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4786,7 +4861,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" ht="13.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4813,7 +4888,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" ht="13.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4840,7 +4915,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" ht="13.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4867,7 +4942,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" ht="13.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4894,7 +4969,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" ht="13.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4921,7 +4996,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" ht="13.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4948,7 +5023,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" ht="13.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4975,7 +5050,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" ht="13.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -5002,7 +5077,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" ht="13.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -5029,7 +5104,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" ht="13.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -5056,7 +5131,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" ht="13.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -5083,7 +5158,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" ht="13.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -5110,7 +5185,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" ht="13.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -5137,7 +5212,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" ht="13.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -5164,7 +5239,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" ht="13.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -5191,7 +5266,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" ht="13.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -5218,7 +5293,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" ht="13.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -5245,7 +5320,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" ht="13.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -5272,7 +5347,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" ht="13.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -5299,7 +5374,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" ht="13.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -5326,7 +5401,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" ht="13.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -5353,7 +5428,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" ht="13.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -5380,7 +5455,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" ht="13.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -5407,7 +5482,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" ht="13.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -5434,7 +5509,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" ht="13.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -5461,7 +5536,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" ht="13.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -5488,7 +5563,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" ht="13.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -5515,7 +5590,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" ht="13.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -5542,7 +5617,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" ht="13.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -5569,7 +5644,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" ht="13.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -5596,7 +5671,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" ht="13.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -5623,7 +5698,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" ht="13.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -5650,7 +5725,7 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" ht="13.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -5677,7 +5752,7 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" ht="13.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -5704,7 +5779,7 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" ht="13.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -5731,7 +5806,7 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" ht="13.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -5758,7 +5833,7 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" ht="13.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -5785,7 +5860,7 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" ht="13.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -5812,7 +5887,7 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" ht="13.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -5839,7 +5914,7 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" ht="13.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -5866,7 +5941,7 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" ht="13.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -5893,7 +5968,7 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" ht="13.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -5920,7 +5995,7 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" ht="13.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -5947,7 +6022,7 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" ht="13.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -5974,7 +6049,7 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" ht="13.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6001,7 +6076,7 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" ht="13.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6028,7 +6103,7 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" ht="13.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6055,7 +6130,7 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" ht="13.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6082,7 +6157,7 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" ht="13.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6109,7 +6184,7 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" ht="13.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6136,7 +6211,7 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" ht="13.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6163,7 +6238,7 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" ht="13.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6190,7 +6265,7 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" ht="13.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6217,7 +6292,7 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" ht="13.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -6244,7 +6319,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" ht="13.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -6271,7 +6346,7 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" ht="13.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -6298,7 +6373,7 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" ht="13.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6325,7 +6400,7 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" ht="13.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6352,7 +6427,7 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" ht="13.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6379,7 +6454,7 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" ht="13.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6406,7 +6481,7 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" ht="13.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6433,7 +6508,7 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" ht="13.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6460,7 +6535,7 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" ht="13.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6487,7 +6562,7 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" ht="13.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6514,7 +6589,7 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" ht="13.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6541,7 +6616,7 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" ht="13.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6568,7 +6643,7 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" ht="13.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6595,7 +6670,7 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" ht="13.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6622,7 +6697,7 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" ht="13.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -6649,7 +6724,7 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" ht="13.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -6676,7 +6751,7 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" ht="13.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -6703,7 +6778,7 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" ht="13.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -6730,7 +6805,7 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" ht="13.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -6757,7 +6832,7 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" ht="13.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -6784,7 +6859,7 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" ht="13.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -6811,7 +6886,7 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" ht="13.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -6838,7 +6913,7 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" ht="13.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -6865,7 +6940,7 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
     </row>
-    <row r="188" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" ht="13.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -6892,7 +6967,7 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" ht="13.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -6919,7 +6994,7 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" ht="13.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -6946,7 +7021,7 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" ht="13.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -6973,7 +7048,7 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" ht="13.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -7000,7 +7075,7 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" ht="13.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -7027,7 +7102,7 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" ht="13.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -7054,7 +7129,7 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" ht="13.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -7081,7 +7156,7 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" ht="13.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -7108,7 +7183,7 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" ht="13.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -7135,7 +7210,7 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
     </row>
-    <row r="198" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" ht="13.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -7162,7 +7237,7 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" ht="13.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -7189,7 +7264,7 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" ht="13.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -7216,7 +7291,7 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" ht="13.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -7243,7 +7318,7 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" ht="13.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -7270,7 +7345,7 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
     </row>
-    <row r="203" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" ht="13.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -7297,7 +7372,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" ht="13.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -7324,7 +7399,7 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" ht="13.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -7351,7 +7426,7 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" ht="13.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -7378,7 +7453,7 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" ht="13.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -7405,7 +7480,7 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" ht="13.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -7432,7 +7507,7 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" ht="13.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -7459,7 +7534,7 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" ht="13.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -7486,7 +7561,7 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" ht="13.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -7513,7 +7588,7 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" ht="13.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -7540,7 +7615,7 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" ht="13.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -7567,7 +7642,7 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" ht="13.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -7594,7 +7669,7 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" ht="13.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -7621,7 +7696,7 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" ht="13.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -7648,7 +7723,7 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" ht="13.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -7675,7 +7750,7 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
     </row>
-    <row r="218" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" ht="13.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -7702,7 +7777,7 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" ht="13.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -7729,7 +7804,7 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
     </row>
-    <row r="220" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" ht="13.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -7756,7 +7831,7 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
     </row>
-    <row r="221" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25" ht="13.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -7783,7 +7858,7 @@
       <c r="X221" s="1"/>
       <c r="Y221" s="1"/>
     </row>
-    <row r="222" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25" ht="13.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -7810,7 +7885,7 @@
       <c r="X222" s="1"/>
       <c r="Y222" s="1"/>
     </row>
-    <row r="223" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:25" ht="13.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -7837,7 +7912,7 @@
       <c r="X223" s="1"/>
       <c r="Y223" s="1"/>
     </row>
-    <row r="224" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:25" ht="13.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -7864,7 +7939,7 @@
       <c r="X224" s="1"/>
       <c r="Y224" s="1"/>
     </row>
-    <row r="225" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:25" ht="13.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -7891,7 +7966,7 @@
       <c r="X225" s="1"/>
       <c r="Y225" s="1"/>
     </row>
-    <row r="226" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:25" ht="13.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -7918,7 +7993,7 @@
       <c r="X226" s="1"/>
       <c r="Y226" s="1"/>
     </row>
-    <row r="227" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:25" ht="13.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -7945,7 +8020,7 @@
       <c r="X227" s="1"/>
       <c r="Y227" s="1"/>
     </row>
-    <row r="228" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:25" ht="13.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -7972,7 +8047,7 @@
       <c r="X228" s="1"/>
       <c r="Y228" s="1"/>
     </row>
-    <row r="229" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:25" ht="13.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -7999,7 +8074,7 @@
       <c r="X229" s="1"/>
       <c r="Y229" s="1"/>
     </row>
-    <row r="230" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:25" ht="13.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -8026,7 +8101,7 @@
       <c r="X230" s="1"/>
       <c r="Y230" s="1"/>
     </row>
-    <row r="231" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:25" ht="13.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -8053,7 +8128,7 @@
       <c r="X231" s="1"/>
       <c r="Y231" s="1"/>
     </row>
-    <row r="232" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:25" ht="13.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -8080,7 +8155,7 @@
       <c r="X232" s="1"/>
       <c r="Y232" s="1"/>
     </row>
-    <row r="233" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:25" ht="13.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -8107,7 +8182,7 @@
       <c r="X233" s="1"/>
       <c r="Y233" s="1"/>
     </row>
-    <row r="234" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:25" ht="13.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -8134,7 +8209,7 @@
       <c r="X234" s="1"/>
       <c r="Y234" s="1"/>
     </row>
-    <row r="235" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:25" ht="13.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -8161,7 +8236,7 @@
       <c r="X235" s="1"/>
       <c r="Y235" s="1"/>
     </row>
-    <row r="236" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:25" ht="13.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -8188,7 +8263,7 @@
       <c r="X236" s="1"/>
       <c r="Y236" s="1"/>
     </row>
-    <row r="237" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:25" ht="13.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -8215,7 +8290,7 @@
       <c r="X237" s="1"/>
       <c r="Y237" s="1"/>
     </row>
-    <row r="238" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:25" ht="13.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -8242,7 +8317,7 @@
       <c r="X238" s="1"/>
       <c r="Y238" s="1"/>
     </row>
-    <row r="239" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:25" ht="13.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -8269,7 +8344,7 @@
       <c r="X239" s="1"/>
       <c r="Y239" s="1"/>
     </row>
-    <row r="240" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:25" ht="13.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -8296,7 +8371,7 @@
       <c r="X240" s="1"/>
       <c r="Y240" s="1"/>
     </row>
-    <row r="241" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:25" ht="13.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -8323,7 +8398,7 @@
       <c r="X241" s="1"/>
       <c r="Y241" s="1"/>
     </row>
-    <row r="242" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:25" ht="13.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -8350,7 +8425,7 @@
       <c r="X242" s="1"/>
       <c r="Y242" s="1"/>
     </row>
-    <row r="243" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:25" ht="13.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -8377,7 +8452,7 @@
       <c r="X243" s="1"/>
       <c r="Y243" s="1"/>
     </row>
-    <row r="244" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:25" ht="13.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -8404,7 +8479,7 @@
       <c r="X244" s="1"/>
       <c r="Y244" s="1"/>
     </row>
-    <row r="245" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:25" ht="13.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -8431,7 +8506,7 @@
       <c r="X245" s="1"/>
       <c r="Y245" s="1"/>
     </row>
-    <row r="246" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:25" ht="13.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -8458,7 +8533,7 @@
       <c r="X246" s="1"/>
       <c r="Y246" s="1"/>
     </row>
-    <row r="247" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:25" ht="13.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -8485,7 +8560,7 @@
       <c r="X247" s="1"/>
       <c r="Y247" s="1"/>
     </row>
-    <row r="248" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:25" ht="13.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -8512,7 +8587,7 @@
       <c r="X248" s="1"/>
       <c r="Y248" s="1"/>
     </row>
-    <row r="249" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:25" ht="13.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -8539,7 +8614,7 @@
       <c r="X249" s="1"/>
       <c r="Y249" s="1"/>
     </row>
-    <row r="250" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:25" ht="13.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -8566,7 +8641,7 @@
       <c r="X250" s="1"/>
       <c r="Y250" s="1"/>
     </row>
-    <row r="251" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:25" ht="13.2">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -8593,7 +8668,7 @@
       <c r="X251" s="1"/>
       <c r="Y251" s="1"/>
     </row>
-    <row r="252" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:25" ht="13.2">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -8620,7 +8695,7 @@
       <c r="X252" s="1"/>
       <c r="Y252" s="1"/>
     </row>
-    <row r="253" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:25" ht="13.2">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -8647,7 +8722,7 @@
       <c r="X253" s="1"/>
       <c r="Y253" s="1"/>
     </row>
-    <row r="254" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:25" ht="13.2">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -8674,7 +8749,7 @@
       <c r="X254" s="1"/>
       <c r="Y254" s="1"/>
     </row>
-    <row r="255" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:25" ht="13.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -8701,7 +8776,7 @@
       <c r="X255" s="1"/>
       <c r="Y255" s="1"/>
     </row>
-    <row r="256" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:25" ht="13.2">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -8728,7 +8803,7 @@
       <c r="X256" s="1"/>
       <c r="Y256" s="1"/>
     </row>
-    <row r="257" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:25" ht="13.2">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -8755,7 +8830,7 @@
       <c r="X257" s="1"/>
       <c r="Y257" s="1"/>
     </row>
-    <row r="258" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:25" ht="13.2">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -8782,7 +8857,7 @@
       <c r="X258" s="1"/>
       <c r="Y258" s="1"/>
     </row>
-    <row r="259" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:25" ht="13.2">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -8809,7 +8884,7 @@
       <c r="X259" s="1"/>
       <c r="Y259" s="1"/>
     </row>
-    <row r="260" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:25" ht="13.2">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -8836,7 +8911,7 @@
       <c r="X260" s="1"/>
       <c r="Y260" s="1"/>
     </row>
-    <row r="261" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:25" ht="13.2">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -8863,7 +8938,7 @@
       <c r="X261" s="1"/>
       <c r="Y261" s="1"/>
     </row>
-    <row r="262" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:25" ht="13.2">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -8890,7 +8965,7 @@
       <c r="X262" s="1"/>
       <c r="Y262" s="1"/>
     </row>
-    <row r="263" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:25" ht="13.2">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -8917,7 +8992,7 @@
       <c r="X263" s="1"/>
       <c r="Y263" s="1"/>
     </row>
-    <row r="264" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:25" ht="13.2">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -8944,7 +9019,7 @@
       <c r="X264" s="1"/>
       <c r="Y264" s="1"/>
     </row>
-    <row r="265" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:25" ht="13.2">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -8971,7 +9046,7 @@
       <c r="X265" s="1"/>
       <c r="Y265" s="1"/>
     </row>
-    <row r="266" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:25" ht="13.2">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -8998,7 +9073,7 @@
       <c r="X266" s="1"/>
       <c r="Y266" s="1"/>
     </row>
-    <row r="267" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:25" ht="13.2">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -9025,7 +9100,7 @@
       <c r="X267" s="1"/>
       <c r="Y267" s="1"/>
     </row>
-    <row r="268" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:25" ht="13.2">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -9052,7 +9127,7 @@
       <c r="X268" s="1"/>
       <c r="Y268" s="1"/>
     </row>
-    <row r="269" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:25" ht="13.2">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -9079,7 +9154,7 @@
       <c r="X269" s="1"/>
       <c r="Y269" s="1"/>
     </row>
-    <row r="270" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:25" ht="13.2">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -9106,7 +9181,7 @@
       <c r="X270" s="1"/>
       <c r="Y270" s="1"/>
     </row>
-    <row r="271" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:25" ht="13.2">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -9133,7 +9208,7 @@
       <c r="X271" s="1"/>
       <c r="Y271" s="1"/>
     </row>
-    <row r="272" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:25" ht="13.2">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -9160,7 +9235,7 @@
       <c r="X272" s="1"/>
       <c r="Y272" s="1"/>
     </row>
-    <row r="273" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:25" ht="13.2">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -9187,7 +9262,7 @@
       <c r="X273" s="1"/>
       <c r="Y273" s="1"/>
     </row>
-    <row r="274" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:25" ht="13.2">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -9214,7 +9289,7 @@
       <c r="X274" s="1"/>
       <c r="Y274" s="1"/>
     </row>
-    <row r="275" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:25" ht="13.2">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -9241,7 +9316,7 @@
       <c r="X275" s="1"/>
       <c r="Y275" s="1"/>
     </row>
-    <row r="276" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:25" ht="13.2">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -9268,7 +9343,7 @@
       <c r="X276" s="1"/>
       <c r="Y276" s="1"/>
     </row>
-    <row r="277" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:25" ht="13.2">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -9295,7 +9370,7 @@
       <c r="X277" s="1"/>
       <c r="Y277" s="1"/>
     </row>
-    <row r="278" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:25" ht="13.2">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -9322,7 +9397,7 @@
       <c r="X278" s="1"/>
       <c r="Y278" s="1"/>
     </row>
-    <row r="279" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:25" ht="13.2">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -9349,7 +9424,7 @@
       <c r="X279" s="1"/>
       <c r="Y279" s="1"/>
     </row>
-    <row r="280" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:25" ht="13.2">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -9376,7 +9451,7 @@
       <c r="X280" s="1"/>
       <c r="Y280" s="1"/>
     </row>
-    <row r="281" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:25" ht="13.2">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -9403,7 +9478,7 @@
       <c r="X281" s="1"/>
       <c r="Y281" s="1"/>
     </row>
-    <row r="282" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:25" ht="13.2">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -9430,7 +9505,7 @@
       <c r="X282" s="1"/>
       <c r="Y282" s="1"/>
     </row>
-    <row r="283" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:25" ht="13.2">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -9457,7 +9532,7 @@
       <c r="X283" s="1"/>
       <c r="Y283" s="1"/>
     </row>
-    <row r="284" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:25" ht="13.2">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -9484,7 +9559,7 @@
       <c r="X284" s="1"/>
       <c r="Y284" s="1"/>
     </row>
-    <row r="285" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:25" ht="13.2">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -9511,7 +9586,7 @@
       <c r="X285" s="1"/>
       <c r="Y285" s="1"/>
     </row>
-    <row r="286" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:25" ht="13.2">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -9538,7 +9613,7 @@
       <c r="X286" s="1"/>
       <c r="Y286" s="1"/>
     </row>
-    <row r="287" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:25" ht="13.2">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -9565,7 +9640,7 @@
       <c r="X287" s="1"/>
       <c r="Y287" s="1"/>
     </row>
-    <row r="288" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:25" ht="13.2">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -9592,7 +9667,7 @@
       <c r="X288" s="1"/>
       <c r="Y288" s="1"/>
     </row>
-    <row r="289" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:25" ht="13.2">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -9619,7 +9694,7 @@
       <c r="X289" s="1"/>
       <c r="Y289" s="1"/>
     </row>
-    <row r="290" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:25" ht="13.2">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -9646,7 +9721,7 @@
       <c r="X290" s="1"/>
       <c r="Y290" s="1"/>
     </row>
-    <row r="291" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:25" ht="13.2">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -9673,7 +9748,7 @@
       <c r="X291" s="1"/>
       <c r="Y291" s="1"/>
     </row>
-    <row r="292" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:25" ht="13.2">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -9700,7 +9775,7 @@
       <c r="X292" s="1"/>
       <c r="Y292" s="1"/>
     </row>
-    <row r="293" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:25" ht="13.2">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -9727,7 +9802,7 @@
       <c r="X293" s="1"/>
       <c r="Y293" s="1"/>
     </row>
-    <row r="294" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:25" ht="13.2">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -9754,7 +9829,7 @@
       <c r="X294" s="1"/>
       <c r="Y294" s="1"/>
     </row>
-    <row r="295" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:25" ht="13.2">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -9781,7 +9856,7 @@
       <c r="X295" s="1"/>
       <c r="Y295" s="1"/>
     </row>
-    <row r="296" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:25" ht="13.2">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -9808,7 +9883,7 @@
       <c r="X296" s="1"/>
       <c r="Y296" s="1"/>
     </row>
-    <row r="297" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:25" ht="13.2">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -9835,7 +9910,7 @@
       <c r="X297" s="1"/>
       <c r="Y297" s="1"/>
     </row>
-    <row r="298" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:25" ht="13.2">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -9862,7 +9937,7 @@
       <c r="X298" s="1"/>
       <c r="Y298" s="1"/>
     </row>
-    <row r="299" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:25" ht="13.2">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -9889,7 +9964,7 @@
       <c r="X299" s="1"/>
       <c r="Y299" s="1"/>
     </row>
-    <row r="300" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:25" ht="13.2">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -9916,7 +9991,7 @@
       <c r="X300" s="1"/>
       <c r="Y300" s="1"/>
     </row>
-    <row r="301" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:25" ht="13.2">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -9943,7 +10018,7 @@
       <c r="X301" s="1"/>
       <c r="Y301" s="1"/>
     </row>
-    <row r="302" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:25" ht="13.2">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -9970,7 +10045,7 @@
       <c r="X302" s="1"/>
       <c r="Y302" s="1"/>
     </row>
-    <row r="303" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:25" ht="13.2">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -9997,7 +10072,7 @@
       <c r="X303" s="1"/>
       <c r="Y303" s="1"/>
     </row>
-    <row r="304" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:25" ht="13.2">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -10024,7 +10099,7 @@
       <c r="X304" s="1"/>
       <c r="Y304" s="1"/>
     </row>
-    <row r="305" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:25" ht="13.2">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -10051,7 +10126,7 @@
       <c r="X305" s="1"/>
       <c r="Y305" s="1"/>
     </row>
-    <row r="306" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:25" ht="13.2">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -10078,7 +10153,7 @@
       <c r="X306" s="1"/>
       <c r="Y306" s="1"/>
     </row>
-    <row r="307" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:25" ht="13.2">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -10105,7 +10180,7 @@
       <c r="X307" s="1"/>
       <c r="Y307" s="1"/>
     </row>
-    <row r="308" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:25" ht="13.2">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -10132,7 +10207,7 @@
       <c r="X308" s="1"/>
       <c r="Y308" s="1"/>
     </row>
-    <row r="309" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:25" ht="13.2">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -10159,7 +10234,7 @@
       <c r="X309" s="1"/>
       <c r="Y309" s="1"/>
     </row>
-    <row r="310" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:25" ht="13.2">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -10186,7 +10261,7 @@
       <c r="X310" s="1"/>
       <c r="Y310" s="1"/>
     </row>
-    <row r="311" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:25" ht="13.2">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -10213,7 +10288,7 @@
       <c r="X311" s="1"/>
       <c r="Y311" s="1"/>
     </row>
-    <row r="312" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:25" ht="13.2">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -10240,7 +10315,7 @@
       <c r="X312" s="1"/>
       <c r="Y312" s="1"/>
     </row>
-    <row r="313" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:25" ht="13.2">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -10267,7 +10342,7 @@
       <c r="X313" s="1"/>
       <c r="Y313" s="1"/>
     </row>
-    <row r="314" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:25" ht="13.2">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -10294,7 +10369,7 @@
       <c r="X314" s="1"/>
       <c r="Y314" s="1"/>
     </row>
-    <row r="315" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:25" ht="13.2">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -10321,7 +10396,7 @@
       <c r="X315" s="1"/>
       <c r="Y315" s="1"/>
     </row>
-    <row r="316" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:25" ht="13.2">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -10348,7 +10423,7 @@
       <c r="X316" s="1"/>
       <c r="Y316" s="1"/>
     </row>
-    <row r="317" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:25" ht="13.2">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -10375,7 +10450,7 @@
       <c r="X317" s="1"/>
       <c r="Y317" s="1"/>
     </row>
-    <row r="318" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:25" ht="13.2">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -10402,7 +10477,7 @@
       <c r="X318" s="1"/>
       <c r="Y318" s="1"/>
     </row>
-    <row r="319" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:25" ht="13.2">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -10429,7 +10504,7 @@
       <c r="X319" s="1"/>
       <c r="Y319" s="1"/>
     </row>
-    <row r="320" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:25" ht="13.2">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -10456,7 +10531,7 @@
       <c r="X320" s="1"/>
       <c r="Y320" s="1"/>
     </row>
-    <row r="321" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:25" ht="13.2">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -10483,7 +10558,7 @@
       <c r="X321" s="1"/>
       <c r="Y321" s="1"/>
     </row>
-    <row r="322" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:25" ht="13.2">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -10510,7 +10585,7 @@
       <c r="X322" s="1"/>
       <c r="Y322" s="1"/>
     </row>
-    <row r="323" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:25" ht="13.2">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -10537,7 +10612,7 @@
       <c r="X323" s="1"/>
       <c r="Y323" s="1"/>
     </row>
-    <row r="324" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:25" ht="13.2">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -10564,7 +10639,7 @@
       <c r="X324" s="1"/>
       <c r="Y324" s="1"/>
     </row>
-    <row r="325" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:25" ht="13.2">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -10591,7 +10666,7 @@
       <c r="X325" s="1"/>
       <c r="Y325" s="1"/>
     </row>
-    <row r="326" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:25" ht="13.2">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -10618,7 +10693,7 @@
       <c r="X326" s="1"/>
       <c r="Y326" s="1"/>
     </row>
-    <row r="327" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:25" ht="13.2">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -10645,7 +10720,7 @@
       <c r="X327" s="1"/>
       <c r="Y327" s="1"/>
     </row>
-    <row r="328" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:25" ht="13.2">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -10672,7 +10747,7 @@
       <c r="X328" s="1"/>
       <c r="Y328" s="1"/>
     </row>
-    <row r="329" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:25" ht="13.2">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -10699,7 +10774,7 @@
       <c r="X329" s="1"/>
       <c r="Y329" s="1"/>
     </row>
-    <row r="330" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:25" ht="13.2">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -10726,7 +10801,7 @@
       <c r="X330" s="1"/>
       <c r="Y330" s="1"/>
     </row>
-    <row r="331" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:25" ht="13.2">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -10753,7 +10828,7 @@
       <c r="X331" s="1"/>
       <c r="Y331" s="1"/>
     </row>
-    <row r="332" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:25" ht="13.2">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -10780,7 +10855,7 @@
       <c r="X332" s="1"/>
       <c r="Y332" s="1"/>
     </row>
-    <row r="333" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:25" ht="13.2">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -10807,7 +10882,7 @@
       <c r="X333" s="1"/>
       <c r="Y333" s="1"/>
     </row>
-    <row r="334" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:25" ht="13.2">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -10834,7 +10909,7 @@
       <c r="X334" s="1"/>
       <c r="Y334" s="1"/>
     </row>
-    <row r="335" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:25" ht="13.2">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -10861,7 +10936,7 @@
       <c r="X335" s="1"/>
       <c r="Y335" s="1"/>
     </row>
-    <row r="336" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:25" ht="13.2">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -10888,7 +10963,7 @@
       <c r="X336" s="1"/>
       <c r="Y336" s="1"/>
     </row>
-    <row r="337" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:25" ht="13.2">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -10915,7 +10990,7 @@
       <c r="X337" s="1"/>
       <c r="Y337" s="1"/>
     </row>
-    <row r="338" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:25" ht="13.2">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -10942,7 +11017,7 @@
       <c r="X338" s="1"/>
       <c r="Y338" s="1"/>
     </row>
-    <row r="339" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:25" ht="13.2">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -10969,7 +11044,7 @@
       <c r="X339" s="1"/>
       <c r="Y339" s="1"/>
     </row>
-    <row r="340" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:25" ht="13.2">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -10996,7 +11071,7 @@
       <c r="X340" s="1"/>
       <c r="Y340" s="1"/>
     </row>
-    <row r="341" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:25" ht="13.2">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -11023,7 +11098,7 @@
       <c r="X341" s="1"/>
       <c r="Y341" s="1"/>
     </row>
-    <row r="342" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:25" ht="13.2">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -11050,7 +11125,7 @@
       <c r="X342" s="1"/>
       <c r="Y342" s="1"/>
     </row>
-    <row r="343" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:25" ht="13.2">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -11077,7 +11152,7 @@
       <c r="X343" s="1"/>
       <c r="Y343" s="1"/>
     </row>
-    <row r="344" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:25" ht="13.2">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -11104,7 +11179,7 @@
       <c r="X344" s="1"/>
       <c r="Y344" s="1"/>
     </row>
-    <row r="345" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:25" ht="13.2">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -11131,7 +11206,7 @@
       <c r="X345" s="1"/>
       <c r="Y345" s="1"/>
     </row>
-    <row r="346" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:25" ht="13.2">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -11158,7 +11233,7 @@
       <c r="X346" s="1"/>
       <c r="Y346" s="1"/>
     </row>
-    <row r="347" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:25" ht="13.2">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -11185,7 +11260,7 @@
       <c r="X347" s="1"/>
       <c r="Y347" s="1"/>
     </row>
-    <row r="348" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:25" ht="13.2">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -11212,7 +11287,7 @@
       <c r="X348" s="1"/>
       <c r="Y348" s="1"/>
     </row>
-    <row r="349" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:25" ht="13.2">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -11239,7 +11314,7 @@
       <c r="X349" s="1"/>
       <c r="Y349" s="1"/>
     </row>
-    <row r="350" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:25" ht="13.2">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -11266,7 +11341,7 @@
       <c r="X350" s="1"/>
       <c r="Y350" s="1"/>
     </row>
-    <row r="351" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:25" ht="13.2">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -11293,7 +11368,7 @@
       <c r="X351" s="1"/>
       <c r="Y351" s="1"/>
     </row>
-    <row r="352" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:25" ht="13.2">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -11320,7 +11395,7 @@
       <c r="X352" s="1"/>
       <c r="Y352" s="1"/>
     </row>
-    <row r="353" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:25" ht="13.2">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -11347,7 +11422,7 @@
       <c r="X353" s="1"/>
       <c r="Y353" s="1"/>
     </row>
-    <row r="354" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:25" ht="13.2">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -11374,7 +11449,7 @@
       <c r="X354" s="1"/>
       <c r="Y354" s="1"/>
     </row>
-    <row r="355" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:25" ht="13.2">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -11401,7 +11476,7 @@
       <c r="X355" s="1"/>
       <c r="Y355" s="1"/>
     </row>
-    <row r="356" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:25" ht="13.2">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -11428,7 +11503,7 @@
       <c r="X356" s="1"/>
       <c r="Y356" s="1"/>
     </row>
-    <row r="357" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:25" ht="13.2">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -11455,7 +11530,7 @@
       <c r="X357" s="1"/>
       <c r="Y357" s="1"/>
     </row>
-    <row r="358" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:25" ht="13.2">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -11482,7 +11557,7 @@
       <c r="X358" s="1"/>
       <c r="Y358" s="1"/>
     </row>
-    <row r="359" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:25" ht="13.2">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -11509,7 +11584,7 @@
       <c r="X359" s="1"/>
       <c r="Y359" s="1"/>
     </row>
-    <row r="360" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:25" ht="13.2">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -11536,7 +11611,7 @@
       <c r="X360" s="1"/>
       <c r="Y360" s="1"/>
     </row>
-    <row r="361" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:25" ht="13.2">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -11563,7 +11638,7 @@
       <c r="X361" s="1"/>
       <c r="Y361" s="1"/>
     </row>
-    <row r="362" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:25" ht="13.2">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -11590,7 +11665,7 @@
       <c r="X362" s="1"/>
       <c r="Y362" s="1"/>
     </row>
-    <row r="363" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:25" ht="13.2">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -11617,7 +11692,7 @@
       <c r="X363" s="1"/>
       <c r="Y363" s="1"/>
     </row>
-    <row r="364" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:25" ht="13.2">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -11644,7 +11719,7 @@
       <c r="X364" s="1"/>
       <c r="Y364" s="1"/>
     </row>
-    <row r="365" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:25" ht="13.2">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -11671,7 +11746,7 @@
       <c r="X365" s="1"/>
       <c r="Y365" s="1"/>
     </row>
-    <row r="366" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:25" ht="13.2">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -11698,7 +11773,7 @@
       <c r="X366" s="1"/>
       <c r="Y366" s="1"/>
     </row>
-    <row r="367" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:25" ht="13.2">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -11725,7 +11800,7 @@
       <c r="X367" s="1"/>
       <c r="Y367" s="1"/>
     </row>
-    <row r="368" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:25" ht="13.2">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -11752,7 +11827,7 @@
       <c r="X368" s="1"/>
       <c r="Y368" s="1"/>
     </row>
-    <row r="369" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:25" ht="13.2">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -11779,7 +11854,7 @@
       <c r="X369" s="1"/>
       <c r="Y369" s="1"/>
     </row>
-    <row r="370" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:25" ht="13.2">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -11806,7 +11881,7 @@
       <c r="X370" s="1"/>
       <c r="Y370" s="1"/>
     </row>
-    <row r="371" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:25" ht="13.2">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -11833,7 +11908,7 @@
       <c r="X371" s="1"/>
       <c r="Y371" s="1"/>
     </row>
-    <row r="372" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:25" ht="13.2">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -11860,7 +11935,7 @@
       <c r="X372" s="1"/>
       <c r="Y372" s="1"/>
     </row>
-    <row r="373" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:25" ht="13.2">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -11887,7 +11962,7 @@
       <c r="X373" s="1"/>
       <c r="Y373" s="1"/>
     </row>
-    <row r="374" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:25" ht="13.2">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -11914,7 +11989,7 @@
       <c r="X374" s="1"/>
       <c r="Y374" s="1"/>
     </row>
-    <row r="375" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:25" ht="13.2">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -11941,7 +12016,7 @@
       <c r="X375" s="1"/>
       <c r="Y375" s="1"/>
     </row>
-    <row r="376" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:25" ht="13.2">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -11968,7 +12043,7 @@
       <c r="X376" s="1"/>
       <c r="Y376" s="1"/>
     </row>
-    <row r="377" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:25" ht="13.2">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -11995,7 +12070,7 @@
       <c r="X377" s="1"/>
       <c r="Y377" s="1"/>
     </row>
-    <row r="378" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:25" ht="13.2">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -12022,7 +12097,7 @@
       <c r="X378" s="1"/>
       <c r="Y378" s="1"/>
     </row>
-    <row r="379" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:25" ht="13.2">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -12049,7 +12124,7 @@
       <c r="X379" s="1"/>
       <c r="Y379" s="1"/>
     </row>
-    <row r="380" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:25" ht="13.2">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -12076,7 +12151,7 @@
       <c r="X380" s="1"/>
       <c r="Y380" s="1"/>
     </row>
-    <row r="381" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:25" ht="13.2">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -12103,7 +12178,7 @@
       <c r="X381" s="1"/>
       <c r="Y381" s="1"/>
     </row>
-    <row r="382" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:25" ht="13.2">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -12130,7 +12205,7 @@
       <c r="X382" s="1"/>
       <c r="Y382" s="1"/>
     </row>
-    <row r="383" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:25" ht="13.2">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -12157,7 +12232,7 @@
       <c r="X383" s="1"/>
       <c r="Y383" s="1"/>
     </row>
-    <row r="384" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:25" ht="13.2">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -12184,7 +12259,7 @@
       <c r="X384" s="1"/>
       <c r="Y384" s="1"/>
     </row>
-    <row r="385" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:25" ht="13.2">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -12211,7 +12286,7 @@
       <c r="X385" s="1"/>
       <c r="Y385" s="1"/>
     </row>
-    <row r="386" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:25" ht="13.2">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -12238,7 +12313,7 @@
       <c r="X386" s="1"/>
       <c r="Y386" s="1"/>
     </row>
-    <row r="387" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:25" ht="13.2">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -12265,7 +12340,7 @@
       <c r="X387" s="1"/>
       <c r="Y387" s="1"/>
     </row>
-    <row r="388" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:25" ht="13.2">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -12292,7 +12367,7 @@
       <c r="X388" s="1"/>
       <c r="Y388" s="1"/>
     </row>
-    <row r="389" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:25" ht="13.2">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -12319,7 +12394,7 @@
       <c r="X389" s="1"/>
       <c r="Y389" s="1"/>
     </row>
-    <row r="390" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:25" ht="13.2">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -12346,7 +12421,7 @@
       <c r="X390" s="1"/>
       <c r="Y390" s="1"/>
     </row>
-    <row r="391" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:25" ht="13.2">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -12373,7 +12448,7 @@
       <c r="X391" s="1"/>
       <c r="Y391" s="1"/>
     </row>
-    <row r="392" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:25" ht="13.2">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -12400,7 +12475,7 @@
       <c r="X392" s="1"/>
       <c r="Y392" s="1"/>
     </row>
-    <row r="393" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:25" ht="13.2">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -12427,7 +12502,7 @@
       <c r="X393" s="1"/>
       <c r="Y393" s="1"/>
     </row>
-    <row r="394" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:25" ht="13.2">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -12454,7 +12529,7 @@
       <c r="X394" s="1"/>
       <c r="Y394" s="1"/>
     </row>
-    <row r="395" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:25" ht="13.2">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -12481,7 +12556,7 @@
       <c r="X395" s="1"/>
       <c r="Y395" s="1"/>
     </row>
-    <row r="396" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:25" ht="13.2">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -12508,7 +12583,7 @@
       <c r="X396" s="1"/>
       <c r="Y396" s="1"/>
     </row>
-    <row r="397" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:25" ht="13.2">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -12535,7 +12610,7 @@
       <c r="X397" s="1"/>
       <c r="Y397" s="1"/>
     </row>
-    <row r="398" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:25" ht="13.2">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -12562,7 +12637,7 @@
       <c r="X398" s="1"/>
       <c r="Y398" s="1"/>
     </row>
-    <row r="399" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:25" ht="13.2">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -12589,7 +12664,7 @@
       <c r="X399" s="1"/>
       <c r="Y399" s="1"/>
     </row>
-    <row r="400" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:25" ht="13.2">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -12616,7 +12691,7 @@
       <c r="X400" s="1"/>
       <c r="Y400" s="1"/>
     </row>
-    <row r="401" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:25" ht="13.2">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -12643,7 +12718,7 @@
       <c r="X401" s="1"/>
       <c r="Y401" s="1"/>
     </row>
-    <row r="402" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:25" ht="13.2">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -12670,7 +12745,7 @@
       <c r="X402" s="1"/>
       <c r="Y402" s="1"/>
     </row>
-    <row r="403" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:25" ht="13.2">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -12697,7 +12772,7 @@
       <c r="X403" s="1"/>
       <c r="Y403" s="1"/>
     </row>
-    <row r="404" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:25" ht="13.2">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -12724,7 +12799,7 @@
       <c r="X404" s="1"/>
       <c r="Y404" s="1"/>
     </row>
-    <row r="405" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:25" ht="13.2">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -12751,7 +12826,7 @@
       <c r="X405" s="1"/>
       <c r="Y405" s="1"/>
     </row>
-    <row r="406" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:25" ht="13.2">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -12778,7 +12853,7 @@
       <c r="X406" s="1"/>
       <c r="Y406" s="1"/>
     </row>
-    <row r="407" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:25" ht="13.2">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -12805,7 +12880,7 @@
       <c r="X407" s="1"/>
       <c r="Y407" s="1"/>
     </row>
-    <row r="408" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:25" ht="13.2">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -12832,7 +12907,7 @@
       <c r="X408" s="1"/>
       <c r="Y408" s="1"/>
     </row>
-    <row r="409" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:25" ht="13.2">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -12859,7 +12934,7 @@
       <c r="X409" s="1"/>
       <c r="Y409" s="1"/>
     </row>
-    <row r="410" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:25" ht="13.2">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -12886,7 +12961,7 @@
       <c r="X410" s="1"/>
       <c r="Y410" s="1"/>
     </row>
-    <row r="411" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:25" ht="13.2">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -12913,7 +12988,7 @@
       <c r="X411" s="1"/>
       <c r="Y411" s="1"/>
     </row>
-    <row r="412" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:25" ht="13.2">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -12940,7 +13015,7 @@
       <c r="X412" s="1"/>
       <c r="Y412" s="1"/>
     </row>
-    <row r="413" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:25" ht="13.2">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -12967,7 +13042,7 @@
       <c r="X413" s="1"/>
       <c r="Y413" s="1"/>
     </row>
-    <row r="414" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:25" ht="13.2">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -12994,7 +13069,7 @@
       <c r="X414" s="1"/>
       <c r="Y414" s="1"/>
     </row>
-    <row r="415" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:25" ht="13.2">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -13021,7 +13096,7 @@
       <c r="X415" s="1"/>
       <c r="Y415" s="1"/>
     </row>
-    <row r="416" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:25" ht="13.2">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -13048,7 +13123,7 @@
       <c r="X416" s="1"/>
       <c r="Y416" s="1"/>
     </row>
-    <row r="417" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:25" ht="13.2">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -13075,7 +13150,7 @@
       <c r="X417" s="1"/>
       <c r="Y417" s="1"/>
     </row>
-    <row r="418" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:25" ht="13.2">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -13102,7 +13177,7 @@
       <c r="X418" s="1"/>
       <c r="Y418" s="1"/>
     </row>
-    <row r="419" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:25" ht="13.2">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -13129,7 +13204,7 @@
       <c r="X419" s="1"/>
       <c r="Y419" s="1"/>
     </row>
-    <row r="420" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:25" ht="13.2">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -13156,7 +13231,7 @@
       <c r="X420" s="1"/>
       <c r="Y420" s="1"/>
     </row>
-    <row r="421" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:25" ht="13.2">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -13183,7 +13258,7 @@
       <c r="X421" s="1"/>
       <c r="Y421" s="1"/>
     </row>
-    <row r="422" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:25" ht="13.2">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -13210,7 +13285,7 @@
       <c r="X422" s="1"/>
       <c r="Y422" s="1"/>
     </row>
-    <row r="423" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:25" ht="13.2">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -13237,7 +13312,7 @@
       <c r="X423" s="1"/>
       <c r="Y423" s="1"/>
     </row>
-    <row r="424" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:25" ht="13.2">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -13264,7 +13339,7 @@
       <c r="X424" s="1"/>
       <c r="Y424" s="1"/>
     </row>
-    <row r="425" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:25" ht="13.2">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -13291,7 +13366,7 @@
       <c r="X425" s="1"/>
       <c r="Y425" s="1"/>
     </row>
-    <row r="426" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:25" ht="13.2">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -13318,7 +13393,7 @@
       <c r="X426" s="1"/>
       <c r="Y426" s="1"/>
     </row>
-    <row r="427" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:25" ht="13.2">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -13345,7 +13420,7 @@
       <c r="X427" s="1"/>
       <c r="Y427" s="1"/>
     </row>
-    <row r="428" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:25" ht="13.2">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -13372,7 +13447,7 @@
       <c r="X428" s="1"/>
       <c r="Y428" s="1"/>
     </row>
-    <row r="429" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:25" ht="13.2">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -13399,7 +13474,7 @@
       <c r="X429" s="1"/>
       <c r="Y429" s="1"/>
     </row>
-    <row r="430" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:25" ht="13.2">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -13426,7 +13501,7 @@
       <c r="X430" s="1"/>
       <c r="Y430" s="1"/>
     </row>
-    <row r="431" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:25" ht="13.2">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -13453,7 +13528,7 @@
       <c r="X431" s="1"/>
       <c r="Y431" s="1"/>
     </row>
-    <row r="432" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:25" ht="13.2">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -13480,7 +13555,7 @@
       <c r="X432" s="1"/>
       <c r="Y432" s="1"/>
     </row>
-    <row r="433" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:25" ht="13.2">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -13507,7 +13582,7 @@
       <c r="X433" s="1"/>
       <c r="Y433" s="1"/>
     </row>
-    <row r="434" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:25" ht="13.2">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -13534,7 +13609,7 @@
       <c r="X434" s="1"/>
       <c r="Y434" s="1"/>
     </row>
-    <row r="435" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:25" ht="13.2">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -13561,7 +13636,7 @@
       <c r="X435" s="1"/>
       <c r="Y435" s="1"/>
     </row>
-    <row r="436" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:25" ht="13.2">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -13588,7 +13663,7 @@
       <c r="X436" s="1"/>
       <c r="Y436" s="1"/>
     </row>
-    <row r="437" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:25" ht="13.2">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -13615,7 +13690,7 @@
       <c r="X437" s="1"/>
       <c r="Y437" s="1"/>
     </row>
-    <row r="438" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:25" ht="13.2">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -13642,7 +13717,7 @@
       <c r="X438" s="1"/>
       <c r="Y438" s="1"/>
     </row>
-    <row r="439" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:25" ht="13.2">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -13669,7 +13744,7 @@
       <c r="X439" s="1"/>
       <c r="Y439" s="1"/>
     </row>
-    <row r="440" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:25" ht="13.2">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -13696,7 +13771,7 @@
       <c r="X440" s="1"/>
       <c r="Y440" s="1"/>
     </row>
-    <row r="441" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:25" ht="13.2">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -13723,7 +13798,7 @@
       <c r="X441" s="1"/>
       <c r="Y441" s="1"/>
     </row>
-    <row r="442" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:25" ht="13.2">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -13750,7 +13825,7 @@
       <c r="X442" s="1"/>
       <c r="Y442" s="1"/>
     </row>
-    <row r="443" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:25" ht="13.2">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -13777,7 +13852,7 @@
       <c r="X443" s="1"/>
       <c r="Y443" s="1"/>
     </row>
-    <row r="444" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:25" ht="13.2">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -13804,7 +13879,7 @@
       <c r="X444" s="1"/>
       <c r="Y444" s="1"/>
     </row>
-    <row r="445" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:25" ht="13.2">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -13831,7 +13906,7 @@
       <c r="X445" s="1"/>
       <c r="Y445" s="1"/>
     </row>
-    <row r="446" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:25" ht="13.2">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -13858,7 +13933,7 @@
       <c r="X446" s="1"/>
       <c r="Y446" s="1"/>
     </row>
-    <row r="447" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:25" ht="13.2">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -13885,7 +13960,7 @@
       <c r="X447" s="1"/>
       <c r="Y447" s="1"/>
     </row>
-    <row r="448" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:25" ht="13.2">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -13912,7 +13987,7 @@
       <c r="X448" s="1"/>
       <c r="Y448" s="1"/>
     </row>
-    <row r="449" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:25" ht="13.2">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -13939,7 +14014,7 @@
       <c r="X449" s="1"/>
       <c r="Y449" s="1"/>
     </row>
-    <row r="450" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:25" ht="13.2">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -13966,7 +14041,7 @@
       <c r="X450" s="1"/>
       <c r="Y450" s="1"/>
     </row>
-    <row r="451" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:25" ht="13.2">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -13993,7 +14068,7 @@
       <c r="X451" s="1"/>
       <c r="Y451" s="1"/>
     </row>
-    <row r="452" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:25" ht="13.2">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -14020,7 +14095,7 @@
       <c r="X452" s="1"/>
       <c r="Y452" s="1"/>
     </row>
-    <row r="453" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:25" ht="13.2">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -14047,7 +14122,7 @@
       <c r="X453" s="1"/>
       <c r="Y453" s="1"/>
     </row>
-    <row r="454" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:25" ht="13.2">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -14074,7 +14149,7 @@
       <c r="X454" s="1"/>
       <c r="Y454" s="1"/>
     </row>
-    <row r="455" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:25" ht="13.2">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -14101,7 +14176,7 @@
       <c r="X455" s="1"/>
       <c r="Y455" s="1"/>
     </row>
-    <row r="456" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:25" ht="13.2">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -14128,7 +14203,7 @@
       <c r="X456" s="1"/>
       <c r="Y456" s="1"/>
     </row>
-    <row r="457" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:25" ht="13.2">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -14155,7 +14230,7 @@
       <c r="X457" s="1"/>
       <c r="Y457" s="1"/>
     </row>
-    <row r="458" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:25" ht="13.2">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -14182,7 +14257,7 @@
       <c r="X458" s="1"/>
       <c r="Y458" s="1"/>
     </row>
-    <row r="459" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:25" ht="13.2">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -14209,7 +14284,7 @@
       <c r="X459" s="1"/>
       <c r="Y459" s="1"/>
     </row>
-    <row r="460" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:25" ht="13.2">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -14236,7 +14311,7 @@
       <c r="X460" s="1"/>
       <c r="Y460" s="1"/>
     </row>
-    <row r="461" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:25" ht="13.2">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -14263,7 +14338,7 @@
       <c r="X461" s="1"/>
       <c r="Y461" s="1"/>
     </row>
-    <row r="462" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:25" ht="13.2">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -14290,7 +14365,7 @@
       <c r="X462" s="1"/>
       <c r="Y462" s="1"/>
     </row>
-    <row r="463" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:25" ht="13.2">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -14317,7 +14392,7 @@
       <c r="X463" s="1"/>
       <c r="Y463" s="1"/>
     </row>
-    <row r="464" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:25" ht="13.2">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -14344,7 +14419,7 @@
       <c r="X464" s="1"/>
       <c r="Y464" s="1"/>
     </row>
-    <row r="465" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:25" ht="13.2">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -14371,7 +14446,7 @@
       <c r="X465" s="1"/>
       <c r="Y465" s="1"/>
     </row>
-    <row r="466" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:25" ht="13.2">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -14398,7 +14473,7 @@
       <c r="X466" s="1"/>
       <c r="Y466" s="1"/>
     </row>
-    <row r="467" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:25" ht="13.2">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -14425,7 +14500,7 @@
       <c r="X467" s="1"/>
       <c r="Y467" s="1"/>
     </row>
-    <row r="468" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:25" ht="13.2">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -14452,7 +14527,7 @@
       <c r="X468" s="1"/>
       <c r="Y468" s="1"/>
     </row>
-    <row r="469" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:25" ht="13.2">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -14479,7 +14554,7 @@
       <c r="X469" s="1"/>
       <c r="Y469" s="1"/>
     </row>
-    <row r="470" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:25" ht="13.2">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -14506,7 +14581,7 @@
       <c r="X470" s="1"/>
       <c r="Y470" s="1"/>
     </row>
-    <row r="471" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:25" ht="13.2">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -14533,7 +14608,7 @@
       <c r="X471" s="1"/>
       <c r="Y471" s="1"/>
     </row>
-    <row r="472" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:25" ht="13.2">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -14560,7 +14635,7 @@
       <c r="X472" s="1"/>
       <c r="Y472" s="1"/>
     </row>
-    <row r="473" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:25" ht="13.2">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -14587,7 +14662,7 @@
       <c r="X473" s="1"/>
       <c r="Y473" s="1"/>
     </row>
-    <row r="474" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:25" ht="13.2">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -14614,7 +14689,7 @@
       <c r="X474" s="1"/>
       <c r="Y474" s="1"/>
     </row>
-    <row r="475" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:25" ht="13.2">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -14641,7 +14716,7 @@
       <c r="X475" s="1"/>
       <c r="Y475" s="1"/>
     </row>
-    <row r="476" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:25" ht="13.2">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -14668,7 +14743,7 @@
       <c r="X476" s="1"/>
       <c r="Y476" s="1"/>
     </row>
-    <row r="477" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:25" ht="13.2">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -14695,7 +14770,7 @@
       <c r="X477" s="1"/>
       <c r="Y477" s="1"/>
     </row>
-    <row r="478" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:25" ht="13.2">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -14722,7 +14797,7 @@
       <c r="X478" s="1"/>
       <c r="Y478" s="1"/>
     </row>
-    <row r="479" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:25" ht="13.2">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -14749,7 +14824,7 @@
       <c r="X479" s="1"/>
       <c r="Y479" s="1"/>
     </row>
-    <row r="480" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:25" ht="13.2">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -14776,7 +14851,7 @@
       <c r="X480" s="1"/>
       <c r="Y480" s="1"/>
     </row>
-    <row r="481" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:25" ht="13.2">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -14803,7 +14878,7 @@
       <c r="X481" s="1"/>
       <c r="Y481" s="1"/>
     </row>
-    <row r="482" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:25" ht="13.2">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -14830,7 +14905,7 @@
       <c r="X482" s="1"/>
       <c r="Y482" s="1"/>
     </row>
-    <row r="483" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:25" ht="13.2">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -14857,7 +14932,7 @@
       <c r="X483" s="1"/>
       <c r="Y483" s="1"/>
     </row>
-    <row r="484" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:25" ht="13.2">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -14884,7 +14959,7 @@
       <c r="X484" s="1"/>
       <c r="Y484" s="1"/>
     </row>
-    <row r="485" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:25" ht="13.2">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -14911,7 +14986,7 @@
       <c r="X485" s="1"/>
       <c r="Y485" s="1"/>
     </row>
-    <row r="486" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:25" ht="13.2">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -14938,7 +15013,7 @@
       <c r="X486" s="1"/>
       <c r="Y486" s="1"/>
     </row>
-    <row r="487" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:25" ht="13.2">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -14965,7 +15040,7 @@
       <c r="X487" s="1"/>
       <c r="Y487" s="1"/>
     </row>
-    <row r="488" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:25" ht="13.2">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -14992,7 +15067,7 @@
       <c r="X488" s="1"/>
       <c r="Y488" s="1"/>
     </row>
-    <row r="489" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:25" ht="13.2">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -15019,7 +15094,7 @@
       <c r="X489" s="1"/>
       <c r="Y489" s="1"/>
     </row>
-    <row r="490" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:25" ht="13.2">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -15046,7 +15121,7 @@
       <c r="X490" s="1"/>
       <c r="Y490" s="1"/>
     </row>
-    <row r="491" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:25" ht="13.2">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -15073,7 +15148,7 @@
       <c r="X491" s="1"/>
       <c r="Y491" s="1"/>
     </row>
-    <row r="492" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:25" ht="13.2">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -15100,7 +15175,7 @@
       <c r="X492" s="1"/>
       <c r="Y492" s="1"/>
     </row>
-    <row r="493" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:25" ht="13.2">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -15127,7 +15202,7 @@
       <c r="X493" s="1"/>
       <c r="Y493" s="1"/>
     </row>
-    <row r="494" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:25" ht="13.2">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -15154,7 +15229,7 @@
       <c r="X494" s="1"/>
       <c r="Y494" s="1"/>
     </row>
-    <row r="495" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:25" ht="13.2">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -15181,7 +15256,7 @@
       <c r="X495" s="1"/>
       <c r="Y495" s="1"/>
     </row>
-    <row r="496" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:25" ht="13.2">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -15208,7 +15283,7 @@
       <c r="X496" s="1"/>
       <c r="Y496" s="1"/>
     </row>
-    <row r="497" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:25" ht="13.2">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -15235,7 +15310,7 @@
       <c r="X497" s="1"/>
       <c r="Y497" s="1"/>
     </row>
-    <row r="498" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:25" ht="13.2">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -15262,7 +15337,7 @@
       <c r="X498" s="1"/>
       <c r="Y498" s="1"/>
     </row>
-    <row r="499" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:25" ht="13.2">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -15289,7 +15364,7 @@
       <c r="X499" s="1"/>
       <c r="Y499" s="1"/>
     </row>
-    <row r="500" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:25" ht="13.2">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -15316,7 +15391,7 @@
       <c r="X500" s="1"/>
       <c r="Y500" s="1"/>
     </row>
-    <row r="501" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:25" ht="13.2">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -15343,7 +15418,7 @@
       <c r="X501" s="1"/>
       <c r="Y501" s="1"/>
     </row>
-    <row r="502" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:25" ht="13.2">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -15370,7 +15445,7 @@
       <c r="X502" s="1"/>
       <c r="Y502" s="1"/>
     </row>
-    <row r="503" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:25" ht="13.2">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -15397,7 +15472,7 @@
       <c r="X503" s="1"/>
       <c r="Y503" s="1"/>
     </row>
-    <row r="504" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:25" ht="13.2">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -15424,7 +15499,7 @@
       <c r="X504" s="1"/>
       <c r="Y504" s="1"/>
     </row>
-    <row r="505" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:25" ht="13.2">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -15451,7 +15526,7 @@
       <c r="X505" s="1"/>
       <c r="Y505" s="1"/>
     </row>
-    <row r="506" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:25" ht="13.2">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -15478,7 +15553,7 @@
       <c r="X506" s="1"/>
       <c r="Y506" s="1"/>
     </row>
-    <row r="507" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:25" ht="13.2">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -15505,7 +15580,7 @@
       <c r="X507" s="1"/>
       <c r="Y507" s="1"/>
     </row>
-    <row r="508" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:25" ht="13.2">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -15532,7 +15607,7 @@
       <c r="X508" s="1"/>
       <c r="Y508" s="1"/>
     </row>
-    <row r="509" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:25" ht="13.2">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -15559,7 +15634,7 @@
       <c r="X509" s="1"/>
       <c r="Y509" s="1"/>
     </row>
-    <row r="510" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:25" ht="13.2">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -15586,7 +15661,7 @@
       <c r="X510" s="1"/>
       <c r="Y510" s="1"/>
     </row>
-    <row r="511" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:25" ht="13.2">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -15613,7 +15688,7 @@
       <c r="X511" s="1"/>
       <c r="Y511" s="1"/>
     </row>
-    <row r="512" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:25" ht="13.2">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -15640,7 +15715,7 @@
       <c r="X512" s="1"/>
       <c r="Y512" s="1"/>
     </row>
-    <row r="513" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:25" ht="13.2">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -15667,7 +15742,7 @@
       <c r="X513" s="1"/>
       <c r="Y513" s="1"/>
     </row>
-    <row r="514" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:25" ht="13.2">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -15694,7 +15769,7 @@
       <c r="X514" s="1"/>
       <c r="Y514" s="1"/>
     </row>
-    <row r="515" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:25" ht="13.2">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -15721,7 +15796,7 @@
       <c r="X515" s="1"/>
       <c r="Y515" s="1"/>
     </row>
-    <row r="516" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:25" ht="13.2">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -15748,7 +15823,7 @@
       <c r="X516" s="1"/>
       <c r="Y516" s="1"/>
     </row>
-    <row r="517" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:25" ht="13.2">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -15775,7 +15850,7 @@
       <c r="X517" s="1"/>
       <c r="Y517" s="1"/>
     </row>
-    <row r="518" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:25" ht="13.2">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -15802,7 +15877,7 @@
       <c r="X518" s="1"/>
       <c r="Y518" s="1"/>
     </row>
-    <row r="519" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:25" ht="13.2">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -15829,7 +15904,7 @@
       <c r="X519" s="1"/>
       <c r="Y519" s="1"/>
     </row>
-    <row r="520" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:25" ht="13.2">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -15856,7 +15931,7 @@
       <c r="X520" s="1"/>
       <c r="Y520" s="1"/>
     </row>
-    <row r="521" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:25" ht="13.2">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -15883,7 +15958,7 @@
       <c r="X521" s="1"/>
       <c r="Y521" s="1"/>
     </row>
-    <row r="522" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:25" ht="13.2">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -15910,7 +15985,7 @@
       <c r="X522" s="1"/>
       <c r="Y522" s="1"/>
     </row>
-    <row r="523" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:25" ht="13.2">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -15937,7 +16012,7 @@
       <c r="X523" s="1"/>
       <c r="Y523" s="1"/>
     </row>
-    <row r="524" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:25" ht="13.2">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -15964,7 +16039,7 @@
       <c r="X524" s="1"/>
       <c r="Y524" s="1"/>
     </row>
-    <row r="525" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:25" ht="13.2">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -15991,7 +16066,7 @@
       <c r="X525" s="1"/>
       <c r="Y525" s="1"/>
     </row>
-    <row r="526" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:25" ht="13.2">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -16018,7 +16093,7 @@
       <c r="X526" s="1"/>
       <c r="Y526" s="1"/>
     </row>
-    <row r="527" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:25" ht="13.2">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -16045,7 +16120,7 @@
       <c r="X527" s="1"/>
       <c r="Y527" s="1"/>
     </row>
-    <row r="528" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:25" ht="13.2">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -16072,7 +16147,7 @@
       <c r="X528" s="1"/>
       <c r="Y528" s="1"/>
     </row>
-    <row r="529" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:25" ht="13.2">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -16099,7 +16174,7 @@
       <c r="X529" s="1"/>
       <c r="Y529" s="1"/>
     </row>
-    <row r="530" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:25" ht="13.2">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -16126,7 +16201,7 @@
       <c r="X530" s="1"/>
       <c r="Y530" s="1"/>
     </row>
-    <row r="531" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:25" ht="13.2">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -16153,7 +16228,7 @@
       <c r="X531" s="1"/>
       <c r="Y531" s="1"/>
     </row>
-    <row r="532" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:25" ht="13.2">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -16180,7 +16255,7 @@
       <c r="X532" s="1"/>
       <c r="Y532" s="1"/>
     </row>
-    <row r="533" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:25" ht="13.2">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -16207,7 +16282,7 @@
       <c r="X533" s="1"/>
       <c r="Y533" s="1"/>
     </row>
-    <row r="534" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:25" ht="13.2">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -16234,7 +16309,7 @@
       <c r="X534" s="1"/>
       <c r="Y534" s="1"/>
     </row>
-    <row r="535" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:25" ht="13.2">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -16261,7 +16336,7 @@
       <c r="X535" s="1"/>
       <c r="Y535" s="1"/>
     </row>
-    <row r="536" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:25" ht="13.2">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -16288,7 +16363,7 @@
       <c r="X536" s="1"/>
       <c r="Y536" s="1"/>
     </row>
-    <row r="537" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:25" ht="13.2">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -16315,7 +16390,7 @@
       <c r="X537" s="1"/>
       <c r="Y537" s="1"/>
     </row>
-    <row r="538" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:25" ht="13.2">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -16342,7 +16417,7 @@
       <c r="X538" s="1"/>
       <c r="Y538" s="1"/>
     </row>
-    <row r="539" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:25" ht="13.2">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -16369,7 +16444,7 @@
       <c r="X539" s="1"/>
       <c r="Y539" s="1"/>
     </row>
-    <row r="540" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:25" ht="13.2">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -16396,7 +16471,7 @@
       <c r="X540" s="1"/>
       <c r="Y540" s="1"/>
     </row>
-    <row r="541" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:25" ht="13.2">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -16423,7 +16498,7 @@
       <c r="X541" s="1"/>
       <c r="Y541" s="1"/>
     </row>
-    <row r="542" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:25" ht="13.2">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -16450,7 +16525,7 @@
       <c r="X542" s="1"/>
       <c r="Y542" s="1"/>
     </row>
-    <row r="543" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:25" ht="13.2">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -16477,7 +16552,7 @@
       <c r="X543" s="1"/>
       <c r="Y543" s="1"/>
     </row>
-    <row r="544" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:25" ht="13.2">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -16504,7 +16579,7 @@
       <c r="X544" s="1"/>
       <c r="Y544" s="1"/>
     </row>
-    <row r="545" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:25" ht="13.2">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -16531,7 +16606,7 @@
       <c r="X545" s="1"/>
       <c r="Y545" s="1"/>
     </row>
-    <row r="546" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:25" ht="13.2">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -16558,7 +16633,7 @@
       <c r="X546" s="1"/>
       <c r="Y546" s="1"/>
     </row>
-    <row r="547" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:25" ht="13.2">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -16585,7 +16660,7 @@
       <c r="X547" s="1"/>
       <c r="Y547" s="1"/>
     </row>
-    <row r="548" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:25" ht="13.2">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -16612,7 +16687,7 @@
       <c r="X548" s="1"/>
       <c r="Y548" s="1"/>
     </row>
-    <row r="549" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:25" ht="13.2">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -16639,7 +16714,7 @@
       <c r="X549" s="1"/>
       <c r="Y549" s="1"/>
     </row>
-    <row r="550" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:25" ht="13.2">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -16666,7 +16741,7 @@
       <c r="X550" s="1"/>
       <c r="Y550" s="1"/>
     </row>
-    <row r="551" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:25" ht="13.2">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -16693,7 +16768,7 @@
       <c r="X551" s="1"/>
       <c r="Y551" s="1"/>
     </row>
-    <row r="552" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:25" ht="13.2">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -16720,7 +16795,7 @@
       <c r="X552" s="1"/>
       <c r="Y552" s="1"/>
     </row>
-    <row r="553" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:25" ht="13.2">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -16747,7 +16822,7 @@
       <c r="X553" s="1"/>
       <c r="Y553" s="1"/>
     </row>
-    <row r="554" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:25" ht="13.2">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -16774,7 +16849,7 @@
       <c r="X554" s="1"/>
       <c r="Y554" s="1"/>
     </row>
-    <row r="555" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:25" ht="13.2">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -16801,7 +16876,7 @@
       <c r="X555" s="1"/>
       <c r="Y555" s="1"/>
     </row>
-    <row r="556" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:25" ht="13.2">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -16828,7 +16903,7 @@
       <c r="X556" s="1"/>
       <c r="Y556" s="1"/>
     </row>
-    <row r="557" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:25" ht="13.2">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -16855,7 +16930,7 @@
       <c r="X557" s="1"/>
       <c r="Y557" s="1"/>
     </row>
-    <row r="558" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:25" ht="13.2">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -16882,7 +16957,7 @@
       <c r="X558" s="1"/>
       <c r="Y558" s="1"/>
     </row>
-    <row r="559" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:25" ht="13.2">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -16909,7 +16984,7 @@
       <c r="X559" s="1"/>
       <c r="Y559" s="1"/>
     </row>
-    <row r="560" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:25" ht="13.2">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -16936,7 +17011,7 @@
       <c r="X560" s="1"/>
       <c r="Y560" s="1"/>
     </row>
-    <row r="561" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:25" ht="13.2">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -16963,7 +17038,7 @@
       <c r="X561" s="1"/>
       <c r="Y561" s="1"/>
     </row>
-    <row r="562" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:25" ht="13.2">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -16990,7 +17065,7 @@
       <c r="X562" s="1"/>
       <c r="Y562" s="1"/>
     </row>
-    <row r="563" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:25" ht="13.2">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -17017,7 +17092,7 @@
       <c r="X563" s="1"/>
       <c r="Y563" s="1"/>
     </row>
-    <row r="564" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:25" ht="13.2">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -17044,7 +17119,7 @@
       <c r="X564" s="1"/>
       <c r="Y564" s="1"/>
     </row>
-    <row r="565" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:25" ht="13.2">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -17071,7 +17146,7 @@
       <c r="X565" s="1"/>
       <c r="Y565" s="1"/>
     </row>
-    <row r="566" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:25" ht="13.2">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -17098,7 +17173,7 @@
       <c r="X566" s="1"/>
       <c r="Y566" s="1"/>
     </row>
-    <row r="567" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:25" ht="13.2">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -17125,7 +17200,7 @@
       <c r="X567" s="1"/>
       <c r="Y567" s="1"/>
     </row>
-    <row r="568" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:25" ht="13.2">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -17152,7 +17227,7 @@
       <c r="X568" s="1"/>
       <c r="Y568" s="1"/>
     </row>
-    <row r="569" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:25" ht="13.2">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -17179,7 +17254,7 @@
       <c r="X569" s="1"/>
       <c r="Y569" s="1"/>
     </row>
-    <row r="570" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:25" ht="13.2">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -17206,7 +17281,7 @@
       <c r="X570" s="1"/>
       <c r="Y570" s="1"/>
     </row>
-    <row r="571" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:25" ht="13.2">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -17233,7 +17308,7 @@
       <c r="X571" s="1"/>
       <c r="Y571" s="1"/>
     </row>
-    <row r="572" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:25" ht="13.2">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -17260,7 +17335,7 @@
       <c r="X572" s="1"/>
       <c r="Y572" s="1"/>
     </row>
-    <row r="573" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:25" ht="13.2">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -17287,7 +17362,7 @@
       <c r="X573" s="1"/>
       <c r="Y573" s="1"/>
     </row>
-    <row r="574" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:25" ht="13.2">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -17314,7 +17389,7 @@
       <c r="X574" s="1"/>
       <c r="Y574" s="1"/>
     </row>
-    <row r="575" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:25" ht="13.2">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -17341,7 +17416,7 @@
       <c r="X575" s="1"/>
       <c r="Y575" s="1"/>
     </row>
-    <row r="576" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:25" ht="13.2">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -17368,7 +17443,7 @@
       <c r="X576" s="1"/>
       <c r="Y576" s="1"/>
     </row>
-    <row r="577" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:25" ht="13.2">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -17395,7 +17470,7 @@
       <c r="X577" s="1"/>
       <c r="Y577" s="1"/>
     </row>
-    <row r="578" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:25" ht="13.2">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -17422,7 +17497,7 @@
       <c r="X578" s="1"/>
       <c r="Y578" s="1"/>
     </row>
-    <row r="579" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:25" ht="13.2">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -17449,7 +17524,7 @@
       <c r="X579" s="1"/>
       <c r="Y579" s="1"/>
     </row>
-    <row r="580" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:25" ht="13.2">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -17476,7 +17551,7 @@
       <c r="X580" s="1"/>
       <c r="Y580" s="1"/>
     </row>
-    <row r="581" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:25" ht="13.2">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -17503,7 +17578,7 @@
       <c r="X581" s="1"/>
       <c r="Y581" s="1"/>
     </row>
-    <row r="582" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:25" ht="13.2">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -17530,7 +17605,7 @@
       <c r="X582" s="1"/>
       <c r="Y582" s="1"/>
     </row>
-    <row r="583" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:25" ht="13.2">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -17557,7 +17632,7 @@
       <c r="X583" s="1"/>
       <c r="Y583" s="1"/>
     </row>
-    <row r="584" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:25" ht="13.2">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -17584,7 +17659,7 @@
       <c r="X584" s="1"/>
       <c r="Y584" s="1"/>
     </row>
-    <row r="585" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:25" ht="13.2">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -17611,7 +17686,7 @@
       <c r="X585" s="1"/>
       <c r="Y585" s="1"/>
     </row>
-    <row r="586" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:25" ht="13.2">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -17638,7 +17713,7 @@
       <c r="X586" s="1"/>
       <c r="Y586" s="1"/>
     </row>
-    <row r="587" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:25" ht="13.2">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -17665,7 +17740,7 @@
       <c r="X587" s="1"/>
       <c r="Y587" s="1"/>
     </row>
-    <row r="588" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:25" ht="13.2">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -17692,7 +17767,7 @@
       <c r="X588" s="1"/>
       <c r="Y588" s="1"/>
     </row>
-    <row r="589" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:25" ht="13.2">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -17719,7 +17794,7 @@
       <c r="X589" s="1"/>
       <c r="Y589" s="1"/>
     </row>
-    <row r="590" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:25" ht="13.2">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -17746,7 +17821,7 @@
       <c r="X590" s="1"/>
       <c r="Y590" s="1"/>
     </row>
-    <row r="591" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:25" ht="13.2">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -17773,7 +17848,7 @@
       <c r="X591" s="1"/>
       <c r="Y591" s="1"/>
     </row>
-    <row r="592" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:25" ht="13.2">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -17800,7 +17875,7 @@
       <c r="X592" s="1"/>
       <c r="Y592" s="1"/>
     </row>
-    <row r="593" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:25" ht="13.2">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -17827,7 +17902,7 @@
       <c r="X593" s="1"/>
       <c r="Y593" s="1"/>
     </row>
-    <row r="594" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:25" ht="13.2">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -17854,7 +17929,7 @@
       <c r="X594" s="1"/>
       <c r="Y594" s="1"/>
     </row>
-    <row r="595" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:25" ht="13.2">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -17881,7 +17956,7 @@
       <c r="X595" s="1"/>
       <c r="Y595" s="1"/>
     </row>
-    <row r="596" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:25" ht="13.2">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -17908,7 +17983,7 @@
       <c r="X596" s="1"/>
       <c r="Y596" s="1"/>
     </row>
-    <row r="597" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:25" ht="13.2">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -17935,7 +18010,7 @@
       <c r="X597" s="1"/>
       <c r="Y597" s="1"/>
     </row>
-    <row r="598" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:25" ht="13.2">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -17962,7 +18037,7 @@
       <c r="X598" s="1"/>
       <c r="Y598" s="1"/>
     </row>
-    <row r="599" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:25" ht="13.2">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -17989,7 +18064,7 @@
       <c r="X599" s="1"/>
       <c r="Y599" s="1"/>
     </row>
-    <row r="600" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:25" ht="13.2">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -18016,7 +18091,7 @@
       <c r="X600" s="1"/>
       <c r="Y600" s="1"/>
     </row>
-    <row r="601" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:25" ht="13.2">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -18043,7 +18118,7 @@
       <c r="X601" s="1"/>
       <c r="Y601" s="1"/>
     </row>
-    <row r="602" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:25" ht="13.2">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -18070,7 +18145,7 @@
       <c r="X602" s="1"/>
       <c r="Y602" s="1"/>
     </row>
-    <row r="603" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:25" ht="13.2">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -18097,7 +18172,7 @@
       <c r="X603" s="1"/>
       <c r="Y603" s="1"/>
     </row>
-    <row r="604" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:25" ht="13.2">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -18124,7 +18199,7 @@
       <c r="X604" s="1"/>
       <c r="Y604" s="1"/>
     </row>
-    <row r="605" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:25" ht="13.2">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -18151,7 +18226,7 @@
       <c r="X605" s="1"/>
       <c r="Y605" s="1"/>
     </row>
-    <row r="606" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:25" ht="13.2">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -18178,7 +18253,7 @@
       <c r="X606" s="1"/>
       <c r="Y606" s="1"/>
     </row>
-    <row r="607" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:25" ht="13.2">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -18205,7 +18280,7 @@
       <c r="X607" s="1"/>
       <c r="Y607" s="1"/>
     </row>
-    <row r="608" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:25" ht="13.2">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -18232,7 +18307,7 @@
       <c r="X608" s="1"/>
       <c r="Y608" s="1"/>
     </row>
-    <row r="609" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:25" ht="13.2">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -18259,7 +18334,7 @@
       <c r="X609" s="1"/>
       <c r="Y609" s="1"/>
     </row>
-    <row r="610" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:25" ht="13.2">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -18286,7 +18361,7 @@
       <c r="X610" s="1"/>
       <c r="Y610" s="1"/>
     </row>
-    <row r="611" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:25" ht="13.2">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -18313,7 +18388,7 @@
       <c r="X611" s="1"/>
       <c r="Y611" s="1"/>
     </row>
-    <row r="612" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:25" ht="13.2">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -18340,7 +18415,7 @@
       <c r="X612" s="1"/>
       <c r="Y612" s="1"/>
     </row>
-    <row r="613" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:25" ht="13.2">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -18367,7 +18442,7 @@
       <c r="X613" s="1"/>
       <c r="Y613" s="1"/>
     </row>
-    <row r="614" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:25" ht="13.2">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -18394,7 +18469,7 @@
       <c r="X614" s="1"/>
       <c r="Y614" s="1"/>
     </row>
-    <row r="615" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:25" ht="13.2">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -18421,7 +18496,7 @@
       <c r="X615" s="1"/>
       <c r="Y615" s="1"/>
     </row>
-    <row r="616" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:25" ht="13.2">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -18448,7 +18523,7 @@
       <c r="X616" s="1"/>
       <c r="Y616" s="1"/>
     </row>
-    <row r="617" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:25" ht="13.2">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -18475,7 +18550,7 @@
       <c r="X617" s="1"/>
       <c r="Y617" s="1"/>
     </row>
-    <row r="618" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:25" ht="13.2">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -18502,7 +18577,7 @@
       <c r="X618" s="1"/>
       <c r="Y618" s="1"/>
     </row>
-    <row r="619" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:25" ht="13.2">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -18529,7 +18604,7 @@
       <c r="X619" s="1"/>
       <c r="Y619" s="1"/>
     </row>
-    <row r="620" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:25" ht="13.2">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -18556,7 +18631,7 @@
       <c r="X620" s="1"/>
       <c r="Y620" s="1"/>
     </row>
-    <row r="621" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:25" ht="13.2">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -18583,7 +18658,7 @@
       <c r="X621" s="1"/>
       <c r="Y621" s="1"/>
     </row>
-    <row r="622" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:25" ht="13.2">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -18610,7 +18685,7 @@
       <c r="X622" s="1"/>
       <c r="Y622" s="1"/>
     </row>
-    <row r="623" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:25" ht="13.2">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -18637,7 +18712,7 @@
       <c r="X623" s="1"/>
       <c r="Y623" s="1"/>
     </row>
-    <row r="624" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:25" ht="13.2">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -18664,7 +18739,7 @@
       <c r="X624" s="1"/>
       <c r="Y624" s="1"/>
     </row>
-    <row r="625" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:25" ht="13.2">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -18691,7 +18766,7 @@
       <c r="X625" s="1"/>
       <c r="Y625" s="1"/>
     </row>
-    <row r="626" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:25" ht="13.2">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -18718,7 +18793,7 @@
       <c r="X626" s="1"/>
       <c r="Y626" s="1"/>
     </row>
-    <row r="627" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:25" ht="13.2">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -18745,7 +18820,7 @@
       <c r="X627" s="1"/>
       <c r="Y627" s="1"/>
     </row>
-    <row r="628" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:25" ht="13.2">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -18772,7 +18847,7 @@
       <c r="X628" s="1"/>
       <c r="Y628" s="1"/>
     </row>
-    <row r="629" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:25" ht="13.2">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -18799,7 +18874,7 @@
       <c r="X629" s="1"/>
       <c r="Y629" s="1"/>
     </row>
-    <row r="630" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:25" ht="13.2">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -18826,7 +18901,7 @@
       <c r="X630" s="1"/>
       <c r="Y630" s="1"/>
     </row>
-    <row r="631" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:25" ht="13.2">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -18853,7 +18928,7 @@
       <c r="X631" s="1"/>
       <c r="Y631" s="1"/>
     </row>
-    <row r="632" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:25" ht="13.2">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -18880,7 +18955,7 @@
       <c r="X632" s="1"/>
       <c r="Y632" s="1"/>
     </row>
-    <row r="633" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:25" ht="13.2">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -18907,7 +18982,7 @@
       <c r="X633" s="1"/>
       <c r="Y633" s="1"/>
     </row>
-    <row r="634" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:25" ht="13.2">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -18934,7 +19009,7 @@
       <c r="X634" s="1"/>
       <c r="Y634" s="1"/>
     </row>
-    <row r="635" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:25" ht="13.2">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -18961,7 +19036,7 @@
       <c r="X635" s="1"/>
       <c r="Y635" s="1"/>
     </row>
-    <row r="636" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:25" ht="13.2">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -18988,7 +19063,7 @@
       <c r="X636" s="1"/>
       <c r="Y636" s="1"/>
     </row>
-    <row r="637" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:25" ht="13.2">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -19015,7 +19090,7 @@
       <c r="X637" s="1"/>
       <c r="Y637" s="1"/>
     </row>
-    <row r="638" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:25" ht="13.2">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -19042,7 +19117,7 @@
       <c r="X638" s="1"/>
       <c r="Y638" s="1"/>
     </row>
-    <row r="639" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:25" ht="13.2">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -19069,7 +19144,7 @@
       <c r="X639" s="1"/>
       <c r="Y639" s="1"/>
     </row>
-    <row r="640" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:25" ht="13.2">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -19096,7 +19171,7 @@
       <c r="X640" s="1"/>
       <c r="Y640" s="1"/>
     </row>
-    <row r="641" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:25" ht="13.2">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -19123,7 +19198,7 @@
       <c r="X641" s="1"/>
       <c r="Y641" s="1"/>
     </row>
-    <row r="642" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:25" ht="13.2">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -19150,7 +19225,7 @@
       <c r="X642" s="1"/>
       <c r="Y642" s="1"/>
     </row>
-    <row r="643" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:25" ht="13.2">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -19177,7 +19252,7 @@
       <c r="X643" s="1"/>
       <c r="Y643" s="1"/>
     </row>
-    <row r="644" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:25" ht="13.2">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -19204,7 +19279,7 @@
       <c r="X644" s="1"/>
       <c r="Y644" s="1"/>
     </row>
-    <row r="645" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:25" ht="13.2">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -19231,7 +19306,7 @@
       <c r="X645" s="1"/>
       <c r="Y645" s="1"/>
     </row>
-    <row r="646" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:25" ht="13.2">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -19258,7 +19333,7 @@
       <c r="X646" s="1"/>
       <c r="Y646" s="1"/>
     </row>
-    <row r="647" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:25" ht="13.2">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -19285,7 +19360,7 @@
       <c r="X647" s="1"/>
       <c r="Y647" s="1"/>
     </row>
-    <row r="648" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:25" ht="13.2">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -19312,7 +19387,7 @@
       <c r="X648" s="1"/>
       <c r="Y648" s="1"/>
     </row>
-    <row r="649" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:25" ht="13.2">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -19339,7 +19414,7 @@
       <c r="X649" s="1"/>
       <c r="Y649" s="1"/>
     </row>
-    <row r="650" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:25" ht="13.2">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -19366,7 +19441,7 @@
       <c r="X650" s="1"/>
       <c r="Y650" s="1"/>
     </row>
-    <row r="651" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:25" ht="13.2">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -19393,7 +19468,7 @@
       <c r="X651" s="1"/>
       <c r="Y651" s="1"/>
     </row>
-    <row r="652" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:25" ht="13.2">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -19420,7 +19495,7 @@
       <c r="X652" s="1"/>
       <c r="Y652" s="1"/>
     </row>
-    <row r="653" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:25" ht="13.2">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -19447,7 +19522,7 @@
       <c r="X653" s="1"/>
       <c r="Y653" s="1"/>
     </row>
-    <row r="654" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:25" ht="13.2">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -19474,7 +19549,7 @@
       <c r="X654" s="1"/>
       <c r="Y654" s="1"/>
     </row>
-    <row r="655" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:25" ht="13.2">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -19501,7 +19576,7 @@
       <c r="X655" s="1"/>
       <c r="Y655" s="1"/>
     </row>
-    <row r="656" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:25" ht="13.2">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -19528,7 +19603,7 @@
       <c r="X656" s="1"/>
       <c r="Y656" s="1"/>
     </row>
-    <row r="657" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:25" ht="13.2">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -19555,7 +19630,7 @@
       <c r="X657" s="1"/>
       <c r="Y657" s="1"/>
     </row>
-    <row r="658" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:25" ht="13.2">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -19582,7 +19657,7 @@
       <c r="X658" s="1"/>
       <c r="Y658" s="1"/>
     </row>
-    <row r="659" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:25" ht="13.2">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -19609,7 +19684,7 @@
       <c r="X659" s="1"/>
       <c r="Y659" s="1"/>
     </row>
-    <row r="660" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:25" ht="13.2">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -19636,7 +19711,7 @@
       <c r="X660" s="1"/>
       <c r="Y660" s="1"/>
     </row>
-    <row r="661" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:25" ht="13.2">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -19663,7 +19738,7 @@
       <c r="X661" s="1"/>
       <c r="Y661" s="1"/>
     </row>
-    <row r="662" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:25" ht="13.2">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -19690,7 +19765,7 @@
       <c r="X662" s="1"/>
       <c r="Y662" s="1"/>
     </row>
-    <row r="663" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:25" ht="13.2">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -19717,7 +19792,7 @@
       <c r="X663" s="1"/>
       <c r="Y663" s="1"/>
     </row>
-    <row r="664" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:25" ht="13.2">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -19744,7 +19819,7 @@
       <c r="X664" s="1"/>
       <c r="Y664" s="1"/>
     </row>
-    <row r="665" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:25" ht="13.2">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -19771,7 +19846,7 @@
       <c r="X665" s="1"/>
       <c r="Y665" s="1"/>
     </row>
-    <row r="666" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:25" ht="13.2">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -19798,7 +19873,7 @@
       <c r="X666" s="1"/>
       <c r="Y666" s="1"/>
     </row>
-    <row r="667" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:25" ht="13.2">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -19825,7 +19900,7 @@
       <c r="X667" s="1"/>
       <c r="Y667" s="1"/>
     </row>
-    <row r="668" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:25" ht="13.2">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -19852,7 +19927,7 @@
       <c r="X668" s="1"/>
       <c r="Y668" s="1"/>
     </row>
-    <row r="669" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:25" ht="13.2">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -19879,7 +19954,7 @@
       <c r="X669" s="1"/>
       <c r="Y669" s="1"/>
     </row>
-    <row r="670" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:25" ht="13.2">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -19906,7 +19981,7 @@
       <c r="X670" s="1"/>
       <c r="Y670" s="1"/>
     </row>
-    <row r="671" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:25" ht="13.2">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -19933,7 +20008,7 @@
       <c r="X671" s="1"/>
       <c r="Y671" s="1"/>
     </row>
-    <row r="672" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:25" ht="13.2">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -19960,7 +20035,7 @@
       <c r="X672" s="1"/>
       <c r="Y672" s="1"/>
     </row>
-    <row r="673" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:25" ht="13.2">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -19987,7 +20062,7 @@
       <c r="X673" s="1"/>
       <c r="Y673" s="1"/>
     </row>
-    <row r="674" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:25" ht="13.2">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -20014,7 +20089,7 @@
       <c r="X674" s="1"/>
       <c r="Y674" s="1"/>
     </row>
-    <row r="675" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:25" ht="13.2">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -20041,7 +20116,7 @@
       <c r="X675" s="1"/>
       <c r="Y675" s="1"/>
     </row>
-    <row r="676" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:25" ht="13.2">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -20068,7 +20143,7 @@
       <c r="X676" s="1"/>
       <c r="Y676" s="1"/>
     </row>
-    <row r="677" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:25" ht="13.2">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -20095,7 +20170,7 @@
       <c r="X677" s="1"/>
       <c r="Y677" s="1"/>
     </row>
-    <row r="678" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:25" ht="13.2">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -20122,7 +20197,7 @@
       <c r="X678" s="1"/>
       <c r="Y678" s="1"/>
     </row>
-    <row r="679" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:25" ht="13.2">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -20149,7 +20224,7 @@
       <c r="X679" s="1"/>
       <c r="Y679" s="1"/>
     </row>
-    <row r="680" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:25" ht="13.2">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -20176,7 +20251,7 @@
       <c r="X680" s="1"/>
       <c r="Y680" s="1"/>
     </row>
-    <row r="681" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:25" ht="13.2">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -20203,7 +20278,7 @@
       <c r="X681" s="1"/>
       <c r="Y681" s="1"/>
     </row>
-    <row r="682" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:25" ht="13.2">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -20230,7 +20305,7 @@
       <c r="X682" s="1"/>
       <c r="Y682" s="1"/>
     </row>
-    <row r="683" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:25" ht="13.2">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -20257,7 +20332,7 @@
       <c r="X683" s="1"/>
       <c r="Y683" s="1"/>
     </row>
-    <row r="684" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:25" ht="13.2">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -20284,7 +20359,7 @@
       <c r="X684" s="1"/>
       <c r="Y684" s="1"/>
     </row>
-    <row r="685" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:25" ht="13.2">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -20311,7 +20386,7 @@
       <c r="X685" s="1"/>
       <c r="Y685" s="1"/>
     </row>
-    <row r="686" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:25" ht="13.2">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -20338,7 +20413,7 @@
       <c r="X686" s="1"/>
       <c r="Y686" s="1"/>
     </row>
-    <row r="687" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:25" ht="13.2">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -20365,7 +20440,7 @@
       <c r="X687" s="1"/>
       <c r="Y687" s="1"/>
     </row>
-    <row r="688" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:25" ht="13.2">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -20392,7 +20467,7 @@
       <c r="X688" s="1"/>
       <c r="Y688" s="1"/>
     </row>
-    <row r="689" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:25" ht="13.2">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -20419,7 +20494,7 @@
       <c r="X689" s="1"/>
       <c r="Y689" s="1"/>
     </row>
-    <row r="690" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:25" ht="13.2">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -20446,7 +20521,7 @@
       <c r="X690" s="1"/>
       <c r="Y690" s="1"/>
     </row>
-    <row r="691" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:25" ht="13.2">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -20473,7 +20548,7 @@
       <c r="X691" s="1"/>
       <c r="Y691" s="1"/>
     </row>
-    <row r="692" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:25" ht="13.2">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -20500,7 +20575,7 @@
       <c r="X692" s="1"/>
       <c r="Y692" s="1"/>
     </row>
-    <row r="693" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:25" ht="13.2">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -20527,7 +20602,7 @@
       <c r="X693" s="1"/>
       <c r="Y693" s="1"/>
     </row>
-    <row r="694" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:25" ht="13.2">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -20554,7 +20629,7 @@
       <c r="X694" s="1"/>
       <c r="Y694" s="1"/>
     </row>
-    <row r="695" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:25" ht="13.2">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -20581,7 +20656,7 @@
       <c r="X695" s="1"/>
       <c r="Y695" s="1"/>
     </row>
-    <row r="696" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:25" ht="13.2">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -20608,7 +20683,7 @@
       <c r="X696" s="1"/>
       <c r="Y696" s="1"/>
     </row>
-    <row r="697" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:25" ht="13.2">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -20635,7 +20710,7 @@
       <c r="X697" s="1"/>
       <c r="Y697" s="1"/>
     </row>
-    <row r="698" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:25" ht="13.2">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -20662,7 +20737,7 @@
       <c r="X698" s="1"/>
       <c r="Y698" s="1"/>
     </row>
-    <row r="699" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:25" ht="13.2">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -20689,7 +20764,7 @@
       <c r="X699" s="1"/>
       <c r="Y699" s="1"/>
     </row>
-    <row r="700" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:25" ht="13.2">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -20716,7 +20791,7 @@
       <c r="X700" s="1"/>
       <c r="Y700" s="1"/>
     </row>
-    <row r="701" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:25" ht="13.2">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -20743,7 +20818,7 @@
       <c r="X701" s="1"/>
       <c r="Y701" s="1"/>
     </row>
-    <row r="702" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:25" ht="13.2">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -20770,7 +20845,7 @@
       <c r="X702" s="1"/>
       <c r="Y702" s="1"/>
     </row>
-    <row r="703" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:25" ht="13.2">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -20797,7 +20872,7 @@
       <c r="X703" s="1"/>
       <c r="Y703" s="1"/>
     </row>
-    <row r="704" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:25" ht="13.2">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -20824,7 +20899,7 @@
       <c r="X704" s="1"/>
       <c r="Y704" s="1"/>
     </row>
-    <row r="705" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:25" ht="13.2">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -20851,7 +20926,7 @@
       <c r="X705" s="1"/>
       <c r="Y705" s="1"/>
     </row>
-    <row r="706" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:25" ht="13.2">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -20878,7 +20953,7 @@
       <c r="X706" s="1"/>
       <c r="Y706" s="1"/>
     </row>
-    <row r="707" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:25" ht="13.2">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -20905,7 +20980,7 @@
       <c r="X707" s="1"/>
       <c r="Y707" s="1"/>
     </row>
-    <row r="708" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:25" ht="13.2">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -20932,7 +21007,7 @@
       <c r="X708" s="1"/>
       <c r="Y708" s="1"/>
     </row>
-    <row r="709" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:25" ht="13.2">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -20959,7 +21034,7 @@
       <c r="X709" s="1"/>
       <c r="Y709" s="1"/>
     </row>
-    <row r="710" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:25" ht="13.2">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -20986,7 +21061,7 @@
       <c r="X710" s="1"/>
       <c r="Y710" s="1"/>
     </row>
-    <row r="711" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:25" ht="13.2">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -21013,7 +21088,7 @@
       <c r="X711" s="1"/>
       <c r="Y711" s="1"/>
     </row>
-    <row r="712" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:25" ht="13.2">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -21040,7 +21115,7 @@
       <c r="X712" s="1"/>
       <c r="Y712" s="1"/>
     </row>
-    <row r="713" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:25" ht="13.2">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -21067,7 +21142,7 @@
       <c r="X713" s="1"/>
       <c r="Y713" s="1"/>
     </row>
-    <row r="714" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:25" ht="13.2">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -21094,7 +21169,7 @@
       <c r="X714" s="1"/>
       <c r="Y714" s="1"/>
     </row>
-    <row r="715" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:25" ht="13.2">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -21121,7 +21196,7 @@
       <c r="X715" s="1"/>
       <c r="Y715" s="1"/>
     </row>
-    <row r="716" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:25" ht="13.2">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -21148,7 +21223,7 @@
       <c r="X716" s="1"/>
       <c r="Y716" s="1"/>
     </row>
-    <row r="717" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:25" ht="13.2">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -21175,7 +21250,7 @@
       <c r="X717" s="1"/>
       <c r="Y717" s="1"/>
     </row>
-    <row r="718" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:25" ht="13.2">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -21202,7 +21277,7 @@
       <c r="X718" s="1"/>
       <c r="Y718" s="1"/>
     </row>
-    <row r="719" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:25" ht="13.2">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -21229,7 +21304,7 @@
       <c r="X719" s="1"/>
       <c r="Y719" s="1"/>
     </row>
-    <row r="720" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:25" ht="13.2">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -21256,7 +21331,7 @@
       <c r="X720" s="1"/>
       <c r="Y720" s="1"/>
     </row>
-    <row r="721" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:25" ht="13.2">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -21283,7 +21358,7 @@
       <c r="X721" s="1"/>
       <c r="Y721" s="1"/>
     </row>
-    <row r="722" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:25" ht="13.2">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -21310,7 +21385,7 @@
       <c r="X722" s="1"/>
       <c r="Y722" s="1"/>
     </row>
-    <row r="723" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:25" ht="13.2">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -21337,7 +21412,7 @@
       <c r="X723" s="1"/>
       <c r="Y723" s="1"/>
     </row>
-    <row r="724" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:25" ht="13.2">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -21364,7 +21439,7 @@
       <c r="X724" s="1"/>
       <c r="Y724" s="1"/>
     </row>
-    <row r="725" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:25" ht="13.2">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -21391,7 +21466,7 @@
       <c r="X725" s="1"/>
       <c r="Y725" s="1"/>
     </row>
-    <row r="726" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:25" ht="13.2">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -21418,7 +21493,7 @@
       <c r="X726" s="1"/>
       <c r="Y726" s="1"/>
     </row>
-    <row r="727" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:25" ht="13.2">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -21445,7 +21520,7 @@
       <c r="X727" s="1"/>
       <c r="Y727" s="1"/>
     </row>
-    <row r="728" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:25" ht="13.2">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -21472,7 +21547,7 @@
       <c r="X728" s="1"/>
       <c r="Y728" s="1"/>
     </row>
-    <row r="729" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:25" ht="13.2">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -21499,7 +21574,7 @@
       <c r="X729" s="1"/>
       <c r="Y729" s="1"/>
     </row>
-    <row r="730" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:25" ht="13.2">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -21526,7 +21601,7 @@
       <c r="X730" s="1"/>
       <c r="Y730" s="1"/>
     </row>
-    <row r="731" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:25" ht="13.2">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -21553,7 +21628,7 @@
       <c r="X731" s="1"/>
       <c r="Y731" s="1"/>
     </row>
-    <row r="732" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:25" ht="13.2">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -21580,7 +21655,7 @@
       <c r="X732" s="1"/>
       <c r="Y732" s="1"/>
     </row>
-    <row r="733" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:25" ht="13.2">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -21607,7 +21682,7 @@
       <c r="X733" s="1"/>
       <c r="Y733" s="1"/>
     </row>
-    <row r="734" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:25" ht="13.2">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -21634,7 +21709,7 @@
       <c r="X734" s="1"/>
       <c r="Y734" s="1"/>
     </row>
-    <row r="735" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:25" ht="13.2">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -21661,7 +21736,7 @@
       <c r="X735" s="1"/>
       <c r="Y735" s="1"/>
     </row>
-    <row r="736" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:25" ht="13.2">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -21688,7 +21763,7 @@
       <c r="X736" s="1"/>
       <c r="Y736" s="1"/>
     </row>
-    <row r="737" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:25" ht="13.2">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -21715,7 +21790,7 @@
       <c r="X737" s="1"/>
       <c r="Y737" s="1"/>
     </row>
-    <row r="738" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:25" ht="13.2">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -21742,7 +21817,7 @@
       <c r="X738" s="1"/>
       <c r="Y738" s="1"/>
     </row>
-    <row r="739" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:25" ht="13.2">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -21769,7 +21844,7 @@
       <c r="X739" s="1"/>
       <c r="Y739" s="1"/>
     </row>
-    <row r="740" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:25" ht="13.2">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -21796,7 +21871,7 @@
       <c r="X740" s="1"/>
       <c r="Y740" s="1"/>
     </row>
-    <row r="741" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:25" ht="13.2">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -21823,7 +21898,7 @@
       <c r="X741" s="1"/>
       <c r="Y741" s="1"/>
     </row>
-    <row r="742" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:25" ht="13.2">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -21850,7 +21925,7 @@
       <c r="X742" s="1"/>
       <c r="Y742" s="1"/>
     </row>
-    <row r="743" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:25" ht="13.2">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -21877,7 +21952,7 @@
       <c r="X743" s="1"/>
       <c r="Y743" s="1"/>
     </row>
-    <row r="744" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:25" ht="13.2">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -21904,7 +21979,7 @@
       <c r="X744" s="1"/>
       <c r="Y744" s="1"/>
     </row>
-    <row r="745" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:25" ht="13.2">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -21931,7 +22006,7 @@
       <c r="X745" s="1"/>
       <c r="Y745" s="1"/>
     </row>
-    <row r="746" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:25" ht="13.2">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -21958,7 +22033,7 @@
       <c r="X746" s="1"/>
       <c r="Y746" s="1"/>
     </row>
-    <row r="747" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:25" ht="13.2">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -21985,7 +22060,7 @@
       <c r="X747" s="1"/>
       <c r="Y747" s="1"/>
     </row>
-    <row r="748" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:25" ht="13.2">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -22012,7 +22087,7 @@
       <c r="X748" s="1"/>
       <c r="Y748" s="1"/>
     </row>
-    <row r="749" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:25" ht="13.2">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -22039,7 +22114,7 @@
       <c r="X749" s="1"/>
       <c r="Y749" s="1"/>
     </row>
-    <row r="750" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:25" ht="13.2">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -22066,7 +22141,7 @@
       <c r="X750" s="1"/>
       <c r="Y750" s="1"/>
     </row>
-    <row r="751" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:25" ht="13.2">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -22093,7 +22168,7 @@
       <c r="X751" s="1"/>
       <c r="Y751" s="1"/>
     </row>
-    <row r="752" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:25" ht="13.2">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -22120,7 +22195,7 @@
       <c r="X752" s="1"/>
       <c r="Y752" s="1"/>
     </row>
-    <row r="753" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:25" ht="13.2">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -22147,7 +22222,7 @@
       <c r="X753" s="1"/>
       <c r="Y753" s="1"/>
     </row>
-    <row r="754" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:25" ht="13.2">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -22174,7 +22249,7 @@
       <c r="X754" s="1"/>
       <c r="Y754" s="1"/>
     </row>
-    <row r="755" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:25" ht="13.2">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -22201,7 +22276,7 @@
       <c r="X755" s="1"/>
       <c r="Y755" s="1"/>
     </row>
-    <row r="756" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:25" ht="13.2">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -22228,7 +22303,7 @@
       <c r="X756" s="1"/>
       <c r="Y756" s="1"/>
     </row>
-    <row r="757" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:25" ht="13.2">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -22255,7 +22330,7 @@
       <c r="X757" s="1"/>
       <c r="Y757" s="1"/>
     </row>
-    <row r="758" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:25" ht="13.2">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -22282,7 +22357,7 @@
       <c r="X758" s="1"/>
       <c r="Y758" s="1"/>
     </row>
-    <row r="759" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:25" ht="13.2">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -22309,7 +22384,7 @@
       <c r="X759" s="1"/>
       <c r="Y759" s="1"/>
     </row>
-    <row r="760" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:25" ht="13.2">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -22336,7 +22411,7 @@
       <c r="X760" s="1"/>
       <c r="Y760" s="1"/>
     </row>
-    <row r="761" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:25" ht="13.2">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -22363,7 +22438,7 @@
       <c r="X761" s="1"/>
       <c r="Y761" s="1"/>
     </row>
-    <row r="762" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:25" ht="13.2">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -22390,7 +22465,7 @@
       <c r="X762" s="1"/>
       <c r="Y762" s="1"/>
     </row>
-    <row r="763" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:25" ht="13.2">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -22417,7 +22492,7 @@
       <c r="X763" s="1"/>
       <c r="Y763" s="1"/>
     </row>
-    <row r="764" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:25" ht="13.2">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -22444,7 +22519,7 @@
       <c r="X764" s="1"/>
       <c r="Y764" s="1"/>
     </row>
-    <row r="765" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:25" ht="13.2">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -22471,7 +22546,7 @@
       <c r="X765" s="1"/>
       <c r="Y765" s="1"/>
     </row>
-    <row r="766" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:25" ht="13.2">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -22498,7 +22573,7 @@
       <c r="X766" s="1"/>
       <c r="Y766" s="1"/>
     </row>
-    <row r="767" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:25" ht="13.2">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -22525,7 +22600,7 @@
       <c r="X767" s="1"/>
       <c r="Y767" s="1"/>
     </row>
-    <row r="768" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:25" ht="13.2">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -22552,7 +22627,7 @@
       <c r="X768" s="1"/>
       <c r="Y768" s="1"/>
     </row>
-    <row r="769" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:25" ht="13.2">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -22579,7 +22654,7 @@
       <c r="X769" s="1"/>
       <c r="Y769" s="1"/>
     </row>
-    <row r="770" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:25" ht="13.2">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -22606,7 +22681,7 @@
       <c r="X770" s="1"/>
       <c r="Y770" s="1"/>
     </row>
-    <row r="771" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:25" ht="13.2">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -22633,7 +22708,7 @@
       <c r="X771" s="1"/>
       <c r="Y771" s="1"/>
     </row>
-    <row r="772" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:25" ht="13.2">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -22660,7 +22735,7 @@
       <c r="X772" s="1"/>
       <c r="Y772" s="1"/>
     </row>
-    <row r="773" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:25" ht="13.2">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -22687,7 +22762,7 @@
       <c r="X773" s="1"/>
       <c r="Y773" s="1"/>
     </row>
-    <row r="774" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:25" ht="13.2">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -22714,7 +22789,7 @@
       <c r="X774" s="1"/>
       <c r="Y774" s="1"/>
     </row>
-    <row r="775" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:25" ht="13.2">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -22741,7 +22816,7 @@
       <c r="X775" s="1"/>
       <c r="Y775" s="1"/>
     </row>
-    <row r="776" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:25" ht="13.2">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -22768,7 +22843,7 @@
       <c r="X776" s="1"/>
       <c r="Y776" s="1"/>
     </row>
-    <row r="777" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:25" ht="13.2">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -22795,7 +22870,7 @@
       <c r="X777" s="1"/>
       <c r="Y777" s="1"/>
     </row>
-    <row r="778" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:25" ht="13.2">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -22822,7 +22897,7 @@
       <c r="X778" s="1"/>
       <c r="Y778" s="1"/>
     </row>
-    <row r="779" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:25" ht="13.2">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -22849,7 +22924,7 @@
       <c r="X779" s="1"/>
       <c r="Y779" s="1"/>
     </row>
-    <row r="780" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:25" ht="13.2">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -22876,7 +22951,7 @@
       <c r="X780" s="1"/>
       <c r="Y780" s="1"/>
     </row>
-    <row r="781" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:25" ht="13.2">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -22903,7 +22978,7 @@
       <c r="X781" s="1"/>
       <c r="Y781" s="1"/>
     </row>
-    <row r="782" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:25" ht="13.2">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -22930,7 +23005,7 @@
       <c r="X782" s="1"/>
       <c r="Y782" s="1"/>
     </row>
-    <row r="783" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:25" ht="13.2">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -22957,7 +23032,7 @@
       <c r="X783" s="1"/>
       <c r="Y783" s="1"/>
     </row>
-    <row r="784" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:25" ht="13.2">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -22984,7 +23059,7 @@
       <c r="X784" s="1"/>
       <c r="Y784" s="1"/>
     </row>
-    <row r="785" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:25" ht="13.2">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -23011,7 +23086,7 @@
       <c r="X785" s="1"/>
       <c r="Y785" s="1"/>
     </row>
-    <row r="786" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:25" ht="13.2">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -23038,7 +23113,7 @@
       <c r="X786" s="1"/>
       <c r="Y786" s="1"/>
     </row>
-    <row r="787" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:25" ht="13.2">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -23065,7 +23140,7 @@
       <c r="X787" s="1"/>
       <c r="Y787" s="1"/>
     </row>
-    <row r="788" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:25" ht="13.2">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -23092,7 +23167,7 @@
       <c r="X788" s="1"/>
       <c r="Y788" s="1"/>
     </row>
-    <row r="789" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:25" ht="13.2">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -23119,7 +23194,7 @@
       <c r="X789" s="1"/>
       <c r="Y789" s="1"/>
     </row>
-    <row r="790" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:25" ht="13.2">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -23146,7 +23221,7 @@
       <c r="X790" s="1"/>
       <c r="Y790" s="1"/>
     </row>
-    <row r="791" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:25" ht="13.2">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -23173,7 +23248,7 @@
       <c r="X791" s="1"/>
       <c r="Y791" s="1"/>
     </row>
-    <row r="792" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:25" ht="13.2">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -23200,7 +23275,7 @@
       <c r="X792" s="1"/>
       <c r="Y792" s="1"/>
     </row>
-    <row r="793" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:25" ht="13.2">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -23227,7 +23302,7 @@
       <c r="X793" s="1"/>
       <c r="Y793" s="1"/>
     </row>
-    <row r="794" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:25" ht="13.2">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -23254,7 +23329,7 @@
       <c r="X794" s="1"/>
       <c r="Y794" s="1"/>
     </row>
-    <row r="795" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:25" ht="13.2">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -23281,7 +23356,7 @@
       <c r="X795" s="1"/>
       <c r="Y795" s="1"/>
     </row>
-    <row r="796" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:25" ht="13.2">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -23308,7 +23383,7 @@
       <c r="X796" s="1"/>
       <c r="Y796" s="1"/>
     </row>
-    <row r="797" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:25" ht="13.2">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -23335,7 +23410,7 @@
       <c r="X797" s="1"/>
       <c r="Y797" s="1"/>
     </row>
-    <row r="798" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:25" ht="13.2">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -23362,7 +23437,7 @@
       <c r="X798" s="1"/>
       <c r="Y798" s="1"/>
     </row>
-    <row r="799" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:25" ht="13.2">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -23389,7 +23464,7 @@
       <c r="X799" s="1"/>
       <c r="Y799" s="1"/>
     </row>
-    <row r="800" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:25" ht="13.2">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -23416,7 +23491,7 @@
       <c r="X800" s="1"/>
       <c r="Y800" s="1"/>
     </row>
-    <row r="801" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:25" ht="13.2">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -23443,7 +23518,7 @@
       <c r="X801" s="1"/>
       <c r="Y801" s="1"/>
     </row>
-    <row r="802" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:25" ht="13.2">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -23470,7 +23545,7 @@
       <c r="X802" s="1"/>
       <c r="Y802" s="1"/>
     </row>
-    <row r="803" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:25" ht="13.2">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -23497,7 +23572,7 @@
       <c r="X803" s="1"/>
       <c r="Y803" s="1"/>
     </row>
-    <row r="804" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:25" ht="13.2">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -23524,7 +23599,7 @@
       <c r="X804" s="1"/>
       <c r="Y804" s="1"/>
     </row>
-    <row r="805" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:25" ht="13.2">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -23551,7 +23626,7 @@
       <c r="X805" s="1"/>
       <c r="Y805" s="1"/>
     </row>
-    <row r="806" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:25" ht="13.2">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -23578,7 +23653,7 @@
       <c r="X806" s="1"/>
       <c r="Y806" s="1"/>
     </row>
-    <row r="807" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:25" ht="13.2">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -23605,7 +23680,7 @@
       <c r="X807" s="1"/>
       <c r="Y807" s="1"/>
     </row>
-    <row r="808" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:25" ht="13.2">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -23632,7 +23707,7 @@
       <c r="X808" s="1"/>
       <c r="Y808" s="1"/>
     </row>
-    <row r="809" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:25" ht="13.2">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -23659,7 +23734,7 @@
       <c r="X809" s="1"/>
       <c r="Y809" s="1"/>
     </row>
-    <row r="810" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:25" ht="13.2">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -23686,7 +23761,7 @@
       <c r="X810" s="1"/>
       <c r="Y810" s="1"/>
     </row>
-    <row r="811" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:25" ht="13.2">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -23713,7 +23788,7 @@
       <c r="X811" s="1"/>
       <c r="Y811" s="1"/>
     </row>
-    <row r="812" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:25" ht="13.2">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -23740,7 +23815,7 @@
       <c r="X812" s="1"/>
       <c r="Y812" s="1"/>
     </row>
-    <row r="813" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:25" ht="13.2">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -23767,7 +23842,7 @@
       <c r="X813" s="1"/>
       <c r="Y813" s="1"/>
     </row>
-    <row r="814" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:25" ht="13.2">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -23794,7 +23869,7 @@
       <c r="X814" s="1"/>
       <c r="Y814" s="1"/>
     </row>
-    <row r="815" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:25" ht="13.2">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -23821,7 +23896,7 @@
       <c r="X815" s="1"/>
       <c r="Y815" s="1"/>
     </row>
-    <row r="816" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:25" ht="13.2">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -23848,7 +23923,7 @@
       <c r="X816" s="1"/>
       <c r="Y816" s="1"/>
     </row>
-    <row r="817" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:25" ht="13.2">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -23875,7 +23950,7 @@
       <c r="X817" s="1"/>
       <c r="Y817" s="1"/>
     </row>
-    <row r="818" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:25" ht="13.2">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -23902,7 +23977,7 @@
       <c r="X818" s="1"/>
       <c r="Y818" s="1"/>
     </row>
-    <row r="819" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:25" ht="13.2">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -23929,7 +24004,7 @@
       <c r="X819" s="1"/>
       <c r="Y819" s="1"/>
     </row>
-    <row r="820" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:25" ht="13.2">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -23956,7 +24031,7 @@
       <c r="X820" s="1"/>
       <c r="Y820" s="1"/>
     </row>
-    <row r="821" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:25" ht="13.2">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -23983,7 +24058,7 @@
       <c r="X821" s="1"/>
       <c r="Y821" s="1"/>
     </row>
-    <row r="822" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:25" ht="13.2">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -24010,7 +24085,7 @@
       <c r="X822" s="1"/>
       <c r="Y822" s="1"/>
     </row>
-    <row r="823" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:25" ht="13.2">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -24037,7 +24112,7 @@
       <c r="X823" s="1"/>
       <c r="Y823" s="1"/>
     </row>
-    <row r="824" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:25" ht="13.2">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -24064,7 +24139,7 @@
       <c r="X824" s="1"/>
       <c r="Y824" s="1"/>
     </row>
-    <row r="825" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:25" ht="13.2">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -24091,7 +24166,7 @@
       <c r="X825" s="1"/>
       <c r="Y825" s="1"/>
     </row>
-    <row r="826" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:25" ht="13.2">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -24118,7 +24193,7 @@
       <c r="X826" s="1"/>
       <c r="Y826" s="1"/>
     </row>
-    <row r="827" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:25" ht="13.2">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -24145,7 +24220,7 @@
       <c r="X827" s="1"/>
       <c r="Y827" s="1"/>
     </row>
-    <row r="828" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:25" ht="13.2">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -24172,7 +24247,7 @@
       <c r="X828" s="1"/>
       <c r="Y828" s="1"/>
     </row>
-    <row r="829" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:25" ht="13.2">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -24199,7 +24274,7 @@
       <c r="X829" s="1"/>
       <c r="Y829" s="1"/>
     </row>
-    <row r="830" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:25" ht="13.2">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -24226,7 +24301,7 @@
       <c r="X830" s="1"/>
       <c r="Y830" s="1"/>
     </row>
-    <row r="831" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:25" ht="13.2">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -24253,7 +24328,7 @@
       <c r="X831" s="1"/>
       <c r="Y831" s="1"/>
     </row>
-    <row r="832" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:25" ht="13.2">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -24280,7 +24355,7 @@
       <c r="X832" s="1"/>
       <c r="Y832" s="1"/>
     </row>
-    <row r="833" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:25" ht="13.2">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -24307,7 +24382,7 @@
       <c r="X833" s="1"/>
       <c r="Y833" s="1"/>
     </row>
-    <row r="834" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:25" ht="13.2">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -24334,7 +24409,7 @@
       <c r="X834" s="1"/>
       <c r="Y834" s="1"/>
     </row>
-    <row r="835" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:25" ht="13.2">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -24361,7 +24436,7 @@
       <c r="X835" s="1"/>
       <c r="Y835" s="1"/>
     </row>
-    <row r="836" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:25" ht="13.2">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -24388,7 +24463,7 @@
       <c r="X836" s="1"/>
       <c r="Y836" s="1"/>
     </row>
-    <row r="837" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:25" ht="13.2">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -24415,7 +24490,7 @@
       <c r="X837" s="1"/>
       <c r="Y837" s="1"/>
     </row>
-    <row r="838" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:25" ht="13.2">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -24442,7 +24517,7 @@
       <c r="X838" s="1"/>
       <c r="Y838" s="1"/>
     </row>
-    <row r="839" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:25" ht="13.2">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -24469,7 +24544,7 @@
       <c r="X839" s="1"/>
       <c r="Y839" s="1"/>
     </row>
-    <row r="840" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:25" ht="13.2">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -24496,7 +24571,7 @@
       <c r="X840" s="1"/>
       <c r="Y840" s="1"/>
     </row>
-    <row r="841" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:25" ht="13.2">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -24523,7 +24598,7 @@
       <c r="X841" s="1"/>
       <c r="Y841" s="1"/>
     </row>
-    <row r="842" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:25" ht="13.2">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -24550,7 +24625,7 @@
       <c r="X842" s="1"/>
       <c r="Y842" s="1"/>
     </row>
-    <row r="843" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:25" ht="13.2">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -24577,7 +24652,7 @@
       <c r="X843" s="1"/>
       <c r="Y843" s="1"/>
     </row>
-    <row r="844" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:25" ht="13.2">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -24604,7 +24679,7 @@
       <c r="X844" s="1"/>
       <c r="Y844" s="1"/>
     </row>
-    <row r="845" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:25" ht="13.2">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -24631,7 +24706,7 @@
       <c r="X845" s="1"/>
       <c r="Y845" s="1"/>
     </row>
-    <row r="846" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:25" ht="13.2">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -24658,7 +24733,7 @@
       <c r="X846" s="1"/>
       <c r="Y846" s="1"/>
     </row>
-    <row r="847" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:25" ht="13.2">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -24685,7 +24760,7 @@
       <c r="X847" s="1"/>
       <c r="Y847" s="1"/>
     </row>
-    <row r="848" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:25" ht="13.2">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -24712,7 +24787,7 @@
       <c r="X848" s="1"/>
       <c r="Y848" s="1"/>
     </row>
-    <row r="849" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:25" ht="13.2">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -24739,7 +24814,7 @@
       <c r="X849" s="1"/>
       <c r="Y849" s="1"/>
     </row>
-    <row r="850" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:25" ht="13.2">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -24766,7 +24841,7 @@
       <c r="X850" s="1"/>
       <c r="Y850" s="1"/>
     </row>
-    <row r="851" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:25" ht="13.2">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -24793,7 +24868,7 @@
       <c r="X851" s="1"/>
       <c r="Y851" s="1"/>
     </row>
-    <row r="852" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:25" ht="13.2">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -24820,7 +24895,7 @@
       <c r="X852" s="1"/>
       <c r="Y852" s="1"/>
     </row>
-    <row r="853" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:25" ht="13.2">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -24847,7 +24922,7 @@
       <c r="X853" s="1"/>
       <c r="Y853" s="1"/>
     </row>
-    <row r="854" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:25" ht="13.2">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -24874,7 +24949,7 @@
       <c r="X854" s="1"/>
       <c r="Y854" s="1"/>
     </row>
-    <row r="855" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:25" ht="13.2">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -24901,7 +24976,7 @@
       <c r="X855" s="1"/>
       <c r="Y855" s="1"/>
     </row>
-    <row r="856" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:25" ht="13.2">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -24928,7 +25003,7 @@
       <c r="X856" s="1"/>
       <c r="Y856" s="1"/>
     </row>
-    <row r="857" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:25" ht="13.2">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -24955,7 +25030,7 @@
       <c r="X857" s="1"/>
       <c r="Y857" s="1"/>
     </row>
-    <row r="858" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:25" ht="13.2">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -24982,7 +25057,7 @@
       <c r="X858" s="1"/>
       <c r="Y858" s="1"/>
     </row>
-    <row r="859" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:25" ht="13.2">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -25010,11 +25085,21 @@
       <c r="Y859" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A12:J65" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A12:J65">
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="J12:J13"/>
@@ -25031,16 +25116,6 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="B14:B65">
@@ -25094,25 +25169,25 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A63:A65" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A63:A65">
       <formula1>"16/10/2023 - 20/10/2023,23/10/2023 - 27/10/2023,30/10/2023 - 03/11/2023,06/11/2023 - 10/11/2023,13/11/2023 - 17/11/2023"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A30:A62" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A30:A62">
       <formula1>"8/01/2024 - 12/01/2024,15/01/2024 - 19/01/2024,22/01/2024 - 26/01/2024,29/01/2024 - 2/02/2024,5/02/2024 - 09/02/2024"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="HORI EZIN DA SARTU" error="Hemen bakarrik EGINDA, PROZESUAN edo HASI GABE, jarri dezakezu." sqref="I14:I1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="HORI EZIN DA SARTU" error="Hemen bakarrik EGINDA, PROZESUAN edo HASI GABE, jarri dezakezu." sqref="I14:I1048576">
       <formula1>"HASI GABE,PROZESUAN,EGINDA"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="B12:B65" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" sqref="B12:B65">
       <formula1>"TALDEA:,APP:,ERP:,INTERFAZ:,DA:,ZERBITZU:,ENPRESA:,"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D14:D66" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D14:D66">
       <formula1>"ST,"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F14:F65 H14:H65" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F14:F65 H14:H65">
       <formula1>"ANDER,EBER,ST"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A29" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A29">
       <formula1>"8/01/2024 - 12/01/2024,15/01/2024 - 19/01/2024,22/01/2024 - 26/01/2024,29/01/2024 - 2/02/2024,5/02/2024 - 09/02/2024,08/01/2024 - 09/02/2024"</formula1>
     </dataValidation>
   </dataValidations>

--- a/8. Planifikazioa Egunerokoa/ST EGUNEROKOA.xlsx
+++ b/8. Planifikazioa Egunerokoa/ST EGUNEROKOA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaltamirapaag2\Desktop\ST_Erronka2\8. Planifikazioa Egunerokoa\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EE593C-3F74-4039-A6EE-3FC9C0129B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2580" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-28920" yWindow="-2580" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planifikazioa" sheetId="3" r:id="rId1"/>
@@ -22,12 +23,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -258,8 +259,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -980,6 +981,44 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -999,15 +1038,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1038,35 +1068,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1246,9 +1247,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1286,9 +1287,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1323,7 +1324,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1358,7 +1359,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1531,17 +1532,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Y859"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.6640625" bestFit="1" customWidth="1"/>
@@ -1551,19 +1552,19 @@
     <col min="10" max="10" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="34.799999999999997" customHeight="1">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:25" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
       <c r="G1" s="10"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="58" t="s">
         <v>32</v>
       </c>
       <c r="K1" s="1"/>
@@ -1582,19 +1583,19 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="22.8">
-      <c r="A2" s="67" t="s">
+    <row r="2" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="1.2">
+      <c r="A2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="43"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1611,17 +1612,17 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="44"/>
+    <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="60"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1638,7 +1639,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="13.2">
+    <row r="4" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1665,18 +1666,18 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="18" thickBot="1">
-      <c r="A5" s="71" t="s">
+    <row r="5" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.95">
+      <c r="A5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1694,22 +1695,22 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="19.95" customHeight="1" thickBot="1">
-      <c r="A6" s="63" t="s">
+    <row r="6" spans="1:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66" t="s">
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="66" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="65"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78"/>
       <c r="J6" s="19" t="s">
         <v>17</v>
       </c>
@@ -1729,22 +1730,22 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="14.4" customHeight="1">
-      <c r="A7" s="73" t="s">
+    <row r="7" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="73" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="73" t="s">
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="75"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
       <c r="J7" s="27" t="s">
         <v>30</v>
       </c>
@@ -1764,20 +1765,20 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="13.95" customHeight="1">
-      <c r="A8" s="76" t="s">
+    <row r="8" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="76" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="78"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
       <c r="J8" s="28" t="s">
         <v>31</v>
       </c>
@@ -1797,20 +1798,20 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="13.95" customHeight="1" thickBot="1">
-      <c r="A9" s="49" t="s">
+    <row r="9" spans="1:25" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="49" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="29" t="s">
         <v>23</v>
       </c>
@@ -1830,18 +1831,18 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="13.8" thickBot="1">
+    <row r="10" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="8"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1859,7 +1860,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="14.4" thickTop="1" thickBot="1">
+    <row r="11" spans="1:25" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1886,31 +1887,31 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="13.2">
-      <c r="A12" s="55" t="s">
+    <row r="12" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
+      <c r="A12" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="57" t="s">
+      <c r="E12" s="73"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="62" t="s">
+      <c r="H12" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="47" t="s">
+      <c r="J12" s="63" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="1"/>
@@ -1929,10 +1930,10 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="13.8" thickBot="1">
-      <c r="A13" s="56"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
+    <row r="13" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A13" s="69"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="9" t="s">
         <v>4</v>
       </c>
@@ -1942,10 +1943,10 @@
       <c r="F13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="48"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="64"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1962,7 +1963,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="13.2">
+    <row r="14" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A14" s="12" t="s">
         <v>46</v>
       </c>
@@ -1999,7 +2000,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="13.2">
+    <row r="15" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A15" s="12" t="s">
         <v>46</v>
       </c>
@@ -2036,7 +2037,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="13.2">
+    <row r="16" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A16" s="12" t="s">
         <v>46</v>
       </c>
@@ -2073,7 +2074,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="13.2">
+    <row r="17" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A17" s="12" t="s">
         <v>46</v>
       </c>
@@ -2110,7 +2111,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" s="38" customFormat="1" ht="13.2">
+    <row r="18" spans="1:25" s="38" customFormat="1" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A18" s="34"/>
       <c r="B18" s="35"/>
       <c r="C18" s="13"/>
@@ -2137,7 +2138,7 @@
       <c r="X18" s="37"/>
       <c r="Y18" s="37"/>
     </row>
-    <row r="19" spans="1:25" ht="19.2" customHeight="1">
+    <row r="19" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="12" t="s">
         <v>33</v>
       </c>
@@ -2174,7 +2175,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="19.2" customHeight="1">
+    <row r="20" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A20" s="12" t="s">
         <v>33</v>
       </c>
@@ -2211,7 +2212,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="19.2" customHeight="1">
+    <row r="21" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="12" t="s">
         <v>33</v>
       </c>
@@ -2248,7 +2249,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="19.2" customHeight="1">
+    <row r="22" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="12" t="s">
         <v>33</v>
       </c>
@@ -2285,7 +2286,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="19.2" customHeight="1">
+    <row r="23" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="12" t="s">
         <v>33</v>
       </c>
@@ -2322,7 +2323,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="19.2" customHeight="1">
+    <row r="24" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="12" t="s">
         <v>33</v>
       </c>
@@ -2359,7 +2360,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="19.2" customHeight="1">
+    <row r="25" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="12" t="s">
         <v>33</v>
       </c>
@@ -2396,7 +2397,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="19.2" customHeight="1">
+    <row r="26" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="12" t="s">
         <v>33</v>
       </c>
@@ -2433,7 +2434,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="19.2" customHeight="1">
+    <row r="27" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="12" t="s">
         <v>33</v>
       </c>
@@ -2470,7 +2471,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="19.2" customHeight="1">
+    <row r="28" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="12" t="s">
         <v>33</v>
       </c>
@@ -2507,7 +2508,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="19.2" customHeight="1">
+    <row r="29" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="12" t="s">
         <v>33</v>
       </c>
@@ -2544,7 +2545,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="19.2" customHeight="1">
+    <row r="30" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="39"/>
       <c r="B30" s="40"/>
       <c r="C30" s="15"/>
@@ -2571,7 +2572,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="19.2" customHeight="1">
+    <row r="31" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="14" t="s">
         <v>51</v>
       </c>
@@ -2608,7 +2609,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="19.2" customHeight="1">
+    <row r="32" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="12" t="s">
         <v>51</v>
       </c>
@@ -2645,7 +2646,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="19.2" customHeight="1">
+    <row r="33" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="14" t="s">
         <v>51</v>
       </c>
@@ -2682,7 +2683,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="19.2" customHeight="1">
+    <row r="34" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A34" s="12" t="s">
         <v>51</v>
       </c>
@@ -2719,7 +2720,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="19.2" customHeight="1">
+    <row r="35" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A35" s="14" t="s">
         <v>51</v>
       </c>
@@ -2756,7 +2757,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="19.2" customHeight="1">
+    <row r="36" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A36" s="12" t="s">
         <v>51</v>
       </c>
@@ -2793,7 +2794,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="19.2" customHeight="1">
+    <row r="37" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A37" s="14" t="s">
         <v>51</v>
       </c>
@@ -2830,7 +2831,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="19.2" customHeight="1">
+    <row r="38" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A38" s="12" t="s">
         <v>51</v>
       </c>
@@ -2840,11 +2841,11 @@
       <c r="C38" s="18"/>
       <c r="D38" s="25"/>
       <c r="E38" s="26"/>
-      <c r="F38" s="79" t="s">
+      <c r="F38" s="42" t="s">
         <v>26</v>
       </c>
       <c r="G38" s="18"/>
-      <c r="H38" s="79" t="s">
+      <c r="H38" s="42" t="s">
         <v>26</v>
       </c>
       <c r="I38" s="8" t="s">
@@ -2867,7 +2868,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="19.2" customHeight="1">
+    <row r="39" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A39" s="17" t="s">
         <v>51</v>
       </c>
@@ -2877,11 +2878,11 @@
       <c r="C39" s="18"/>
       <c r="D39" s="25"/>
       <c r="E39" s="26"/>
-      <c r="F39" s="79" t="s">
+      <c r="F39" s="42" t="s">
         <v>42</v>
       </c>
       <c r="G39" s="18"/>
-      <c r="H39" s="79" t="s">
+      <c r="H39" s="42" t="s">
         <v>42</v>
       </c>
       <c r="I39" s="8" t="s">
@@ -2904,7 +2905,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="19.2" customHeight="1">
+    <row r="40" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A40" s="17" t="s">
         <v>51</v>
       </c>
@@ -2914,11 +2915,11 @@
       <c r="C40" s="18"/>
       <c r="D40" s="25"/>
       <c r="E40" s="26"/>
-      <c r="F40" s="79" t="s">
+      <c r="F40" s="42" t="s">
         <v>42</v>
       </c>
       <c r="G40" s="18"/>
-      <c r="H40" s="79" t="s">
+      <c r="H40" s="42" t="s">
         <v>42</v>
       </c>
       <c r="I40" s="8" t="s">
@@ -2941,7 +2942,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="19.2" customHeight="1">
+    <row r="41" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A41" s="17" t="s">
         <v>51</v>
       </c>
@@ -2951,11 +2952,11 @@
       <c r="C41" s="18"/>
       <c r="D41" s="25"/>
       <c r="E41" s="26"/>
-      <c r="F41" s="79" t="s">
+      <c r="F41" s="42" t="s">
         <v>26</v>
       </c>
       <c r="G41" s="18"/>
-      <c r="H41" s="79" t="s">
+      <c r="H41" s="42" t="s">
         <v>26</v>
       </c>
       <c r="I41" s="8" t="s">
@@ -2978,7 +2979,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="19.2" customHeight="1">
+    <row r="42" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A42" s="17" t="s">
         <v>51</v>
       </c>
@@ -2988,11 +2989,11 @@
       <c r="C42" s="18"/>
       <c r="D42" s="25"/>
       <c r="E42" s="26"/>
-      <c r="F42" s="79" t="s">
+      <c r="F42" s="42" t="s">
         <v>26</v>
       </c>
       <c r="G42" s="18"/>
-      <c r="H42" s="79" t="s">
+      <c r="H42" s="42" t="s">
         <v>26</v>
       </c>
       <c r="I42" s="8" t="s">
@@ -3015,7 +3016,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="19.2" customHeight="1">
+    <row r="43" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A43" s="17" t="s">
         <v>51</v>
       </c>
@@ -3025,11 +3026,11 @@
       <c r="C43" s="18"/>
       <c r="D43" s="25"/>
       <c r="E43" s="26"/>
-      <c r="F43" s="79" t="s">
+      <c r="F43" s="42" t="s">
         <v>26</v>
       </c>
       <c r="G43" s="18"/>
-      <c r="H43" s="79" t="s">
+      <c r="H43" s="42" t="s">
         <v>26</v>
       </c>
       <c r="I43" s="8" t="s">
@@ -3052,16 +3053,16 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A44" s="17"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="8"/>
+    <row r="44" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A44" s="39"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="35"/>
       <c r="J44" s="18"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -3079,7 +3080,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="19.2" customHeight="1">
+    <row r="45" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A45" s="17"/>
       <c r="B45" s="33"/>
       <c r="C45" s="18"/>
@@ -3106,7 +3107,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="19.2" customHeight="1">
+    <row r="46" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A46" s="17"/>
       <c r="B46" s="33"/>
       <c r="C46" s="18"/>
@@ -3133,7 +3134,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="19.2" customHeight="1">
+    <row r="47" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A47" s="17"/>
       <c r="B47" s="33"/>
       <c r="C47" s="18"/>
@@ -3160,7 +3161,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="19.2" customHeight="1">
+    <row r="48" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A48" s="17"/>
       <c r="B48" s="33"/>
       <c r="C48" s="18"/>
@@ -3187,7 +3188,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="19.2" customHeight="1">
+    <row r="49" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A49" s="17"/>
       <c r="B49" s="33"/>
       <c r="C49" s="18"/>
@@ -3214,7 +3215,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="19.2" customHeight="1">
+    <row r="50" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A50" s="17"/>
       <c r="B50" s="33"/>
       <c r="C50" s="18"/>
@@ -3241,7 +3242,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="19.2" customHeight="1">
+    <row r="51" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A51" s="17"/>
       <c r="B51" s="33"/>
       <c r="C51" s="18"/>
@@ -3268,7 +3269,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="19.2" customHeight="1">
+    <row r="52" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A52" s="17"/>
       <c r="B52" s="33"/>
       <c r="C52" s="18"/>
@@ -3295,7 +3296,7 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="19.2" customHeight="1">
+    <row r="53" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A53" s="17"/>
       <c r="B53" s="33"/>
       <c r="C53" s="18"/>
@@ -3322,7 +3323,7 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="19.2" customHeight="1">
+    <row r="54" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A54" s="17"/>
       <c r="B54" s="33"/>
       <c r="C54" s="18"/>
@@ -3349,7 +3350,7 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="19.2" customHeight="1">
+    <row r="55" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A55" s="17"/>
       <c r="B55" s="33"/>
       <c r="C55" s="18"/>
@@ -3376,7 +3377,7 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="19.2" customHeight="1">
+    <row r="56" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A56" s="17"/>
       <c r="B56" s="33"/>
       <c r="C56" s="18"/>
@@ -3403,7 +3404,7 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="19.2" customHeight="1">
+    <row r="57" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A57" s="17"/>
       <c r="B57" s="33"/>
       <c r="C57" s="18"/>
@@ -3430,7 +3431,7 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="19.2" customHeight="1">
+    <row r="58" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A58" s="17"/>
       <c r="B58" s="33"/>
       <c r="C58" s="18"/>
@@ -3457,7 +3458,7 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="19.2" customHeight="1">
+    <row r="59" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A59" s="17"/>
       <c r="B59" s="33"/>
       <c r="C59" s="18"/>
@@ -3484,7 +3485,7 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
-    <row r="60" spans="1:25" ht="19.2" customHeight="1">
+    <row r="60" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A60" s="17"/>
       <c r="B60" s="33"/>
       <c r="C60" s="18"/>
@@ -3511,7 +3512,7 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
-    <row r="61" spans="1:25" ht="19.2" customHeight="1">
+    <row r="61" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A61" s="17"/>
       <c r="B61" s="33"/>
       <c r="C61" s="18"/>
@@ -3538,7 +3539,7 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
-    <row r="62" spans="1:25" ht="19.2" customHeight="1">
+    <row r="62" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A62" s="17"/>
       <c r="B62" s="33"/>
       <c r="C62" s="18"/>
@@ -3565,7 +3566,7 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" ht="19.2" customHeight="1">
+    <row r="63" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A63" s="17"/>
       <c r="B63" s="33"/>
       <c r="C63" s="18"/>
@@ -3592,7 +3593,7 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
-    <row r="64" spans="1:25" ht="19.2" customHeight="1">
+    <row r="64" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A64" s="17"/>
       <c r="B64" s="33"/>
       <c r="C64" s="18"/>
@@ -3619,7 +3620,7 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
-    <row r="65" spans="1:25" ht="19.2" customHeight="1">
+    <row r="65" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A65" s="17"/>
       <c r="B65" s="33"/>
       <c r="C65" s="18"/>
@@ -3646,7 +3647,7 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" ht="13.2">
+    <row r="66" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3673,7 +3674,7 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="13.2">
+    <row r="67" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3700,7 +3701,7 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="1:25" ht="13.2">
+    <row r="68" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3727,7 +3728,7 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69" spans="1:25" ht="13.2">
+    <row r="69" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3754,7 +3755,7 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70" spans="1:25" ht="13.2">
+    <row r="70" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3781,7 +3782,7 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" ht="13.2">
+    <row r="71" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3808,7 +3809,7 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
     </row>
-    <row r="72" spans="1:25" ht="13.2">
+    <row r="72" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3835,7 +3836,7 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73" spans="1:25" ht="13.2">
+    <row r="73" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3862,7 +3863,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" spans="1:25" ht="13.2">
+    <row r="74" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3889,7 +3890,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="1:25" ht="13.2">
+    <row r="75" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3916,7 +3917,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="1:25" ht="13.2">
+    <row r="76" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3943,7 +3944,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="1:25" ht="13.2">
+    <row r="77" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3970,7 +3971,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="1:25" ht="13.2">
+    <row r="78" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3997,7 +3998,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="1:25" ht="13.2">
+    <row r="79" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4024,7 +4025,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="1:25" ht="13.2">
+    <row r="80" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4051,7 +4052,7 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="1:25" ht="13.2">
+    <row r="81" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4078,7 +4079,7 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="1:25" ht="13.2">
+    <row r="82" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4105,7 +4106,7 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" ht="13.2">
+    <row r="83" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4132,7 +4133,7 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
     </row>
-    <row r="84" spans="1:25" ht="13.2">
+    <row r="84" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4159,7 +4160,7 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="1:25" ht="13.2">
+    <row r="85" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4186,7 +4187,7 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
     </row>
-    <row r="86" spans="1:25" ht="13.2">
+    <row r="86" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4213,7 +4214,7 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
     </row>
-    <row r="87" spans="1:25" ht="13.2">
+    <row r="87" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4240,7 +4241,7 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
     </row>
-    <row r="88" spans="1:25" ht="13.2">
+    <row r="88" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4267,7 +4268,7 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
     </row>
-    <row r="89" spans="1:25" ht="13.2">
+    <row r="89" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4294,7 +4295,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
     </row>
-    <row r="90" spans="1:25" ht="13.2">
+    <row r="90" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4321,7 +4322,7 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" spans="1:25" ht="13.2">
+    <row r="91" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4348,7 +4349,7 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
     </row>
-    <row r="92" spans="1:25" ht="13.2">
+    <row r="92" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4375,7 +4376,7 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
     </row>
-    <row r="93" spans="1:25" ht="13.2">
+    <row r="93" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4402,7 +4403,7 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
     </row>
-    <row r="94" spans="1:25" ht="13.2">
+    <row r="94" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4429,7 +4430,7 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
     </row>
-    <row r="95" spans="1:25" ht="13.2">
+    <row r="95" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4456,7 +4457,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
     </row>
-    <row r="96" spans="1:25" ht="13.2">
+    <row r="96" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4483,7 +4484,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
     </row>
-    <row r="97" spans="1:25" ht="13.2">
+    <row r="97" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4510,7 +4511,7 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
     </row>
-    <row r="98" spans="1:25" ht="13.2">
+    <row r="98" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4537,7 +4538,7 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
     </row>
-    <row r="99" spans="1:25" ht="13.2">
+    <row r="99" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4564,7 +4565,7 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
     </row>
-    <row r="100" spans="1:25" ht="13.2">
+    <row r="100" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4591,7 +4592,7 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
     </row>
-    <row r="101" spans="1:25" ht="13.2">
+    <row r="101" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4618,7 +4619,7 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
     </row>
-    <row r="102" spans="1:25" ht="13.2">
+    <row r="102" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4645,7 +4646,7 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
     </row>
-    <row r="103" spans="1:25" ht="13.2">
+    <row r="103" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4672,7 +4673,7 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
     </row>
-    <row r="104" spans="1:25" ht="13.2">
+    <row r="104" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4699,7 +4700,7 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
     </row>
-    <row r="105" spans="1:25" ht="13.2">
+    <row r="105" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4726,7 +4727,7 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
     </row>
-    <row r="106" spans="1:25" ht="13.2">
+    <row r="106" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4753,7 +4754,7 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
     </row>
-    <row r="107" spans="1:25" ht="13.2">
+    <row r="107" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4780,7 +4781,7 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
     </row>
-    <row r="108" spans="1:25" ht="13.2">
+    <row r="108" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4807,7 +4808,7 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
     </row>
-    <row r="109" spans="1:25" ht="13.2">
+    <row r="109" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4834,7 +4835,7 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
     </row>
-    <row r="110" spans="1:25" ht="13.2">
+    <row r="110" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4861,7 +4862,7 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
     </row>
-    <row r="111" spans="1:25" ht="13.2">
+    <row r="111" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4888,7 +4889,7 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
     </row>
-    <row r="112" spans="1:25" ht="13.2">
+    <row r="112" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4915,7 +4916,7 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
     </row>
-    <row r="113" spans="1:25" ht="13.2">
+    <row r="113" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4942,7 +4943,7 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
     </row>
-    <row r="114" spans="1:25" ht="13.2">
+    <row r="114" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4969,7 +4970,7 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
     </row>
-    <row r="115" spans="1:25" ht="13.2">
+    <row r="115" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4996,7 +4997,7 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
     </row>
-    <row r="116" spans="1:25" ht="13.2">
+    <row r="116" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -5023,7 +5024,7 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="13.2">
+    <row r="117" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -5050,7 +5051,7 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
     </row>
-    <row r="118" spans="1:25" ht="13.2">
+    <row r="118" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -5077,7 +5078,7 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
     </row>
-    <row r="119" spans="1:25" ht="13.2">
+    <row r="119" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -5104,7 +5105,7 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
     </row>
-    <row r="120" spans="1:25" ht="13.2">
+    <row r="120" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -5131,7 +5132,7 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
     </row>
-    <row r="121" spans="1:25" ht="13.2">
+    <row r="121" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -5158,7 +5159,7 @@
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
     </row>
-    <row r="122" spans="1:25" ht="13.2">
+    <row r="122" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -5185,7 +5186,7 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
     </row>
-    <row r="123" spans="1:25" ht="13.2">
+    <row r="123" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -5212,7 +5213,7 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
     </row>
-    <row r="124" spans="1:25" ht="13.2">
+    <row r="124" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -5239,7 +5240,7 @@
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
     </row>
-    <row r="125" spans="1:25" ht="13.2">
+    <row r="125" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -5266,7 +5267,7 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
     </row>
-    <row r="126" spans="1:25" ht="13.2">
+    <row r="126" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -5293,7 +5294,7 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
     </row>
-    <row r="127" spans="1:25" ht="13.2">
+    <row r="127" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -5320,7 +5321,7 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
     </row>
-    <row r="128" spans="1:25" ht="13.2">
+    <row r="128" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -5347,7 +5348,7 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
     </row>
-    <row r="129" spans="1:25" ht="13.2">
+    <row r="129" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -5374,7 +5375,7 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
     </row>
-    <row r="130" spans="1:25" ht="13.2">
+    <row r="130" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -5401,7 +5402,7 @@
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
     </row>
-    <row r="131" spans="1:25" ht="13.2">
+    <row r="131" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -5428,7 +5429,7 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
     </row>
-    <row r="132" spans="1:25" ht="13.2">
+    <row r="132" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -5455,7 +5456,7 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
     </row>
-    <row r="133" spans="1:25" ht="13.2">
+    <row r="133" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -5482,7 +5483,7 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
     </row>
-    <row r="134" spans="1:25" ht="13.2">
+    <row r="134" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -5509,7 +5510,7 @@
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
     </row>
-    <row r="135" spans="1:25" ht="13.2">
+    <row r="135" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -5536,7 +5537,7 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
     </row>
-    <row r="136" spans="1:25" ht="13.2">
+    <row r="136" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -5563,7 +5564,7 @@
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="13.2">
+    <row r="137" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -5590,7 +5591,7 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
     </row>
-    <row r="138" spans="1:25" ht="13.2">
+    <row r="138" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -5617,7 +5618,7 @@
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
     </row>
-    <row r="139" spans="1:25" ht="13.2">
+    <row r="139" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -5644,7 +5645,7 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
     </row>
-    <row r="140" spans="1:25" ht="13.2">
+    <row r="140" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -5671,7 +5672,7 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
     </row>
-    <row r="141" spans="1:25" ht="13.2">
+    <row r="141" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -5698,7 +5699,7 @@
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
     </row>
-    <row r="142" spans="1:25" ht="13.2">
+    <row r="142" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -5725,7 +5726,7 @@
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
     </row>
-    <row r="143" spans="1:25" ht="13.2">
+    <row r="143" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -5752,7 +5753,7 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
     </row>
-    <row r="144" spans="1:25" ht="13.2">
+    <row r="144" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -5779,7 +5780,7 @@
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
     </row>
-    <row r="145" spans="1:25" ht="13.2">
+    <row r="145" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -5806,7 +5807,7 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
     </row>
-    <row r="146" spans="1:25" ht="13.2">
+    <row r="146" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -5833,7 +5834,7 @@
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
     </row>
-    <row r="147" spans="1:25" ht="13.2">
+    <row r="147" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -5860,7 +5861,7 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
     </row>
-    <row r="148" spans="1:25" ht="13.2">
+    <row r="148" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -5887,7 +5888,7 @@
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="13.2">
+    <row r="149" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -5914,7 +5915,7 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
     </row>
-    <row r="150" spans="1:25" ht="13.2">
+    <row r="150" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -5941,7 +5942,7 @@
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="13.2">
+    <row r="151" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -5968,7 +5969,7 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
     </row>
-    <row r="152" spans="1:25" ht="13.2">
+    <row r="152" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -5995,7 +5996,7 @@
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="13.2">
+    <row r="153" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6022,7 +6023,7 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
     </row>
-    <row r="154" spans="1:25" ht="13.2">
+    <row r="154" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6049,7 +6050,7 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
     </row>
-    <row r="155" spans="1:25" ht="13.2">
+    <row r="155" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6076,7 +6077,7 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
     </row>
-    <row r="156" spans="1:25" ht="13.2">
+    <row r="156" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6103,7 +6104,7 @@
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="13.2">
+    <row r="157" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6130,7 +6131,7 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="13.2">
+    <row r="158" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6157,7 +6158,7 @@
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="13.2">
+    <row r="159" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6184,7 +6185,7 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
     </row>
-    <row r="160" spans="1:25" ht="13.2">
+    <row r="160" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6211,7 +6212,7 @@
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="13.2">
+    <row r="161" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6238,7 +6239,7 @@
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="13.2">
+    <row r="162" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6265,7 +6266,7 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="13.2">
+    <row r="163" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6292,7 +6293,7 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
     </row>
-    <row r="164" spans="1:25" ht="13.2">
+    <row r="164" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -6319,7 +6320,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="13.2">
+    <row r="165" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -6346,7 +6347,7 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="13.2">
+    <row r="166" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -6373,7 +6374,7 @@
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
     </row>
-    <row r="167" spans="1:25" ht="13.2">
+    <row r="167" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6400,7 +6401,7 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="13.2">
+    <row r="168" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6427,7 +6428,7 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
     </row>
-    <row r="169" spans="1:25" ht="13.2">
+    <row r="169" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6454,7 +6455,7 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
     </row>
-    <row r="170" spans="1:25" ht="13.2">
+    <row r="170" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6481,7 +6482,7 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
     </row>
-    <row r="171" spans="1:25" ht="13.2">
+    <row r="171" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6508,7 +6509,7 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
     </row>
-    <row r="172" spans="1:25" ht="13.2">
+    <row r="172" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6535,7 +6536,7 @@
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
     </row>
-    <row r="173" spans="1:25" ht="13.2">
+    <row r="173" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6562,7 +6563,7 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
     </row>
-    <row r="174" spans="1:25" ht="13.2">
+    <row r="174" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6589,7 +6590,7 @@
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
     </row>
-    <row r="175" spans="1:25" ht="13.2">
+    <row r="175" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6616,7 +6617,7 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
     </row>
-    <row r="176" spans="1:25" ht="13.2">
+    <row r="176" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6643,7 +6644,7 @@
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
     </row>
-    <row r="177" spans="1:25" ht="13.2">
+    <row r="177" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6670,7 +6671,7 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
     </row>
-    <row r="178" spans="1:25" ht="13.2">
+    <row r="178" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6697,7 +6698,7 @@
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
     </row>
-    <row r="179" spans="1:25" ht="13.2">
+    <row r="179" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -6724,7 +6725,7 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
     </row>
-    <row r="180" spans="1:25" ht="13.2">
+    <row r="180" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -6751,7 +6752,7 @@
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
     </row>
-    <row r="181" spans="1:25" ht="13.2">
+    <row r="181" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -6778,7 +6779,7 @@
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
     </row>
-    <row r="182" spans="1:25" ht="13.2">
+    <row r="182" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -6805,7 +6806,7 @@
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
     </row>
-    <row r="183" spans="1:25" ht="13.2">
+    <row r="183" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -6832,7 +6833,7 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
     </row>
-    <row r="184" spans="1:25" ht="13.2">
+    <row r="184" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -6859,7 +6860,7 @@
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
     </row>
-    <row r="185" spans="1:25" ht="13.2">
+    <row r="185" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -6886,7 +6887,7 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
     </row>
-    <row r="186" spans="1:25" ht="13.2">
+    <row r="186" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -6913,7 +6914,7 @@
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
     </row>
-    <row r="187" spans="1:25" ht="13.2">
+    <row r="187" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -6940,7 +6941,7 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
     </row>
-    <row r="188" spans="1:25" ht="13.2">
+    <row r="188" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -6967,7 +6968,7 @@
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
     </row>
-    <row r="189" spans="1:25" ht="13.2">
+    <row r="189" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -6994,7 +6995,7 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
     </row>
-    <row r="190" spans="1:25" ht="13.2">
+    <row r="190" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7021,7 +7022,7 @@
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
     </row>
-    <row r="191" spans="1:25" ht="13.2">
+    <row r="191" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -7048,7 +7049,7 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
     </row>
-    <row r="192" spans="1:25" ht="13.2">
+    <row r="192" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -7075,7 +7076,7 @@
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
     </row>
-    <row r="193" spans="1:25" ht="13.2">
+    <row r="193" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -7102,7 +7103,7 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
     </row>
-    <row r="194" spans="1:25" ht="13.2">
+    <row r="194" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -7129,7 +7130,7 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
     </row>
-    <row r="195" spans="1:25" ht="13.2">
+    <row r="195" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -7156,7 +7157,7 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
     </row>
-    <row r="196" spans="1:25" ht="13.2">
+    <row r="196" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -7183,7 +7184,7 @@
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
     </row>
-    <row r="197" spans="1:25" ht="13.2">
+    <row r="197" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -7210,7 +7211,7 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
     </row>
-    <row r="198" spans="1:25" ht="13.2">
+    <row r="198" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -7237,7 +7238,7 @@
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
     </row>
-    <row r="199" spans="1:25" ht="13.2">
+    <row r="199" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -7264,7 +7265,7 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
     </row>
-    <row r="200" spans="1:25" ht="13.2">
+    <row r="200" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -7291,7 +7292,7 @@
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
     </row>
-    <row r="201" spans="1:25" ht="13.2">
+    <row r="201" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -7318,7 +7319,7 @@
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
     </row>
-    <row r="202" spans="1:25" ht="13.2">
+    <row r="202" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -7345,7 +7346,7 @@
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
     </row>
-    <row r="203" spans="1:25" ht="13.2">
+    <row r="203" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -7372,7 +7373,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:25" ht="13.2">
+    <row r="204" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -7399,7 +7400,7 @@
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
     </row>
-    <row r="205" spans="1:25" ht="13.2">
+    <row r="205" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -7426,7 +7427,7 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
     </row>
-    <row r="206" spans="1:25" ht="13.2">
+    <row r="206" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -7453,7 +7454,7 @@
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
     </row>
-    <row r="207" spans="1:25" ht="13.2">
+    <row r="207" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -7480,7 +7481,7 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
     </row>
-    <row r="208" spans="1:25" ht="13.2">
+    <row r="208" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -7507,7 +7508,7 @@
       <c r="X208" s="1"/>
       <c r="Y208" s="1"/>
     </row>
-    <row r="209" spans="1:25" ht="13.2">
+    <row r="209" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -7534,7 +7535,7 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
     </row>
-    <row r="210" spans="1:25" ht="13.2">
+    <row r="210" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -7561,7 +7562,7 @@
       <c r="X210" s="1"/>
       <c r="Y210" s="1"/>
     </row>
-    <row r="211" spans="1:25" ht="13.2">
+    <row r="211" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -7588,7 +7589,7 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
     </row>
-    <row r="212" spans="1:25" ht="13.2">
+    <row r="212" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -7615,7 +7616,7 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" spans="1:25" ht="13.2">
+    <row r="213" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -7642,7 +7643,7 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
     </row>
-    <row r="214" spans="1:25" ht="13.2">
+    <row r="214" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -7669,7 +7670,7 @@
       <c r="X214" s="1"/>
       <c r="Y214" s="1"/>
     </row>
-    <row r="215" spans="1:25" ht="13.2">
+    <row r="215" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -7696,7 +7697,7 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
     </row>
-    <row r="216" spans="1:25" ht="13.2">
+    <row r="216" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -7723,7 +7724,7 @@
       <c r="X216" s="1"/>
       <c r="Y216" s="1"/>
     </row>
-    <row r="217" spans="1:25" ht="13.2">
+    <row r="217" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -7750,7 +7751,7 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
     </row>
-    <row r="218" spans="1:25" ht="13.2">
+    <row r="218" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -7777,7 +7778,7 @@
       <c r="X218" s="1"/>
       <c r="Y218" s="1"/>
     </row>
-    <row r="219" spans="1:25" ht="13.2">
+    <row r="219" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -7804,7 +7805,7 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
     </row>
-    <row r="220" spans="1:25" ht="13.2">
+    <row r="220" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -7831,7 +7832,7 @@
       <c r="X220" s="1"/>
       <c r="Y220" s="1"/>
     </row>
-    <row r="221" spans="1:25" ht="13.2">
+    <row r="221" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -7858,7 +7859,7 @@
       <c r="X221" s="1"/>
       <c r="Y221" s="1"/>
     </row>
-    <row r="222" spans="1:25" ht="13.2">
+    <row r="222" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -7885,7 +7886,7 @@
       <c r="X222" s="1"/>
       <c r="Y222" s="1"/>
     </row>
-    <row r="223" spans="1:25" ht="13.2">
+    <row r="223" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -7912,7 +7913,7 @@
       <c r="X223" s="1"/>
       <c r="Y223" s="1"/>
     </row>
-    <row r="224" spans="1:25" ht="13.2">
+    <row r="224" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -7939,7 +7940,7 @@
       <c r="X224" s="1"/>
       <c r="Y224" s="1"/>
     </row>
-    <row r="225" spans="1:25" ht="13.2">
+    <row r="225" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -7966,7 +7967,7 @@
       <c r="X225" s="1"/>
       <c r="Y225" s="1"/>
     </row>
-    <row r="226" spans="1:25" ht="13.2">
+    <row r="226" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -7993,7 +7994,7 @@
       <c r="X226" s="1"/>
       <c r="Y226" s="1"/>
     </row>
-    <row r="227" spans="1:25" ht="13.2">
+    <row r="227" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -8020,7 +8021,7 @@
       <c r="X227" s="1"/>
       <c r="Y227" s="1"/>
     </row>
-    <row r="228" spans="1:25" ht="13.2">
+    <row r="228" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -8047,7 +8048,7 @@
       <c r="X228" s="1"/>
       <c r="Y228" s="1"/>
     </row>
-    <row r="229" spans="1:25" ht="13.2">
+    <row r="229" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -8074,7 +8075,7 @@
       <c r="X229" s="1"/>
       <c r="Y229" s="1"/>
     </row>
-    <row r="230" spans="1:25" ht="13.2">
+    <row r="230" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -8101,7 +8102,7 @@
       <c r="X230" s="1"/>
       <c r="Y230" s="1"/>
     </row>
-    <row r="231" spans="1:25" ht="13.2">
+    <row r="231" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -8128,7 +8129,7 @@
       <c r="X231" s="1"/>
       <c r="Y231" s="1"/>
     </row>
-    <row r="232" spans="1:25" ht="13.2">
+    <row r="232" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -8155,7 +8156,7 @@
       <c r="X232" s="1"/>
       <c r="Y232" s="1"/>
     </row>
-    <row r="233" spans="1:25" ht="13.2">
+    <row r="233" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -8182,7 +8183,7 @@
       <c r="X233" s="1"/>
       <c r="Y233" s="1"/>
     </row>
-    <row r="234" spans="1:25" ht="13.2">
+    <row r="234" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -8209,7 +8210,7 @@
       <c r="X234" s="1"/>
       <c r="Y234" s="1"/>
     </row>
-    <row r="235" spans="1:25" ht="13.2">
+    <row r="235" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -8236,7 +8237,7 @@
       <c r="X235" s="1"/>
       <c r="Y235" s="1"/>
     </row>
-    <row r="236" spans="1:25" ht="13.2">
+    <row r="236" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -8263,7 +8264,7 @@
       <c r="X236" s="1"/>
       <c r="Y236" s="1"/>
     </row>
-    <row r="237" spans="1:25" ht="13.2">
+    <row r="237" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -8290,7 +8291,7 @@
       <c r="X237" s="1"/>
       <c r="Y237" s="1"/>
     </row>
-    <row r="238" spans="1:25" ht="13.2">
+    <row r="238" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -8317,7 +8318,7 @@
       <c r="X238" s="1"/>
       <c r="Y238" s="1"/>
     </row>
-    <row r="239" spans="1:25" ht="13.2">
+    <row r="239" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -8344,7 +8345,7 @@
       <c r="X239" s="1"/>
       <c r="Y239" s="1"/>
     </row>
-    <row r="240" spans="1:25" ht="13.2">
+    <row r="240" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -8371,7 +8372,7 @@
       <c r="X240" s="1"/>
       <c r="Y240" s="1"/>
     </row>
-    <row r="241" spans="1:25" ht="13.2">
+    <row r="241" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -8398,7 +8399,7 @@
       <c r="X241" s="1"/>
       <c r="Y241" s="1"/>
     </row>
-    <row r="242" spans="1:25" ht="13.2">
+    <row r="242" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -8425,7 +8426,7 @@
       <c r="X242" s="1"/>
       <c r="Y242" s="1"/>
     </row>
-    <row r="243" spans="1:25" ht="13.2">
+    <row r="243" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -8452,7 +8453,7 @@
       <c r="X243" s="1"/>
       <c r="Y243" s="1"/>
     </row>
-    <row r="244" spans="1:25" ht="13.2">
+    <row r="244" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -8479,7 +8480,7 @@
       <c r="X244" s="1"/>
       <c r="Y244" s="1"/>
     </row>
-    <row r="245" spans="1:25" ht="13.2">
+    <row r="245" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -8506,7 +8507,7 @@
       <c r="X245" s="1"/>
       <c r="Y245" s="1"/>
     </row>
-    <row r="246" spans="1:25" ht="13.2">
+    <row r="246" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -8533,7 +8534,7 @@
       <c r="X246" s="1"/>
       <c r="Y246" s="1"/>
     </row>
-    <row r="247" spans="1:25" ht="13.2">
+    <row r="247" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -8560,7 +8561,7 @@
       <c r="X247" s="1"/>
       <c r="Y247" s="1"/>
     </row>
-    <row r="248" spans="1:25" ht="13.2">
+    <row r="248" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -8587,7 +8588,7 @@
       <c r="X248" s="1"/>
       <c r="Y248" s="1"/>
     </row>
-    <row r="249" spans="1:25" ht="13.2">
+    <row r="249" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -8614,7 +8615,7 @@
       <c r="X249" s="1"/>
       <c r="Y249" s="1"/>
     </row>
-    <row r="250" spans="1:25" ht="13.2">
+    <row r="250" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -8641,7 +8642,7 @@
       <c r="X250" s="1"/>
       <c r="Y250" s="1"/>
     </row>
-    <row r="251" spans="1:25" ht="13.2">
+    <row r="251" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -8668,7 +8669,7 @@
       <c r="X251" s="1"/>
       <c r="Y251" s="1"/>
     </row>
-    <row r="252" spans="1:25" ht="13.2">
+    <row r="252" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -8695,7 +8696,7 @@
       <c r="X252" s="1"/>
       <c r="Y252" s="1"/>
     </row>
-    <row r="253" spans="1:25" ht="13.2">
+    <row r="253" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -8722,7 +8723,7 @@
       <c r="X253" s="1"/>
       <c r="Y253" s="1"/>
     </row>
-    <row r="254" spans="1:25" ht="13.2">
+    <row r="254" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -8749,7 +8750,7 @@
       <c r="X254" s="1"/>
       <c r="Y254" s="1"/>
     </row>
-    <row r="255" spans="1:25" ht="13.2">
+    <row r="255" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -8776,7 +8777,7 @@
       <c r="X255" s="1"/>
       <c r="Y255" s="1"/>
     </row>
-    <row r="256" spans="1:25" ht="13.2">
+    <row r="256" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -8803,7 +8804,7 @@
       <c r="X256" s="1"/>
       <c r="Y256" s="1"/>
     </row>
-    <row r="257" spans="1:25" ht="13.2">
+    <row r="257" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -8830,7 +8831,7 @@
       <c r="X257" s="1"/>
       <c r="Y257" s="1"/>
     </row>
-    <row r="258" spans="1:25" ht="13.2">
+    <row r="258" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -8857,7 +8858,7 @@
       <c r="X258" s="1"/>
       <c r="Y258" s="1"/>
     </row>
-    <row r="259" spans="1:25" ht="13.2">
+    <row r="259" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -8884,7 +8885,7 @@
       <c r="X259" s="1"/>
       <c r="Y259" s="1"/>
     </row>
-    <row r="260" spans="1:25" ht="13.2">
+    <row r="260" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -8911,7 +8912,7 @@
       <c r="X260" s="1"/>
       <c r="Y260" s="1"/>
     </row>
-    <row r="261" spans="1:25" ht="13.2">
+    <row r="261" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -8938,7 +8939,7 @@
       <c r="X261" s="1"/>
       <c r="Y261" s="1"/>
     </row>
-    <row r="262" spans="1:25" ht="13.2">
+    <row r="262" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -8965,7 +8966,7 @@
       <c r="X262" s="1"/>
       <c r="Y262" s="1"/>
     </row>
-    <row r="263" spans="1:25" ht="13.2">
+    <row r="263" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -8992,7 +8993,7 @@
       <c r="X263" s="1"/>
       <c r="Y263" s="1"/>
     </row>
-    <row r="264" spans="1:25" ht="13.2">
+    <row r="264" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -9019,7 +9020,7 @@
       <c r="X264" s="1"/>
       <c r="Y264" s="1"/>
     </row>
-    <row r="265" spans="1:25" ht="13.2">
+    <row r="265" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -9046,7 +9047,7 @@
       <c r="X265" s="1"/>
       <c r="Y265" s="1"/>
     </row>
-    <row r="266" spans="1:25" ht="13.2">
+    <row r="266" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -9073,7 +9074,7 @@
       <c r="X266" s="1"/>
       <c r="Y266" s="1"/>
     </row>
-    <row r="267" spans="1:25" ht="13.2">
+    <row r="267" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -9100,7 +9101,7 @@
       <c r="X267" s="1"/>
       <c r="Y267" s="1"/>
     </row>
-    <row r="268" spans="1:25" ht="13.2">
+    <row r="268" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -9127,7 +9128,7 @@
       <c r="X268" s="1"/>
       <c r="Y268" s="1"/>
     </row>
-    <row r="269" spans="1:25" ht="13.2">
+    <row r="269" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -9154,7 +9155,7 @@
       <c r="X269" s="1"/>
       <c r="Y269" s="1"/>
     </row>
-    <row r="270" spans="1:25" ht="13.2">
+    <row r="270" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -9181,7 +9182,7 @@
       <c r="X270" s="1"/>
       <c r="Y270" s="1"/>
     </row>
-    <row r="271" spans="1:25" ht="13.2">
+    <row r="271" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -9208,7 +9209,7 @@
       <c r="X271" s="1"/>
       <c r="Y271" s="1"/>
     </row>
-    <row r="272" spans="1:25" ht="13.2">
+    <row r="272" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -9235,7 +9236,7 @@
       <c r="X272" s="1"/>
       <c r="Y272" s="1"/>
     </row>
-    <row r="273" spans="1:25" ht="13.2">
+    <row r="273" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -9262,7 +9263,7 @@
       <c r="X273" s="1"/>
       <c r="Y273" s="1"/>
     </row>
-    <row r="274" spans="1:25" ht="13.2">
+    <row r="274" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -9289,7 +9290,7 @@
       <c r="X274" s="1"/>
       <c r="Y274" s="1"/>
     </row>
-    <row r="275" spans="1:25" ht="13.2">
+    <row r="275" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -9316,7 +9317,7 @@
       <c r="X275" s="1"/>
       <c r="Y275" s="1"/>
     </row>
-    <row r="276" spans="1:25" ht="13.2">
+    <row r="276" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -9343,7 +9344,7 @@
       <c r="X276" s="1"/>
       <c r="Y276" s="1"/>
     </row>
-    <row r="277" spans="1:25" ht="13.2">
+    <row r="277" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -9370,7 +9371,7 @@
       <c r="X277" s="1"/>
       <c r="Y277" s="1"/>
     </row>
-    <row r="278" spans="1:25" ht="13.2">
+    <row r="278" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -9397,7 +9398,7 @@
       <c r="X278" s="1"/>
       <c r="Y278" s="1"/>
     </row>
-    <row r="279" spans="1:25" ht="13.2">
+    <row r="279" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -9424,7 +9425,7 @@
       <c r="X279" s="1"/>
       <c r="Y279" s="1"/>
     </row>
-    <row r="280" spans="1:25" ht="13.2">
+    <row r="280" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -9451,7 +9452,7 @@
       <c r="X280" s="1"/>
       <c r="Y280" s="1"/>
     </row>
-    <row r="281" spans="1:25" ht="13.2">
+    <row r="281" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -9478,7 +9479,7 @@
       <c r="X281" s="1"/>
       <c r="Y281" s="1"/>
     </row>
-    <row r="282" spans="1:25" ht="13.2">
+    <row r="282" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -9505,7 +9506,7 @@
       <c r="X282" s="1"/>
       <c r="Y282" s="1"/>
     </row>
-    <row r="283" spans="1:25" ht="13.2">
+    <row r="283" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -9532,7 +9533,7 @@
       <c r="X283" s="1"/>
       <c r="Y283" s="1"/>
     </row>
-    <row r="284" spans="1:25" ht="13.2">
+    <row r="284" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -9559,7 +9560,7 @@
       <c r="X284" s="1"/>
       <c r="Y284" s="1"/>
     </row>
-    <row r="285" spans="1:25" ht="13.2">
+    <row r="285" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -9586,7 +9587,7 @@
       <c r="X285" s="1"/>
       <c r="Y285" s="1"/>
     </row>
-    <row r="286" spans="1:25" ht="13.2">
+    <row r="286" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -9613,7 +9614,7 @@
       <c r="X286" s="1"/>
       <c r="Y286" s="1"/>
     </row>
-    <row r="287" spans="1:25" ht="13.2">
+    <row r="287" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -9640,7 +9641,7 @@
       <c r="X287" s="1"/>
       <c r="Y287" s="1"/>
     </row>
-    <row r="288" spans="1:25" ht="13.2">
+    <row r="288" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -9667,7 +9668,7 @@
       <c r="X288" s="1"/>
       <c r="Y288" s="1"/>
     </row>
-    <row r="289" spans="1:25" ht="13.2">
+    <row r="289" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -9694,7 +9695,7 @@
       <c r="X289" s="1"/>
       <c r="Y289" s="1"/>
     </row>
-    <row r="290" spans="1:25" ht="13.2">
+    <row r="290" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -9721,7 +9722,7 @@
       <c r="X290" s="1"/>
       <c r="Y290" s="1"/>
     </row>
-    <row r="291" spans="1:25" ht="13.2">
+    <row r="291" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -9748,7 +9749,7 @@
       <c r="X291" s="1"/>
       <c r="Y291" s="1"/>
     </row>
-    <row r="292" spans="1:25" ht="13.2">
+    <row r="292" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -9775,7 +9776,7 @@
       <c r="X292" s="1"/>
       <c r="Y292" s="1"/>
     </row>
-    <row r="293" spans="1:25" ht="13.2">
+    <row r="293" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -9802,7 +9803,7 @@
       <c r="X293" s="1"/>
       <c r="Y293" s="1"/>
     </row>
-    <row r="294" spans="1:25" ht="13.2">
+    <row r="294" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -9829,7 +9830,7 @@
       <c r="X294" s="1"/>
       <c r="Y294" s="1"/>
     </row>
-    <row r="295" spans="1:25" ht="13.2">
+    <row r="295" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -9856,7 +9857,7 @@
       <c r="X295" s="1"/>
       <c r="Y295" s="1"/>
     </row>
-    <row r="296" spans="1:25" ht="13.2">
+    <row r="296" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -9883,7 +9884,7 @@
       <c r="X296" s="1"/>
       <c r="Y296" s="1"/>
     </row>
-    <row r="297" spans="1:25" ht="13.2">
+    <row r="297" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -9910,7 +9911,7 @@
       <c r="X297" s="1"/>
       <c r="Y297" s="1"/>
     </row>
-    <row r="298" spans="1:25" ht="13.2">
+    <row r="298" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -9937,7 +9938,7 @@
       <c r="X298" s="1"/>
       <c r="Y298" s="1"/>
     </row>
-    <row r="299" spans="1:25" ht="13.2">
+    <row r="299" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -9964,7 +9965,7 @@
       <c r="X299" s="1"/>
       <c r="Y299" s="1"/>
     </row>
-    <row r="300" spans="1:25" ht="13.2">
+    <row r="300" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -9991,7 +9992,7 @@
       <c r="X300" s="1"/>
       <c r="Y300" s="1"/>
     </row>
-    <row r="301" spans="1:25" ht="13.2">
+    <row r="301" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -10018,7 +10019,7 @@
       <c r="X301" s="1"/>
       <c r="Y301" s="1"/>
     </row>
-    <row r="302" spans="1:25" ht="13.2">
+    <row r="302" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -10045,7 +10046,7 @@
       <c r="X302" s="1"/>
       <c r="Y302" s="1"/>
     </row>
-    <row r="303" spans="1:25" ht="13.2">
+    <row r="303" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -10072,7 +10073,7 @@
       <c r="X303" s="1"/>
       <c r="Y303" s="1"/>
     </row>
-    <row r="304" spans="1:25" ht="13.2">
+    <row r="304" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -10099,7 +10100,7 @@
       <c r="X304" s="1"/>
       <c r="Y304" s="1"/>
     </row>
-    <row r="305" spans="1:25" ht="13.2">
+    <row r="305" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -10126,7 +10127,7 @@
       <c r="X305" s="1"/>
       <c r="Y305" s="1"/>
     </row>
-    <row r="306" spans="1:25" ht="13.2">
+    <row r="306" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -10153,7 +10154,7 @@
       <c r="X306" s="1"/>
       <c r="Y306" s="1"/>
     </row>
-    <row r="307" spans="1:25" ht="13.2">
+    <row r="307" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -10180,7 +10181,7 @@
       <c r="X307" s="1"/>
       <c r="Y307" s="1"/>
     </row>
-    <row r="308" spans="1:25" ht="13.2">
+    <row r="308" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -10207,7 +10208,7 @@
       <c r="X308" s="1"/>
       <c r="Y308" s="1"/>
     </row>
-    <row r="309" spans="1:25" ht="13.2">
+    <row r="309" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -10234,7 +10235,7 @@
       <c r="X309" s="1"/>
       <c r="Y309" s="1"/>
     </row>
-    <row r="310" spans="1:25" ht="13.2">
+    <row r="310" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -10261,7 +10262,7 @@
       <c r="X310" s="1"/>
       <c r="Y310" s="1"/>
     </row>
-    <row r="311" spans="1:25" ht="13.2">
+    <row r="311" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -10288,7 +10289,7 @@
       <c r="X311" s="1"/>
       <c r="Y311" s="1"/>
     </row>
-    <row r="312" spans="1:25" ht="13.2">
+    <row r="312" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -10315,7 +10316,7 @@
       <c r="X312" s="1"/>
       <c r="Y312" s="1"/>
     </row>
-    <row r="313" spans="1:25" ht="13.2">
+    <row r="313" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -10342,7 +10343,7 @@
       <c r="X313" s="1"/>
       <c r="Y313" s="1"/>
     </row>
-    <row r="314" spans="1:25" ht="13.2">
+    <row r="314" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -10369,7 +10370,7 @@
       <c r="X314" s="1"/>
       <c r="Y314" s="1"/>
     </row>
-    <row r="315" spans="1:25" ht="13.2">
+    <row r="315" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -10396,7 +10397,7 @@
       <c r="X315" s="1"/>
       <c r="Y315" s="1"/>
     </row>
-    <row r="316" spans="1:25" ht="13.2">
+    <row r="316" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -10423,7 +10424,7 @@
       <c r="X316" s="1"/>
       <c r="Y316" s="1"/>
     </row>
-    <row r="317" spans="1:25" ht="13.2">
+    <row r="317" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -10450,7 +10451,7 @@
       <c r="X317" s="1"/>
       <c r="Y317" s="1"/>
     </row>
-    <row r="318" spans="1:25" ht="13.2">
+    <row r="318" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -10477,7 +10478,7 @@
       <c r="X318" s="1"/>
       <c r="Y318" s="1"/>
     </row>
-    <row r="319" spans="1:25" ht="13.2">
+    <row r="319" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -10504,7 +10505,7 @@
       <c r="X319" s="1"/>
       <c r="Y319" s="1"/>
     </row>
-    <row r="320" spans="1:25" ht="13.2">
+    <row r="320" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -10531,7 +10532,7 @@
       <c r="X320" s="1"/>
       <c r="Y320" s="1"/>
     </row>
-    <row r="321" spans="1:25" ht="13.2">
+    <row r="321" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -10558,7 +10559,7 @@
       <c r="X321" s="1"/>
       <c r="Y321" s="1"/>
     </row>
-    <row r="322" spans="1:25" ht="13.2">
+    <row r="322" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -10585,7 +10586,7 @@
       <c r="X322" s="1"/>
       <c r="Y322" s="1"/>
     </row>
-    <row r="323" spans="1:25" ht="13.2">
+    <row r="323" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -10612,7 +10613,7 @@
       <c r="X323" s="1"/>
       <c r="Y323" s="1"/>
     </row>
-    <row r="324" spans="1:25" ht="13.2">
+    <row r="324" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -10639,7 +10640,7 @@
       <c r="X324" s="1"/>
       <c r="Y324" s="1"/>
     </row>
-    <row r="325" spans="1:25" ht="13.2">
+    <row r="325" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -10666,7 +10667,7 @@
       <c r="X325" s="1"/>
       <c r="Y325" s="1"/>
     </row>
-    <row r="326" spans="1:25" ht="13.2">
+    <row r="326" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -10693,7 +10694,7 @@
       <c r="X326" s="1"/>
       <c r="Y326" s="1"/>
     </row>
-    <row r="327" spans="1:25" ht="13.2">
+    <row r="327" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -10720,7 +10721,7 @@
       <c r="X327" s="1"/>
       <c r="Y327" s="1"/>
     </row>
-    <row r="328" spans="1:25" ht="13.2">
+    <row r="328" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -10747,7 +10748,7 @@
       <c r="X328" s="1"/>
       <c r="Y328" s="1"/>
     </row>
-    <row r="329" spans="1:25" ht="13.2">
+    <row r="329" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -10774,7 +10775,7 @@
       <c r="X329" s="1"/>
       <c r="Y329" s="1"/>
     </row>
-    <row r="330" spans="1:25" ht="13.2">
+    <row r="330" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -10801,7 +10802,7 @@
       <c r="X330" s="1"/>
       <c r="Y330" s="1"/>
     </row>
-    <row r="331" spans="1:25" ht="13.2">
+    <row r="331" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -10828,7 +10829,7 @@
       <c r="X331" s="1"/>
       <c r="Y331" s="1"/>
     </row>
-    <row r="332" spans="1:25" ht="13.2">
+    <row r="332" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -10855,7 +10856,7 @@
       <c r="X332" s="1"/>
       <c r="Y332" s="1"/>
     </row>
-    <row r="333" spans="1:25" ht="13.2">
+    <row r="333" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -10882,7 +10883,7 @@
       <c r="X333" s="1"/>
       <c r="Y333" s="1"/>
     </row>
-    <row r="334" spans="1:25" ht="13.2">
+    <row r="334" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -10909,7 +10910,7 @@
       <c r="X334" s="1"/>
       <c r="Y334" s="1"/>
     </row>
-    <row r="335" spans="1:25" ht="13.2">
+    <row r="335" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -10936,7 +10937,7 @@
       <c r="X335" s="1"/>
       <c r="Y335" s="1"/>
     </row>
-    <row r="336" spans="1:25" ht="13.2">
+    <row r="336" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -10963,7 +10964,7 @@
       <c r="X336" s="1"/>
       <c r="Y336" s="1"/>
     </row>
-    <row r="337" spans="1:25" ht="13.2">
+    <row r="337" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -10990,7 +10991,7 @@
       <c r="X337" s="1"/>
       <c r="Y337" s="1"/>
     </row>
-    <row r="338" spans="1:25" ht="13.2">
+    <row r="338" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -11017,7 +11018,7 @@
       <c r="X338" s="1"/>
       <c r="Y338" s="1"/>
     </row>
-    <row r="339" spans="1:25" ht="13.2">
+    <row r="339" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -11044,7 +11045,7 @@
       <c r="X339" s="1"/>
       <c r="Y339" s="1"/>
     </row>
-    <row r="340" spans="1:25" ht="13.2">
+    <row r="340" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -11071,7 +11072,7 @@
       <c r="X340" s="1"/>
       <c r="Y340" s="1"/>
     </row>
-    <row r="341" spans="1:25" ht="13.2">
+    <row r="341" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -11098,7 +11099,7 @@
       <c r="X341" s="1"/>
       <c r="Y341" s="1"/>
     </row>
-    <row r="342" spans="1:25" ht="13.2">
+    <row r="342" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -11125,7 +11126,7 @@
       <c r="X342" s="1"/>
       <c r="Y342" s="1"/>
     </row>
-    <row r="343" spans="1:25" ht="13.2">
+    <row r="343" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -11152,7 +11153,7 @@
       <c r="X343" s="1"/>
       <c r="Y343" s="1"/>
     </row>
-    <row r="344" spans="1:25" ht="13.2">
+    <row r="344" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -11179,7 +11180,7 @@
       <c r="X344" s="1"/>
       <c r="Y344" s="1"/>
     </row>
-    <row r="345" spans="1:25" ht="13.2">
+    <row r="345" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -11206,7 +11207,7 @@
       <c r="X345" s="1"/>
       <c r="Y345" s="1"/>
     </row>
-    <row r="346" spans="1:25" ht="13.2">
+    <row r="346" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -11233,7 +11234,7 @@
       <c r="X346" s="1"/>
       <c r="Y346" s="1"/>
     </row>
-    <row r="347" spans="1:25" ht="13.2">
+    <row r="347" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -11260,7 +11261,7 @@
       <c r="X347" s="1"/>
       <c r="Y347" s="1"/>
     </row>
-    <row r="348" spans="1:25" ht="13.2">
+    <row r="348" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -11287,7 +11288,7 @@
       <c r="X348" s="1"/>
       <c r="Y348" s="1"/>
     </row>
-    <row r="349" spans="1:25" ht="13.2">
+    <row r="349" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -11314,7 +11315,7 @@
       <c r="X349" s="1"/>
       <c r="Y349" s="1"/>
     </row>
-    <row r="350" spans="1:25" ht="13.2">
+    <row r="350" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -11341,7 +11342,7 @@
       <c r="X350" s="1"/>
       <c r="Y350" s="1"/>
     </row>
-    <row r="351" spans="1:25" ht="13.2">
+    <row r="351" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -11368,7 +11369,7 @@
       <c r="X351" s="1"/>
       <c r="Y351" s="1"/>
     </row>
-    <row r="352" spans="1:25" ht="13.2">
+    <row r="352" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -11395,7 +11396,7 @@
       <c r="X352" s="1"/>
       <c r="Y352" s="1"/>
     </row>
-    <row r="353" spans="1:25" ht="13.2">
+    <row r="353" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -11422,7 +11423,7 @@
       <c r="X353" s="1"/>
       <c r="Y353" s="1"/>
     </row>
-    <row r="354" spans="1:25" ht="13.2">
+    <row r="354" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -11449,7 +11450,7 @@
       <c r="X354" s="1"/>
       <c r="Y354" s="1"/>
     </row>
-    <row r="355" spans="1:25" ht="13.2">
+    <row r="355" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -11476,7 +11477,7 @@
       <c r="X355" s="1"/>
       <c r="Y355" s="1"/>
     </row>
-    <row r="356" spans="1:25" ht="13.2">
+    <row r="356" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -11503,7 +11504,7 @@
       <c r="X356" s="1"/>
       <c r="Y356" s="1"/>
     </row>
-    <row r="357" spans="1:25" ht="13.2">
+    <row r="357" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -11530,7 +11531,7 @@
       <c r="X357" s="1"/>
       <c r="Y357" s="1"/>
     </row>
-    <row r="358" spans="1:25" ht="13.2">
+    <row r="358" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -11557,7 +11558,7 @@
       <c r="X358" s="1"/>
       <c r="Y358" s="1"/>
     </row>
-    <row r="359" spans="1:25" ht="13.2">
+    <row r="359" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -11584,7 +11585,7 @@
       <c r="X359" s="1"/>
       <c r="Y359" s="1"/>
     </row>
-    <row r="360" spans="1:25" ht="13.2">
+    <row r="360" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -11611,7 +11612,7 @@
       <c r="X360" s="1"/>
       <c r="Y360" s="1"/>
     </row>
-    <row r="361" spans="1:25" ht="13.2">
+    <row r="361" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -11638,7 +11639,7 @@
       <c r="X361" s="1"/>
       <c r="Y361" s="1"/>
     </row>
-    <row r="362" spans="1:25" ht="13.2">
+    <row r="362" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -11665,7 +11666,7 @@
       <c r="X362" s="1"/>
       <c r="Y362" s="1"/>
     </row>
-    <row r="363" spans="1:25" ht="13.2">
+    <row r="363" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -11692,7 +11693,7 @@
       <c r="X363" s="1"/>
       <c r="Y363" s="1"/>
     </row>
-    <row r="364" spans="1:25" ht="13.2">
+    <row r="364" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -11719,7 +11720,7 @@
       <c r="X364" s="1"/>
       <c r="Y364" s="1"/>
     </row>
-    <row r="365" spans="1:25" ht="13.2">
+    <row r="365" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -11746,7 +11747,7 @@
       <c r="X365" s="1"/>
       <c r="Y365" s="1"/>
     </row>
-    <row r="366" spans="1:25" ht="13.2">
+    <row r="366" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -11773,7 +11774,7 @@
       <c r="X366" s="1"/>
       <c r="Y366" s="1"/>
     </row>
-    <row r="367" spans="1:25" ht="13.2">
+    <row r="367" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -11800,7 +11801,7 @@
       <c r="X367" s="1"/>
       <c r="Y367" s="1"/>
     </row>
-    <row r="368" spans="1:25" ht="13.2">
+    <row r="368" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -11827,7 +11828,7 @@
       <c r="X368" s="1"/>
       <c r="Y368" s="1"/>
     </row>
-    <row r="369" spans="1:25" ht="13.2">
+    <row r="369" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -11854,7 +11855,7 @@
       <c r="X369" s="1"/>
       <c r="Y369" s="1"/>
     </row>
-    <row r="370" spans="1:25" ht="13.2">
+    <row r="370" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -11881,7 +11882,7 @@
       <c r="X370" s="1"/>
       <c r="Y370" s="1"/>
     </row>
-    <row r="371" spans="1:25" ht="13.2">
+    <row r="371" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -11908,7 +11909,7 @@
       <c r="X371" s="1"/>
       <c r="Y371" s="1"/>
     </row>
-    <row r="372" spans="1:25" ht="13.2">
+    <row r="372" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -11935,7 +11936,7 @@
       <c r="X372" s="1"/>
       <c r="Y372" s="1"/>
     </row>
-    <row r="373" spans="1:25" ht="13.2">
+    <row r="373" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -11962,7 +11963,7 @@
       <c r="X373" s="1"/>
       <c r="Y373" s="1"/>
     </row>
-    <row r="374" spans="1:25" ht="13.2">
+    <row r="374" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -11989,7 +11990,7 @@
       <c r="X374" s="1"/>
       <c r="Y374" s="1"/>
     </row>
-    <row r="375" spans="1:25" ht="13.2">
+    <row r="375" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -12016,7 +12017,7 @@
       <c r="X375" s="1"/>
       <c r="Y375" s="1"/>
     </row>
-    <row r="376" spans="1:25" ht="13.2">
+    <row r="376" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -12043,7 +12044,7 @@
       <c r="X376" s="1"/>
       <c r="Y376" s="1"/>
     </row>
-    <row r="377" spans="1:25" ht="13.2">
+    <row r="377" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -12070,7 +12071,7 @@
       <c r="X377" s="1"/>
       <c r="Y377" s="1"/>
     </row>
-    <row r="378" spans="1:25" ht="13.2">
+    <row r="378" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -12097,7 +12098,7 @@
       <c r="X378" s="1"/>
       <c r="Y378" s="1"/>
     </row>
-    <row r="379" spans="1:25" ht="13.2">
+    <row r="379" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -12124,7 +12125,7 @@
       <c r="X379" s="1"/>
       <c r="Y379" s="1"/>
     </row>
-    <row r="380" spans="1:25" ht="13.2">
+    <row r="380" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -12151,7 +12152,7 @@
       <c r="X380" s="1"/>
       <c r="Y380" s="1"/>
     </row>
-    <row r="381" spans="1:25" ht="13.2">
+    <row r="381" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -12178,7 +12179,7 @@
       <c r="X381" s="1"/>
       <c r="Y381" s="1"/>
     </row>
-    <row r="382" spans="1:25" ht="13.2">
+    <row r="382" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -12205,7 +12206,7 @@
       <c r="X382" s="1"/>
       <c r="Y382" s="1"/>
     </row>
-    <row r="383" spans="1:25" ht="13.2">
+    <row r="383" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -12232,7 +12233,7 @@
       <c r="X383" s="1"/>
       <c r="Y383" s="1"/>
     </row>
-    <row r="384" spans="1:25" ht="13.2">
+    <row r="384" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -12259,7 +12260,7 @@
       <c r="X384" s="1"/>
       <c r="Y384" s="1"/>
     </row>
-    <row r="385" spans="1:25" ht="13.2">
+    <row r="385" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -12286,7 +12287,7 @@
       <c r="X385" s="1"/>
       <c r="Y385" s="1"/>
     </row>
-    <row r="386" spans="1:25" ht="13.2">
+    <row r="386" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -12313,7 +12314,7 @@
       <c r="X386" s="1"/>
       <c r="Y386" s="1"/>
     </row>
-    <row r="387" spans="1:25" ht="13.2">
+    <row r="387" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -12340,7 +12341,7 @@
       <c r="X387" s="1"/>
       <c r="Y387" s="1"/>
     </row>
-    <row r="388" spans="1:25" ht="13.2">
+    <row r="388" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -12367,7 +12368,7 @@
       <c r="X388" s="1"/>
       <c r="Y388" s="1"/>
     </row>
-    <row r="389" spans="1:25" ht="13.2">
+    <row r="389" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -12394,7 +12395,7 @@
       <c r="X389" s="1"/>
       <c r="Y389" s="1"/>
     </row>
-    <row r="390" spans="1:25" ht="13.2">
+    <row r="390" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -12421,7 +12422,7 @@
       <c r="X390" s="1"/>
       <c r="Y390" s="1"/>
     </row>
-    <row r="391" spans="1:25" ht="13.2">
+    <row r="391" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -12448,7 +12449,7 @@
       <c r="X391" s="1"/>
       <c r="Y391" s="1"/>
     </row>
-    <row r="392" spans="1:25" ht="13.2">
+    <row r="392" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -12475,7 +12476,7 @@
       <c r="X392" s="1"/>
       <c r="Y392" s="1"/>
     </row>
-    <row r="393" spans="1:25" ht="13.2">
+    <row r="393" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -12502,7 +12503,7 @@
       <c r="X393" s="1"/>
       <c r="Y393" s="1"/>
     </row>
-    <row r="394" spans="1:25" ht="13.2">
+    <row r="394" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -12529,7 +12530,7 @@
       <c r="X394" s="1"/>
       <c r="Y394" s="1"/>
     </row>
-    <row r="395" spans="1:25" ht="13.2">
+    <row r="395" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -12556,7 +12557,7 @@
       <c r="X395" s="1"/>
       <c r="Y395" s="1"/>
     </row>
-    <row r="396" spans="1:25" ht="13.2">
+    <row r="396" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -12583,7 +12584,7 @@
       <c r="X396" s="1"/>
       <c r="Y396" s="1"/>
     </row>
-    <row r="397" spans="1:25" ht="13.2">
+    <row r="397" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -12610,7 +12611,7 @@
       <c r="X397" s="1"/>
       <c r="Y397" s="1"/>
     </row>
-    <row r="398" spans="1:25" ht="13.2">
+    <row r="398" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -12637,7 +12638,7 @@
       <c r="X398" s="1"/>
       <c r="Y398" s="1"/>
     </row>
-    <row r="399" spans="1:25" ht="13.2">
+    <row r="399" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -12664,7 +12665,7 @@
       <c r="X399" s="1"/>
       <c r="Y399" s="1"/>
     </row>
-    <row r="400" spans="1:25" ht="13.2">
+    <row r="400" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -12691,7 +12692,7 @@
       <c r="X400" s="1"/>
       <c r="Y400" s="1"/>
     </row>
-    <row r="401" spans="1:25" ht="13.2">
+    <row r="401" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -12718,7 +12719,7 @@
       <c r="X401" s="1"/>
       <c r="Y401" s="1"/>
     </row>
-    <row r="402" spans="1:25" ht="13.2">
+    <row r="402" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -12745,7 +12746,7 @@
       <c r="X402" s="1"/>
       <c r="Y402" s="1"/>
     </row>
-    <row r="403" spans="1:25" ht="13.2">
+    <row r="403" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -12772,7 +12773,7 @@
       <c r="X403" s="1"/>
       <c r="Y403" s="1"/>
     </row>
-    <row r="404" spans="1:25" ht="13.2">
+    <row r="404" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -12799,7 +12800,7 @@
       <c r="X404" s="1"/>
       <c r="Y404" s="1"/>
     </row>
-    <row r="405" spans="1:25" ht="13.2">
+    <row r="405" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -12826,7 +12827,7 @@
       <c r="X405" s="1"/>
       <c r="Y405" s="1"/>
     </row>
-    <row r="406" spans="1:25" ht="13.2">
+    <row r="406" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -12853,7 +12854,7 @@
       <c r="X406" s="1"/>
       <c r="Y406" s="1"/>
     </row>
-    <row r="407" spans="1:25" ht="13.2">
+    <row r="407" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -12880,7 +12881,7 @@
       <c r="X407" s="1"/>
       <c r="Y407" s="1"/>
     </row>
-    <row r="408" spans="1:25" ht="13.2">
+    <row r="408" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -12907,7 +12908,7 @@
       <c r="X408" s="1"/>
       <c r="Y408" s="1"/>
     </row>
-    <row r="409" spans="1:25" ht="13.2">
+    <row r="409" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -12934,7 +12935,7 @@
       <c r="X409" s="1"/>
       <c r="Y409" s="1"/>
     </row>
-    <row r="410" spans="1:25" ht="13.2">
+    <row r="410" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -12961,7 +12962,7 @@
       <c r="X410" s="1"/>
       <c r="Y410" s="1"/>
     </row>
-    <row r="411" spans="1:25" ht="13.2">
+    <row r="411" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -12988,7 +12989,7 @@
       <c r="X411" s="1"/>
       <c r="Y411" s="1"/>
     </row>
-    <row r="412" spans="1:25" ht="13.2">
+    <row r="412" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -13015,7 +13016,7 @@
       <c r="X412" s="1"/>
       <c r="Y412" s="1"/>
     </row>
-    <row r="413" spans="1:25" ht="13.2">
+    <row r="413" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -13042,7 +13043,7 @@
       <c r="X413" s="1"/>
       <c r="Y413" s="1"/>
     </row>
-    <row r="414" spans="1:25" ht="13.2">
+    <row r="414" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -13069,7 +13070,7 @@
       <c r="X414" s="1"/>
       <c r="Y414" s="1"/>
     </row>
-    <row r="415" spans="1:25" ht="13.2">
+    <row r="415" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -13096,7 +13097,7 @@
       <c r="X415" s="1"/>
       <c r="Y415" s="1"/>
     </row>
-    <row r="416" spans="1:25" ht="13.2">
+    <row r="416" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -13123,7 +13124,7 @@
       <c r="X416" s="1"/>
       <c r="Y416" s="1"/>
     </row>
-    <row r="417" spans="1:25" ht="13.2">
+    <row r="417" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -13150,7 +13151,7 @@
       <c r="X417" s="1"/>
       <c r="Y417" s="1"/>
     </row>
-    <row r="418" spans="1:25" ht="13.2">
+    <row r="418" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -13177,7 +13178,7 @@
       <c r="X418" s="1"/>
       <c r="Y418" s="1"/>
     </row>
-    <row r="419" spans="1:25" ht="13.2">
+    <row r="419" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -13204,7 +13205,7 @@
       <c r="X419" s="1"/>
       <c r="Y419" s="1"/>
     </row>
-    <row r="420" spans="1:25" ht="13.2">
+    <row r="420" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -13231,7 +13232,7 @@
       <c r="X420" s="1"/>
       <c r="Y420" s="1"/>
     </row>
-    <row r="421" spans="1:25" ht="13.2">
+    <row r="421" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -13258,7 +13259,7 @@
       <c r="X421" s="1"/>
       <c r="Y421" s="1"/>
     </row>
-    <row r="422" spans="1:25" ht="13.2">
+    <row r="422" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -13285,7 +13286,7 @@
       <c r="X422" s="1"/>
       <c r="Y422" s="1"/>
     </row>
-    <row r="423" spans="1:25" ht="13.2">
+    <row r="423" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -13312,7 +13313,7 @@
       <c r="X423" s="1"/>
       <c r="Y423" s="1"/>
     </row>
-    <row r="424" spans="1:25" ht="13.2">
+    <row r="424" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -13339,7 +13340,7 @@
       <c r="X424" s="1"/>
       <c r="Y424" s="1"/>
     </row>
-    <row r="425" spans="1:25" ht="13.2">
+    <row r="425" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -13366,7 +13367,7 @@
       <c r="X425" s="1"/>
       <c r="Y425" s="1"/>
     </row>
-    <row r="426" spans="1:25" ht="13.2">
+    <row r="426" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -13393,7 +13394,7 @@
       <c r="X426" s="1"/>
       <c r="Y426" s="1"/>
     </row>
-    <row r="427" spans="1:25" ht="13.2">
+    <row r="427" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -13420,7 +13421,7 @@
       <c r="X427" s="1"/>
       <c r="Y427" s="1"/>
     </row>
-    <row r="428" spans="1:25" ht="13.2">
+    <row r="428" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -13447,7 +13448,7 @@
       <c r="X428" s="1"/>
       <c r="Y428" s="1"/>
     </row>
-    <row r="429" spans="1:25" ht="13.2">
+    <row r="429" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -13474,7 +13475,7 @@
       <c r="X429" s="1"/>
       <c r="Y429" s="1"/>
     </row>
-    <row r="430" spans="1:25" ht="13.2">
+    <row r="430" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -13501,7 +13502,7 @@
       <c r="X430" s="1"/>
       <c r="Y430" s="1"/>
     </row>
-    <row r="431" spans="1:25" ht="13.2">
+    <row r="431" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -13528,7 +13529,7 @@
       <c r="X431" s="1"/>
       <c r="Y431" s="1"/>
     </row>
-    <row r="432" spans="1:25" ht="13.2">
+    <row r="432" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -13555,7 +13556,7 @@
       <c r="X432" s="1"/>
       <c r="Y432" s="1"/>
     </row>
-    <row r="433" spans="1:25" ht="13.2">
+    <row r="433" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -13582,7 +13583,7 @@
       <c r="X433" s="1"/>
       <c r="Y433" s="1"/>
     </row>
-    <row r="434" spans="1:25" ht="13.2">
+    <row r="434" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -13609,7 +13610,7 @@
       <c r="X434" s="1"/>
       <c r="Y434" s="1"/>
     </row>
-    <row r="435" spans="1:25" ht="13.2">
+    <row r="435" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -13636,7 +13637,7 @@
       <c r="X435" s="1"/>
       <c r="Y435" s="1"/>
     </row>
-    <row r="436" spans="1:25" ht="13.2">
+    <row r="436" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -13663,7 +13664,7 @@
       <c r="X436" s="1"/>
       <c r="Y436" s="1"/>
     </row>
-    <row r="437" spans="1:25" ht="13.2">
+    <row r="437" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -13690,7 +13691,7 @@
       <c r="X437" s="1"/>
       <c r="Y437" s="1"/>
     </row>
-    <row r="438" spans="1:25" ht="13.2">
+    <row r="438" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -13717,7 +13718,7 @@
       <c r="X438" s="1"/>
       <c r="Y438" s="1"/>
     </row>
-    <row r="439" spans="1:25" ht="13.2">
+    <row r="439" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -13744,7 +13745,7 @@
       <c r="X439" s="1"/>
       <c r="Y439" s="1"/>
     </row>
-    <row r="440" spans="1:25" ht="13.2">
+    <row r="440" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -13771,7 +13772,7 @@
       <c r="X440" s="1"/>
       <c r="Y440" s="1"/>
     </row>
-    <row r="441" spans="1:25" ht="13.2">
+    <row r="441" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -13798,7 +13799,7 @@
       <c r="X441" s="1"/>
       <c r="Y441" s="1"/>
     </row>
-    <row r="442" spans="1:25" ht="13.2">
+    <row r="442" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -13825,7 +13826,7 @@
       <c r="X442" s="1"/>
       <c r="Y442" s="1"/>
     </row>
-    <row r="443" spans="1:25" ht="13.2">
+    <row r="443" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -13852,7 +13853,7 @@
       <c r="X443" s="1"/>
       <c r="Y443" s="1"/>
     </row>
-    <row r="444" spans="1:25" ht="13.2">
+    <row r="444" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -13879,7 +13880,7 @@
       <c r="X444" s="1"/>
       <c r="Y444" s="1"/>
     </row>
-    <row r="445" spans="1:25" ht="13.2">
+    <row r="445" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -13906,7 +13907,7 @@
       <c r="X445" s="1"/>
       <c r="Y445" s="1"/>
     </row>
-    <row r="446" spans="1:25" ht="13.2">
+    <row r="446" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -13933,7 +13934,7 @@
       <c r="X446" s="1"/>
       <c r="Y446" s="1"/>
     </row>
-    <row r="447" spans="1:25" ht="13.2">
+    <row r="447" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -13960,7 +13961,7 @@
       <c r="X447" s="1"/>
       <c r="Y447" s="1"/>
     </row>
-    <row r="448" spans="1:25" ht="13.2">
+    <row r="448" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -13987,7 +13988,7 @@
       <c r="X448" s="1"/>
       <c r="Y448" s="1"/>
     </row>
-    <row r="449" spans="1:25" ht="13.2">
+    <row r="449" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -14014,7 +14015,7 @@
       <c r="X449" s="1"/>
       <c r="Y449" s="1"/>
     </row>
-    <row r="450" spans="1:25" ht="13.2">
+    <row r="450" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -14041,7 +14042,7 @@
       <c r="X450" s="1"/>
       <c r="Y450" s="1"/>
     </row>
-    <row r="451" spans="1:25" ht="13.2">
+    <row r="451" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -14068,7 +14069,7 @@
       <c r="X451" s="1"/>
       <c r="Y451" s="1"/>
     </row>
-    <row r="452" spans="1:25" ht="13.2">
+    <row r="452" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -14095,7 +14096,7 @@
       <c r="X452" s="1"/>
       <c r="Y452" s="1"/>
     </row>
-    <row r="453" spans="1:25" ht="13.2">
+    <row r="453" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -14122,7 +14123,7 @@
       <c r="X453" s="1"/>
       <c r="Y453" s="1"/>
     </row>
-    <row r="454" spans="1:25" ht="13.2">
+    <row r="454" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -14149,7 +14150,7 @@
       <c r="X454" s="1"/>
       <c r="Y454" s="1"/>
     </row>
-    <row r="455" spans="1:25" ht="13.2">
+    <row r="455" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -14176,7 +14177,7 @@
       <c r="X455" s="1"/>
       <c r="Y455" s="1"/>
     </row>
-    <row r="456" spans="1:25" ht="13.2">
+    <row r="456" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -14203,7 +14204,7 @@
       <c r="X456" s="1"/>
       <c r="Y456" s="1"/>
     </row>
-    <row r="457" spans="1:25" ht="13.2">
+    <row r="457" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -14230,7 +14231,7 @@
       <c r="X457" s="1"/>
       <c r="Y457" s="1"/>
     </row>
-    <row r="458" spans="1:25" ht="13.2">
+    <row r="458" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -14257,7 +14258,7 @@
       <c r="X458" s="1"/>
       <c r="Y458" s="1"/>
     </row>
-    <row r="459" spans="1:25" ht="13.2">
+    <row r="459" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -14284,7 +14285,7 @@
       <c r="X459" s="1"/>
       <c r="Y459" s="1"/>
     </row>
-    <row r="460" spans="1:25" ht="13.2">
+    <row r="460" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -14311,7 +14312,7 @@
       <c r="X460" s="1"/>
       <c r="Y460" s="1"/>
     </row>
-    <row r="461" spans="1:25" ht="13.2">
+    <row r="461" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -14338,7 +14339,7 @@
       <c r="X461" s="1"/>
       <c r="Y461" s="1"/>
     </row>
-    <row r="462" spans="1:25" ht="13.2">
+    <row r="462" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -14365,7 +14366,7 @@
       <c r="X462" s="1"/>
       <c r="Y462" s="1"/>
     </row>
-    <row r="463" spans="1:25" ht="13.2">
+    <row r="463" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -14392,7 +14393,7 @@
       <c r="X463" s="1"/>
       <c r="Y463" s="1"/>
     </row>
-    <row r="464" spans="1:25" ht="13.2">
+    <row r="464" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -14419,7 +14420,7 @@
       <c r="X464" s="1"/>
       <c r="Y464" s="1"/>
     </row>
-    <row r="465" spans="1:25" ht="13.2">
+    <row r="465" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -14446,7 +14447,7 @@
       <c r="X465" s="1"/>
       <c r="Y465" s="1"/>
     </row>
-    <row r="466" spans="1:25" ht="13.2">
+    <row r="466" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -14473,7 +14474,7 @@
       <c r="X466" s="1"/>
       <c r="Y466" s="1"/>
     </row>
-    <row r="467" spans="1:25" ht="13.2">
+    <row r="467" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -14500,7 +14501,7 @@
       <c r="X467" s="1"/>
       <c r="Y467" s="1"/>
     </row>
-    <row r="468" spans="1:25" ht="13.2">
+    <row r="468" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -14527,7 +14528,7 @@
       <c r="X468" s="1"/>
       <c r="Y468" s="1"/>
     </row>
-    <row r="469" spans="1:25" ht="13.2">
+    <row r="469" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -14554,7 +14555,7 @@
       <c r="X469" s="1"/>
       <c r="Y469" s="1"/>
     </row>
-    <row r="470" spans="1:25" ht="13.2">
+    <row r="470" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -14581,7 +14582,7 @@
       <c r="X470" s="1"/>
       <c r="Y470" s="1"/>
     </row>
-    <row r="471" spans="1:25" ht="13.2">
+    <row r="471" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -14608,7 +14609,7 @@
       <c r="X471" s="1"/>
       <c r="Y471" s="1"/>
     </row>
-    <row r="472" spans="1:25" ht="13.2">
+    <row r="472" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -14635,7 +14636,7 @@
       <c r="X472" s="1"/>
       <c r="Y472" s="1"/>
     </row>
-    <row r="473" spans="1:25" ht="13.2">
+    <row r="473" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -14662,7 +14663,7 @@
       <c r="X473" s="1"/>
       <c r="Y473" s="1"/>
     </row>
-    <row r="474" spans="1:25" ht="13.2">
+    <row r="474" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -14689,7 +14690,7 @@
       <c r="X474" s="1"/>
       <c r="Y474" s="1"/>
     </row>
-    <row r="475" spans="1:25" ht="13.2">
+    <row r="475" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -14716,7 +14717,7 @@
       <c r="X475" s="1"/>
       <c r="Y475" s="1"/>
     </row>
-    <row r="476" spans="1:25" ht="13.2">
+    <row r="476" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -14743,7 +14744,7 @@
       <c r="X476" s="1"/>
       <c r="Y476" s="1"/>
     </row>
-    <row r="477" spans="1:25" ht="13.2">
+    <row r="477" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -14770,7 +14771,7 @@
       <c r="X477" s="1"/>
       <c r="Y477" s="1"/>
     </row>
-    <row r="478" spans="1:25" ht="13.2">
+    <row r="478" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -14797,7 +14798,7 @@
       <c r="X478" s="1"/>
       <c r="Y478" s="1"/>
     </row>
-    <row r="479" spans="1:25" ht="13.2">
+    <row r="479" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -14824,7 +14825,7 @@
       <c r="X479" s="1"/>
       <c r="Y479" s="1"/>
     </row>
-    <row r="480" spans="1:25" ht="13.2">
+    <row r="480" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -14851,7 +14852,7 @@
       <c r="X480" s="1"/>
       <c r="Y480" s="1"/>
     </row>
-    <row r="481" spans="1:25" ht="13.2">
+    <row r="481" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -14878,7 +14879,7 @@
       <c r="X481" s="1"/>
       <c r="Y481" s="1"/>
     </row>
-    <row r="482" spans="1:25" ht="13.2">
+    <row r="482" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -14905,7 +14906,7 @@
       <c r="X482" s="1"/>
       <c r="Y482" s="1"/>
     </row>
-    <row r="483" spans="1:25" ht="13.2">
+    <row r="483" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -14932,7 +14933,7 @@
       <c r="X483" s="1"/>
       <c r="Y483" s="1"/>
     </row>
-    <row r="484" spans="1:25" ht="13.2">
+    <row r="484" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -14959,7 +14960,7 @@
       <c r="X484" s="1"/>
       <c r="Y484" s="1"/>
     </row>
-    <row r="485" spans="1:25" ht="13.2">
+    <row r="485" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -14986,7 +14987,7 @@
       <c r="X485" s="1"/>
       <c r="Y485" s="1"/>
     </row>
-    <row r="486" spans="1:25" ht="13.2">
+    <row r="486" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -15013,7 +15014,7 @@
       <c r="X486" s="1"/>
       <c r="Y486" s="1"/>
     </row>
-    <row r="487" spans="1:25" ht="13.2">
+    <row r="487" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -15040,7 +15041,7 @@
       <c r="X487" s="1"/>
       <c r="Y487" s="1"/>
     </row>
-    <row r="488" spans="1:25" ht="13.2">
+    <row r="488" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -15067,7 +15068,7 @@
       <c r="X488" s="1"/>
       <c r="Y488" s="1"/>
     </row>
-    <row r="489" spans="1:25" ht="13.2">
+    <row r="489" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -15094,7 +15095,7 @@
       <c r="X489" s="1"/>
       <c r="Y489" s="1"/>
     </row>
-    <row r="490" spans="1:25" ht="13.2">
+    <row r="490" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -15121,7 +15122,7 @@
       <c r="X490" s="1"/>
       <c r="Y490" s="1"/>
     </row>
-    <row r="491" spans="1:25" ht="13.2">
+    <row r="491" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -15148,7 +15149,7 @@
       <c r="X491" s="1"/>
       <c r="Y491" s="1"/>
     </row>
-    <row r="492" spans="1:25" ht="13.2">
+    <row r="492" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -15175,7 +15176,7 @@
       <c r="X492" s="1"/>
       <c r="Y492" s="1"/>
     </row>
-    <row r="493" spans="1:25" ht="13.2">
+    <row r="493" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -15202,7 +15203,7 @@
       <c r="X493" s="1"/>
       <c r="Y493" s="1"/>
     </row>
-    <row r="494" spans="1:25" ht="13.2">
+    <row r="494" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -15229,7 +15230,7 @@
       <c r="X494" s="1"/>
       <c r="Y494" s="1"/>
     </row>
-    <row r="495" spans="1:25" ht="13.2">
+    <row r="495" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -15256,7 +15257,7 @@
       <c r="X495" s="1"/>
       <c r="Y495" s="1"/>
     </row>
-    <row r="496" spans="1:25" ht="13.2">
+    <row r="496" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -15283,7 +15284,7 @@
       <c r="X496" s="1"/>
       <c r="Y496" s="1"/>
     </row>
-    <row r="497" spans="1:25" ht="13.2">
+    <row r="497" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -15310,7 +15311,7 @@
       <c r="X497" s="1"/>
       <c r="Y497" s="1"/>
     </row>
-    <row r="498" spans="1:25" ht="13.2">
+    <row r="498" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -15337,7 +15338,7 @@
       <c r="X498" s="1"/>
       <c r="Y498" s="1"/>
     </row>
-    <row r="499" spans="1:25" ht="13.2">
+    <row r="499" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -15364,7 +15365,7 @@
       <c r="X499" s="1"/>
       <c r="Y499" s="1"/>
     </row>
-    <row r="500" spans="1:25" ht="13.2">
+    <row r="500" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -15391,7 +15392,7 @@
       <c r="X500" s="1"/>
       <c r="Y500" s="1"/>
     </row>
-    <row r="501" spans="1:25" ht="13.2">
+    <row r="501" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -15418,7 +15419,7 @@
       <c r="X501" s="1"/>
       <c r="Y501" s="1"/>
     </row>
-    <row r="502" spans="1:25" ht="13.2">
+    <row r="502" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -15445,7 +15446,7 @@
       <c r="X502" s="1"/>
       <c r="Y502" s="1"/>
     </row>
-    <row r="503" spans="1:25" ht="13.2">
+    <row r="503" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -15472,7 +15473,7 @@
       <c r="X503" s="1"/>
       <c r="Y503" s="1"/>
     </row>
-    <row r="504" spans="1:25" ht="13.2">
+    <row r="504" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -15499,7 +15500,7 @@
       <c r="X504" s="1"/>
       <c r="Y504" s="1"/>
     </row>
-    <row r="505" spans="1:25" ht="13.2">
+    <row r="505" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -15526,7 +15527,7 @@
       <c r="X505" s="1"/>
       <c r="Y505" s="1"/>
     </row>
-    <row r="506" spans="1:25" ht="13.2">
+    <row r="506" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -15553,7 +15554,7 @@
       <c r="X506" s="1"/>
       <c r="Y506" s="1"/>
     </row>
-    <row r="507" spans="1:25" ht="13.2">
+    <row r="507" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -15580,7 +15581,7 @@
       <c r="X507" s="1"/>
       <c r="Y507" s="1"/>
     </row>
-    <row r="508" spans="1:25" ht="13.2">
+    <row r="508" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -15607,7 +15608,7 @@
       <c r="X508" s="1"/>
       <c r="Y508" s="1"/>
     </row>
-    <row r="509" spans="1:25" ht="13.2">
+    <row r="509" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -15634,7 +15635,7 @@
       <c r="X509" s="1"/>
       <c r="Y509" s="1"/>
     </row>
-    <row r="510" spans="1:25" ht="13.2">
+    <row r="510" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -15661,7 +15662,7 @@
       <c r="X510" s="1"/>
       <c r="Y510" s="1"/>
     </row>
-    <row r="511" spans="1:25" ht="13.2">
+    <row r="511" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -15688,7 +15689,7 @@
       <c r="X511" s="1"/>
       <c r="Y511" s="1"/>
     </row>
-    <row r="512" spans="1:25" ht="13.2">
+    <row r="512" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -15715,7 +15716,7 @@
       <c r="X512" s="1"/>
       <c r="Y512" s="1"/>
     </row>
-    <row r="513" spans="1:25" ht="13.2">
+    <row r="513" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -15742,7 +15743,7 @@
       <c r="X513" s="1"/>
       <c r="Y513" s="1"/>
     </row>
-    <row r="514" spans="1:25" ht="13.2">
+    <row r="514" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -15769,7 +15770,7 @@
       <c r="X514" s="1"/>
       <c r="Y514" s="1"/>
     </row>
-    <row r="515" spans="1:25" ht="13.2">
+    <row r="515" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -15796,7 +15797,7 @@
       <c r="X515" s="1"/>
       <c r="Y515" s="1"/>
     </row>
-    <row r="516" spans="1:25" ht="13.2">
+    <row r="516" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -15823,7 +15824,7 @@
       <c r="X516" s="1"/>
       <c r="Y516" s="1"/>
     </row>
-    <row r="517" spans="1:25" ht="13.2">
+    <row r="517" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -15850,7 +15851,7 @@
       <c r="X517" s="1"/>
       <c r="Y517" s="1"/>
     </row>
-    <row r="518" spans="1:25" ht="13.2">
+    <row r="518" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -15877,7 +15878,7 @@
       <c r="X518" s="1"/>
       <c r="Y518" s="1"/>
     </row>
-    <row r="519" spans="1:25" ht="13.2">
+    <row r="519" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -15904,7 +15905,7 @@
       <c r="X519" s="1"/>
       <c r="Y519" s="1"/>
     </row>
-    <row r="520" spans="1:25" ht="13.2">
+    <row r="520" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -15931,7 +15932,7 @@
       <c r="X520" s="1"/>
       <c r="Y520" s="1"/>
     </row>
-    <row r="521" spans="1:25" ht="13.2">
+    <row r="521" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -15958,7 +15959,7 @@
       <c r="X521" s="1"/>
       <c r="Y521" s="1"/>
     </row>
-    <row r="522" spans="1:25" ht="13.2">
+    <row r="522" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -15985,7 +15986,7 @@
       <c r="X522" s="1"/>
       <c r="Y522" s="1"/>
     </row>
-    <row r="523" spans="1:25" ht="13.2">
+    <row r="523" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -16012,7 +16013,7 @@
       <c r="X523" s="1"/>
       <c r="Y523" s="1"/>
     </row>
-    <row r="524" spans="1:25" ht="13.2">
+    <row r="524" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -16039,7 +16040,7 @@
       <c r="X524" s="1"/>
       <c r="Y524" s="1"/>
     </row>
-    <row r="525" spans="1:25" ht="13.2">
+    <row r="525" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -16066,7 +16067,7 @@
       <c r="X525" s="1"/>
       <c r="Y525" s="1"/>
     </row>
-    <row r="526" spans="1:25" ht="13.2">
+    <row r="526" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -16093,7 +16094,7 @@
       <c r="X526" s="1"/>
       <c r="Y526" s="1"/>
     </row>
-    <row r="527" spans="1:25" ht="13.2">
+    <row r="527" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -16120,7 +16121,7 @@
       <c r="X527" s="1"/>
       <c r="Y527" s="1"/>
     </row>
-    <row r="528" spans="1:25" ht="13.2">
+    <row r="528" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -16147,7 +16148,7 @@
       <c r="X528" s="1"/>
       <c r="Y528" s="1"/>
     </row>
-    <row r="529" spans="1:25" ht="13.2">
+    <row r="529" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -16174,7 +16175,7 @@
       <c r="X529" s="1"/>
       <c r="Y529" s="1"/>
     </row>
-    <row r="530" spans="1:25" ht="13.2">
+    <row r="530" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -16201,7 +16202,7 @@
       <c r="X530" s="1"/>
       <c r="Y530" s="1"/>
     </row>
-    <row r="531" spans="1:25" ht="13.2">
+    <row r="531" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -16228,7 +16229,7 @@
       <c r="X531" s="1"/>
       <c r="Y531" s="1"/>
     </row>
-    <row r="532" spans="1:25" ht="13.2">
+    <row r="532" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -16255,7 +16256,7 @@
       <c r="X532" s="1"/>
       <c r="Y532" s="1"/>
     </row>
-    <row r="533" spans="1:25" ht="13.2">
+    <row r="533" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -16282,7 +16283,7 @@
       <c r="X533" s="1"/>
       <c r="Y533" s="1"/>
     </row>
-    <row r="534" spans="1:25" ht="13.2">
+    <row r="534" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -16309,7 +16310,7 @@
       <c r="X534" s="1"/>
       <c r="Y534" s="1"/>
     </row>
-    <row r="535" spans="1:25" ht="13.2">
+    <row r="535" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -16336,7 +16337,7 @@
       <c r="X535" s="1"/>
       <c r="Y535" s="1"/>
     </row>
-    <row r="536" spans="1:25" ht="13.2">
+    <row r="536" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -16363,7 +16364,7 @@
       <c r="X536" s="1"/>
       <c r="Y536" s="1"/>
     </row>
-    <row r="537" spans="1:25" ht="13.2">
+    <row r="537" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -16390,7 +16391,7 @@
       <c r="X537" s="1"/>
       <c r="Y537" s="1"/>
     </row>
-    <row r="538" spans="1:25" ht="13.2">
+    <row r="538" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -16417,7 +16418,7 @@
       <c r="X538" s="1"/>
       <c r="Y538" s="1"/>
     </row>
-    <row r="539" spans="1:25" ht="13.2">
+    <row r="539" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -16444,7 +16445,7 @@
       <c r="X539" s="1"/>
       <c r="Y539" s="1"/>
     </row>
-    <row r="540" spans="1:25" ht="13.2">
+    <row r="540" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -16471,7 +16472,7 @@
       <c r="X540" s="1"/>
       <c r="Y540" s="1"/>
     </row>
-    <row r="541" spans="1:25" ht="13.2">
+    <row r="541" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -16498,7 +16499,7 @@
       <c r="X541" s="1"/>
       <c r="Y541" s="1"/>
     </row>
-    <row r="542" spans="1:25" ht="13.2">
+    <row r="542" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -16525,7 +16526,7 @@
       <c r="X542" s="1"/>
       <c r="Y542" s="1"/>
     </row>
-    <row r="543" spans="1:25" ht="13.2">
+    <row r="543" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -16552,7 +16553,7 @@
       <c r="X543" s="1"/>
       <c r="Y543" s="1"/>
     </row>
-    <row r="544" spans="1:25" ht="13.2">
+    <row r="544" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -16579,7 +16580,7 @@
       <c r="X544" s="1"/>
       <c r="Y544" s="1"/>
     </row>
-    <row r="545" spans="1:25" ht="13.2">
+    <row r="545" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -16606,7 +16607,7 @@
       <c r="X545" s="1"/>
       <c r="Y545" s="1"/>
     </row>
-    <row r="546" spans="1:25" ht="13.2">
+    <row r="546" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -16633,7 +16634,7 @@
       <c r="X546" s="1"/>
       <c r="Y546" s="1"/>
     </row>
-    <row r="547" spans="1:25" ht="13.2">
+    <row r="547" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -16660,7 +16661,7 @@
       <c r="X547" s="1"/>
       <c r="Y547" s="1"/>
     </row>
-    <row r="548" spans="1:25" ht="13.2">
+    <row r="548" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -16687,7 +16688,7 @@
       <c r="X548" s="1"/>
       <c r="Y548" s="1"/>
     </row>
-    <row r="549" spans="1:25" ht="13.2">
+    <row r="549" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -16714,7 +16715,7 @@
       <c r="X549" s="1"/>
       <c r="Y549" s="1"/>
     </row>
-    <row r="550" spans="1:25" ht="13.2">
+    <row r="550" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -16741,7 +16742,7 @@
       <c r="X550" s="1"/>
       <c r="Y550" s="1"/>
     </row>
-    <row r="551" spans="1:25" ht="13.2">
+    <row r="551" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -16768,7 +16769,7 @@
       <c r="X551" s="1"/>
       <c r="Y551" s="1"/>
     </row>
-    <row r="552" spans="1:25" ht="13.2">
+    <row r="552" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -16795,7 +16796,7 @@
       <c r="X552" s="1"/>
       <c r="Y552" s="1"/>
     </row>
-    <row r="553" spans="1:25" ht="13.2">
+    <row r="553" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -16822,7 +16823,7 @@
       <c r="X553" s="1"/>
       <c r="Y553" s="1"/>
     </row>
-    <row r="554" spans="1:25" ht="13.2">
+    <row r="554" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -16849,7 +16850,7 @@
       <c r="X554" s="1"/>
       <c r="Y554" s="1"/>
     </row>
-    <row r="555" spans="1:25" ht="13.2">
+    <row r="555" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -16876,7 +16877,7 @@
       <c r="X555" s="1"/>
       <c r="Y555" s="1"/>
     </row>
-    <row r="556" spans="1:25" ht="13.2">
+    <row r="556" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -16903,7 +16904,7 @@
       <c r="X556" s="1"/>
       <c r="Y556" s="1"/>
     </row>
-    <row r="557" spans="1:25" ht="13.2">
+    <row r="557" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -16930,7 +16931,7 @@
       <c r="X557" s="1"/>
       <c r="Y557" s="1"/>
     </row>
-    <row r="558" spans="1:25" ht="13.2">
+    <row r="558" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -16957,7 +16958,7 @@
       <c r="X558" s="1"/>
       <c r="Y558" s="1"/>
     </row>
-    <row r="559" spans="1:25" ht="13.2">
+    <row r="559" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -16984,7 +16985,7 @@
       <c r="X559" s="1"/>
       <c r="Y559" s="1"/>
     </row>
-    <row r="560" spans="1:25" ht="13.2">
+    <row r="560" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -17011,7 +17012,7 @@
       <c r="X560" s="1"/>
       <c r="Y560" s="1"/>
     </row>
-    <row r="561" spans="1:25" ht="13.2">
+    <row r="561" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -17038,7 +17039,7 @@
       <c r="X561" s="1"/>
       <c r="Y561" s="1"/>
     </row>
-    <row r="562" spans="1:25" ht="13.2">
+    <row r="562" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -17065,7 +17066,7 @@
       <c r="X562" s="1"/>
       <c r="Y562" s="1"/>
     </row>
-    <row r="563" spans="1:25" ht="13.2">
+    <row r="563" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -17092,7 +17093,7 @@
       <c r="X563" s="1"/>
       <c r="Y563" s="1"/>
     </row>
-    <row r="564" spans="1:25" ht="13.2">
+    <row r="564" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -17119,7 +17120,7 @@
       <c r="X564" s="1"/>
       <c r="Y564" s="1"/>
     </row>
-    <row r="565" spans="1:25" ht="13.2">
+    <row r="565" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -17146,7 +17147,7 @@
       <c r="X565" s="1"/>
       <c r="Y565" s="1"/>
     </row>
-    <row r="566" spans="1:25" ht="13.2">
+    <row r="566" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -17173,7 +17174,7 @@
       <c r="X566" s="1"/>
       <c r="Y566" s="1"/>
     </row>
-    <row r="567" spans="1:25" ht="13.2">
+    <row r="567" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -17200,7 +17201,7 @@
       <c r="X567" s="1"/>
       <c r="Y567" s="1"/>
     </row>
-    <row r="568" spans="1:25" ht="13.2">
+    <row r="568" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -17227,7 +17228,7 @@
       <c r="X568" s="1"/>
       <c r="Y568" s="1"/>
     </row>
-    <row r="569" spans="1:25" ht="13.2">
+    <row r="569" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -17254,7 +17255,7 @@
       <c r="X569" s="1"/>
       <c r="Y569" s="1"/>
     </row>
-    <row r="570" spans="1:25" ht="13.2">
+    <row r="570" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -17281,7 +17282,7 @@
       <c r="X570" s="1"/>
       <c r="Y570" s="1"/>
     </row>
-    <row r="571" spans="1:25" ht="13.2">
+    <row r="571" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -17308,7 +17309,7 @@
       <c r="X571" s="1"/>
       <c r="Y571" s="1"/>
     </row>
-    <row r="572" spans="1:25" ht="13.2">
+    <row r="572" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -17335,7 +17336,7 @@
       <c r="X572" s="1"/>
       <c r="Y572" s="1"/>
     </row>
-    <row r="573" spans="1:25" ht="13.2">
+    <row r="573" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -17362,7 +17363,7 @@
       <c r="X573" s="1"/>
       <c r="Y573" s="1"/>
     </row>
-    <row r="574" spans="1:25" ht="13.2">
+    <row r="574" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -17389,7 +17390,7 @@
       <c r="X574" s="1"/>
       <c r="Y574" s="1"/>
     </row>
-    <row r="575" spans="1:25" ht="13.2">
+    <row r="575" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -17416,7 +17417,7 @@
       <c r="X575" s="1"/>
       <c r="Y575" s="1"/>
     </row>
-    <row r="576" spans="1:25" ht="13.2">
+    <row r="576" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -17443,7 +17444,7 @@
       <c r="X576" s="1"/>
       <c r="Y576" s="1"/>
     </row>
-    <row r="577" spans="1:25" ht="13.2">
+    <row r="577" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -17470,7 +17471,7 @@
       <c r="X577" s="1"/>
       <c r="Y577" s="1"/>
     </row>
-    <row r="578" spans="1:25" ht="13.2">
+    <row r="578" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -17497,7 +17498,7 @@
       <c r="X578" s="1"/>
       <c r="Y578" s="1"/>
     </row>
-    <row r="579" spans="1:25" ht="13.2">
+    <row r="579" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -17524,7 +17525,7 @@
       <c r="X579" s="1"/>
       <c r="Y579" s="1"/>
     </row>
-    <row r="580" spans="1:25" ht="13.2">
+    <row r="580" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -17551,7 +17552,7 @@
       <c r="X580" s="1"/>
       <c r="Y580" s="1"/>
     </row>
-    <row r="581" spans="1:25" ht="13.2">
+    <row r="581" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -17578,7 +17579,7 @@
       <c r="X581" s="1"/>
       <c r="Y581" s="1"/>
     </row>
-    <row r="582" spans="1:25" ht="13.2">
+    <row r="582" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -17605,7 +17606,7 @@
       <c r="X582" s="1"/>
       <c r="Y582" s="1"/>
     </row>
-    <row r="583" spans="1:25" ht="13.2">
+    <row r="583" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -17632,7 +17633,7 @@
       <c r="X583" s="1"/>
       <c r="Y583" s="1"/>
     </row>
-    <row r="584" spans="1:25" ht="13.2">
+    <row r="584" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -17659,7 +17660,7 @@
       <c r="X584" s="1"/>
       <c r="Y584" s="1"/>
     </row>
-    <row r="585" spans="1:25" ht="13.2">
+    <row r="585" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -17686,7 +17687,7 @@
       <c r="X585" s="1"/>
       <c r="Y585" s="1"/>
     </row>
-    <row r="586" spans="1:25" ht="13.2">
+    <row r="586" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -17713,7 +17714,7 @@
       <c r="X586" s="1"/>
       <c r="Y586" s="1"/>
     </row>
-    <row r="587" spans="1:25" ht="13.2">
+    <row r="587" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -17740,7 +17741,7 @@
       <c r="X587" s="1"/>
       <c r="Y587" s="1"/>
     </row>
-    <row r="588" spans="1:25" ht="13.2">
+    <row r="588" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -17767,7 +17768,7 @@
       <c r="X588" s="1"/>
       <c r="Y588" s="1"/>
     </row>
-    <row r="589" spans="1:25" ht="13.2">
+    <row r="589" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -17794,7 +17795,7 @@
       <c r="X589" s="1"/>
       <c r="Y589" s="1"/>
     </row>
-    <row r="590" spans="1:25" ht="13.2">
+    <row r="590" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -17821,7 +17822,7 @@
       <c r="X590" s="1"/>
       <c r="Y590" s="1"/>
     </row>
-    <row r="591" spans="1:25" ht="13.2">
+    <row r="591" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -17848,7 +17849,7 @@
       <c r="X591" s="1"/>
       <c r="Y591" s="1"/>
     </row>
-    <row r="592" spans="1:25" ht="13.2">
+    <row r="592" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -17875,7 +17876,7 @@
       <c r="X592" s="1"/>
       <c r="Y592" s="1"/>
     </row>
-    <row r="593" spans="1:25" ht="13.2">
+    <row r="593" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -17902,7 +17903,7 @@
       <c r="X593" s="1"/>
       <c r="Y593" s="1"/>
     </row>
-    <row r="594" spans="1:25" ht="13.2">
+    <row r="594" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -17929,7 +17930,7 @@
       <c r="X594" s="1"/>
       <c r="Y594" s="1"/>
     </row>
-    <row r="595" spans="1:25" ht="13.2">
+    <row r="595" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -17956,7 +17957,7 @@
       <c r="X595" s="1"/>
       <c r="Y595" s="1"/>
     </row>
-    <row r="596" spans="1:25" ht="13.2">
+    <row r="596" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -17983,7 +17984,7 @@
       <c r="X596" s="1"/>
       <c r="Y596" s="1"/>
     </row>
-    <row r="597" spans="1:25" ht="13.2">
+    <row r="597" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -18010,7 +18011,7 @@
       <c r="X597" s="1"/>
       <c r="Y597" s="1"/>
     </row>
-    <row r="598" spans="1:25" ht="13.2">
+    <row r="598" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -18037,7 +18038,7 @@
       <c r="X598" s="1"/>
       <c r="Y598" s="1"/>
     </row>
-    <row r="599" spans="1:25" ht="13.2">
+    <row r="599" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -18064,7 +18065,7 @@
       <c r="X599" s="1"/>
       <c r="Y599" s="1"/>
     </row>
-    <row r="600" spans="1:25" ht="13.2">
+    <row r="600" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -18091,7 +18092,7 @@
       <c r="X600" s="1"/>
       <c r="Y600" s="1"/>
     </row>
-    <row r="601" spans="1:25" ht="13.2">
+    <row r="601" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -18118,7 +18119,7 @@
       <c r="X601" s="1"/>
       <c r="Y601" s="1"/>
     </row>
-    <row r="602" spans="1:25" ht="13.2">
+    <row r="602" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -18145,7 +18146,7 @@
       <c r="X602" s="1"/>
       <c r="Y602" s="1"/>
     </row>
-    <row r="603" spans="1:25" ht="13.2">
+    <row r="603" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -18172,7 +18173,7 @@
       <c r="X603" s="1"/>
       <c r="Y603" s="1"/>
     </row>
-    <row r="604" spans="1:25" ht="13.2">
+    <row r="604" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -18199,7 +18200,7 @@
       <c r="X604" s="1"/>
       <c r="Y604" s="1"/>
     </row>
-    <row r="605" spans="1:25" ht="13.2">
+    <row r="605" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -18226,7 +18227,7 @@
       <c r="X605" s="1"/>
       <c r="Y605" s="1"/>
     </row>
-    <row r="606" spans="1:25" ht="13.2">
+    <row r="606" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -18253,7 +18254,7 @@
       <c r="X606" s="1"/>
       <c r="Y606" s="1"/>
     </row>
-    <row r="607" spans="1:25" ht="13.2">
+    <row r="607" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -18280,7 +18281,7 @@
       <c r="X607" s="1"/>
       <c r="Y607" s="1"/>
     </row>
-    <row r="608" spans="1:25" ht="13.2">
+    <row r="608" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -18307,7 +18308,7 @@
       <c r="X608" s="1"/>
       <c r="Y608" s="1"/>
     </row>
-    <row r="609" spans="1:25" ht="13.2">
+    <row r="609" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -18334,7 +18335,7 @@
       <c r="X609" s="1"/>
       <c r="Y609" s="1"/>
     </row>
-    <row r="610" spans="1:25" ht="13.2">
+    <row r="610" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -18361,7 +18362,7 @@
       <c r="X610" s="1"/>
       <c r="Y610" s="1"/>
     </row>
-    <row r="611" spans="1:25" ht="13.2">
+    <row r="611" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -18388,7 +18389,7 @@
       <c r="X611" s="1"/>
       <c r="Y611" s="1"/>
     </row>
-    <row r="612" spans="1:25" ht="13.2">
+    <row r="612" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -18415,7 +18416,7 @@
       <c r="X612" s="1"/>
       <c r="Y612" s="1"/>
     </row>
-    <row r="613" spans="1:25" ht="13.2">
+    <row r="613" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -18442,7 +18443,7 @@
       <c r="X613" s="1"/>
       <c r="Y613" s="1"/>
     </row>
-    <row r="614" spans="1:25" ht="13.2">
+    <row r="614" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -18469,7 +18470,7 @@
       <c r="X614" s="1"/>
       <c r="Y614" s="1"/>
     </row>
-    <row r="615" spans="1:25" ht="13.2">
+    <row r="615" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -18496,7 +18497,7 @@
       <c r="X615" s="1"/>
       <c r="Y615" s="1"/>
     </row>
-    <row r="616" spans="1:25" ht="13.2">
+    <row r="616" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -18523,7 +18524,7 @@
       <c r="X616" s="1"/>
       <c r="Y616" s="1"/>
     </row>
-    <row r="617" spans="1:25" ht="13.2">
+    <row r="617" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -18550,7 +18551,7 @@
       <c r="X617" s="1"/>
       <c r="Y617" s="1"/>
     </row>
-    <row r="618" spans="1:25" ht="13.2">
+    <row r="618" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -18577,7 +18578,7 @@
       <c r="X618" s="1"/>
       <c r="Y618" s="1"/>
     </row>
-    <row r="619" spans="1:25" ht="13.2">
+    <row r="619" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -18604,7 +18605,7 @@
       <c r="X619" s="1"/>
       <c r="Y619" s="1"/>
     </row>
-    <row r="620" spans="1:25" ht="13.2">
+    <row r="620" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -18631,7 +18632,7 @@
       <c r="X620" s="1"/>
       <c r="Y620" s="1"/>
     </row>
-    <row r="621" spans="1:25" ht="13.2">
+    <row r="621" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -18658,7 +18659,7 @@
       <c r="X621" s="1"/>
       <c r="Y621" s="1"/>
     </row>
-    <row r="622" spans="1:25" ht="13.2">
+    <row r="622" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -18685,7 +18686,7 @@
       <c r="X622" s="1"/>
       <c r="Y622" s="1"/>
     </row>
-    <row r="623" spans="1:25" ht="13.2">
+    <row r="623" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -18712,7 +18713,7 @@
       <c r="X623" s="1"/>
       <c r="Y623" s="1"/>
     </row>
-    <row r="624" spans="1:25" ht="13.2">
+    <row r="624" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -18739,7 +18740,7 @@
       <c r="X624" s="1"/>
       <c r="Y624" s="1"/>
     </row>
-    <row r="625" spans="1:25" ht="13.2">
+    <row r="625" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -18766,7 +18767,7 @@
       <c r="X625" s="1"/>
       <c r="Y625" s="1"/>
     </row>
-    <row r="626" spans="1:25" ht="13.2">
+    <row r="626" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -18793,7 +18794,7 @@
       <c r="X626" s="1"/>
       <c r="Y626" s="1"/>
     </row>
-    <row r="627" spans="1:25" ht="13.2">
+    <row r="627" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -18820,7 +18821,7 @@
       <c r="X627" s="1"/>
       <c r="Y627" s="1"/>
     </row>
-    <row r="628" spans="1:25" ht="13.2">
+    <row r="628" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -18847,7 +18848,7 @@
       <c r="X628" s="1"/>
       <c r="Y628" s="1"/>
     </row>
-    <row r="629" spans="1:25" ht="13.2">
+    <row r="629" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -18874,7 +18875,7 @@
       <c r="X629" s="1"/>
       <c r="Y629" s="1"/>
     </row>
-    <row r="630" spans="1:25" ht="13.2">
+    <row r="630" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -18901,7 +18902,7 @@
       <c r="X630" s="1"/>
       <c r="Y630" s="1"/>
     </row>
-    <row r="631" spans="1:25" ht="13.2">
+    <row r="631" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -18928,7 +18929,7 @@
       <c r="X631" s="1"/>
       <c r="Y631" s="1"/>
     </row>
-    <row r="632" spans="1:25" ht="13.2">
+    <row r="632" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -18955,7 +18956,7 @@
       <c r="X632" s="1"/>
       <c r="Y632" s="1"/>
     </row>
-    <row r="633" spans="1:25" ht="13.2">
+    <row r="633" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -18982,7 +18983,7 @@
       <c r="X633" s="1"/>
       <c r="Y633" s="1"/>
     </row>
-    <row r="634" spans="1:25" ht="13.2">
+    <row r="634" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -19009,7 +19010,7 @@
       <c r="X634" s="1"/>
       <c r="Y634" s="1"/>
     </row>
-    <row r="635" spans="1:25" ht="13.2">
+    <row r="635" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -19036,7 +19037,7 @@
       <c r="X635" s="1"/>
       <c r="Y635" s="1"/>
     </row>
-    <row r="636" spans="1:25" ht="13.2">
+    <row r="636" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -19063,7 +19064,7 @@
       <c r="X636" s="1"/>
       <c r="Y636" s="1"/>
     </row>
-    <row r="637" spans="1:25" ht="13.2">
+    <row r="637" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -19090,7 +19091,7 @@
       <c r="X637" s="1"/>
       <c r="Y637" s="1"/>
     </row>
-    <row r="638" spans="1:25" ht="13.2">
+    <row r="638" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -19117,7 +19118,7 @@
       <c r="X638" s="1"/>
       <c r="Y638" s="1"/>
     </row>
-    <row r="639" spans="1:25" ht="13.2">
+    <row r="639" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -19144,7 +19145,7 @@
       <c r="X639" s="1"/>
       <c r="Y639" s="1"/>
     </row>
-    <row r="640" spans="1:25" ht="13.2">
+    <row r="640" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -19171,7 +19172,7 @@
       <c r="X640" s="1"/>
       <c r="Y640" s="1"/>
     </row>
-    <row r="641" spans="1:25" ht="13.2">
+    <row r="641" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -19198,7 +19199,7 @@
       <c r="X641" s="1"/>
       <c r="Y641" s="1"/>
     </row>
-    <row r="642" spans="1:25" ht="13.2">
+    <row r="642" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -19225,7 +19226,7 @@
       <c r="X642" s="1"/>
       <c r="Y642" s="1"/>
     </row>
-    <row r="643" spans="1:25" ht="13.2">
+    <row r="643" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -19252,7 +19253,7 @@
       <c r="X643" s="1"/>
       <c r="Y643" s="1"/>
     </row>
-    <row r="644" spans="1:25" ht="13.2">
+    <row r="644" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -19279,7 +19280,7 @@
       <c r="X644" s="1"/>
       <c r="Y644" s="1"/>
     </row>
-    <row r="645" spans="1:25" ht="13.2">
+    <row r="645" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -19306,7 +19307,7 @@
       <c r="X645" s="1"/>
       <c r="Y645" s="1"/>
     </row>
-    <row r="646" spans="1:25" ht="13.2">
+    <row r="646" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -19333,7 +19334,7 @@
       <c r="X646" s="1"/>
       <c r="Y646" s="1"/>
     </row>
-    <row r="647" spans="1:25" ht="13.2">
+    <row r="647" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -19360,7 +19361,7 @@
       <c r="X647" s="1"/>
       <c r="Y647" s="1"/>
     </row>
-    <row r="648" spans="1:25" ht="13.2">
+    <row r="648" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -19387,7 +19388,7 @@
       <c r="X648" s="1"/>
       <c r="Y648" s="1"/>
     </row>
-    <row r="649" spans="1:25" ht="13.2">
+    <row r="649" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -19414,7 +19415,7 @@
       <c r="X649" s="1"/>
       <c r="Y649" s="1"/>
     </row>
-    <row r="650" spans="1:25" ht="13.2">
+    <row r="650" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -19441,7 +19442,7 @@
       <c r="X650" s="1"/>
       <c r="Y650" s="1"/>
     </row>
-    <row r="651" spans="1:25" ht="13.2">
+    <row r="651" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -19468,7 +19469,7 @@
       <c r="X651" s="1"/>
       <c r="Y651" s="1"/>
     </row>
-    <row r="652" spans="1:25" ht="13.2">
+    <row r="652" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -19495,7 +19496,7 @@
       <c r="X652" s="1"/>
       <c r="Y652" s="1"/>
     </row>
-    <row r="653" spans="1:25" ht="13.2">
+    <row r="653" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -19522,7 +19523,7 @@
       <c r="X653" s="1"/>
       <c r="Y653" s="1"/>
     </row>
-    <row r="654" spans="1:25" ht="13.2">
+    <row r="654" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -19549,7 +19550,7 @@
       <c r="X654" s="1"/>
       <c r="Y654" s="1"/>
     </row>
-    <row r="655" spans="1:25" ht="13.2">
+    <row r="655" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -19576,7 +19577,7 @@
       <c r="X655" s="1"/>
       <c r="Y655" s="1"/>
     </row>
-    <row r="656" spans="1:25" ht="13.2">
+    <row r="656" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -19603,7 +19604,7 @@
       <c r="X656" s="1"/>
       <c r="Y656" s="1"/>
     </row>
-    <row r="657" spans="1:25" ht="13.2">
+    <row r="657" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -19630,7 +19631,7 @@
       <c r="X657" s="1"/>
       <c r="Y657" s="1"/>
     </row>
-    <row r="658" spans="1:25" ht="13.2">
+    <row r="658" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -19657,7 +19658,7 @@
       <c r="X658" s="1"/>
       <c r="Y658" s="1"/>
     </row>
-    <row r="659" spans="1:25" ht="13.2">
+    <row r="659" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -19684,7 +19685,7 @@
       <c r="X659" s="1"/>
       <c r="Y659" s="1"/>
     </row>
-    <row r="660" spans="1:25" ht="13.2">
+    <row r="660" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -19711,7 +19712,7 @@
       <c r="X660" s="1"/>
       <c r="Y660" s="1"/>
     </row>
-    <row r="661" spans="1:25" ht="13.2">
+    <row r="661" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -19738,7 +19739,7 @@
       <c r="X661" s="1"/>
       <c r="Y661" s="1"/>
     </row>
-    <row r="662" spans="1:25" ht="13.2">
+    <row r="662" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -19765,7 +19766,7 @@
       <c r="X662" s="1"/>
       <c r="Y662" s="1"/>
     </row>
-    <row r="663" spans="1:25" ht="13.2">
+    <row r="663" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -19792,7 +19793,7 @@
       <c r="X663" s="1"/>
       <c r="Y663" s="1"/>
     </row>
-    <row r="664" spans="1:25" ht="13.2">
+    <row r="664" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -19819,7 +19820,7 @@
       <c r="X664" s="1"/>
       <c r="Y664" s="1"/>
     </row>
-    <row r="665" spans="1:25" ht="13.2">
+    <row r="665" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -19846,7 +19847,7 @@
       <c r="X665" s="1"/>
       <c r="Y665" s="1"/>
     </row>
-    <row r="666" spans="1:25" ht="13.2">
+    <row r="666" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -19873,7 +19874,7 @@
       <c r="X666" s="1"/>
       <c r="Y666" s="1"/>
     </row>
-    <row r="667" spans="1:25" ht="13.2">
+    <row r="667" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -19900,7 +19901,7 @@
       <c r="X667" s="1"/>
       <c r="Y667" s="1"/>
     </row>
-    <row r="668" spans="1:25" ht="13.2">
+    <row r="668" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -19927,7 +19928,7 @@
       <c r="X668" s="1"/>
       <c r="Y668" s="1"/>
     </row>
-    <row r="669" spans="1:25" ht="13.2">
+    <row r="669" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -19954,7 +19955,7 @@
       <c r="X669" s="1"/>
       <c r="Y669" s="1"/>
     </row>
-    <row r="670" spans="1:25" ht="13.2">
+    <row r="670" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -19981,7 +19982,7 @@
       <c r="X670" s="1"/>
       <c r="Y670" s="1"/>
     </row>
-    <row r="671" spans="1:25" ht="13.2">
+    <row r="671" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -20008,7 +20009,7 @@
       <c r="X671" s="1"/>
       <c r="Y671" s="1"/>
     </row>
-    <row r="672" spans="1:25" ht="13.2">
+    <row r="672" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -20035,7 +20036,7 @@
       <c r="X672" s="1"/>
       <c r="Y672" s="1"/>
     </row>
-    <row r="673" spans="1:25" ht="13.2">
+    <row r="673" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -20062,7 +20063,7 @@
       <c r="X673" s="1"/>
       <c r="Y673" s="1"/>
     </row>
-    <row r="674" spans="1:25" ht="13.2">
+    <row r="674" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -20089,7 +20090,7 @@
       <c r="X674" s="1"/>
       <c r="Y674" s="1"/>
     </row>
-    <row r="675" spans="1:25" ht="13.2">
+    <row r="675" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -20116,7 +20117,7 @@
       <c r="X675" s="1"/>
       <c r="Y675" s="1"/>
     </row>
-    <row r="676" spans="1:25" ht="13.2">
+    <row r="676" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -20143,7 +20144,7 @@
       <c r="X676" s="1"/>
       <c r="Y676" s="1"/>
     </row>
-    <row r="677" spans="1:25" ht="13.2">
+    <row r="677" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -20170,7 +20171,7 @@
       <c r="X677" s="1"/>
       <c r="Y677" s="1"/>
     </row>
-    <row r="678" spans="1:25" ht="13.2">
+    <row r="678" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -20197,7 +20198,7 @@
       <c r="X678" s="1"/>
       <c r="Y678" s="1"/>
     </row>
-    <row r="679" spans="1:25" ht="13.2">
+    <row r="679" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -20224,7 +20225,7 @@
       <c r="X679" s="1"/>
       <c r="Y679" s="1"/>
     </row>
-    <row r="680" spans="1:25" ht="13.2">
+    <row r="680" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -20251,7 +20252,7 @@
       <c r="X680" s="1"/>
       <c r="Y680" s="1"/>
     </row>
-    <row r="681" spans="1:25" ht="13.2">
+    <row r="681" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -20278,7 +20279,7 @@
       <c r="X681" s="1"/>
       <c r="Y681" s="1"/>
     </row>
-    <row r="682" spans="1:25" ht="13.2">
+    <row r="682" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -20305,7 +20306,7 @@
       <c r="X682" s="1"/>
       <c r="Y682" s="1"/>
     </row>
-    <row r="683" spans="1:25" ht="13.2">
+    <row r="683" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -20332,7 +20333,7 @@
       <c r="X683" s="1"/>
       <c r="Y683" s="1"/>
     </row>
-    <row r="684" spans="1:25" ht="13.2">
+    <row r="684" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -20359,7 +20360,7 @@
       <c r="X684" s="1"/>
       <c r="Y684" s="1"/>
     </row>
-    <row r="685" spans="1:25" ht="13.2">
+    <row r="685" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -20386,7 +20387,7 @@
       <c r="X685" s="1"/>
       <c r="Y685" s="1"/>
     </row>
-    <row r="686" spans="1:25" ht="13.2">
+    <row r="686" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -20413,7 +20414,7 @@
       <c r="X686" s="1"/>
       <c r="Y686" s="1"/>
     </row>
-    <row r="687" spans="1:25" ht="13.2">
+    <row r="687" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -20440,7 +20441,7 @@
       <c r="X687" s="1"/>
       <c r="Y687" s="1"/>
     </row>
-    <row r="688" spans="1:25" ht="13.2">
+    <row r="688" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -20467,7 +20468,7 @@
       <c r="X688" s="1"/>
       <c r="Y688" s="1"/>
     </row>
-    <row r="689" spans="1:25" ht="13.2">
+    <row r="689" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -20494,7 +20495,7 @@
       <c r="X689" s="1"/>
       <c r="Y689" s="1"/>
     </row>
-    <row r="690" spans="1:25" ht="13.2">
+    <row r="690" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -20521,7 +20522,7 @@
       <c r="X690" s="1"/>
       <c r="Y690" s="1"/>
     </row>
-    <row r="691" spans="1:25" ht="13.2">
+    <row r="691" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -20548,7 +20549,7 @@
       <c r="X691" s="1"/>
       <c r="Y691" s="1"/>
     </row>
-    <row r="692" spans="1:25" ht="13.2">
+    <row r="692" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -20575,7 +20576,7 @@
       <c r="X692" s="1"/>
       <c r="Y692" s="1"/>
     </row>
-    <row r="693" spans="1:25" ht="13.2">
+    <row r="693" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -20602,7 +20603,7 @@
       <c r="X693" s="1"/>
       <c r="Y693" s="1"/>
     </row>
-    <row r="694" spans="1:25" ht="13.2">
+    <row r="694" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -20629,7 +20630,7 @@
       <c r="X694" s="1"/>
       <c r="Y694" s="1"/>
     </row>
-    <row r="695" spans="1:25" ht="13.2">
+    <row r="695" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -20656,7 +20657,7 @@
       <c r="X695" s="1"/>
       <c r="Y695" s="1"/>
     </row>
-    <row r="696" spans="1:25" ht="13.2">
+    <row r="696" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -20683,7 +20684,7 @@
       <c r="X696" s="1"/>
       <c r="Y696" s="1"/>
     </row>
-    <row r="697" spans="1:25" ht="13.2">
+    <row r="697" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -20710,7 +20711,7 @@
       <c r="X697" s="1"/>
       <c r="Y697" s="1"/>
     </row>
-    <row r="698" spans="1:25" ht="13.2">
+    <row r="698" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -20737,7 +20738,7 @@
       <c r="X698" s="1"/>
       <c r="Y698" s="1"/>
     </row>
-    <row r="699" spans="1:25" ht="13.2">
+    <row r="699" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -20764,7 +20765,7 @@
       <c r="X699" s="1"/>
       <c r="Y699" s="1"/>
     </row>
-    <row r="700" spans="1:25" ht="13.2">
+    <row r="700" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -20791,7 +20792,7 @@
       <c r="X700" s="1"/>
       <c r="Y700" s="1"/>
     </row>
-    <row r="701" spans="1:25" ht="13.2">
+    <row r="701" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -20818,7 +20819,7 @@
       <c r="X701" s="1"/>
       <c r="Y701" s="1"/>
     </row>
-    <row r="702" spans="1:25" ht="13.2">
+    <row r="702" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -20845,7 +20846,7 @@
       <c r="X702" s="1"/>
       <c r="Y702" s="1"/>
     </row>
-    <row r="703" spans="1:25" ht="13.2">
+    <row r="703" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -20872,7 +20873,7 @@
       <c r="X703" s="1"/>
       <c r="Y703" s="1"/>
     </row>
-    <row r="704" spans="1:25" ht="13.2">
+    <row r="704" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -20899,7 +20900,7 @@
       <c r="X704" s="1"/>
       <c r="Y704" s="1"/>
     </row>
-    <row r="705" spans="1:25" ht="13.2">
+    <row r="705" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -20926,7 +20927,7 @@
       <c r="X705" s="1"/>
       <c r="Y705" s="1"/>
     </row>
-    <row r="706" spans="1:25" ht="13.2">
+    <row r="706" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -20953,7 +20954,7 @@
       <c r="X706" s="1"/>
       <c r="Y706" s="1"/>
     </row>
-    <row r="707" spans="1:25" ht="13.2">
+    <row r="707" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -20980,7 +20981,7 @@
       <c r="X707" s="1"/>
       <c r="Y707" s="1"/>
     </row>
-    <row r="708" spans="1:25" ht="13.2">
+    <row r="708" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -21007,7 +21008,7 @@
       <c r="X708" s="1"/>
       <c r="Y708" s="1"/>
     </row>
-    <row r="709" spans="1:25" ht="13.2">
+    <row r="709" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -21034,7 +21035,7 @@
       <c r="X709" s="1"/>
       <c r="Y709" s="1"/>
     </row>
-    <row r="710" spans="1:25" ht="13.2">
+    <row r="710" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -21061,7 +21062,7 @@
       <c r="X710" s="1"/>
       <c r="Y710" s="1"/>
     </row>
-    <row r="711" spans="1:25" ht="13.2">
+    <row r="711" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -21088,7 +21089,7 @@
       <c r="X711" s="1"/>
       <c r="Y711" s="1"/>
     </row>
-    <row r="712" spans="1:25" ht="13.2">
+    <row r="712" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -21115,7 +21116,7 @@
       <c r="X712" s="1"/>
       <c r="Y712" s="1"/>
     </row>
-    <row r="713" spans="1:25" ht="13.2">
+    <row r="713" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -21142,7 +21143,7 @@
       <c r="X713" s="1"/>
       <c r="Y713" s="1"/>
     </row>
-    <row r="714" spans="1:25" ht="13.2">
+    <row r="714" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -21169,7 +21170,7 @@
       <c r="X714" s="1"/>
       <c r="Y714" s="1"/>
     </row>
-    <row r="715" spans="1:25" ht="13.2">
+    <row r="715" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -21196,7 +21197,7 @@
       <c r="X715" s="1"/>
       <c r="Y715" s="1"/>
     </row>
-    <row r="716" spans="1:25" ht="13.2">
+    <row r="716" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -21223,7 +21224,7 @@
       <c r="X716" s="1"/>
       <c r="Y716" s="1"/>
     </row>
-    <row r="717" spans="1:25" ht="13.2">
+    <row r="717" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -21250,7 +21251,7 @@
       <c r="X717" s="1"/>
       <c r="Y717" s="1"/>
     </row>
-    <row r="718" spans="1:25" ht="13.2">
+    <row r="718" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -21277,7 +21278,7 @@
       <c r="X718" s="1"/>
       <c r="Y718" s="1"/>
     </row>
-    <row r="719" spans="1:25" ht="13.2">
+    <row r="719" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -21304,7 +21305,7 @@
       <c r="X719" s="1"/>
       <c r="Y719" s="1"/>
     </row>
-    <row r="720" spans="1:25" ht="13.2">
+    <row r="720" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -21331,7 +21332,7 @@
       <c r="X720" s="1"/>
       <c r="Y720" s="1"/>
     </row>
-    <row r="721" spans="1:25" ht="13.2">
+    <row r="721" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -21358,7 +21359,7 @@
       <c r="X721" s="1"/>
       <c r="Y721" s="1"/>
     </row>
-    <row r="722" spans="1:25" ht="13.2">
+    <row r="722" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -21385,7 +21386,7 @@
       <c r="X722" s="1"/>
       <c r="Y722" s="1"/>
     </row>
-    <row r="723" spans="1:25" ht="13.2">
+    <row r="723" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -21412,7 +21413,7 @@
       <c r="X723" s="1"/>
       <c r="Y723" s="1"/>
     </row>
-    <row r="724" spans="1:25" ht="13.2">
+    <row r="724" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -21439,7 +21440,7 @@
       <c r="X724" s="1"/>
       <c r="Y724" s="1"/>
     </row>
-    <row r="725" spans="1:25" ht="13.2">
+    <row r="725" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -21466,7 +21467,7 @@
       <c r="X725" s="1"/>
       <c r="Y725" s="1"/>
     </row>
-    <row r="726" spans="1:25" ht="13.2">
+    <row r="726" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -21493,7 +21494,7 @@
       <c r="X726" s="1"/>
       <c r="Y726" s="1"/>
     </row>
-    <row r="727" spans="1:25" ht="13.2">
+    <row r="727" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -21520,7 +21521,7 @@
       <c r="X727" s="1"/>
       <c r="Y727" s="1"/>
     </row>
-    <row r="728" spans="1:25" ht="13.2">
+    <row r="728" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -21547,7 +21548,7 @@
       <c r="X728" s="1"/>
       <c r="Y728" s="1"/>
     </row>
-    <row r="729" spans="1:25" ht="13.2">
+    <row r="729" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -21574,7 +21575,7 @@
       <c r="X729" s="1"/>
       <c r="Y729" s="1"/>
     </row>
-    <row r="730" spans="1:25" ht="13.2">
+    <row r="730" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -21601,7 +21602,7 @@
       <c r="X730" s="1"/>
       <c r="Y730" s="1"/>
     </row>
-    <row r="731" spans="1:25" ht="13.2">
+    <row r="731" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -21628,7 +21629,7 @@
       <c r="X731" s="1"/>
       <c r="Y731" s="1"/>
     </row>
-    <row r="732" spans="1:25" ht="13.2">
+    <row r="732" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -21655,7 +21656,7 @@
       <c r="X732" s="1"/>
       <c r="Y732" s="1"/>
     </row>
-    <row r="733" spans="1:25" ht="13.2">
+    <row r="733" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -21682,7 +21683,7 @@
       <c r="X733" s="1"/>
       <c r="Y733" s="1"/>
     </row>
-    <row r="734" spans="1:25" ht="13.2">
+    <row r="734" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -21709,7 +21710,7 @@
       <c r="X734" s="1"/>
       <c r="Y734" s="1"/>
     </row>
-    <row r="735" spans="1:25" ht="13.2">
+    <row r="735" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -21736,7 +21737,7 @@
       <c r="X735" s="1"/>
       <c r="Y735" s="1"/>
     </row>
-    <row r="736" spans="1:25" ht="13.2">
+    <row r="736" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -21763,7 +21764,7 @@
       <c r="X736" s="1"/>
       <c r="Y736" s="1"/>
     </row>
-    <row r="737" spans="1:25" ht="13.2">
+    <row r="737" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -21790,7 +21791,7 @@
       <c r="X737" s="1"/>
       <c r="Y737" s="1"/>
     </row>
-    <row r="738" spans="1:25" ht="13.2">
+    <row r="738" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -21817,7 +21818,7 @@
       <c r="X738" s="1"/>
       <c r="Y738" s="1"/>
     </row>
-    <row r="739" spans="1:25" ht="13.2">
+    <row r="739" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -21844,7 +21845,7 @@
       <c r="X739" s="1"/>
       <c r="Y739" s="1"/>
     </row>
-    <row r="740" spans="1:25" ht="13.2">
+    <row r="740" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -21871,7 +21872,7 @@
       <c r="X740" s="1"/>
       <c r="Y740" s="1"/>
     </row>
-    <row r="741" spans="1:25" ht="13.2">
+    <row r="741" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -21898,7 +21899,7 @@
       <c r="X741" s="1"/>
       <c r="Y741" s="1"/>
     </row>
-    <row r="742" spans="1:25" ht="13.2">
+    <row r="742" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -21925,7 +21926,7 @@
       <c r="X742" s="1"/>
       <c r="Y742" s="1"/>
     </row>
-    <row r="743" spans="1:25" ht="13.2">
+    <row r="743" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -21952,7 +21953,7 @@
       <c r="X743" s="1"/>
       <c r="Y743" s="1"/>
     </row>
-    <row r="744" spans="1:25" ht="13.2">
+    <row r="744" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -21979,7 +21980,7 @@
       <c r="X744" s="1"/>
       <c r="Y744" s="1"/>
     </row>
-    <row r="745" spans="1:25" ht="13.2">
+    <row r="745" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -22006,7 +22007,7 @@
       <c r="X745" s="1"/>
       <c r="Y745" s="1"/>
     </row>
-    <row r="746" spans="1:25" ht="13.2">
+    <row r="746" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -22033,7 +22034,7 @@
       <c r="X746" s="1"/>
       <c r="Y746" s="1"/>
     </row>
-    <row r="747" spans="1:25" ht="13.2">
+    <row r="747" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -22060,7 +22061,7 @@
       <c r="X747" s="1"/>
       <c r="Y747" s="1"/>
     </row>
-    <row r="748" spans="1:25" ht="13.2">
+    <row r="748" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -22087,7 +22088,7 @@
       <c r="X748" s="1"/>
       <c r="Y748" s="1"/>
     </row>
-    <row r="749" spans="1:25" ht="13.2">
+    <row r="749" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -22114,7 +22115,7 @@
       <c r="X749" s="1"/>
       <c r="Y749" s="1"/>
     </row>
-    <row r="750" spans="1:25" ht="13.2">
+    <row r="750" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -22141,7 +22142,7 @@
       <c r="X750" s="1"/>
       <c r="Y750" s="1"/>
     </row>
-    <row r="751" spans="1:25" ht="13.2">
+    <row r="751" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -22168,7 +22169,7 @@
       <c r="X751" s="1"/>
       <c r="Y751" s="1"/>
     </row>
-    <row r="752" spans="1:25" ht="13.2">
+    <row r="752" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -22195,7 +22196,7 @@
       <c r="X752" s="1"/>
       <c r="Y752" s="1"/>
     </row>
-    <row r="753" spans="1:25" ht="13.2">
+    <row r="753" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -22222,7 +22223,7 @@
       <c r="X753" s="1"/>
       <c r="Y753" s="1"/>
     </row>
-    <row r="754" spans="1:25" ht="13.2">
+    <row r="754" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -22249,7 +22250,7 @@
       <c r="X754" s="1"/>
       <c r="Y754" s="1"/>
     </row>
-    <row r="755" spans="1:25" ht="13.2">
+    <row r="755" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -22276,7 +22277,7 @@
       <c r="X755" s="1"/>
       <c r="Y755" s="1"/>
     </row>
-    <row r="756" spans="1:25" ht="13.2">
+    <row r="756" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -22303,7 +22304,7 @@
       <c r="X756" s="1"/>
       <c r="Y756" s="1"/>
     </row>
-    <row r="757" spans="1:25" ht="13.2">
+    <row r="757" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -22330,7 +22331,7 @@
       <c r="X757" s="1"/>
       <c r="Y757" s="1"/>
     </row>
-    <row r="758" spans="1:25" ht="13.2">
+    <row r="758" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -22357,7 +22358,7 @@
       <c r="X758" s="1"/>
       <c r="Y758" s="1"/>
     </row>
-    <row r="759" spans="1:25" ht="13.2">
+    <row r="759" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -22384,7 +22385,7 @@
       <c r="X759" s="1"/>
       <c r="Y759" s="1"/>
     </row>
-    <row r="760" spans="1:25" ht="13.2">
+    <row r="760" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -22411,7 +22412,7 @@
       <c r="X760" s="1"/>
       <c r="Y760" s="1"/>
     </row>
-    <row r="761" spans="1:25" ht="13.2">
+    <row r="761" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -22438,7 +22439,7 @@
       <c r="X761" s="1"/>
       <c r="Y761" s="1"/>
     </row>
-    <row r="762" spans="1:25" ht="13.2">
+    <row r="762" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -22465,7 +22466,7 @@
       <c r="X762" s="1"/>
       <c r="Y762" s="1"/>
     </row>
-    <row r="763" spans="1:25" ht="13.2">
+    <row r="763" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -22492,7 +22493,7 @@
       <c r="X763" s="1"/>
       <c r="Y763" s="1"/>
     </row>
-    <row r="764" spans="1:25" ht="13.2">
+    <row r="764" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -22519,7 +22520,7 @@
       <c r="X764" s="1"/>
       <c r="Y764" s="1"/>
     </row>
-    <row r="765" spans="1:25" ht="13.2">
+    <row r="765" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -22546,7 +22547,7 @@
       <c r="X765" s="1"/>
       <c r="Y765" s="1"/>
     </row>
-    <row r="766" spans="1:25" ht="13.2">
+    <row r="766" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -22573,7 +22574,7 @@
       <c r="X766" s="1"/>
       <c r="Y766" s="1"/>
     </row>
-    <row r="767" spans="1:25" ht="13.2">
+    <row r="767" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -22600,7 +22601,7 @@
       <c r="X767" s="1"/>
       <c r="Y767" s="1"/>
     </row>
-    <row r="768" spans="1:25" ht="13.2">
+    <row r="768" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -22627,7 +22628,7 @@
       <c r="X768" s="1"/>
       <c r="Y768" s="1"/>
     </row>
-    <row r="769" spans="1:25" ht="13.2">
+    <row r="769" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -22654,7 +22655,7 @@
       <c r="X769" s="1"/>
       <c r="Y769" s="1"/>
     </row>
-    <row r="770" spans="1:25" ht="13.2">
+    <row r="770" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -22681,7 +22682,7 @@
       <c r="X770" s="1"/>
       <c r="Y770" s="1"/>
     </row>
-    <row r="771" spans="1:25" ht="13.2">
+    <row r="771" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -22708,7 +22709,7 @@
       <c r="X771" s="1"/>
       <c r="Y771" s="1"/>
     </row>
-    <row r="772" spans="1:25" ht="13.2">
+    <row r="772" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -22735,7 +22736,7 @@
       <c r="X772" s="1"/>
       <c r="Y772" s="1"/>
     </row>
-    <row r="773" spans="1:25" ht="13.2">
+    <row r="773" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -22762,7 +22763,7 @@
       <c r="X773" s="1"/>
       <c r="Y773" s="1"/>
     </row>
-    <row r="774" spans="1:25" ht="13.2">
+    <row r="774" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -22789,7 +22790,7 @@
       <c r="X774" s="1"/>
       <c r="Y774" s="1"/>
     </row>
-    <row r="775" spans="1:25" ht="13.2">
+    <row r="775" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -22816,7 +22817,7 @@
       <c r="X775" s="1"/>
       <c r="Y775" s="1"/>
     </row>
-    <row r="776" spans="1:25" ht="13.2">
+    <row r="776" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -22843,7 +22844,7 @@
       <c r="X776" s="1"/>
       <c r="Y776" s="1"/>
     </row>
-    <row r="777" spans="1:25" ht="13.2">
+    <row r="777" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -22870,7 +22871,7 @@
       <c r="X777" s="1"/>
       <c r="Y777" s="1"/>
     </row>
-    <row r="778" spans="1:25" ht="13.2">
+    <row r="778" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -22897,7 +22898,7 @@
       <c r="X778" s="1"/>
       <c r="Y778" s="1"/>
     </row>
-    <row r="779" spans="1:25" ht="13.2">
+    <row r="779" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -22924,7 +22925,7 @@
       <c r="X779" s="1"/>
       <c r="Y779" s="1"/>
     </row>
-    <row r="780" spans="1:25" ht="13.2">
+    <row r="780" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -22951,7 +22952,7 @@
       <c r="X780" s="1"/>
       <c r="Y780" s="1"/>
     </row>
-    <row r="781" spans="1:25" ht="13.2">
+    <row r="781" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -22978,7 +22979,7 @@
       <c r="X781" s="1"/>
       <c r="Y781" s="1"/>
     </row>
-    <row r="782" spans="1:25" ht="13.2">
+    <row r="782" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -23005,7 +23006,7 @@
       <c r="X782" s="1"/>
       <c r="Y782" s="1"/>
     </row>
-    <row r="783" spans="1:25" ht="13.2">
+    <row r="783" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -23032,7 +23033,7 @@
       <c r="X783" s="1"/>
       <c r="Y783" s="1"/>
     </row>
-    <row r="784" spans="1:25" ht="13.2">
+    <row r="784" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -23059,7 +23060,7 @@
       <c r="X784" s="1"/>
       <c r="Y784" s="1"/>
     </row>
-    <row r="785" spans="1:25" ht="13.2">
+    <row r="785" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -23086,7 +23087,7 @@
       <c r="X785" s="1"/>
       <c r="Y785" s="1"/>
     </row>
-    <row r="786" spans="1:25" ht="13.2">
+    <row r="786" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -23113,7 +23114,7 @@
       <c r="X786" s="1"/>
       <c r="Y786" s="1"/>
     </row>
-    <row r="787" spans="1:25" ht="13.2">
+    <row r="787" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -23140,7 +23141,7 @@
       <c r="X787" s="1"/>
       <c r="Y787" s="1"/>
     </row>
-    <row r="788" spans="1:25" ht="13.2">
+    <row r="788" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -23167,7 +23168,7 @@
       <c r="X788" s="1"/>
       <c r="Y788" s="1"/>
     </row>
-    <row r="789" spans="1:25" ht="13.2">
+    <row r="789" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -23194,7 +23195,7 @@
       <c r="X789" s="1"/>
       <c r="Y789" s="1"/>
     </row>
-    <row r="790" spans="1:25" ht="13.2">
+    <row r="790" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -23221,7 +23222,7 @@
       <c r="X790" s="1"/>
       <c r="Y790" s="1"/>
     </row>
-    <row r="791" spans="1:25" ht="13.2">
+    <row r="791" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -23248,7 +23249,7 @@
       <c r="X791" s="1"/>
       <c r="Y791" s="1"/>
     </row>
-    <row r="792" spans="1:25" ht="13.2">
+    <row r="792" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -23275,7 +23276,7 @@
       <c r="X792" s="1"/>
       <c r="Y792" s="1"/>
     </row>
-    <row r="793" spans="1:25" ht="13.2">
+    <row r="793" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -23302,7 +23303,7 @@
       <c r="X793" s="1"/>
       <c r="Y793" s="1"/>
     </row>
-    <row r="794" spans="1:25" ht="13.2">
+    <row r="794" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -23329,7 +23330,7 @@
       <c r="X794" s="1"/>
       <c r="Y794" s="1"/>
     </row>
-    <row r="795" spans="1:25" ht="13.2">
+    <row r="795" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -23356,7 +23357,7 @@
       <c r="X795" s="1"/>
       <c r="Y795" s="1"/>
     </row>
-    <row r="796" spans="1:25" ht="13.2">
+    <row r="796" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -23383,7 +23384,7 @@
       <c r="X796" s="1"/>
       <c r="Y796" s="1"/>
     </row>
-    <row r="797" spans="1:25" ht="13.2">
+    <row r="797" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -23410,7 +23411,7 @@
       <c r="X797" s="1"/>
       <c r="Y797" s="1"/>
     </row>
-    <row r="798" spans="1:25" ht="13.2">
+    <row r="798" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -23437,7 +23438,7 @@
       <c r="X798" s="1"/>
       <c r="Y798" s="1"/>
     </row>
-    <row r="799" spans="1:25" ht="13.2">
+    <row r="799" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -23464,7 +23465,7 @@
       <c r="X799" s="1"/>
       <c r="Y799" s="1"/>
     </row>
-    <row r="800" spans="1:25" ht="13.2">
+    <row r="800" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -23491,7 +23492,7 @@
       <c r="X800" s="1"/>
       <c r="Y800" s="1"/>
     </row>
-    <row r="801" spans="1:25" ht="13.2">
+    <row r="801" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -23518,7 +23519,7 @@
       <c r="X801" s="1"/>
       <c r="Y801" s="1"/>
     </row>
-    <row r="802" spans="1:25" ht="13.2">
+    <row r="802" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -23545,7 +23546,7 @@
       <c r="X802" s="1"/>
       <c r="Y802" s="1"/>
     </row>
-    <row r="803" spans="1:25" ht="13.2">
+    <row r="803" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -23572,7 +23573,7 @@
       <c r="X803" s="1"/>
       <c r="Y803" s="1"/>
     </row>
-    <row r="804" spans="1:25" ht="13.2">
+    <row r="804" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -23599,7 +23600,7 @@
       <c r="X804" s="1"/>
       <c r="Y804" s="1"/>
     </row>
-    <row r="805" spans="1:25" ht="13.2">
+    <row r="805" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -23626,7 +23627,7 @@
       <c r="X805" s="1"/>
       <c r="Y805" s="1"/>
     </row>
-    <row r="806" spans="1:25" ht="13.2">
+    <row r="806" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -23653,7 +23654,7 @@
       <c r="X806" s="1"/>
       <c r="Y806" s="1"/>
     </row>
-    <row r="807" spans="1:25" ht="13.2">
+    <row r="807" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -23680,7 +23681,7 @@
       <c r="X807" s="1"/>
       <c r="Y807" s="1"/>
     </row>
-    <row r="808" spans="1:25" ht="13.2">
+    <row r="808" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -23707,7 +23708,7 @@
       <c r="X808" s="1"/>
       <c r="Y808" s="1"/>
     </row>
-    <row r="809" spans="1:25" ht="13.2">
+    <row r="809" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -23734,7 +23735,7 @@
       <c r="X809" s="1"/>
       <c r="Y809" s="1"/>
     </row>
-    <row r="810" spans="1:25" ht="13.2">
+    <row r="810" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -23761,7 +23762,7 @@
       <c r="X810" s="1"/>
       <c r="Y810" s="1"/>
     </row>
-    <row r="811" spans="1:25" ht="13.2">
+    <row r="811" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -23788,7 +23789,7 @@
       <c r="X811" s="1"/>
       <c r="Y811" s="1"/>
     </row>
-    <row r="812" spans="1:25" ht="13.2">
+    <row r="812" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -23815,7 +23816,7 @@
       <c r="X812" s="1"/>
       <c r="Y812" s="1"/>
     </row>
-    <row r="813" spans="1:25" ht="13.2">
+    <row r="813" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -23842,7 +23843,7 @@
       <c r="X813" s="1"/>
       <c r="Y813" s="1"/>
     </row>
-    <row r="814" spans="1:25" ht="13.2">
+    <row r="814" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -23869,7 +23870,7 @@
       <c r="X814" s="1"/>
       <c r="Y814" s="1"/>
     </row>
-    <row r="815" spans="1:25" ht="13.2">
+    <row r="815" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -23896,7 +23897,7 @@
       <c r="X815" s="1"/>
       <c r="Y815" s="1"/>
     </row>
-    <row r="816" spans="1:25" ht="13.2">
+    <row r="816" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -23923,7 +23924,7 @@
       <c r="X816" s="1"/>
       <c r="Y816" s="1"/>
     </row>
-    <row r="817" spans="1:25" ht="13.2">
+    <row r="817" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -23950,7 +23951,7 @@
       <c r="X817" s="1"/>
       <c r="Y817" s="1"/>
     </row>
-    <row r="818" spans="1:25" ht="13.2">
+    <row r="818" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -23977,7 +23978,7 @@
       <c r="X818" s="1"/>
       <c r="Y818" s="1"/>
     </row>
-    <row r="819" spans="1:25" ht="13.2">
+    <row r="819" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -24004,7 +24005,7 @@
       <c r="X819" s="1"/>
       <c r="Y819" s="1"/>
     </row>
-    <row r="820" spans="1:25" ht="13.2">
+    <row r="820" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -24031,7 +24032,7 @@
       <c r="X820" s="1"/>
       <c r="Y820" s="1"/>
     </row>
-    <row r="821" spans="1:25" ht="13.2">
+    <row r="821" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -24058,7 +24059,7 @@
       <c r="X821" s="1"/>
       <c r="Y821" s="1"/>
     </row>
-    <row r="822" spans="1:25" ht="13.2">
+    <row r="822" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -24085,7 +24086,7 @@
       <c r="X822" s="1"/>
       <c r="Y822" s="1"/>
     </row>
-    <row r="823" spans="1:25" ht="13.2">
+    <row r="823" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -24112,7 +24113,7 @@
       <c r="X823" s="1"/>
       <c r="Y823" s="1"/>
     </row>
-    <row r="824" spans="1:25" ht="13.2">
+    <row r="824" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -24139,7 +24140,7 @@
       <c r="X824" s="1"/>
       <c r="Y824" s="1"/>
     </row>
-    <row r="825" spans="1:25" ht="13.2">
+    <row r="825" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -24166,7 +24167,7 @@
       <c r="X825" s="1"/>
       <c r="Y825" s="1"/>
     </row>
-    <row r="826" spans="1:25" ht="13.2">
+    <row r="826" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -24193,7 +24194,7 @@
       <c r="X826" s="1"/>
       <c r="Y826" s="1"/>
     </row>
-    <row r="827" spans="1:25" ht="13.2">
+    <row r="827" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -24220,7 +24221,7 @@
       <c r="X827" s="1"/>
       <c r="Y827" s="1"/>
     </row>
-    <row r="828" spans="1:25" ht="13.2">
+    <row r="828" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -24247,7 +24248,7 @@
       <c r="X828" s="1"/>
       <c r="Y828" s="1"/>
     </row>
-    <row r="829" spans="1:25" ht="13.2">
+    <row r="829" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -24274,7 +24275,7 @@
       <c r="X829" s="1"/>
       <c r="Y829" s="1"/>
     </row>
-    <row r="830" spans="1:25" ht="13.2">
+    <row r="830" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -24301,7 +24302,7 @@
       <c r="X830" s="1"/>
       <c r="Y830" s="1"/>
     </row>
-    <row r="831" spans="1:25" ht="13.2">
+    <row r="831" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -24328,7 +24329,7 @@
       <c r="X831" s="1"/>
       <c r="Y831" s="1"/>
     </row>
-    <row r="832" spans="1:25" ht="13.2">
+    <row r="832" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -24355,7 +24356,7 @@
       <c r="X832" s="1"/>
       <c r="Y832" s="1"/>
     </row>
-    <row r="833" spans="1:25" ht="13.2">
+    <row r="833" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -24382,7 +24383,7 @@
       <c r="X833" s="1"/>
       <c r="Y833" s="1"/>
     </row>
-    <row r="834" spans="1:25" ht="13.2">
+    <row r="834" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -24409,7 +24410,7 @@
       <c r="X834" s="1"/>
       <c r="Y834" s="1"/>
     </row>
-    <row r="835" spans="1:25" ht="13.2">
+    <row r="835" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -24436,7 +24437,7 @@
       <c r="X835" s="1"/>
       <c r="Y835" s="1"/>
     </row>
-    <row r="836" spans="1:25" ht="13.2">
+    <row r="836" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -24463,7 +24464,7 @@
       <c r="X836" s="1"/>
       <c r="Y836" s="1"/>
     </row>
-    <row r="837" spans="1:25" ht="13.2">
+    <row r="837" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -24490,7 +24491,7 @@
       <c r="X837" s="1"/>
       <c r="Y837" s="1"/>
     </row>
-    <row r="838" spans="1:25" ht="13.2">
+    <row r="838" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -24517,7 +24518,7 @@
       <c r="X838" s="1"/>
       <c r="Y838" s="1"/>
     </row>
-    <row r="839" spans="1:25" ht="13.2">
+    <row r="839" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -24544,7 +24545,7 @@
       <c r="X839" s="1"/>
       <c r="Y839" s="1"/>
     </row>
-    <row r="840" spans="1:25" ht="13.2">
+    <row r="840" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -24571,7 +24572,7 @@
       <c r="X840" s="1"/>
       <c r="Y840" s="1"/>
     </row>
-    <row r="841" spans="1:25" ht="13.2">
+    <row r="841" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -24598,7 +24599,7 @@
       <c r="X841" s="1"/>
       <c r="Y841" s="1"/>
     </row>
-    <row r="842" spans="1:25" ht="13.2">
+    <row r="842" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -24625,7 +24626,7 @@
       <c r="X842" s="1"/>
       <c r="Y842" s="1"/>
     </row>
-    <row r="843" spans="1:25" ht="13.2">
+    <row r="843" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -24652,7 +24653,7 @@
       <c r="X843" s="1"/>
       <c r="Y843" s="1"/>
     </row>
-    <row r="844" spans="1:25" ht="13.2">
+    <row r="844" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -24679,7 +24680,7 @@
       <c r="X844" s="1"/>
       <c r="Y844" s="1"/>
     </row>
-    <row r="845" spans="1:25" ht="13.2">
+    <row r="845" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -24706,7 +24707,7 @@
       <c r="X845" s="1"/>
       <c r="Y845" s="1"/>
     </row>
-    <row r="846" spans="1:25" ht="13.2">
+    <row r="846" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -24733,7 +24734,7 @@
       <c r="X846" s="1"/>
       <c r="Y846" s="1"/>
     </row>
-    <row r="847" spans="1:25" ht="13.2">
+    <row r="847" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -24760,7 +24761,7 @@
       <c r="X847" s="1"/>
       <c r="Y847" s="1"/>
     </row>
-    <row r="848" spans="1:25" ht="13.2">
+    <row r="848" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -24787,7 +24788,7 @@
       <c r="X848" s="1"/>
       <c r="Y848" s="1"/>
     </row>
-    <row r="849" spans="1:25" ht="13.2">
+    <row r="849" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -24814,7 +24815,7 @@
       <c r="X849" s="1"/>
       <c r="Y849" s="1"/>
     </row>
-    <row r="850" spans="1:25" ht="13.2">
+    <row r="850" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -24841,7 +24842,7 @@
       <c r="X850" s="1"/>
       <c r="Y850" s="1"/>
     </row>
-    <row r="851" spans="1:25" ht="13.2">
+    <row r="851" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -24868,7 +24869,7 @@
       <c r="X851" s="1"/>
       <c r="Y851" s="1"/>
     </row>
-    <row r="852" spans="1:25" ht="13.2">
+    <row r="852" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -24895,7 +24896,7 @@
       <c r="X852" s="1"/>
       <c r="Y852" s="1"/>
     </row>
-    <row r="853" spans="1:25" ht="13.2">
+    <row r="853" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -24922,7 +24923,7 @@
       <c r="X853" s="1"/>
       <c r="Y853" s="1"/>
     </row>
-    <row r="854" spans="1:25" ht="13.2">
+    <row r="854" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -24949,7 +24950,7 @@
       <c r="X854" s="1"/>
       <c r="Y854" s="1"/>
     </row>
-    <row r="855" spans="1:25" ht="13.2">
+    <row r="855" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -24976,7 +24977,7 @@
       <c r="X855" s="1"/>
       <c r="Y855" s="1"/>
     </row>
-    <row r="856" spans="1:25" ht="13.2">
+    <row r="856" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -25003,7 +25004,7 @@
       <c r="X856" s="1"/>
       <c r="Y856" s="1"/>
     </row>
-    <row r="857" spans="1:25" ht="13.2">
+    <row r="857" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -25030,7 +25031,7 @@
       <c r="X857" s="1"/>
       <c r="Y857" s="1"/>
     </row>
-    <row r="858" spans="1:25" ht="13.2">
+    <row r="858" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -25057,7 +25058,7 @@
       <c r="X858" s="1"/>
       <c r="Y858" s="1"/>
     </row>
-    <row r="859" spans="1:25" ht="13.2">
+    <row r="859" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -25085,21 +25086,11 @@
       <c r="Y859" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A12:J65">
+  <autoFilter ref="A12:J65" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="J12:J13"/>
@@ -25116,6 +25107,16 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="B14:B65">
@@ -25169,25 +25170,25 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A63:A65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A63:A65" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"16/10/2023 - 20/10/2023,23/10/2023 - 27/10/2023,30/10/2023 - 03/11/2023,06/11/2023 - 10/11/2023,13/11/2023 - 17/11/2023"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A30:A62">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A30:A62" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"8/01/2024 - 12/01/2024,15/01/2024 - 19/01/2024,22/01/2024 - 26/01/2024,29/01/2024 - 2/02/2024,5/02/2024 - 09/02/2024"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="HORI EZIN DA SARTU" error="Hemen bakarrik EGINDA, PROZESUAN edo HASI GABE, jarri dezakezu." sqref="I14:I1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="HORI EZIN DA SARTU" error="Hemen bakarrik EGINDA, PROZESUAN edo HASI GABE, jarri dezakezu." sqref="I14:I1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"HASI GABE,PROZESUAN,EGINDA"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="B12:B65">
+    <dataValidation type="list" sqref="B12:B65" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"TALDEA:,APP:,ERP:,INTERFAZ:,DA:,ZERBITZU:,ENPRESA:,"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D14:D66">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D14:D66" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"ST,"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F14:F65 H14:H65">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H14:H65 F14:F65" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"ANDER,EBER,ST"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14:A29" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"8/01/2024 - 12/01/2024,15/01/2024 - 19/01/2024,22/01/2024 - 26/01/2024,29/01/2024 - 2/02/2024,5/02/2024 - 09/02/2024,08/01/2024 - 09/02/2024"</formula1>
     </dataValidation>
   </dataValidations>

--- a/8. Planifikazioa Egunerokoa/ST EGUNEROKOA.xlsx
+++ b/8. Planifikazioa Egunerokoa/ST EGUNEROKOA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaltamirapaag2\Desktop\ST_Erronka2\8. Planifikazioa Egunerokoa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EE593C-3F74-4039-A6EE-3FC9C0129B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ED5F20-3CE1-43F6-81AA-DFEC24CF2D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2580" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="70">
   <si>
     <t>ENTREGA</t>
   </si>
@@ -254,6 +254,21 @@
   </si>
   <si>
     <t>INTERFAZ: API-aren inplementazioa egitea</t>
+  </si>
+  <si>
+    <t>22/01/2024 - 26/01/2024</t>
+  </si>
+  <si>
+    <t>TALDEA: Erronkaren txostenarekin hasi</t>
+  </si>
+  <si>
+    <t>HASI GABE</t>
+  </si>
+  <si>
+    <t>TALDEA: Falta  zaizkigun puntuak zehaztu</t>
+  </si>
+  <si>
+    <t>DA: Web Zerbitzua konprobatu edo probatu</t>
   </si>
 </sst>
 </file>
@@ -984,41 +999,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1038,6 +1018,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1068,6 +1057,32 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1539,7 +1554,7 @@
   <dimension ref="A1:Y859"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1553,18 +1568,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
       <c r="G1" s="10"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="43" t="s">
         <v>32</v>
       </c>
       <c r="K1" s="1"/>
@@ -1584,18 +1599,18 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="1.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="59"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1613,16 +1628,16 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="60"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="45"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1667,17 +1682,17 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1696,21 +1711,21 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79" t="s">
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79" t="s">
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
       <c r="J6" s="19" t="s">
         <v>17</v>
       </c>
@@ -1731,21 +1746,21 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="52" t="s">
+      <c r="B7" s="75"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="52" t="s">
+      <c r="E7" s="75"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="27" t="s">
         <v>30</v>
       </c>
@@ -1766,19 +1781,19 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="55" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="79"/>
       <c r="J8" s="28" t="s">
         <v>31</v>
       </c>
@@ -1799,19 +1814,19 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="43" t="s">
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="29" t="s">
         <v>23</v>
       </c>
@@ -1838,11 +1853,11 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="65" t="s">
+      <c r="G10" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="8"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1888,30 +1903,30 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="70" t="s">
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="75" t="s">
+      <c r="H12" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="70" t="s">
+      <c r="I12" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="48" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="1"/>
@@ -1931,9 +1946,9 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A13" s="69"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="9" t="s">
         <v>4</v>
       </c>
@@ -1943,10 +1958,10 @@
       <c r="F13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="64"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="49"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2664,7 +2679,7 @@
         <v>26</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J33" s="15"/>
       <c r="K33" s="1"/>
@@ -2960,7 +2975,7 @@
         <v>26</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J41" s="18"/>
       <c r="K41" s="1"/>
@@ -3081,15 +3096,25 @@
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A45" s="17"/>
-      <c r="B45" s="33"/>
+      <c r="A45" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>66</v>
+      </c>
       <c r="C45" s="18"/>
-      <c r="D45" s="25"/>
+      <c r="D45" s="25" t="s">
+        <v>29</v>
+      </c>
       <c r="E45" s="26"/>
       <c r="F45" s="25"/>
       <c r="G45" s="18"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="8"/>
+      <c r="H45" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="J45" s="18"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -3108,15 +3133,25 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A46" s="17"/>
-      <c r="B46" s="33"/>
+      <c r="A46" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>68</v>
+      </c>
       <c r="C46" s="18"/>
-      <c r="D46" s="25"/>
+      <c r="D46" s="25" t="s">
+        <v>29</v>
+      </c>
       <c r="E46" s="26"/>
       <c r="F46" s="25"/>
       <c r="G46" s="18"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="8"/>
+      <c r="H46" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="J46" s="18"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -3135,15 +3170,25 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A47" s="17"/>
-      <c r="B47" s="33"/>
+      <c r="A47" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>69</v>
+      </c>
       <c r="C47" s="18"/>
-      <c r="D47" s="25"/>
+      <c r="D47" s="25" t="s">
+        <v>29</v>
+      </c>
       <c r="E47" s="26"/>
       <c r="F47" s="25"/>
       <c r="G47" s="18"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="8"/>
+      <c r="H47" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J47" s="18"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -25091,6 +25136,16 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="J12:J13"/>
@@ -25107,16 +25162,6 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="B14:B65">

--- a/8. Planifikazioa Egunerokoa/ST EGUNEROKOA.xlsx
+++ b/8. Planifikazioa Egunerokoa/ST EGUNEROKOA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaltamirapaag2\Desktop\ST_Erronka2\8. Planifikazioa Egunerokoa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ED5F20-3CE1-43F6-81AA-DFEC24CF2D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E06A78E-02E2-46B9-8ED3-15B4E266EF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2580" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="72">
   <si>
     <t>ENTREGA</t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t>DA: Web Zerbitzua konprobatu edo probatu</t>
+  </si>
+  <si>
+    <t>APP: Play Storera igo aplikazioa</t>
+  </si>
+  <si>
+    <t>ENPRESA: Enpresa promozioa egiteko bideoa</t>
   </si>
 </sst>
 </file>
@@ -999,6 +1005,41 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1018,15 +1059,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1057,32 +1089,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1553,8 +1559,8 @@
   </sheetPr>
   <dimension ref="A1:Y859"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1568,18 +1574,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
       <c r="G1" s="10"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="58" t="s">
         <v>32</v>
       </c>
       <c r="K1" s="1"/>
@@ -1599,18 +1605,18 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="34.799999999999997" x14ac:dyDescent="1.2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="44"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1628,16 +1634,16 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="45"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="60"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1682,17 +1688,17 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1711,21 +1717,21 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67" t="s">
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="67" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="65"/>
-      <c r="I6" s="66"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78"/>
       <c r="J6" s="19" t="s">
         <v>17</v>
       </c>
@@ -1746,21 +1752,21 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="74" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="74" t="s">
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="76"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
       <c r="J7" s="27" t="s">
         <v>30</v>
       </c>
@@ -1781,19 +1787,19 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="77" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="78"/>
-      <c r="I8" s="79"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
       <c r="J8" s="28" t="s">
         <v>31</v>
       </c>
@@ -1814,19 +1820,19 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="50" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="29" t="s">
         <v>23</v>
       </c>
@@ -1853,11 +1859,11 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="8"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1903,30 +1909,30 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="19.8" x14ac:dyDescent="0.7">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="58" t="s">
+      <c r="E12" s="73"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="48" t="s">
+      <c r="J12" s="63" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="1"/>
@@ -1946,9 +1952,9 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A13" s="57"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="9" t="s">
         <v>4</v>
       </c>
@@ -1958,10 +1964,10 @@
       <c r="F13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="49"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="64"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2790,7 +2796,7 @@
         <v>26</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J36" s="15"/>
       <c r="K36" s="1"/>
@@ -3187,7 +3193,7 @@
         <v>29</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J47" s="18"/>
       <c r="K47" s="1"/>
@@ -3207,15 +3213,25 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A48" s="17"/>
-      <c r="B48" s="33"/>
+      <c r="A48" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>70</v>
+      </c>
       <c r="C48" s="18"/>
-      <c r="D48" s="25"/>
+      <c r="D48" s="25" t="s">
+        <v>29</v>
+      </c>
       <c r="E48" s="26"/>
       <c r="F48" s="25"/>
       <c r="G48" s="18"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="8"/>
+      <c r="H48" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J48" s="18"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -3234,15 +3250,25 @@
       <c r="Y48" s="1"/>
     </row>
     <row r="49" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A49" s="17"/>
-      <c r="B49" s="33"/>
+      <c r="A49" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>71</v>
+      </c>
       <c r="C49" s="18"/>
-      <c r="D49" s="25"/>
+      <c r="D49" s="25" t="s">
+        <v>29</v>
+      </c>
       <c r="E49" s="26"/>
       <c r="F49" s="25"/>
       <c r="G49" s="18"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="8"/>
+      <c r="H49" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="J49" s="18"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -3261,7 +3287,9 @@
       <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:25" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A50" s="17"/>
+      <c r="A50" s="17" t="s">
+        <v>65</v>
+      </c>
       <c r="B50" s="33"/>
       <c r="C50" s="18"/>
       <c r="D50" s="25"/>
@@ -25136,16 +25164,6 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="J12:J13"/>
@@ -25162,6 +25180,16 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="B14:B65">

--- a/8. Planifikazioa Egunerokoa/ST EGUNEROKOA.xlsx
+++ b/8. Planifikazioa Egunerokoa/ST EGUNEROKOA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaltamirapaag2\Desktop\ST_Erronka2\8. Planifikazioa Egunerokoa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862E2D8B-B31E-4ED4-B489-40AF4361AFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1CF488-5DF2-4E7E-A285-AF18ED3F3162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2580" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="77">
   <si>
     <t>ENTREGA</t>
   </si>
@@ -275,6 +275,21 @@
   </si>
   <si>
     <t>ENPRESA: Enpresa promozioa egiteko bideoa</t>
+  </si>
+  <si>
+    <t>29/01/2024 - 2/02/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP: APPLE aplikazioa garatu eta  </t>
+  </si>
+  <si>
+    <t>APP: APPLE aplikazioarekin probak egin</t>
+  </si>
+  <si>
+    <t>ZERBITZU: Enpresako zerbitzuak piztute al dauden konprobatzen duen APPa</t>
+  </si>
+  <si>
+    <t>TALDEA: Erronkako txostena</t>
   </si>
 </sst>
 </file>
@@ -1005,6 +1020,41 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1024,15 +1074,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1063,32 +1104,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1559,8 +1574,8 @@
   </sheetPr>
   <dimension ref="B1:Z859"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D9"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1574,18 +1589,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
       <c r="H1" s="10"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="58" t="s">
         <v>32</v>
       </c>
       <c r="L1" s="1"/>
@@ -1605,18 +1620,18 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="2:26" ht="34.799999999999997" x14ac:dyDescent="1.2">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="44"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="59"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1634,16 +1649,16 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="2:26" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="45"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="60"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1688,17 +1703,17 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="2:26" ht="27" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
       <c r="K5" s="4"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1717,21 +1732,21 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="2:26" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="67" t="s">
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="67" t="s">
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="78"/>
       <c r="K6" s="19" t="s">
         <v>17</v>
       </c>
@@ -1752,21 +1767,21 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="2:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="74" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="74" t="s">
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="27" t="s">
         <v>30</v>
       </c>
@@ -1787,19 +1802,19 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="2:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="77" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="78"/>
-      <c r="J8" s="79"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="57"/>
       <c r="K8" s="28" t="s">
         <v>31</v>
       </c>
@@ -1820,19 +1835,19 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="2:26" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="50" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="52"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="45"/>
       <c r="K9" s="29" t="s">
         <v>23</v>
       </c>
@@ -1859,11 +1874,11 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="53" t="s">
+      <c r="H10" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="54"/>
-      <c r="J10" s="55"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="67"/>
       <c r="K10" s="8"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1909,30 +1924,30 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="2:26" ht="19.8" x14ac:dyDescent="0.7">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="58" t="s">
+      <c r="F12" s="73"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="63" t="s">
+      <c r="I12" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="58" t="s">
+      <c r="J12" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="48" t="s">
+      <c r="K12" s="63" t="s">
         <v>9</v>
       </c>
       <c r="L12" s="1"/>
@@ -1952,9 +1967,9 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="2:26" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B13" s="57"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
       <c r="E13" s="9" t="s">
         <v>4</v>
       </c>
@@ -1964,10 +1979,10 @@
       <c r="G13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="49"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="64"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -3119,7 +3134,7 @@
         <v>29</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="K45" s="18"/>
       <c r="L45" s="1"/>
@@ -3156,7 +3171,7 @@
         <v>29</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="K46" s="18"/>
       <c r="L46" s="1"/>
@@ -3230,7 +3245,7 @@
         <v>42</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K48" s="18"/>
       <c r="L48" s="1"/>
@@ -3287,17 +3302,15 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="2:26" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B50" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="8"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="35"/>
       <c r="K50" s="18"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -3316,15 +3329,25 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="2:26" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B51" s="17"/>
-      <c r="C51" s="33"/>
+      <c r="B51" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>73</v>
+      </c>
       <c r="D51" s="18"/>
       <c r="E51" s="25"/>
       <c r="F51" s="26"/>
-      <c r="G51" s="25"/>
+      <c r="G51" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="H51" s="18"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="8"/>
+      <c r="I51" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="K51" s="18"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -3343,15 +3366,25 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="2:26" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B52" s="17"/>
-      <c r="C52" s="33"/>
+      <c r="B52" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>74</v>
+      </c>
       <c r="D52" s="18"/>
       <c r="E52" s="25"/>
       <c r="F52" s="26"/>
-      <c r="G52" s="25"/>
+      <c r="G52" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="H52" s="18"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="8"/>
+      <c r="I52" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="K52" s="18"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -3370,15 +3403,25 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="2:26" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B53" s="17"/>
-      <c r="C53" s="33"/>
+      <c r="B53" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>75</v>
+      </c>
       <c r="D53" s="18"/>
-      <c r="E53" s="25"/>
+      <c r="E53" s="25" t="s">
+        <v>29</v>
+      </c>
       <c r="F53" s="26"/>
       <c r="G53" s="25"/>
       <c r="H53" s="18"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="8"/>
+      <c r="I53" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="K53" s="18"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -3397,15 +3440,25 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="2:26" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B54" s="17"/>
-      <c r="C54" s="33"/>
+      <c r="B54" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>76</v>
+      </c>
       <c r="D54" s="18"/>
       <c r="E54" s="25"/>
       <c r="F54" s="26"/>
-      <c r="G54" s="25"/>
+      <c r="G54" s="25" t="s">
+        <v>26</v>
+      </c>
       <c r="H54" s="18"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="8"/>
+      <c r="I54" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="K54" s="18"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -3424,7 +3477,9 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" spans="2:26" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B55" s="17"/>
+      <c r="B55" s="17" t="s">
+        <v>72</v>
+      </c>
       <c r="C55" s="33"/>
       <c r="D55" s="18"/>
       <c r="E55" s="25"/>
@@ -25164,16 +25219,6 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="K12:K13"/>
@@ -25190,6 +25235,16 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:J6"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="C14:C65">
@@ -25258,7 +25313,7 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E14:E66" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"ST,"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I14:I65 G14:G65" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G14:G65 I14:I65" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"ANDER,EBER,ST"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B29" xr:uid="{00000000-0002-0000-0000-000006000000}">

--- a/8. Planifikazioa Egunerokoa/ST EGUNEROKOA.xlsx
+++ b/8. Planifikazioa Egunerokoa/ST EGUNEROKOA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikaltamirapaag2\Desktop\ST_Erronka2\8. Planifikazioa Egunerokoa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1CF488-5DF2-4E7E-A285-AF18ED3F3162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98493C0-5AB1-4BCA-82F4-E636CF5AEA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2580" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="76">
   <si>
     <t>ENTREGA</t>
   </si>
@@ -260,9 +260,6 @@
   </si>
   <si>
     <t>TALDEA: Erronkaren txostenarekin hasi</t>
-  </si>
-  <si>
-    <t>HASI GABE</t>
   </si>
   <si>
     <t>TALDEA: Falta  zaizkigun puntuak zehaztu</t>
@@ -1020,41 +1017,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1074,6 +1036,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1104,6 +1075,32 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1238,9 +1235,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1844779</xdr:colOff>
+      <xdr:colOff>1848589</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>436806</xdr:rowOff>
+      <xdr:rowOff>440616</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1574,8 +1571,8 @@
   </sheetPr>
   <dimension ref="B1:Z859"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1589,18 +1586,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="10"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="43" t="s">
         <v>32</v>
       </c>
       <c r="L1" s="1"/>
@@ -1620,18 +1617,18 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="2:26" ht="34.799999999999997" x14ac:dyDescent="1.2">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="59"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="44"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1649,16 +1646,16 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="2:26" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="60"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1703,17 +1700,17 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="2:26" ht="27" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="4"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1732,21 +1729,21 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="2:26" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79" t="s">
+      <c r="F6" s="65"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
       <c r="K6" s="19" t="s">
         <v>17</v>
       </c>
@@ -1767,21 +1764,21 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="2:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="52" t="s">
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="52" t="s">
+      <c r="F7" s="75"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76"/>
       <c r="K7" s="27" t="s">
         <v>30</v>
       </c>
@@ -1802,19 +1799,19 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="2:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="55" t="s">
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="56"/>
-      <c r="J8" s="57"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="79"/>
       <c r="K8" s="28" t="s">
         <v>31</v>
       </c>
@@ -1835,19 +1832,19 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="2:26" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="43" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="45"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
       <c r="K9" s="29" t="s">
         <v>23</v>
       </c>
@@ -1874,11 +1871,11 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="65" t="s">
+      <c r="H10" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="66"/>
-      <c r="J10" s="67"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="55"/>
       <c r="K10" s="8"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1924,30 +1921,30 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="2:26" ht="19.8" x14ac:dyDescent="0.7">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="73"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="70" t="s">
+      <c r="F12" s="61"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="75" t="s">
+      <c r="I12" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="70" t="s">
+      <c r="J12" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="63" t="s">
+      <c r="K12" s="48" t="s">
         <v>9</v>
       </c>
       <c r="L12" s="1"/>
@@ -1967,9 +1964,9 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="2:26" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B13" s="69"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
       <c r="E13" s="9" t="s">
         <v>4</v>
       </c>
@@ -1979,10 +1976,10 @@
       <c r="G13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="64"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="49"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -2017,7 +2014,7 @@
         <v>29</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="1"/>
@@ -2054,7 +2051,7 @@
         <v>29</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="1"/>
@@ -2091,7 +2088,7 @@
         <v>29</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="1"/>
@@ -2128,7 +2125,7 @@
         <v>29</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="1"/>
@@ -3158,7 +3155,7 @@
         <v>65</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="25" t="s">
@@ -3195,7 +3192,7 @@
         <v>65</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="25" t="s">
@@ -3232,7 +3229,7 @@
         <v>65</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D48" s="18"/>
       <c r="E48" s="25" t="s">
@@ -3269,7 +3266,7 @@
         <v>65</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="25" t="s">
@@ -3282,7 +3279,7 @@
         <v>26</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="K49" s="18"/>
       <c r="L49" s="1"/>
@@ -3330,10 +3327,10 @@
     </row>
     <row r="51" spans="2:26" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B51" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="25"/>
@@ -3346,7 +3343,7 @@
         <v>42</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K51" s="18"/>
       <c r="L51" s="1"/>
@@ -3367,10 +3364,10 @@
     </row>
     <row r="52" spans="2:26" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B52" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="25"/>
@@ -3383,7 +3380,7 @@
         <v>42</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="K52" s="18"/>
       <c r="L52" s="1"/>
@@ -3404,10 +3401,10 @@
     </row>
     <row r="53" spans="2:26" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B53" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="25" t="s">
@@ -3420,7 +3417,7 @@
         <v>42</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K53" s="18"/>
       <c r="L53" s="1"/>
@@ -3441,10 +3438,10 @@
     </row>
     <row r="54" spans="2:26" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B54" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D54" s="18"/>
       <c r="E54" s="25"/>
@@ -3457,7 +3454,7 @@
         <v>26</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K54" s="18"/>
       <c r="L54" s="1"/>
@@ -3478,7 +3475,7 @@
     </row>
     <row r="55" spans="2:26" ht="19.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B55" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C55" s="33"/>
       <c r="D55" s="18"/>
@@ -25219,6 +25216,16 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="K12:K13"/>
@@ -25235,16 +25242,6 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:J6"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="C14:C65">
